--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -586,7 +586,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -634,6 +634,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,7 +646,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -691,6 +694,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2702774.6770976437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3094416.5845493269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,7 +739,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -781,6 +787,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +799,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,6 +847,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2403405.8214305816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2763969.1929088128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,7 +892,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -928,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,7 +952,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -985,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-299368.8556670621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-330447.39164051414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,11 +1024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503627776"/>
-        <c:axId val="503629696"/>
+        <c:axId val="80809344"/>
+        <c:axId val="81040512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503627776"/>
+        <c:axId val="80809344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,14 +1071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503629696"/>
+        <c:crossAx val="81040512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503629696"/>
+        <c:axId val="81040512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503627776"/>
+        <c:crossAx val="80809344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,7 +1288,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1318,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>338807.23397602042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391641.90745168331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,8 +1353,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="548791808"/>
-        <c:axId val="548790272"/>
+        <c:axId val="482734848"/>
+        <c:axId val="482733056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1358,7 +1379,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1406,6 +1427,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1439,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1463,6 +1487,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,11 +1506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548786944"/>
-        <c:axId val="548788480"/>
+        <c:axId val="482729984"/>
+        <c:axId val="482731520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548786944"/>
+        <c:axId val="482729984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,14 +1553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548788480"/>
+        <c:crossAx val="482731520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548788480"/>
+        <c:axId val="482731520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,12 +1611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548786944"/>
+        <c:crossAx val="482729984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548790272"/>
+        <c:axId val="482733056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,12 +1653,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548791808"/>
+        <c:crossAx val="482734848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="548791808"/>
+        <c:axId val="482734848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548790272"/>
+        <c:crossAx val="482733056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1789,7 +1816,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1837,6 +1864,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +1876,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1894,6 +1924,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5844433.8996156417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8279713.8412235472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,7 +1969,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1984,6 +2017,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +2029,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2041,6 +2077,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5381629.5730162067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7747319.4492304847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,7 +2122,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2131,6 +2170,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,7 +2182,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2188,6 +2230,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-462804.32659943495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-532394.39199306257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,11 +2254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550691584"/>
-        <c:axId val="550693120"/>
+        <c:axId val="602660864"/>
+        <c:axId val="602662400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550691584"/>
+        <c:axId val="602660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,14 +2301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550693120"/>
+        <c:crossAx val="602662400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550693120"/>
+        <c:axId val="602662400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550691584"/>
+        <c:crossAx val="602660864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2473,7 +2518,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2521,6 +2566,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1201936.7943407698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2435279.9416079051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,8 +2583,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="569259136"/>
-        <c:axId val="569253248"/>
+        <c:axId val="602771840"/>
+        <c:axId val="602765952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2561,7 +2609,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2609,6 +2657,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,7 +2669,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2666,6 +2717,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,11 +2736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569250176"/>
-        <c:axId val="569251712"/>
+        <c:axId val="602746240"/>
+        <c:axId val="602764416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569250176"/>
+        <c:axId val="602746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,14 +2783,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569251712"/>
+        <c:crossAx val="602764416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569251712"/>
+        <c:axId val="602764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,12 +2841,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569250176"/>
+        <c:crossAx val="602746240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="569253248"/>
+        <c:axId val="602765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,12 +2883,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569259136"/>
+        <c:crossAx val="602771840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="569259136"/>
+        <c:axId val="602771840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="569253248"/>
+        <c:crossAx val="602765952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,6 +2990,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2992,7 +3047,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3040,6 +3095,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,7 +3107,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3097,6 +3155,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>22487355.753114704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26387091.575158808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,7 +3200,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3187,6 +3248,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,7 +3260,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3244,6 +3308,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20439579.389013644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24075010.199536402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,7 +3353,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3334,6 +3401,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,7 +3413,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3391,6 +3461,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-2047776.3641010597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2312081.3756224066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,11 +3485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569283328"/>
-        <c:axId val="569284864"/>
+        <c:axId val="602791936"/>
+        <c:axId val="602793472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569283328"/>
+        <c:axId val="602791936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,14 +3532,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569284864"/>
+        <c:crossAx val="602793472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569284864"/>
+        <c:axId val="602793472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569283328"/>
+        <c:crossAx val="602791936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3531,6 +3604,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3676,7 +3750,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3724,6 +3798,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3137837.6086673411</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3899735.8220441043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,8 +3815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="570594432"/>
-        <c:axId val="570334592"/>
+        <c:axId val="618951040"/>
+        <c:axId val="618945152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3764,7 +3841,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3812,6 +3889,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,7 +3901,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3869,6 +3949,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,11 +3968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570331520"/>
-        <c:axId val="570333056"/>
+        <c:axId val="610450816"/>
+        <c:axId val="618943616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570331520"/>
+        <c:axId val="610450816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,14 +4015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570333056"/>
+        <c:crossAx val="618943616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570333056"/>
+        <c:axId val="618943616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3990,12 +4073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570331520"/>
+        <c:crossAx val="610450816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="570334592"/>
+        <c:axId val="618945152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,12 +4115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570594432"/>
+        <c:crossAx val="618951040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="570594432"/>
+        <c:axId val="618951040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4046,7 +4129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="570334592"/>
+        <c:crossAx val="618945152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4177,7 +4260,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4225,6 +4308,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>338807.23397602042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391641.90745168331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4239,8 +4325,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550644352"/>
-        <c:axId val="550642816"/>
+        <c:axId val="386527616"/>
+        <c:axId val="108182912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4265,7 +4351,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4313,6 +4399,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,7 +4411,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4370,6 +4459,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,11 +4478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537368064"/>
-        <c:axId val="537369600"/>
+        <c:axId val="108179456"/>
+        <c:axId val="108180992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537368064"/>
+        <c:axId val="108179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,14 +4525,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537369600"/>
+        <c:crossAx val="108180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537369600"/>
+        <c:axId val="108180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,12 +4583,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537368064"/>
+        <c:crossAx val="108179456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550642816"/>
+        <c:axId val="108182912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4533,12 +4625,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550644352"/>
+        <c:crossAx val="386527616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550644352"/>
+        <c:axId val="386527616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550642816"/>
+        <c:crossAx val="108182912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4696,7 +4788,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4744,6 +4836,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,7 +4848,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4801,6 +4896,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4284071.4540087581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4675713.3614604417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,7 +4941,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4891,6 +4989,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,7 +5001,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4948,6 +5049,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3807677.9214338777</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4150082.5947067062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,7 +5094,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5038,6 +5142,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5047,7 +5154,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5095,6 +5202,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-476393.5325748804</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-525630.76675373549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,11 +5226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="674003968"/>
-        <c:axId val="674167040"/>
+        <c:axId val="602631168"/>
+        <c:axId val="621073536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="674003968"/>
+        <c:axId val="602631168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5163,14 +5273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674167040"/>
+        <c:crossAx val="621073536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="674167040"/>
+        <c:axId val="621073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5221,7 +5331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674003968"/>
+        <c:crossAx val="602631168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5389,7 +5499,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5437,6 +5547,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>321866.87227721937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391641.90745168331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5451,8 +5564,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503441664"/>
-        <c:axId val="503440128"/>
+        <c:axId val="76936704"/>
+        <c:axId val="76935168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5477,7 +5590,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5525,6 +5638,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5534,7 +5650,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5582,6 +5698,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5598,11 +5717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675785728"/>
-        <c:axId val="675818496"/>
+        <c:axId val="76927744"/>
+        <c:axId val="76929280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="675785728"/>
+        <c:axId val="76927744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5645,14 +5764,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675818496"/>
+        <c:crossAx val="76929280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="675818496"/>
+        <c:axId val="76929280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5703,12 +5822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675785728"/>
+        <c:crossAx val="76927744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503440128"/>
+        <c:axId val="76935168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,12 +5864,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503441664"/>
+        <c:crossAx val="76936704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503441664"/>
+        <c:axId val="76936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,7 +5878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503440128"/>
+        <c:crossAx val="76935168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5908,7 +6027,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5956,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,7 +6087,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6013,6 +6135,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>36422806.712393463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40322542.534437567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,7 +6180,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6103,6 +6228,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6112,7 +6240,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6160,6 +6288,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>33089368.802103221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36561224.684153311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6202,7 +6333,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6250,6 +6381,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,7 +6393,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6307,6 +6441,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-3333437.9102902412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3761317.850284256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,11 +6465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520635904"/>
-        <c:axId val="520637440"/>
+        <c:axId val="80855808"/>
+        <c:axId val="80857344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520635904"/>
+        <c:axId val="80855808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6375,14 +6512,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520637440"/>
+        <c:crossAx val="80857344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520637440"/>
+        <c:axId val="80857344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +6570,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520635904"/>
+        <c:crossAx val="80855808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6601,7 +6738,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6649,6 +6786,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2980945.728233974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3899735.8220441043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6663,8 +6803,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525752960"/>
-        <c:axId val="525751424"/>
+        <c:axId val="81016320"/>
+        <c:axId val="81014784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6689,7 +6829,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6737,6 +6877,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6746,7 +6889,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6794,6 +6937,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6810,11 +6956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525739904"/>
-        <c:axId val="525741440"/>
+        <c:axId val="81007360"/>
+        <c:axId val="81008896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525739904"/>
+        <c:axId val="81007360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,14 +7003,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525741440"/>
+        <c:crossAx val="81008896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525741440"/>
+        <c:axId val="81008896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,12 +7061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525739904"/>
+        <c:crossAx val="81007360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525751424"/>
+        <c:axId val="81014784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6957,12 +7103,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525752960"/>
+        <c:crossAx val="81016320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525752960"/>
+        <c:axId val="81016320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6971,7 +7117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525751424"/>
+        <c:crossAx val="81014784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7120,7 +7266,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7168,6 +7314,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7177,7 +7326,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7225,6 +7374,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1285419.4276139876</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1624509.0397366071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7267,7 +7419,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7315,6 +7467,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7324,7 +7479,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7372,6 +7527,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1181998.5669373057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1505803.7087238817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7414,7 +7572,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7462,6 +7620,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7471,7 +7632,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7519,6 +7680,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-103420.86067668186</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-118705.33101272536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7540,11 +7704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537376256"/>
-        <c:axId val="537377792"/>
+        <c:axId val="386478848"/>
+        <c:axId val="386480384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537376256"/>
+        <c:axId val="386478848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7587,14 +7751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537377792"/>
+        <c:crossAx val="386480384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537377792"/>
+        <c:axId val="386480384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7645,7 +7809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537376256"/>
+        <c:crossAx val="386478848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7804,7 +7968,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7852,6 +8016,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>158990.37342862081</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>339089.61212261964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7866,8 +8033,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="548738944"/>
-        <c:axId val="548737408"/>
+        <c:axId val="386524288"/>
+        <c:axId val="386514304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7892,7 +8059,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7940,6 +8107,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7949,7 +8119,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7997,6 +8167,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8013,11 +8186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537388160"/>
-        <c:axId val="537389696"/>
+        <c:axId val="386511232"/>
+        <c:axId val="386512768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537388160"/>
+        <c:axId val="386511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8060,14 +8233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537389696"/>
+        <c:crossAx val="386512768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537389696"/>
+        <c:axId val="386512768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8118,12 +8291,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537388160"/>
+        <c:crossAx val="386511232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548737408"/>
+        <c:axId val="386514304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8160,12 +8333,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548738944"/>
+        <c:crossAx val="386524288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="548738944"/>
+        <c:axId val="386524288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8174,7 +8347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548737408"/>
+        <c:crossAx val="386514304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8323,7 +8496,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8371,6 +8544,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8380,7 +8556,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8428,6 +8604,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2762578.3408736358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3154220.248325319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,7 +8649,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8518,6 +8697,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8527,7 +8709,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8575,6 +8757,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2455960.5550365578</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2815844.3391707027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8617,7 +8802,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8665,6 +8850,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8674,7 +8862,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8722,6 +8910,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-306617.785837078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-338375.9091546163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8743,11 +8934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548775040"/>
-        <c:axId val="548776576"/>
+        <c:axId val="482697600"/>
+        <c:axId val="482699136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548775040"/>
+        <c:axId val="482697600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8790,14 +8981,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548776576"/>
+        <c:crossAx val="482699136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548776576"/>
+        <c:axId val="482699136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8848,7 +9039,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548775040"/>
+        <c:crossAx val="482697600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18875,6 +19066,35 @@
             <v>5450893.8736538459</v>
           </cell>
         </row>
+        <row r="328">
+          <cell r="A328">
+            <v>44865</v>
+          </cell>
+          <cell r="B328">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="C328">
+            <v>0.69199997186660767</v>
+          </cell>
+          <cell r="D328">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E328">
+            <v>0.68699997663497925</v>
+          </cell>
+          <cell r="F328">
+            <v>3400007.75</v>
+          </cell>
+          <cell r="G328">
+            <v>2326.47412109375</v>
+          </cell>
+          <cell r="H328">
+            <v>326</v>
+          </cell>
+          <cell r="I328">
+            <v>5444602.8119248468</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -23122,6 +23342,196 @@
           </cell>
           <cell r="D367">
             <v>32.601424623862997</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v xml:space="preserve">2022/10/10
+</v>
+          </cell>
+          <cell r="C368">
+            <v>22.040000920000001</v>
+          </cell>
+          <cell r="D368">
+            <v>32.57256827494534</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v xml:space="preserve">2022/10/11
+</v>
+          </cell>
+          <cell r="C369">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D369">
+            <v>32.544414137329682</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v xml:space="preserve">2022/10/12
+</v>
+          </cell>
+          <cell r="C370">
+            <v>22.920000080000001</v>
+          </cell>
+          <cell r="D370">
+            <v>32.518260838260851</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v xml:space="preserve">2022/10/13
+</v>
+          </cell>
+          <cell r="C371">
+            <v>22.850000380000001</v>
+          </cell>
+          <cell r="D371">
+            <v>32.492059590406484</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v xml:space="preserve">2022/10/14
+</v>
+          </cell>
+          <cell r="C372">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D372">
+            <v>32.468162131027007</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v xml:space="preserve">2022/10/17
+</v>
+          </cell>
+          <cell r="C373">
+            <v>23.719999309999999</v>
+          </cell>
+          <cell r="D373">
+            <v>32.444582177331519</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v xml:space="preserve">2022/10/18
+</v>
+          </cell>
+          <cell r="C374">
+            <v>23.850000380000001</v>
+          </cell>
+          <cell r="D374">
+            <v>32.421478462822563</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v xml:space="preserve">2022/10/19
+</v>
+          </cell>
+          <cell r="C375">
+            <v>23.590000150000002</v>
+          </cell>
+          <cell r="D375">
+            <v>32.39780157726539</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v xml:space="preserve">2022/10/20
+</v>
+          </cell>
+          <cell r="C376">
+            <v>23.399999619999999</v>
+          </cell>
+          <cell r="D376">
+            <v>32.373743283262009</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v xml:space="preserve">2022/10/21
+</v>
+          </cell>
+          <cell r="C377">
+            <v>23.340000150000002</v>
+          </cell>
+          <cell r="D377">
+            <v>32.349653301573312</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v xml:space="preserve">2022/10/24
+</v>
+          </cell>
+          <cell r="C378">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D378">
+            <v>32.324335074494662</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v xml:space="preserve">2022/10/25
+</v>
+          </cell>
+          <cell r="C379">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D379">
+            <v>32.298912434429688</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v xml:space="preserve">2022/10/26
+</v>
+          </cell>
+          <cell r="C380">
+            <v>23.18000031</v>
+          </cell>
+          <cell r="D380">
+            <v>32.274788328280401</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v xml:space="preserve">2022/10/27
+</v>
+          </cell>
+          <cell r="C381">
+            <v>22.959999079999999</v>
+          </cell>
+          <cell r="D381">
+            <v>32.250211047941931</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>44862</v>
+          </cell>
+          <cell r="C382">
+            <v>22.13999939</v>
+          </cell>
+          <cell r="D382">
+            <v>32.223605227789449</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>44865</v>
+          </cell>
+          <cell r="C383">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D383">
+            <v>32.197401538923856</v>
           </cell>
         </row>
       </sheetData>
@@ -27508,7 +27918,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27626,31 +28036,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G18" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G19" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:H18" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I18" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I19" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" ref="J3:J18" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K18" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="29">
-        <f t="shared" ref="L3:L18" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L19" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="27"/>
@@ -27696,7 +28106,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="29">
-        <f t="shared" ref="E4:E18" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E19" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="30">
@@ -28499,6 +28909,55 @@
         <v>0</v>
       </c>
       <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="31">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="29">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="7"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>570075.57608662441</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="1"/>
+        <v>4023244.9591150144</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="2"/>
+        <v>2763969.1929088128</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" si="3"/>
+        <v>3094416.5845493269</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="4"/>
+        <v>2763969.1929088128</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="5"/>
+        <v>-330447.39164051414</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28516,7 +28975,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28645,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -28653,7 +29112,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -28661,11 +29120,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -28723,7 +29182,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G18" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -28731,7 +29190,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I18" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -28743,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L18" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -28816,7 +29275,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E18" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
+        <f t="shared" ref="E5:E19" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
         <v>52777.576044247049</v>
       </c>
       <c r="F5" s="18">
@@ -28934,7 +29393,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P18" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P19" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -29738,6 +30197,71 @@
       <c r="P18" s="1">
         <f t="shared" si="9"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="8"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>570075.57608662441</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="4"/>
+        <v>6040877.3447626354</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="1"/>
+        <v>4150082.5947067062</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="5"/>
+        <v>4675713.3614604417</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="2"/>
+        <v>4150082.5947067062</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
+        <v>-525630.76675373549</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.2904999921189547E-2</v>
+      </c>
+      <c r="N19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>5.2021540741810528E-2</v>
+      </c>
+      <c r="O19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>24.80703135118333</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29756,7 +30280,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29885,7 +30409,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -29893,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -29901,11 +30425,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -29963,7 +30487,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G18" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -29971,7 +30495,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I18" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -29983,7 +30507,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L18" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -30056,7 +30580,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E18" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
+        <f t="shared" ref="E5:E19" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
         <v>136414.52483783176</v>
       </c>
       <c r="F5" s="18">
@@ -30174,7 +30698,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P18" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P19" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -30978,6 +31502,71 @@
       <c r="P18" s="1">
         <f t="shared" si="9"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="8"/>
+        <v>3899735.8220441043</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>5676471.5497452402</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="4"/>
+        <v>53218669.472501643</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="1"/>
+        <v>36561224.684153311</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="5"/>
+        <v>40322542.534437567</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="2"/>
+        <v>36561224.684153311</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
+        <v>-3761317.850284256</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.2904999921189547E-2</v>
+      </c>
+      <c r="N19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>5.2021540741810528E-2</v>
+      </c>
+      <c r="O19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>24.80703135118333</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -30996,7 +31585,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31143,7 +31732,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H18" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H19" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -31151,7 +31740,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J19" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -31159,11 +31748,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L18" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L19" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M18" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M19" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -31231,7 +31820,7 @@
         <v>146.12645884219521</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I18" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I19" si="4">I3+H4</f>
         <v>146.12645884219521</v>
       </c>
       <c r="J4" s="18">
@@ -31239,7 +31828,7 @@
         <v>147.00321759524837</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K18" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K19" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>147.00321759524837</v>
       </c>
       <c r="L4" s="18">
@@ -31251,7 +31840,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N18" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N19" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="22">
@@ -31332,7 +31921,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G18" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
+        <f t="shared" ref="G5:G19" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
         <v>3941.4049128625688</v>
       </c>
       <c r="H5" s="18">
@@ -31376,7 +31965,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R18" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
+        <f t="shared" ref="R5:R19" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="AB5" s="6"/>
@@ -32358,6 +32947,79 @@
       <c r="R18" s="1">
         <f t="shared" si="9"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>3400007.75</v>
+      </c>
+      <c r="F19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5444602.8119248468</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="8"/>
+        <v>339089.61212261964</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>493580.23821707739</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="4"/>
+        <v>2191854.0901551647</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="1"/>
+        <v>1505803.7087238817</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="5"/>
+        <v>1624509.0397366071</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="2"/>
+        <v>1505803.7087238817</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="3"/>
+        <v>-118705.33101272536</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.2904999921189547E-2</v>
+      </c>
+      <c r="P19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>5.2021540741810528E-2</v>
+      </c>
+      <c r="Q19" s="22">
+        <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>24.80703135118333</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -32376,7 +33038,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32510,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -32518,7 +33180,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -32526,11 +33188,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -32599,7 +33261,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E18" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
+        <f t="shared" ref="E4:E19" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="18">
@@ -32607,7 +33269,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G18" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -32615,7 +33277,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I18" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -32627,7 +33289,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L18" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
@@ -32647,7 +33309,7 @@
         <v>64.221158958000927</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q18" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
+        <f t="shared" ref="Q4:Q19" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
         <v>1</v>
       </c>
       <c r="S4" s="42">
@@ -33684,6 +34346,75 @@
         <v>18.181668685899815</v>
       </c>
       <c r="Q18" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="4"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>570075.57608662441</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="5"/>
+        <v>4098754.63600901</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="1"/>
+        <v>2815844.3391707027</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="6"/>
+        <v>3154220.248325319</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="2"/>
+        <v>2815844.3391707027</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
+        <v>-338375.9091546163</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>12.280700225591376</v>
+      </c>
+      <c r="N19" s="21">
+        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>25.686750595362994</v>
+      </c>
+      <c r="O19" s="21">
+        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>29.439291550094584</v>
+      </c>
+      <c r="P19" s="21">
+        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>18.181668685899815</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -33704,7 +34435,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33839,7 +34570,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H18" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H19" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -33847,7 +34578,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J19" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -33855,11 +34586,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L18" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L19" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M18" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M19" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -33917,7 +34648,7 @@
         <v>34298297.880000003</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G18" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
+        <f t="shared" ref="G4:G19" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="H4" s="18">
@@ -33925,7 +34656,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I18" si="5">I3+H4</f>
+        <f t="shared" ref="I4:I19" si="5">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="18">
@@ -33933,7 +34664,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K18" si="6">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K19" si="6">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="18">
@@ -33945,7 +34676,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N18" si="7">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N19" si="7">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="7"/>
@@ -34832,6 +35563,63 @@
         <v>0</v>
       </c>
       <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>3400007.75</v>
+      </c>
+      <c r="F19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5444602.8119248468</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="4"/>
+        <v>2435279.9416079051</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>3544803.529013556</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="5"/>
+        <v>11277030.149517508</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="1"/>
+        <v>7747319.4492304847</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="6"/>
+        <v>8279713.8412235472</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="2"/>
+        <v>7747319.4492304847</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="3"/>
+        <v>-532394.39199306257</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34849,7 +35637,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34967,7 +35755,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -34975,7 +35763,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -34983,11 +35771,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -35037,7 +35825,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E18" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
+        <f t="shared" ref="E4:E19" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="F4" s="18">
@@ -35045,7 +35833,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G18" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="5">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -35053,7 +35841,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I18" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -35065,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L18" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="7"/>
@@ -35841,6 +36629,55 @@
       </c>
       <c r="M18" s="7"/>
     </row>
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="31">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="4"/>
+        <v>3899735.8220441043</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>5676471.5497452402</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="5"/>
+        <v>35043684.160600886</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="1"/>
+        <v>24075010.199536402</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="6"/>
+        <v>26387091.575158808</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="2"/>
+        <v>24075010.199536402</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
+        <v>-2312081.3756224066</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -586,7 +586,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -637,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +649,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -697,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3094416.5845493269</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3405393.8463527663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,7 +745,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -790,6 +796,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +808,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -850,6 +859,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2763969.1929088128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3207713.7474722113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +904,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -943,6 +955,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +967,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1003,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-330447.39164051414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-197680.09888055502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +1042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80809344"/>
-        <c:axId val="81040512"/>
+        <c:axId val="98634368"/>
+        <c:axId val="176656768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80809344"/>
+        <c:axId val="98634368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,14 +1089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81040512"/>
+        <c:crossAx val="176656768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81040512"/>
+        <c:axId val="176656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80809344"/>
+        <c:crossAx val="98634368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,7 +1306,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1339,6 +1357,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>391641.90745168331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,8 +1374,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482734848"/>
-        <c:axId val="482733056"/>
+        <c:axId val="75725056"/>
+        <c:axId val="75723520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1379,7 +1400,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1430,6 +1451,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1463,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1490,6 +1514,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,11 +1533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482729984"/>
-        <c:axId val="482731520"/>
+        <c:axId val="75720192"/>
+        <c:axId val="75721728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482729984"/>
+        <c:axId val="75720192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,14 +1580,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482731520"/>
+        <c:crossAx val="75721728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482731520"/>
+        <c:axId val="75721728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,12 +1638,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482729984"/>
+        <c:crossAx val="75720192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482733056"/>
+        <c:axId val="75723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,12 +1680,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482734848"/>
+        <c:crossAx val="75725056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482734848"/>
+        <c:axId val="75725056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482733056"/>
+        <c:crossAx val="75723520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1760,6 +1787,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1816,7 +1844,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1867,6 +1895,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,7 +1907,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1927,6 +1958,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8279713.8412235472</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9593036.9008786529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,7 +2003,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2020,6 +2054,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,7 +2066,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2080,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>7747319.4492304847</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9432785.0899461322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,7 +2162,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2173,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,7 +2225,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2233,6 +2276,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-532394.39199306257</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-160251.81093252078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,11 +2300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602660864"/>
-        <c:axId val="602662400"/>
+        <c:axId val="75851264"/>
+        <c:axId val="75852800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602660864"/>
+        <c:axId val="75851264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,14 +2347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602662400"/>
+        <c:crossAx val="75852800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602662400"/>
+        <c:axId val="75852800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2405,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602660864"/>
+        <c:crossAx val="75851264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2373,6 +2419,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2518,7 +2565,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2569,6 +2616,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2435279.9416079051</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1313323.0596551057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2583,8 +2633,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="602771840"/>
-        <c:axId val="602765952"/>
+        <c:axId val="75884416"/>
+        <c:axId val="75882880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2609,7 +2659,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2660,6 +2710,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,7 +2722,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2720,6 +2773,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,11 +2792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602746240"/>
-        <c:axId val="602764416"/>
+        <c:axId val="75871360"/>
+        <c:axId val="75872896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602746240"/>
+        <c:axId val="75871360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,14 +2839,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602764416"/>
+        <c:crossAx val="75872896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602764416"/>
+        <c:axId val="75872896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,12 +2897,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602746240"/>
+        <c:crossAx val="75871360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="602765952"/>
+        <c:axId val="75882880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,12 +2939,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602771840"/>
+        <c:crossAx val="75884416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="602771840"/>
+        <c:axId val="75884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +2953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602765952"/>
+        <c:crossAx val="75882880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3047,7 +3103,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3098,6 +3154,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3166,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3158,6 +3217,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>26387091.575158808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29146362.883250281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,7 +3262,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3251,6 +3313,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,7 +3325,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3311,6 +3376,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>24075010.199536402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27990724.906331956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3353,7 +3421,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3404,6 +3472,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,7 +3484,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3464,6 +3535,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-2312081.3756224066</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1155637.9769183248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,11 +3559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602791936"/>
-        <c:axId val="602793472"/>
+        <c:axId val="77776384"/>
+        <c:axId val="77777920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602791936"/>
+        <c:axId val="77776384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,14 +3606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602793472"/>
+        <c:crossAx val="77777920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602793472"/>
+        <c:axId val="77777920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3590,7 +3664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602791936"/>
+        <c:crossAx val="77776384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3750,7 +3824,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3801,6 +3875,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3899735.8220441043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2759271.3080914733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,8 +3892,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618951040"/>
-        <c:axId val="618945152"/>
+        <c:axId val="88328064"/>
+        <c:axId val="88326528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3841,7 +3918,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3892,6 +3969,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3901,7 +3981,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3952,6 +4032,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,11 +4051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610450816"/>
-        <c:axId val="618943616"/>
+        <c:axId val="88302720"/>
+        <c:axId val="88304256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610450816"/>
+        <c:axId val="88302720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,14 +4098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618943616"/>
+        <c:crossAx val="88304256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618943616"/>
+        <c:axId val="88304256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,12 +4156,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610450816"/>
+        <c:crossAx val="88302720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618945152"/>
+        <c:axId val="88326528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,12 +4198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618951040"/>
+        <c:crossAx val="88328064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618951040"/>
+        <c:axId val="88328064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618945152"/>
+        <c:crossAx val="88326528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4260,7 +4343,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4311,6 +4394,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>391641.90745168331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,8 +4411,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="386527616"/>
-        <c:axId val="108182912"/>
+        <c:axId val="536020864"/>
+        <c:axId val="535956096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4351,7 +4437,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4402,6 +4488,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,7 +4500,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4462,6 +4551,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4478,11 +4570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108179456"/>
-        <c:axId val="108180992"/>
+        <c:axId val="490882944"/>
+        <c:axId val="535954560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108179456"/>
+        <c:axId val="490882944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4525,14 +4617,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108180992"/>
+        <c:crossAx val="535954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108180992"/>
+        <c:axId val="535954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,12 +4675,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108179456"/>
+        <c:crossAx val="490882944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108182912"/>
+        <c:axId val="535956096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,12 +4717,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386527616"/>
+        <c:crossAx val="536020864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="386527616"/>
+        <c:axId val="536020864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4639,7 +4731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108182912"/>
+        <c:crossAx val="535956096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4788,7 +4880,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4839,6 +4931,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,7 +4943,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4899,6 +4994,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4675713.3614604417</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4986690.6232638806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4941,7 +5039,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4992,6 +5090,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5001,7 +5102,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5052,6 +5153,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4150082.5947067062</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4660409.122863424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,7 +5198,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5145,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,7 +5261,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5205,6 +5312,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-525630.76675373549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-326281.5004004566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5226,11 +5336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602631168"/>
-        <c:axId val="621073536"/>
+        <c:axId val="567310592"/>
+        <c:axId val="50487296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602631168"/>
+        <c:axId val="567310592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5273,14 +5383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621073536"/>
+        <c:crossAx val="50487296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="621073536"/>
+        <c:axId val="50487296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5331,7 +5441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602631168"/>
+        <c:crossAx val="567310592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5499,7 +5609,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5550,6 +5660,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>391641.90745168331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,8 +5677,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76936704"/>
-        <c:axId val="76935168"/>
+        <c:axId val="50506752"/>
+        <c:axId val="50505216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5590,7 +5703,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5641,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5650,7 +5766,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5701,6 +5817,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5717,11 +5836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76927744"/>
-        <c:axId val="76929280"/>
+        <c:axId val="50501888"/>
+        <c:axId val="50503680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76927744"/>
+        <c:axId val="50501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5764,14 +5883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76929280"/>
+        <c:crossAx val="50503680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76929280"/>
+        <c:axId val="50503680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5822,12 +5941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76927744"/>
+        <c:crossAx val="50501888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76935168"/>
+        <c:axId val="50505216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5864,12 +5983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76936704"/>
+        <c:crossAx val="50506752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="76936704"/>
+        <c:axId val="50506752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5878,7 +5997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76935168"/>
+        <c:crossAx val="50505216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6027,7 +6146,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6078,6 +6197,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,7 +6209,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6138,6 +6260,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>40322542.534437567</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43081813.842529044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6180,7 +6305,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6231,6 +6356,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,7 +6368,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6291,6 +6419,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>36561224.684153311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41076714.850891002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6333,7 +6464,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6384,6 +6515,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6393,7 +6527,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6444,6 +6578,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-3761317.850284256</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2005098.991638042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6465,11 +6602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80855808"/>
-        <c:axId val="80857344"/>
+        <c:axId val="56174848"/>
+        <c:axId val="56262656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80855808"/>
+        <c:axId val="56174848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,14 +6649,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80857344"/>
+        <c:crossAx val="56262656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80857344"/>
+        <c:axId val="56262656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,7 +6707,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80855808"/>
+        <c:crossAx val="56174848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6738,7 +6875,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6789,6 +6926,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3899735.8220441043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2759271.3080914733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6803,8 +6943,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81016320"/>
-        <c:axId val="81014784"/>
+        <c:axId val="69422464"/>
+        <c:axId val="69420928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6829,7 +6969,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6880,6 +7020,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6889,7 +7032,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6940,6 +7083,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,11 +7102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81007360"/>
-        <c:axId val="81008896"/>
+        <c:axId val="69413504"/>
+        <c:axId val="69419392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="81007360"/>
+        <c:axId val="69413504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7003,14 +7149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81008896"/>
+        <c:crossAx val="69419392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81008896"/>
+        <c:axId val="69419392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7061,12 +7207,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81007360"/>
+        <c:crossAx val="69413504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81014784"/>
+        <c:axId val="69420928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7103,12 +7249,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81016320"/>
+        <c:crossAx val="69422464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81016320"/>
+        <c:axId val="69422464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7117,7 +7263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81014784"/>
+        <c:crossAx val="69420928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7210,6 +7356,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7266,7 +7413,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7317,6 +7464,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7326,7 +7476,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7377,6 +7527,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1624509.0397366071</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1807376.8075366851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7419,7 +7572,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7470,6 +7623,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7479,7 +7635,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7530,6 +7686,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1505803.7087238817</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1761002.7754212453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,7 +7731,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7623,6 +7782,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,7 +7794,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7683,6 +7845,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-118705.33101272536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-46374.032115439884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7704,11 +7869,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="386478848"/>
-        <c:axId val="386480384"/>
+        <c:axId val="75639424"/>
+        <c:axId val="75649408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="386478848"/>
+        <c:axId val="75639424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7751,14 +7916,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386480384"/>
+        <c:crossAx val="75649408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="386480384"/>
+        <c:axId val="75649408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7809,7 +7974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386478848"/>
+        <c:crossAx val="75639424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7823,6 +7988,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7968,7 +8134,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8019,6 +8185,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>339089.61212261964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>182867.767800078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8033,8 +8202,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="386524288"/>
-        <c:axId val="386514304"/>
+        <c:axId val="75672576"/>
+        <c:axId val="75671040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8059,7 +8228,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8110,6 +8279,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8119,7 +8291,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8170,6 +8342,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8186,11 +8361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="386511232"/>
-        <c:axId val="386512768"/>
+        <c:axId val="75663616"/>
+        <c:axId val="75669504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="386511232"/>
+        <c:axId val="75663616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8233,14 +8408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386512768"/>
+        <c:crossAx val="75669504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="386512768"/>
+        <c:axId val="75669504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8291,12 +8466,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386511232"/>
+        <c:crossAx val="75663616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386514304"/>
+        <c:axId val="75671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8333,12 +8508,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386524288"/>
+        <c:crossAx val="75672576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="386524288"/>
+        <c:axId val="75672576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8347,7 +8522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386514304"/>
+        <c:crossAx val="75671040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8440,6 +8615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8496,7 +8672,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8547,6 +8723,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8556,7 +8735,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8607,6 +8786,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3154220.248325319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3465197.5101287584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8649,7 +8831,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8700,6 +8882,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8709,7 +8894,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8760,6 +8945,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2815844.3391707027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3262080.7169962376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8802,7 +8990,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8853,6 +9041,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8862,7 +9053,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8913,6 +9104,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-338375.9091546163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-203116.79313252075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8934,11 +9128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482697600"/>
-        <c:axId val="482699136"/>
+        <c:axId val="75708288"/>
+        <c:axId val="75709824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482697600"/>
+        <c:axId val="75708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8981,14 +9175,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482699136"/>
+        <c:crossAx val="75709824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482699136"/>
+        <c:axId val="75709824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9039,7 +9233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482697600"/>
+        <c:crossAx val="75708288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9053,6 +9247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19095,6 +19290,644 @@
             <v>5444602.8119248468</v>
           </cell>
         </row>
+        <row r="329">
+          <cell r="A329">
+            <v>44866</v>
+          </cell>
+          <cell r="B329">
+            <v>0.68900001049041748</v>
+          </cell>
+          <cell r="C329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="D329">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="E329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="F329">
+            <v>4066501.25</v>
+          </cell>
+          <cell r="G329">
+            <v>2806.73095703125</v>
+          </cell>
+          <cell r="H329">
+            <v>327</v>
+          </cell>
+          <cell r="I329">
+            <v>5440388.4340596329</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="A330">
+            <v>44867</v>
+          </cell>
+          <cell r="B330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="C330">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E330">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F330">
+            <v>3588100</v>
+          </cell>
+          <cell r="G330">
+            <v>2554.7890625</v>
+          </cell>
+          <cell r="H330">
+            <v>328</v>
+          </cell>
+          <cell r="I330">
+            <v>5434741.213224085</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="A331">
+            <v>44868</v>
+          </cell>
+          <cell r="B331">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="C331">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D331">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="E331">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="F331">
+            <v>2969101</v>
+          </cell>
+          <cell r="G331">
+            <v>2118.14306640625</v>
+          </cell>
+          <cell r="H331">
+            <v>329</v>
+          </cell>
+          <cell r="I331">
+            <v>5427246.8660714282</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="A332">
+            <v>44869</v>
+          </cell>
+          <cell r="B332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C332">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E332">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="F332">
+            <v>3661902</v>
+          </cell>
+          <cell r="G332">
+            <v>2657.242919921875</v>
+          </cell>
+          <cell r="H332">
+            <v>330</v>
+          </cell>
+          <cell r="I332">
+            <v>5421897.3361742422</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="A333">
+            <v>44872</v>
+          </cell>
+          <cell r="B333">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="C333">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D333">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E333">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F333">
+            <v>2424500</v>
+          </cell>
+          <cell r="G333">
+            <v>1782.22900390625</v>
+          </cell>
+          <cell r="H333">
+            <v>331</v>
+          </cell>
+          <cell r="I333">
+            <v>5412841.7550981874</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="A334">
+            <v>44873</v>
+          </cell>
+          <cell r="B334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="C334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="D334">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E334">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="F334">
+            <v>2755801</v>
+          </cell>
+          <cell r="G334">
+            <v>2007.2960205078125</v>
+          </cell>
+          <cell r="H334">
+            <v>332</v>
+          </cell>
+          <cell r="I334">
+            <v>5404838.620293675</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="A335">
+            <v>44874</v>
+          </cell>
+          <cell r="B335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D335">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E335">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="F335">
+            <v>2908406</v>
+          </cell>
+          <cell r="G335">
+            <v>2104.299072265625</v>
+          </cell>
+          <cell r="H335">
+            <v>333</v>
+          </cell>
+          <cell r="I335">
+            <v>5397341.8256381378</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336">
+            <v>44875</v>
+          </cell>
+          <cell r="B336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D336">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E336">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="F336">
+            <v>3683300</v>
+          </cell>
+          <cell r="G336">
+            <v>2612.735107421875</v>
+          </cell>
+          <cell r="H336">
+            <v>334</v>
+          </cell>
+          <cell r="I336">
+            <v>5392209.9638847308</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337">
+            <v>44876</v>
+          </cell>
+          <cell r="B337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C337">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E337">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="F337">
+            <v>3560304</v>
+          </cell>
+          <cell r="G337">
+            <v>2588.037109375</v>
+          </cell>
+          <cell r="H337">
+            <v>335</v>
+          </cell>
+          <cell r="I337">
+            <v>5386741.5878731348</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338">
+            <v>44879</v>
+          </cell>
+          <cell r="B338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="C338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D338">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E338">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="F338">
+            <v>3003903</v>
+          </cell>
+          <cell r="G338">
+            <v>2189.81298828125</v>
+          </cell>
+          <cell r="H338">
+            <v>336</v>
+          </cell>
+          <cell r="I338">
+            <v>5379649.8063616073</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339">
+            <v>44880</v>
+          </cell>
+          <cell r="B339">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D339">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="E339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="F339">
+            <v>5722604</v>
+          </cell>
+          <cell r="G339">
+            <v>4205.744140625</v>
+          </cell>
+          <cell r="H339">
+            <v>337</v>
+          </cell>
+          <cell r="I339">
+            <v>5380667.4745919881</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340">
+            <v>44881</v>
+          </cell>
+          <cell r="B340">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="C340">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="D340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="E340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F340">
+            <v>1012900</v>
+          </cell>
+          <cell r="G340">
+            <v>748.44000244140625</v>
+          </cell>
+          <cell r="H340">
+            <v>338</v>
+          </cell>
+          <cell r="I340">
+            <v>5367745.0856139055</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341">
+            <v>44882</v>
+          </cell>
+          <cell r="B341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="D341">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E341">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="F341">
+            <v>3281900</v>
+          </cell>
+          <cell r="G341">
+            <v>2381.821044921875</v>
+          </cell>
+          <cell r="H341">
+            <v>339</v>
+          </cell>
+          <cell r="I341">
+            <v>5361592.1502581118</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342">
+            <v>44883</v>
+          </cell>
+          <cell r="B342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C342">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="F342">
+            <v>2393401</v>
+          </cell>
+          <cell r="G342">
+            <v>1758.56494140625</v>
+          </cell>
+          <cell r="H342">
+            <v>340</v>
+          </cell>
+          <cell r="I342">
+            <v>5352862.1762867644</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343">
+            <v>44886</v>
+          </cell>
+          <cell r="B343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D343">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F343">
+            <v>3153102</v>
+          </cell>
+          <cell r="G343">
+            <v>2289.886962890625</v>
+          </cell>
+          <cell r="H343">
+            <v>341</v>
+          </cell>
+          <cell r="I343">
+            <v>5346411.2666788856</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344">
+            <v>44887</v>
+          </cell>
+          <cell r="B344">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="C344">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="F344">
+            <v>3219613</v>
+          </cell>
+          <cell r="G344">
+            <v>2322.748046875</v>
+          </cell>
+          <cell r="H344">
+            <v>342</v>
+          </cell>
+          <cell r="I344">
+            <v>5340192.5582967838</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345">
+            <v>44888</v>
+          </cell>
+          <cell r="B345">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C345">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="D345">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E345">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F345">
+            <v>2462800</v>
+          </cell>
+          <cell r="G345">
+            <v>1759.5560302734375</v>
+          </cell>
+          <cell r="H345">
+            <v>343</v>
+          </cell>
+          <cell r="I345">
+            <v>5331803.6587099126</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346">
+            <v>44889</v>
+          </cell>
+          <cell r="B346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D346">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E346">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="F346">
+            <v>2647100</v>
+          </cell>
+          <cell r="G346">
+            <v>1893.616943359375</v>
+          </cell>
+          <cell r="H346">
+            <v>344</v>
+          </cell>
+          <cell r="I346">
+            <v>5323999.2876090119</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347">
+            <v>44890</v>
+          </cell>
+          <cell r="B347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C347">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E347">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="F347">
+            <v>1362800</v>
+          </cell>
+          <cell r="G347">
+            <v>968.49102783203125</v>
+          </cell>
+          <cell r="H347">
+            <v>345</v>
+          </cell>
+          <cell r="I347">
+            <v>5312517.5505434787</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>44893</v>
+          </cell>
+          <cell r="B348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="C348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="D348">
+            <v>0.6940000057220459</v>
+          </cell>
+          <cell r="E348">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="F348">
+            <v>2657600</v>
+          </cell>
+          <cell r="G348">
+            <v>1855.81494140625</v>
+          </cell>
+          <cell r="H348">
+            <v>346</v>
+          </cell>
+          <cell r="I348">
+            <v>5304844.3784320811</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>44894</v>
+          </cell>
+          <cell r="B349">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C349">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D349">
+            <v>0.70800000429153442</v>
+          </cell>
+          <cell r="E349">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F349">
+            <v>2146700</v>
+          </cell>
+          <cell r="G349">
+            <v>1530.8990478515625</v>
+          </cell>
+          <cell r="H349">
+            <v>347</v>
+          </cell>
+          <cell r="I349">
+            <v>5295743.0978025934</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350">
+            <v>44895</v>
+          </cell>
+          <cell r="B350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="C350">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E350">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="F350">
+            <v>2516800</v>
+          </cell>
+          <cell r="G350">
+            <v>1814.135986328125</v>
+          </cell>
+          <cell r="H350">
+            <v>348</v>
+          </cell>
+          <cell r="I350">
+            <v>5287757.6291307472</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -23532,6 +24365,269 @@
           </cell>
           <cell r="D383">
             <v>32.197401538923856</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v xml:space="preserve">2022/11/1
+</v>
+          </cell>
+          <cell r="C384">
+            <v>22.270000459999999</v>
+          </cell>
+          <cell r="D384">
+            <v>32.171413577984268</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v xml:space="preserve">2022/11/2
+</v>
+          </cell>
+          <cell r="C385">
+            <v>22.600000380000001</v>
+          </cell>
+          <cell r="D385">
+            <v>32.146422943002584</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v xml:space="preserve">2022/11/3
+</v>
+          </cell>
+          <cell r="C386">
+            <v>22.479999540000001</v>
+          </cell>
+          <cell r="D386">
+            <v>32.121249965390597</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v xml:space="preserve">2022/11/4
+</v>
+          </cell>
+          <cell r="C387">
+            <v>23.200000760000002</v>
+          </cell>
+          <cell r="D387">
+            <v>32.098077889532441</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v xml:space="preserve">2022/11/7
+</v>
+          </cell>
+          <cell r="C388">
+            <v>23.190000529999999</v>
+          </cell>
+          <cell r="D388">
+            <v>32.074999968911889</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v xml:space="preserve">2022/11/8
+</v>
+          </cell>
+          <cell r="C389">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D389">
+            <v>32.051627877751912</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v xml:space="preserve">2022/11/9
+</v>
+          </cell>
+          <cell r="C390">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D390">
+            <v>32.027680383814406</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v xml:space="preserve">2022/11/10
+</v>
+          </cell>
+          <cell r="C391">
+            <v>22.31999969</v>
+          </cell>
+          <cell r="D391">
+            <v>32.002724906452414</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v xml:space="preserve">2022/11/11
+</v>
+          </cell>
+          <cell r="C392">
+            <v>22.870000839999999</v>
+          </cell>
+          <cell r="D392">
+            <v>31.979307665256382</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v xml:space="preserve">2022/11/14
+</v>
+          </cell>
+          <cell r="C393">
+            <v>22.88999939</v>
+          </cell>
+          <cell r="D393">
+            <v>31.95606135253194</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v xml:space="preserve">2022/11/15
+</v>
+          </cell>
+          <cell r="C394">
+            <v>23.450000760000002</v>
+          </cell>
+          <cell r="D394">
+            <v>31.934362218367319</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v xml:space="preserve">2022/11/16
+</v>
+          </cell>
+          <cell r="C395">
+            <v>23.129999160000001</v>
+          </cell>
+          <cell r="D395">
+            <v>31.911959258931272</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v xml:space="preserve">2022/11/17
+</v>
+          </cell>
+          <cell r="C396">
+            <v>23.010000229999999</v>
+          </cell>
+          <cell r="D396">
+            <v>31.889365454289315</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v xml:space="preserve">2022/11/18
+</v>
+          </cell>
+          <cell r="C397">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D397">
+            <v>31.866936682734149</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v xml:space="preserve">2022/11/21
+</v>
+          </cell>
+          <cell r="C398">
+            <v>23</v>
+          </cell>
+          <cell r="D398">
+            <v>31.844545428484821</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v xml:space="preserve">2022/11/22
+</v>
+          </cell>
+          <cell r="C399">
+            <v>22.649999619999999</v>
+          </cell>
+          <cell r="D399">
+            <v>31.821385363476043</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v xml:space="preserve">2022/11/23
+</v>
+          </cell>
+          <cell r="C400">
+            <v>22.540000920000001</v>
+          </cell>
+          <cell r="D400">
+            <v>31.798065302060277</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v xml:space="preserve">2022/11/24
+</v>
+          </cell>
+          <cell r="C401">
+            <v>22.510000229999999</v>
+          </cell>
+          <cell r="D401">
+            <v>31.774786943483686</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v xml:space="preserve">2022/11/25
+</v>
+          </cell>
+          <cell r="C402">
+            <v>22.36000061</v>
+          </cell>
+          <cell r="D402">
+            <v>31.751249977649977</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v xml:space="preserve">2022/11/28
+</v>
+          </cell>
+          <cell r="C403">
+            <v>22.200000760000002</v>
+          </cell>
+          <cell r="D403">
+            <v>31.727431401047358</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v xml:space="preserve">2022/11/29
+</v>
+          </cell>
+          <cell r="C404">
+            <v>22.700000760000002</v>
+          </cell>
+          <cell r="D404">
+            <v>31.704975105920376</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405">
+            <v>44895</v>
+          </cell>
+          <cell r="C405">
+            <v>22.809999470000001</v>
+          </cell>
+          <cell r="D405">
+            <v>31.682903206079384</v>
           </cell>
         </row>
       </sheetData>
@@ -24328,17 +25424,47 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19">
+            <v>44865</v>
+          </cell>
+          <cell r="B19">
+            <v>0.68699997663497925</v>
+          </cell>
+          <cell r="C19">
+            <v>2000</v>
+          </cell>
+          <cell r="D19">
+            <v>2911.2082503936554</v>
+          </cell>
+          <cell r="E19">
+            <v>49165.43926812365</v>
+          </cell>
+          <cell r="F19">
+            <v>33776.655628449436</v>
+          </cell>
+          <cell r="G19">
+            <v>42000</v>
+          </cell>
+          <cell r="H19">
+            <v>33776.655628449436</v>
+          </cell>
+          <cell r="I19">
+            <v>-8223.3443715505637</v>
+          </cell>
           <cell r="J19">
             <v>0</v>
           </cell>
           <cell r="K19">
-            <v>0</v>
+            <v>1.0754166600991289E-2</v>
           </cell>
           <cell r="L19">
-            <v>0</v>
+            <v>9.0000033378601074E-3</v>
           </cell>
           <cell r="M19">
-            <v>0</v>
+            <v>4.4851284507818785E-2</v>
+          </cell>
+          <cell r="N19">
+            <v>23.977388204158451</v>
           </cell>
         </row>
         <row r="20">
@@ -26320,26 +27446,56 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19">
+            <v>44865</v>
+          </cell>
+          <cell r="B19">
+            <v>0.68699997663497925</v>
+          </cell>
+          <cell r="C19">
+            <v>2000</v>
+          </cell>
+          <cell r="D19">
+            <v>2911.2082503936554</v>
+          </cell>
+          <cell r="E19">
+            <v>41109.994026081025</v>
+          </cell>
+          <cell r="F19">
+            <v>28242.564935381801</v>
+          </cell>
+          <cell r="G19">
+            <v>35000</v>
+          </cell>
+          <cell r="H19">
+            <v>28242.564935381801</v>
+          </cell>
+          <cell r="I19">
+            <v>-6757.4350646181992</v>
+          </cell>
           <cell r="J19">
-            <v>0</v>
+            <v>0.74199998378753662</v>
           </cell>
           <cell r="K19">
-            <v>0</v>
+            <v>0.67799997329711914</v>
           </cell>
           <cell r="L19">
-            <v>0</v>
+            <v>0.91100001335144043</v>
           </cell>
           <cell r="M19">
-            <v>0</v>
+            <v>0.65399998426437378</v>
           </cell>
           <cell r="N19">
-            <v>0</v>
+            <v>12.840462504160149</v>
           </cell>
           <cell r="O19">
-            <v>0</v>
+            <v>21.404654564962044</v>
           </cell>
           <cell r="P19">
-            <v>0</v>
+            <v>26.761079221717068</v>
+          </cell>
+          <cell r="Q19">
+            <v>10.691805251451996</v>
           </cell>
         </row>
         <row r="20">
@@ -27918,7 +29074,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28036,31 +29192,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G19" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G20" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:H19" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I19" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I20" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" ref="J3:J19" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K19" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="29">
-        <f t="shared" ref="L3:L19" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L20" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="27"/>
@@ -28106,7 +29262,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="29">
-        <f t="shared" ref="E4:E19" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E20" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="30">
@@ -28955,6 +30111,55 @@
         <v>-330447.39164051414</v>
       </c>
       <c r="L19" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="31">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="29">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="7"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="30">
+        <f t="shared" si="0"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="30">
+        <f t="shared" si="1"/>
+        <v>4455157.8055682275</v>
+      </c>
+      <c r="H20" s="30">
+        <f t="shared" si="2"/>
+        <v>3207713.7474722113</v>
+      </c>
+      <c r="I20" s="30">
+        <f t="shared" si="3"/>
+        <v>3405393.8463527663</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="4"/>
+        <v>3207713.7474722113</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" si="5"/>
+        <v>-197680.09888055502</v>
+      </c>
+      <c r="L20" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -28975,7 +30180,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29104,7 +30309,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -29112,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -29120,11 +30325,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -29182,7 +30387,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -29190,7 +30395,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -29202,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -29275,7 +30480,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E19" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
+        <f t="shared" ref="E5:E20" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
         <v>52777.576044247049</v>
       </c>
       <c r="F5" s="18">
@@ -29393,7 +30598,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P19" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P20" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -30260,6 +31465,71 @@
         <v>24.80703135118333</v>
       </c>
       <c r="P19" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="8"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="4"/>
+        <v>6472790.1912158486</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>4660409.122863424</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="5"/>
+        <v>4986690.6232638806</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>4660409.122863424</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="3"/>
+        <v>-326281.5004004566</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.0754166600991289E-2</v>
+      </c>
+      <c r="N20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.4851284507818785E-2</v>
+      </c>
+      <c r="O20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>23.977388204158451</v>
+      </c>
+      <c r="P20" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -30280,7 +31550,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30409,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -30417,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -30425,11 +31695,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -30487,7 +31757,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -30495,7 +31765,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -30507,7 +31777,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -30580,7 +31850,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E19" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
+        <f t="shared" ref="E5:E20" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
         <v>136414.52483783176</v>
       </c>
       <c r="F5" s="18">
@@ -30698,7 +31968,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P19" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P20" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -31565,6 +32835,71 @@
         <v>24.80703135118333</v>
       </c>
       <c r="P19" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="8"/>
+        <v>2759271.3080914733</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>3832321.1089553987</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="4"/>
+        <v>57050990.581457041</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>41076714.850891002</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="5"/>
+        <v>43081813.842529044</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>41076714.850891002</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="3"/>
+        <v>-2005098.991638042</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.0754166600991289E-2</v>
+      </c>
+      <c r="N20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.4851284507818785E-2</v>
+      </c>
+      <c r="O20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>23.977388204158451</v>
+      </c>
+      <c r="P20" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -31585,7 +32920,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31732,7 +33067,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H19" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H20" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -31740,7 +33075,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J19" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J20" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -31748,11 +33083,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L19" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L20" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M19" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M20" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -31820,7 +33155,7 @@
         <v>146.12645884219521</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I19" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I20" si="4">I3+H4</f>
         <v>146.12645884219521</v>
       </c>
       <c r="J4" s="18">
@@ -31828,7 +33163,7 @@
         <v>147.00321759524837</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K19" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K20" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>147.00321759524837</v>
       </c>
       <c r="L4" s="18">
@@ -31840,7 +33175,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N19" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N20" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="22">
@@ -31921,7 +33256,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G19" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
+        <f t="shared" ref="G5:G20" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
         <v>3941.4049128625688</v>
       </c>
       <c r="H5" s="18">
@@ -31965,7 +33300,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R19" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
+        <f t="shared" ref="R5:R20" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="AB5" s="6"/>
@@ -33018,6 +34353,79 @@
         <v>24.80703135118333</v>
       </c>
       <c r="R19" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2516800</v>
+      </c>
+      <c r="F20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5287757.6291307472</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="8"/>
+        <v>182867.767800078</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>253983.00074106397</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="4"/>
+        <v>2445837.0908962288</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="1"/>
+        <v>1761002.7754212453</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="5"/>
+        <v>1807376.8075366851</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="2"/>
+        <v>1761002.7754212453</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="3"/>
+        <v>-46374.032115439884</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.0754166600991289E-2</v>
+      </c>
+      <c r="P20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.4851284507818785E-2</v>
+      </c>
+      <c r="Q20" s="22">
+        <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>23.977388204158451</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -33038,7 +34446,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33172,7 +34580,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -33180,7 +34588,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -33188,11 +34596,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -33261,7 +34669,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E19" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
+        <f t="shared" ref="E4:E20" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="18">
@@ -33269,7 +34677,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G19" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -33277,7 +34685,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I19" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -33289,7 +34697,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L19" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
@@ -33309,7 +34717,7 @@
         <v>64.221158958000927</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q19" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
+        <f t="shared" ref="Q4:Q20" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
         <v>1</v>
       </c>
       <c r="S4" s="42">
@@ -34415,6 +35823,75 @@
         <v>18.181668685899815</v>
       </c>
       <c r="Q19" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="4"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="5"/>
+        <v>4530667.4824622236</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>3262080.7169962376</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="6"/>
+        <v>3465197.5101287584</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>3262080.7169962376</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="3"/>
+        <v>-203116.79313252075</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>12.840462504160149</v>
+      </c>
+      <c r="N20" s="21">
+        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>21.404654564962044</v>
+      </c>
+      <c r="O20" s="21">
+        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>26.761079221717068</v>
+      </c>
+      <c r="P20" s="21">
+        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>10.691805251451996</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -34435,7 +35912,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34570,7 +36047,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H19" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H20" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -34578,7 +36055,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J19" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J20" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -34586,11 +36063,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L19" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L20" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M19" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M20" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -34648,7 +36125,7 @@
         <v>34298297.880000003</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G19" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
+        <f t="shared" ref="G4:G20" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="H4" s="18">
@@ -34656,7 +36133,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I19" si="5">I3+H4</f>
+        <f t="shared" ref="I4:I20" si="5">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="18">
@@ -34664,7 +36141,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K19" si="6">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K20" si="6">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="18">
@@ -34676,7 +36153,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N19" si="7">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N20" si="7">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="7"/>
@@ -35617,6 +37094,63 @@
         <v>-532394.39199306257</v>
       </c>
       <c r="N19" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2516800</v>
+      </c>
+      <c r="F20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5287757.6291307472</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="4"/>
+        <v>1313323.0596551057</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>1824059.732594914</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="5"/>
+        <v>13101089.882112423</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="1"/>
+        <v>9432785.0899461322</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="6"/>
+        <v>9593036.9008786529</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="2"/>
+        <v>9432785.0899461322</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="3"/>
+        <v>-160251.81093252078</v>
+      </c>
+      <c r="N20" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -35637,7 +37171,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35755,7 +37289,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -35763,7 +37297,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -35771,11 +37305,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -35825,7 +37359,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E19" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
+        <f t="shared" ref="E4:E20" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="F4" s="18">
@@ -35833,7 +37367,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G19" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -35841,7 +37375,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I19" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -35853,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L19" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="7"/>
@@ -36678,6 +38212,55 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="31">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="4"/>
+        <v>2759271.3080914733</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>3832321.1089553987</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="5"/>
+        <v>38876005.269556284</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>27990724.906331956</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="6"/>
+        <v>29146362.883250281</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>27990724.906331956</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="3"/>
+        <v>-1155637.9769183248</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -586,7 +586,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -640,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,7 +652,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -703,6 +706,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3405393.8463527663</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3690730.8026686539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +751,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -799,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +817,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -862,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3207713.7474722113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3506416.0051296353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,7 +916,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -958,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +982,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1021,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-197680.09888055502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-184314.79753901856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,11 +1060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98634368"/>
-        <c:axId val="176656768"/>
+        <c:axId val="88786432"/>
+        <c:axId val="88787968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98634368"/>
+        <c:axId val="88786432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,14 +1107,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176656768"/>
+        <c:crossAx val="88787968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176656768"/>
+        <c:axId val="88787968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98634368"/>
+        <c:crossAx val="88786432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1306,7 +1324,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1360,6 +1378,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,8 +1395,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="75725056"/>
-        <c:axId val="75723520"/>
+        <c:axId val="88797568"/>
+        <c:axId val="88779392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1400,7 +1421,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1454,6 +1475,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,7 +1487,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1517,6 +1541,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,11 +1560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75720192"/>
-        <c:axId val="75721728"/>
+        <c:axId val="88771968"/>
+        <c:axId val="88777856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75720192"/>
+        <c:axId val="88771968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,14 +1607,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75721728"/>
+        <c:crossAx val="88777856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75721728"/>
+        <c:axId val="88777856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,12 +1665,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75720192"/>
+        <c:crossAx val="88771968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75723520"/>
+        <c:axId val="88779392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,12 +1707,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75725056"/>
+        <c:crossAx val="88797568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="75725056"/>
+        <c:axId val="88797568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75723520"/>
+        <c:crossAx val="88779392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1787,7 +1814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1844,7 +1870,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1898,6 +1924,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +1936,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1961,6 +1990,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9593036.9008786529</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10552108.084489252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,7 +2035,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2057,6 +2089,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,7 +2101,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2120,6 +2155,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9432785.0899461322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10431159.037189066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,7 +2200,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2216,6 +2254,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,7 +2266,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2279,6 +2320,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-160251.81093252078</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-120949.04730018601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,11 +2344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75851264"/>
-        <c:axId val="75852800"/>
+        <c:axId val="88857984"/>
+        <c:axId val="89785472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75851264"/>
+        <c:axId val="88857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,14 +2391,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75852800"/>
+        <c:crossAx val="89785472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75852800"/>
+        <c:axId val="89785472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75851264"/>
+        <c:crossAx val="88857984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,7 +2463,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2565,7 +2608,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2619,6 +2662,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1313323.0596551057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>959071.18361059949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,8 +2679,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="75884416"/>
-        <c:axId val="75882880"/>
+        <c:axId val="89825280"/>
+        <c:axId val="89819392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2659,7 +2705,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2713,6 +2759,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2771,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2776,6 +2825,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,11 +2844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75871360"/>
-        <c:axId val="75872896"/>
+        <c:axId val="89811968"/>
+        <c:axId val="89817856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75871360"/>
+        <c:axId val="89811968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,14 +2891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75872896"/>
+        <c:crossAx val="89817856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75872896"/>
+        <c:axId val="89817856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,12 +2949,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75871360"/>
+        <c:crossAx val="89811968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75882880"/>
+        <c:axId val="89819392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,12 +2991,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75884416"/>
+        <c:crossAx val="89825280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="75884416"/>
+        <c:axId val="89825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +3005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75882880"/>
+        <c:crossAx val="89819392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3103,7 +3155,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3157,6 +3209,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,7 +3221,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3220,6 +3275,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>29146362.883250281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31571512.229811795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3262,7 +3320,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3316,6 +3374,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,7 +3386,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3379,6 +3440,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>27990724.906331956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30532500.767162703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,7 +3485,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3475,6 +3539,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,7 +3551,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3538,6 +3605,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-1155637.9769183248</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1039011.4626490921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,11 +3629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77776384"/>
-        <c:axId val="77777920"/>
+        <c:axId val="89836928"/>
+        <c:axId val="89846912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77776384"/>
+        <c:axId val="89836928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,14 +3676,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77777920"/>
+        <c:crossAx val="89846912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77777920"/>
+        <c:axId val="89846912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3734,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77776384"/>
+        <c:crossAx val="89836928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,7 +3894,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3878,6 +3948,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2759271.3080914733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2425149.3465615129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,8 +3965,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88328064"/>
-        <c:axId val="88326528"/>
+        <c:axId val="89972736"/>
+        <c:axId val="89970944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3918,7 +3991,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3972,6 +4045,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,7 +4057,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4035,6 +4111,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4051,11 +4130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88302720"/>
-        <c:axId val="88304256"/>
+        <c:axId val="89963520"/>
+        <c:axId val="89969408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88302720"/>
+        <c:axId val="89963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,14 +4177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88304256"/>
+        <c:crossAx val="89969408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88304256"/>
+        <c:axId val="89969408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,12 +4235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88302720"/>
+        <c:crossAx val="89963520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88326528"/>
+        <c:axId val="89970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,12 +4277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88328064"/>
+        <c:crossAx val="89972736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88328064"/>
+        <c:axId val="89972736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,7 +4291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88326528"/>
+        <c:crossAx val="89970944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4343,7 +4422,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4397,6 +4476,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,8 +4493,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536020864"/>
-        <c:axId val="535956096"/>
+        <c:axId val="506179584"/>
+        <c:axId val="502491392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4437,7 +4519,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4491,6 +4573,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,7 +4585,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4554,6 +4639,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4570,11 +4658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490882944"/>
-        <c:axId val="535954560"/>
+        <c:axId val="496835584"/>
+        <c:axId val="501917568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490882944"/>
+        <c:axId val="496835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,14 +4705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535954560"/>
+        <c:crossAx val="501917568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535954560"/>
+        <c:axId val="501917568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,12 +4763,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490882944"/>
+        <c:crossAx val="496835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535956096"/>
+        <c:axId val="502491392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,12 +4805,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536020864"/>
+        <c:crossAx val="506179584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536020864"/>
+        <c:axId val="506179584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535956096"/>
+        <c:crossAx val="502491392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4880,7 +4968,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4934,6 +5022,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,7 +5034,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4997,6 +5088,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4986690.6232638806</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5272027.5795797678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,7 +5133,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5093,6 +5187,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,7 +5199,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5156,6 +5253,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4660409.122863424</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4965164.1997491419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5198,7 +5298,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5252,6 +5352,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5261,7 +5364,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5315,6 +5418,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-326281.5004004566</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-306863.37983062584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5336,11 +5442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567310592"/>
-        <c:axId val="50487296"/>
+        <c:axId val="77992320"/>
+        <c:axId val="77993856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567310592"/>
+        <c:axId val="77992320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5383,14 +5489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50487296"/>
+        <c:crossAx val="77993856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50487296"/>
+        <c:axId val="77993856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,7 +5547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567310592"/>
+        <c:crossAx val="77992320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5609,7 +5715,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5663,6 +5769,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,8 +5786,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="50506752"/>
-        <c:axId val="50505216"/>
+        <c:axId val="78034048"/>
+        <c:axId val="78024064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5703,7 +5812,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5757,6 +5866,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,7 +5878,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5820,6 +5932,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,11 +5951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50501888"/>
-        <c:axId val="50503680"/>
+        <c:axId val="78020992"/>
+        <c:axId val="78022528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50501888"/>
+        <c:axId val="78020992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5883,14 +5998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50503680"/>
+        <c:crossAx val="78022528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50503680"/>
+        <c:axId val="78022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,12 +6056,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50501888"/>
+        <c:crossAx val="78020992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50505216"/>
+        <c:axId val="78024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,12 +6098,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50506752"/>
+        <c:crossAx val="78034048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="50506752"/>
+        <c:axId val="78034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5997,7 +6112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50505216"/>
+        <c:crossAx val="78024064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6146,7 +6261,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6200,6 +6315,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6209,7 +6327,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6263,6 +6381,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43081813.842529044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45506963.189090557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6305,7 +6426,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6359,6 +6480,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6368,7 +6492,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6422,6 +6546,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>41076714.850891002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43673014.965670273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6464,7 +6591,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6518,6 +6645,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6527,7 +6657,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6581,6 +6711,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-2005098.991638042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1833948.2234202847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6602,11 +6735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56174848"/>
-        <c:axId val="56262656"/>
+        <c:axId val="78045568"/>
+        <c:axId val="78047104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56174848"/>
+        <c:axId val="78045568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6649,14 +6782,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56262656"/>
+        <c:crossAx val="78047104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56262656"/>
+        <c:axId val="78047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6707,7 +6840,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56174848"/>
+        <c:crossAx val="78045568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6875,7 +7008,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6929,6 +7062,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2759271.3080914733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2425149.3465615129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6943,8 +7079,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="69422464"/>
-        <c:axId val="69420928"/>
+        <c:axId val="78214272"/>
+        <c:axId val="78212480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6969,7 +7105,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7023,6 +7159,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7032,7 +7171,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7086,6 +7225,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7102,11 +7244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69413504"/>
-        <c:axId val="69419392"/>
+        <c:axId val="78209408"/>
+        <c:axId val="78210944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69413504"/>
+        <c:axId val="78209408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7149,14 +7291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69419392"/>
+        <c:crossAx val="78210944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69419392"/>
+        <c:axId val="78210944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,12 +7349,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69413504"/>
+        <c:crossAx val="78209408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69420928"/>
+        <c:axId val="78212480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7249,12 +7391,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69422464"/>
+        <c:crossAx val="78214272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="69422464"/>
+        <c:axId val="78214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7263,7 +7405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69420928"/>
+        <c:crossAx val="78212480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7356,7 +7498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7413,7 +7554,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7467,6 +7608,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7476,7 +7620,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7530,6 +7674,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1807376.8075366851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1940918.3647482875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,7 +7719,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7626,6 +7773,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7635,7 +7785,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7689,6 +7839,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1761002.7754212453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1901881.7494379897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,7 +7884,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7785,6 +7938,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7794,7 +7950,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7848,6 +8004,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-46374.032115439884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-39036.615310297813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7869,11 +8028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75639424"/>
-        <c:axId val="75649408"/>
+        <c:axId val="78418304"/>
+        <c:axId val="78419840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75639424"/>
+        <c:axId val="78418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,14 +8075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75649408"/>
+        <c:crossAx val="78419840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75649408"/>
+        <c:axId val="78419840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7974,7 +8133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75639424"/>
+        <c:crossAx val="78418304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7988,7 +8147,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8134,7 +8292,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8188,6 +8346,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>182867.767800078</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133541.55721160246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8202,8 +8363,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="75672576"/>
-        <c:axId val="75671040"/>
+        <c:axId val="88740608"/>
+        <c:axId val="78445568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8228,7 +8389,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8282,6 +8443,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8291,7 +8455,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8345,6 +8509,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8361,11 +8528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75663616"/>
-        <c:axId val="75669504"/>
+        <c:axId val="78442496"/>
+        <c:axId val="78444032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75663616"/>
+        <c:axId val="78442496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8408,14 +8575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75669504"/>
+        <c:crossAx val="78444032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75669504"/>
+        <c:axId val="78444032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8466,12 +8633,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75663616"/>
+        <c:crossAx val="78442496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75671040"/>
+        <c:axId val="78445568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8508,12 +8675,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75672576"/>
+        <c:crossAx val="88740608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="75672576"/>
+        <c:axId val="88740608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8522,7 +8689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75671040"/>
+        <c:crossAx val="78445568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8615,7 +8782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8672,7 +8838,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8726,6 +8892,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8735,7 +8904,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8789,6 +8958,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3465197.5101287584</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3750534.466444646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8831,7 +9003,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8885,6 +9057,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8894,7 +9069,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8948,6 +9123,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3262080.7169962376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3561009.5007678727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8990,7 +9168,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9044,6 +9222,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9053,7 +9234,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9107,6 +9288,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-203116.79313252075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-189524.96567677334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9128,11 +9312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75708288"/>
-        <c:axId val="75709824"/>
+        <c:axId val="88756224"/>
+        <c:axId val="88757760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75708288"/>
+        <c:axId val="88756224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9175,14 +9359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75709824"/>
+        <c:crossAx val="88757760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75709824"/>
+        <c:axId val="88757760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9233,7 +9417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75708288"/>
+        <c:crossAx val="88756224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9247,7 +9431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19928,6 +20111,644 @@
             <v>5287757.6291307472</v>
           </cell>
         </row>
+        <row r="351">
+          <cell r="A351">
+            <v>44896</v>
+          </cell>
+          <cell r="B351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C351">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E351">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F351">
+            <v>1514200</v>
+          </cell>
+          <cell r="G351">
+            <v>1115.52001953125</v>
+          </cell>
+          <cell r="H351">
+            <v>349</v>
+          </cell>
+          <cell r="I351">
+            <v>5276945.1430873927</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352">
+            <v>44897</v>
+          </cell>
+          <cell r="B352">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C352">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F352">
+            <v>2813797</v>
+          </cell>
+          <cell r="G352">
+            <v>2058.468017578125</v>
+          </cell>
+          <cell r="H352">
+            <v>350</v>
+          </cell>
+          <cell r="I352">
+            <v>5269907.5769642862</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353">
+            <v>44900</v>
+          </cell>
+          <cell r="B353">
+            <v>0.73199999332427979</v>
+          </cell>
+          <cell r="C353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D353">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="E353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="F353">
+            <v>3264301</v>
+          </cell>
+          <cell r="G353">
+            <v>2391.455078125</v>
+          </cell>
+          <cell r="H353">
+            <v>351</v>
+          </cell>
+          <cell r="I353">
+            <v>5264193.5981125357</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354">
+            <v>44901</v>
+          </cell>
+          <cell r="B354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C354">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="E354">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="F354">
+            <v>1767300</v>
+          </cell>
+          <cell r="G354">
+            <v>1305.98095703125</v>
+          </cell>
+          <cell r="H354">
+            <v>352</v>
+          </cell>
+          <cell r="I354">
+            <v>5254259.2412997158</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355">
+            <v>44902</v>
+          </cell>
+          <cell r="B355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C355">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E355">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="F355">
+            <v>2062507</v>
+          </cell>
+          <cell r="G355">
+            <v>1538.0469970703125</v>
+          </cell>
+          <cell r="H355">
+            <v>353</v>
+          </cell>
+          <cell r="I355">
+            <v>5245217.4502478754</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356">
+            <v>44903</v>
+          </cell>
+          <cell r="B356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C356">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="D356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="E356">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="F356">
+            <v>3449804</v>
+          </cell>
+          <cell r="G356">
+            <v>2575.367919921875</v>
+          </cell>
+          <cell r="H356">
+            <v>354</v>
+          </cell>
+          <cell r="I356">
+            <v>5240145.6608403958</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357">
+            <v>44904</v>
+          </cell>
+          <cell r="B357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="C357">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E357">
+            <v>0.75</v>
+          </cell>
+          <cell r="F357">
+            <v>4098100</v>
+          </cell>
+          <cell r="G357">
+            <v>3059.9140625</v>
+          </cell>
+          <cell r="H357">
+            <v>355</v>
+          </cell>
+          <cell r="I357">
+            <v>5236928.6308098594</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358">
+            <v>44907</v>
+          </cell>
+          <cell r="B358">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="C358">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="D358">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E358">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="F358">
+            <v>1660900</v>
+          </cell>
+          <cell r="G358">
+            <v>1239.9219970703125</v>
+          </cell>
+          <cell r="H358">
+            <v>356</v>
+          </cell>
+          <cell r="I358">
+            <v>5226883.606566011</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359">
+            <v>44908</v>
+          </cell>
+          <cell r="B359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D359">
+            <v>0.7369999885559082</v>
+          </cell>
+          <cell r="E359">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="F359">
+            <v>3002001</v>
+          </cell>
+          <cell r="G359">
+            <v>2222.159912109375</v>
+          </cell>
+          <cell r="H359">
+            <v>357</v>
+          </cell>
+          <cell r="I359">
+            <v>5220651.4424019605</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360">
+            <v>44909</v>
+          </cell>
+          <cell r="B360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="F360">
+            <v>4652100</v>
+          </cell>
+          <cell r="G360">
+            <v>3427.55908203125</v>
+          </cell>
+          <cell r="H360">
+            <v>358</v>
+          </cell>
+          <cell r="I360">
+            <v>5219063.3098812848</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361">
+            <v>44910</v>
+          </cell>
+          <cell r="B361">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="C361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D361">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="F361">
+            <v>3350200</v>
+          </cell>
+          <cell r="G361">
+            <v>2474.9130859375</v>
+          </cell>
+          <cell r="H361">
+            <v>359</v>
+          </cell>
+          <cell r="I361">
+            <v>5213857.5625</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362">
+            <v>44911</v>
+          </cell>
+          <cell r="B362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="C362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D362">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E362">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="F362">
+            <v>2607600</v>
+          </cell>
+          <cell r="G362">
+            <v>1922.4029541015625</v>
+          </cell>
+          <cell r="H362">
+            <v>360</v>
+          </cell>
+          <cell r="I362">
+            <v>5206617.9581597224</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363">
+            <v>44914</v>
+          </cell>
+          <cell r="B363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="C363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="D363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="E363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="F363">
+            <v>3066702</v>
+          </cell>
+          <cell r="G363">
+            <v>2247.702880859375</v>
+          </cell>
+          <cell r="H363">
+            <v>361</v>
+          </cell>
+          <cell r="I363">
+            <v>5200690.2131232684</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364">
+            <v>44915</v>
+          </cell>
+          <cell r="B364">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="C364">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D364">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E364">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F364">
+            <v>3940700</v>
+          </cell>
+          <cell r="G364">
+            <v>2847.77294921875</v>
+          </cell>
+          <cell r="H364">
+            <v>362</v>
+          </cell>
+          <cell r="I364">
+            <v>5197209.5771754142</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365">
+            <v>44916</v>
+          </cell>
+          <cell r="B365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="C365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D365">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E365">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="F365">
+            <v>2461800</v>
+          </cell>
+          <cell r="G365">
+            <v>1768.2430419921875</v>
+          </cell>
+          <cell r="H365">
+            <v>363</v>
+          </cell>
+          <cell r="I365">
+            <v>5189674.013601928</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366">
+            <v>44917</v>
+          </cell>
+          <cell r="B366">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C366">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D366">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E366">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="F366">
+            <v>3196400</v>
+          </cell>
+          <cell r="G366">
+            <v>2294.62109375</v>
+          </cell>
+          <cell r="H366">
+            <v>364</v>
+          </cell>
+          <cell r="I366">
+            <v>5184197.9860920329</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367">
+            <v>44918</v>
+          </cell>
+          <cell r="B367">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C367">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="D367">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E367">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="F367">
+            <v>3038001</v>
+          </cell>
+          <cell r="G367">
+            <v>2157.553955078125</v>
+          </cell>
+          <cell r="H367">
+            <v>365</v>
+          </cell>
+          <cell r="I367">
+            <v>5178317.9943493148</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368">
+            <v>44921</v>
+          </cell>
+          <cell r="B368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C368">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E368">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F368">
+            <v>5080404</v>
+          </cell>
+          <cell r="G368">
+            <v>3635.52587890625</v>
+          </cell>
+          <cell r="H368">
+            <v>366</v>
+          </cell>
+          <cell r="I368">
+            <v>5178050.4697745899</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369">
+            <v>44922</v>
+          </cell>
+          <cell r="B369">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C369">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D369">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E369">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F369">
+            <v>6773900</v>
+          </cell>
+          <cell r="G369">
+            <v>4913.7880859375</v>
+          </cell>
+          <cell r="H369">
+            <v>367</v>
+          </cell>
+          <cell r="I369">
+            <v>5182398.8336171666</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370">
+            <v>44923</v>
+          </cell>
+          <cell r="B370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="C370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D370">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E370">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="F370">
+            <v>2380500</v>
+          </cell>
+          <cell r="G370">
+            <v>1714.72998046875</v>
+          </cell>
+          <cell r="H370">
+            <v>368</v>
+          </cell>
+          <cell r="I370">
+            <v>5174784.9780910322</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371">
+            <v>44924</v>
+          </cell>
+          <cell r="B371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C371">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="D371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E371">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="F371">
+            <v>3941701.25</v>
+          </cell>
+          <cell r="G371">
+            <v>2847.658935546875</v>
+          </cell>
+          <cell r="H371">
+            <v>369</v>
+          </cell>
+          <cell r="I371">
+            <v>5171443.2877710024</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372">
+            <v>44925</v>
+          </cell>
+          <cell r="B372">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C372">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="D372">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E372">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="F372">
+            <v>2041800</v>
+          </cell>
+          <cell r="G372">
+            <v>1479.02197265625</v>
+          </cell>
+          <cell r="H372">
+            <v>370</v>
+          </cell>
+          <cell r="I372">
+            <v>5162984.7923986483</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -24628,6 +25449,268 @@
           </cell>
           <cell r="D405">
             <v>31.682903206079384</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v xml:space="preserve">2022/12/1
+</v>
+          </cell>
+          <cell r="C406">
+            <v>23.170000080000001</v>
+          </cell>
+          <cell r="D406">
+            <v>31.661831663688094</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v xml:space="preserve">2022/12/2
+</v>
+          </cell>
+          <cell r="C407">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D407">
+            <v>31.640518500790101</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v xml:space="preserve">2022/12/5
+</v>
+          </cell>
+          <cell r="C408">
+            <v>23.219999309999999</v>
+          </cell>
+          <cell r="D408">
+            <v>31.619778305738894</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v xml:space="preserve">2022/12/6
+</v>
+          </cell>
+          <cell r="C409">
+            <v>23.459999079999999</v>
+          </cell>
+          <cell r="D409">
+            <v>31.599729708132653</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v xml:space="preserve">2022/12/7
+</v>
+          </cell>
+          <cell r="C410">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D410">
+            <v>31.580245075563703</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v xml:space="preserve">2022/12/8
+</v>
+          </cell>
+          <cell r="C411">
+            <v>23.629999160000001</v>
+          </cell>
+          <cell r="D411">
+            <v>31.560806821491422</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v xml:space="preserve">2022/12/9
+</v>
+          </cell>
+          <cell r="C412">
+            <v>23.840000150000002</v>
+          </cell>
+          <cell r="D412">
+            <v>31.541975585707295</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v xml:space="preserve">2022/12/12
+</v>
+          </cell>
+          <cell r="C413">
+            <v>23.600000380000001</v>
+          </cell>
+          <cell r="D413">
+            <v>31.522652045060806</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v xml:space="preserve">2022/12/13
+</v>
+          </cell>
+          <cell r="C414">
+            <v>23.329999919999999</v>
+          </cell>
+          <cell r="D414">
+            <v>31.502766967087357</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v xml:space="preserve">2022/12/14
+</v>
+          </cell>
+          <cell r="C415">
+            <v>23.270000459999999</v>
+          </cell>
+          <cell r="D415">
+            <v>31.482832907748161</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v xml:space="preserve">2022/12/15
+</v>
+          </cell>
+          <cell r="C416">
+            <v>23.5</v>
+          </cell>
+          <cell r="D416">
+            <v>31.463550702656981</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v xml:space="preserve">2022/12/16
+</v>
+          </cell>
+          <cell r="C417">
+            <v>23.350000380000001</v>
+          </cell>
+          <cell r="D417">
+            <v>31.443999978987929</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v xml:space="preserve">2022/12/19
+</v>
+          </cell>
+          <cell r="C418">
+            <v>23.079999919999999</v>
+          </cell>
+          <cell r="D418">
+            <v>31.423894209615362</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v xml:space="preserve">2022/12/20
+</v>
+          </cell>
+          <cell r="C419">
+            <v>22.709999079999999</v>
+          </cell>
+          <cell r="D419">
+            <v>31.402997578609092</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v xml:space="preserve">2022/12/21
+</v>
+          </cell>
+          <cell r="C420">
+            <v>22.61000061</v>
+          </cell>
+          <cell r="D420">
+            <v>31.381961700693761</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v xml:space="preserve">2022/12/22
+</v>
+          </cell>
+          <cell r="C421">
+            <v>22.549999239999998</v>
+          </cell>
+          <cell r="D421">
+            <v>31.360883031336495</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v xml:space="preserve">2022/12/23
+</v>
+          </cell>
+          <cell r="C422">
+            <v>22.450000760000002</v>
+          </cell>
+          <cell r="D422">
+            <v>31.33966664497617</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v xml:space="preserve">2022/12/26
+</v>
+          </cell>
+          <cell r="C423">
+            <v>22.790000920000001</v>
+          </cell>
+          <cell r="D423">
+            <v>31.319358650380028</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v xml:space="preserve">2022/12/27
+</v>
+          </cell>
+          <cell r="C424">
+            <v>23</v>
+          </cell>
+          <cell r="D424">
+            <v>31.29964453035543</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v xml:space="preserve">2022/12/28
+</v>
+          </cell>
+          <cell r="C425">
+            <v>22.729999540000001</v>
+          </cell>
+          <cell r="D425">
+            <v>31.279385322340406</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426">
+            <v>44924</v>
+          </cell>
+          <cell r="C426">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D426">
+            <v>31.259292432971684</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427">
+            <v>44925</v>
+          </cell>
+          <cell r="C427">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D427">
+            <v>31.23924703847057</v>
           </cell>
         </row>
       </sheetData>
@@ -25468,17 +26551,47 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="A20">
+            <v>44895</v>
+          </cell>
+          <cell r="B20">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C20">
+            <v>2000</v>
+          </cell>
+          <cell r="D20">
+            <v>2777.7776673988105</v>
+          </cell>
+          <cell r="E20">
+            <v>51943.216935522461</v>
+          </cell>
+          <cell r="F20">
+            <v>37399.117679683528</v>
+          </cell>
+          <cell r="G20">
+            <v>44000</v>
+          </cell>
+          <cell r="H20">
+            <v>37399.117679683528</v>
+          </cell>
+          <cell r="I20">
+            <v>-6600.882320316472</v>
+          </cell>
           <cell r="J20">
-            <v>0</v>
+            <v>3.3000051975250244E-2</v>
           </cell>
           <cell r="K20">
-            <v>0</v>
+            <v>1.4461814163367781E-2</v>
           </cell>
           <cell r="L20">
-            <v>0</v>
+            <v>3.3000051975250244E-2</v>
           </cell>
           <cell r="M20">
-            <v>0</v>
+            <v>4.287607908572403E-2</v>
+          </cell>
+          <cell r="N20">
+            <v>33.729329900837342</v>
           </cell>
         </row>
         <row r="21">
@@ -27499,26 +28612,56 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="A20">
+            <v>44895</v>
+          </cell>
+          <cell r="B20">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C20">
+            <v>2000</v>
+          </cell>
+          <cell r="D20">
+            <v>2777.7776673988105</v>
+          </cell>
+          <cell r="E20">
+            <v>43887.771693479837</v>
+          </cell>
+          <cell r="F20">
+            <v>31599.196874944704</v>
+          </cell>
+          <cell r="G20">
+            <v>37000</v>
+          </cell>
+          <cell r="H20">
+            <v>31599.196874944704</v>
+          </cell>
+          <cell r="I20">
+            <v>-5400.8031250552958</v>
+          </cell>
           <cell r="J20">
-            <v>0</v>
+            <v>0.74500000476837158</v>
           </cell>
           <cell r="K20">
-            <v>0</v>
+            <v>0.68400001525878906</v>
           </cell>
           <cell r="L20">
-            <v>0</v>
+            <v>0.88599997758865356</v>
           </cell>
           <cell r="M20">
-            <v>0</v>
+            <v>0.65399998426437378</v>
           </cell>
           <cell r="N20">
-            <v>0</v>
+            <v>28.448295795251873</v>
           </cell>
           <cell r="O20">
-            <v>0</v>
+            <v>23.752534975058655</v>
           </cell>
           <cell r="P20">
-            <v>0</v>
+            <v>25.758231139497596</v>
+          </cell>
+          <cell r="Q20">
+            <v>19.741142646180776</v>
           </cell>
         </row>
         <row r="21">
@@ -29074,7 +30217,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29192,31 +30335,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G20" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G21" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:H20" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I20" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I21" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" ref="J3:J20" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K20" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="29">
-        <f t="shared" ref="L3:L20" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L21" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="27"/>
@@ -29262,7 +30405,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="29">
-        <f t="shared" ref="E4:E20" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E21" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="30">
@@ -30160,6 +31303,55 @@
         <v>-197680.09888055502</v>
       </c>
       <c r="L20" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="31">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="29">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="7"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" si="1"/>
+        <v>4849814.7353992322</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="2"/>
+        <v>3506416.0051296353</v>
+      </c>
+      <c r="I21" s="30">
+        <f t="shared" si="3"/>
+        <v>3690730.8026686539</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="4"/>
+        <v>3506416.0051296353</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="5"/>
+        <v>-184314.79753901856</v>
+      </c>
+      <c r="L21" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -30180,7 +31372,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30309,7 +31501,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -30317,7 +31509,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -30325,11 +31517,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -30387,7 +31579,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -30395,7 +31587,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -30407,7 +31599,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -30480,7 +31672,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E20" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
+        <f t="shared" ref="E5:E21" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
         <v>52777.576044247049</v>
       </c>
       <c r="F5" s="18">
@@ -30598,7 +31790,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P20" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P21" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -31530,6 +32722,71 @@
         <v>23.977388204158451</v>
       </c>
       <c r="P20" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="8"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="4"/>
+        <v>6867447.1210468533</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>4965164.1997491419</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="5"/>
+        <v>5272027.5795797678</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>4965164.1997491419</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
+        <v>-306863.37983062584</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.4461814163367781E-2</v>
+      </c>
+      <c r="N21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.287607908572403E-2</v>
+      </c>
+      <c r="O21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>33.729329900837342</v>
+      </c>
+      <c r="P21" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -31550,7 +32807,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31679,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -31687,7 +32944,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -31695,11 +32952,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -31757,7 +33014,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -31765,7 +33022,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -31777,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -31850,7 +33107,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E20" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
+        <f t="shared" ref="E5:E21" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
         <v>136414.52483783176</v>
       </c>
       <c r="F5" s="18">
@@ -31968,7 +33225,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P20" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P21" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -32900,6 +34157,71 @@
         <v>23.977388204158451</v>
       </c>
       <c r="P20" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="8"/>
+        <v>2425149.3465615129</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>3354286.8328491473</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="4"/>
+        <v>60405277.414306186</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>43673014.965670273</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="5"/>
+        <v>45506963.189090557</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>43673014.965670273</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
+        <v>-1833948.2234202847</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.4461814163367781E-2</v>
+      </c>
+      <c r="N21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.287607908572403E-2</v>
+      </c>
+      <c r="O21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>33.729329900837342</v>
+      </c>
+      <c r="P21" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -32920,7 +34242,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33067,7 +34389,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H21" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -33075,7 +34397,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J21" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -33083,11 +34405,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L20" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L21" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M20" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M21" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -33155,7 +34477,7 @@
         <v>146.12645884219521</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I21" si="4">I3+H4</f>
         <v>146.12645884219521</v>
       </c>
       <c r="J4" s="18">
@@ -33163,7 +34485,7 @@
         <v>147.00321759524837</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K20" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K21" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>147.00321759524837</v>
       </c>
       <c r="L4" s="18">
@@ -33175,7 +34497,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N20" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N21" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="22">
@@ -33256,7 +34578,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G20" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
+        <f t="shared" ref="G5:G21" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
         <v>3941.4049128625688</v>
       </c>
       <c r="H5" s="18">
@@ -33300,7 +34622,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R20" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
+        <f t="shared" ref="R5:R21" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="AB5" s="6"/>
@@ -34426,6 +35748,79 @@
         <v>23.977388204158451</v>
       </c>
       <c r="R20" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2041800</v>
+      </c>
+      <c r="F21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5162984.7923986483</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="8"/>
+        <v>133541.55721160246</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>184704.78431695525</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="4"/>
+        <v>2630541.8752131839</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="1"/>
+        <v>1901881.7494379897</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="5"/>
+        <v>1940918.3647482875</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="2"/>
+        <v>1901881.7494379897</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="3"/>
+        <v>-39036.615310297813</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.4461814163367781E-2</v>
+      </c>
+      <c r="P21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.287607908572403E-2</v>
+      </c>
+      <c r="Q21" s="22">
+        <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>33.729329900837342</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -34446,7 +35841,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34580,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -34588,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -34596,11 +35991,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -34669,7 +36064,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E20" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
+        <f t="shared" ref="E4:E21" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="18">
@@ -34677,7 +36072,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -34685,7 +36080,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -34697,7 +36092,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
@@ -34717,7 +36112,7 @@
         <v>64.221158958000927</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q20" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
+        <f t="shared" ref="Q4:Q21" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
         <v>1</v>
       </c>
       <c r="S4" s="42">
@@ -35892,6 +37287,75 @@
         <v>10.691805251451996</v>
       </c>
       <c r="Q20" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="4"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="5"/>
+        <v>4925324.4122932283</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>3561009.5007678727</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="6"/>
+        <v>3750534.466444646</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>3561009.5007678727</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
+        <v>-189524.96567677334</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>28.448295795251873</v>
+      </c>
+      <c r="N21" s="21">
+        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>23.752534975058655</v>
+      </c>
+      <c r="O21" s="21">
+        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>25.758231139497596</v>
+      </c>
+      <c r="P21" s="21">
+        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>19.741142646180776</v>
+      </c>
+      <c r="Q21" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -35912,7 +37376,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36047,7 +37511,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H21" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -36055,7 +37519,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J21" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -36063,11 +37527,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L20" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L21" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M20" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M21" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -36125,7 +37589,7 @@
         <v>34298297.880000003</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G20" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
+        <f t="shared" ref="G4:G21" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="H4" s="18">
@@ -36133,7 +37597,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="5">I3+H4</f>
+        <f t="shared" ref="I4:I21" si="5">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="18">
@@ -36141,7 +37605,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K20" si="6">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K21" si="6">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="18">
@@ -36153,7 +37617,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N20" si="7">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N21" si="7">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="7"/>
@@ -37151,6 +38615,63 @@
         <v>-160251.81093252078</v>
       </c>
       <c r="N20" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2041800</v>
+      </c>
+      <c r="F21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5162984.7923986483</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="4"/>
+        <v>959071.18361059949</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>1326516.1782763151</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="5"/>
+        <v>14427606.060388738</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="1"/>
+        <v>10431159.037189066</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="6"/>
+        <v>10552108.084489252</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="2"/>
+        <v>10431159.037189066</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="3"/>
+        <v>-120949.04730018601</v>
+      </c>
+      <c r="N21" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -37171,7 +38692,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37289,7 +38810,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -37297,7 +38818,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -37305,11 +38826,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -37359,7 +38880,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E20" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
+        <f t="shared" ref="E4:E21" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="F4" s="18">
@@ -37367,7 +38888,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -37375,7 +38896,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -37387,7 +38908,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="7"/>
@@ -38261,6 +39782,55 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="31">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="4"/>
+        <v>2425149.3465615129</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>3354286.8328491473</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="5"/>
+        <v>42230292.102405429</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>30532500.767162703</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="6"/>
+        <v>31571512.229811795</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>30532500.767162703</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
+        <v>-1039011.4626490921</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -530,6 +530,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -586,7 +587,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -643,6 +644,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +656,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -699,16 +703,19 @@
                   <c:v>2363967.4431216232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2702774.6770976437</c:v>
+                  <c:v>2761346.2493095547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3094416.5845493269</c:v>
+                  <c:v>3155905.6052298844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3405393.8463527663</c:v>
+                  <c:v>3469340.924224162</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3690730.8026686539</c:v>
+                  <c:v>3756910.4972957228</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3904600.5212148419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +758,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -808,6 +815,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,7 +827,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -864,16 +874,19 @@
                   <c:v>2269278.6426948672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2403405.8214305816</c:v>
+                  <c:v>2461977.3936424926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2763969.1929088128</c:v>
+                  <c:v>2824700.8222666993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3207713.7474722113</c:v>
+                  <c:v>3273820.6785529791</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3506416.0051296353</c:v>
+                  <c:v>3575030.9949550489</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4049072.3250765675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +929,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -973,6 +986,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +998,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1032,13 +1048,16 @@
                   <c:v>-299368.8556670621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-330447.39164051414</c:v>
+                  <c:v>-331204.78296318511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-197680.09888055502</c:v>
+                  <c:v>-195520.24567118287</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-184314.79753901856</c:v>
+                  <c:v>-181879.50234067393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144471.80386172561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,11 +1079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88786432"/>
-        <c:axId val="88787968"/>
+        <c:axId val="91282816"/>
+        <c:axId val="93557888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88786432"/>
+        <c:axId val="91282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,14 +1126,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88787968"/>
+        <c:crossAx val="93557888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88787968"/>
+        <c:axId val="93557888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1184,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88786432"/>
+        <c:crossAx val="91282816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,6 +1198,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1324,7 +1344,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1371,16 +1391,19 @@
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>338807.23397602042</c:v>
+                  <c:v>397378.80618793133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391641.90745168331</c:v>
+                  <c:v>394559.35592032992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,8 +1418,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88797568"/>
-        <c:axId val="88779392"/>
+        <c:axId val="95266304"/>
+        <c:axId val="95264768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1421,7 +1444,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1478,6 +1501,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,7 +1513,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1544,6 +1570,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,11 +1589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88771968"/>
-        <c:axId val="88777856"/>
+        <c:axId val="95257344"/>
+        <c:axId val="95258880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88771968"/>
+        <c:axId val="95257344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,14 +1636,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88777856"/>
+        <c:crossAx val="95258880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88777856"/>
+        <c:axId val="95258880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,12 +1694,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88771968"/>
+        <c:crossAx val="95257344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88779392"/>
+        <c:axId val="95264768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,12 +1736,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88797568"/>
+        <c:crossAx val="95266304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88797568"/>
+        <c:axId val="95266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88779392"/>
+        <c:crossAx val="95264768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1870,7 +1899,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1927,6 +1956,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,7 +1968,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1983,16 +2015,19 @@
                   <c:v>4642497.1052748719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5844433.8996156417</c:v>
+                  <c:v>6169218.0708446894</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8279713.8412235472</c:v>
+                  <c:v>8631760.2332314495</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9593036.9008786529</c:v>
+                  <c:v>9960685.3694002461</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10552108.084489252</c:v>
+                  <c:v>10931034.910544405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11358771.598912753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,7 +2070,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2092,6 +2127,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,7 +2139,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2148,16 +2186,19 @@
                   <c:v>4594058.9193989662</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5381629.5730162067</c:v>
+                  <c:v>5706413.7442452544</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7747319.4492304847</c:v>
+                  <c:v>8095166.0442423308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9432785.0899461322</c:v>
+                  <c:v>9812942.5767630897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10431159.037189066</c:v>
+                  <c:v>10824178.850611808</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12240014.638386695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,7 +2241,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2257,6 +2298,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2310,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2316,13 +2360,16 @@
                   <c:v>-462804.32659943495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-532394.39199306257</c:v>
+                  <c:v>-536594.18898911867</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-160251.81093252078</c:v>
+                  <c:v>-147742.79263715632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-120949.04730018601</c:v>
+                  <c:v>-106856.05993259698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>881243.03947394155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,11 +2391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88857984"/>
-        <c:axId val="89785472"/>
+        <c:axId val="101024512"/>
+        <c:axId val="101026048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88857984"/>
+        <c:axId val="101024512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,14 +2438,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89785472"/>
+        <c:crossAx val="101026048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89785472"/>
+        <c:axId val="101026048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88857984"/>
+        <c:crossAx val="101024512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2608,7 +2655,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2655,16 +2702,19 @@
                   <c:v>250025.83792445474</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1201936.7943407698</c:v>
+                  <c:v>1526720.9655698179</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2435279.9416079051</c:v>
+                  <c:v>2462542.1623867596</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1313323.0596551057</c:v>
+                  <c:v>1328925.1361687968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>959071.18361059949</c:v>
+                  <c:v>970349.54114415869</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>427736.68836834806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,8 +2729,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89825280"/>
-        <c:axId val="89819392"/>
+        <c:axId val="101049472"/>
+        <c:axId val="101039488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2705,7 +2755,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2762,6 +2812,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,7 +2824,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2828,6 +2881,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,11 +2900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89811968"/>
-        <c:axId val="89817856"/>
+        <c:axId val="101036416"/>
+        <c:axId val="101037952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89811968"/>
+        <c:axId val="101036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,14 +2947,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89817856"/>
+        <c:crossAx val="101037952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89817856"/>
+        <c:axId val="101037952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,12 +3005,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89811968"/>
+        <c:crossAx val="101036416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89819392"/>
+        <c:axId val="101039488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,12 +3047,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89825280"/>
+        <c:crossAx val="101049472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89825280"/>
+        <c:axId val="101049472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89819392"/>
+        <c:crossAx val="101039488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,7 +3154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3155,7 +3210,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3212,6 +3267,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,7 +3279,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3268,16 +3326,19 @@
                   <c:v>19349518.144447364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22487355.753114704</c:v>
+                  <c:v>23335253.905480795</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26387091.575158808</c:v>
+                  <c:v>27278646.087988157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29146362.883250281</c:v>
+                  <c:v>30070697.116007932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31571512.229811795</c:v>
+                  <c:v>32524365.410766624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33427449.505397856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,7 +3381,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3438,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3450,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3433,16 +3497,19 @@
                   <c:v>19017000.855342031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20439579.389013644</c:v>
+                  <c:v>21287477.541379735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24075010.199536402</c:v>
+                  <c:v>24955600.507737815</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27990724.906331956</c:v>
+                  <c:v>28946394.100295544</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30532500.767162703</c:v>
+                  <c:v>31520670.812874004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35301159.916489385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,7 +3552,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3542,6 +3609,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,7 +3621,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3601,13 +3671,16 @@
                   <c:v>-2047776.3641010597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2312081.3756224066</c:v>
+                  <c:v>-2323045.5802503414</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1155637.9769183248</c:v>
+                  <c:v>-1124303.0157123879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1039011.4626490921</c:v>
+                  <c:v>-1003694.5978926197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1873710.4110915288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,11 +3702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89836928"/>
-        <c:axId val="89846912"/>
+        <c:axId val="101134720"/>
+        <c:axId val="101136256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89836928"/>
+        <c:axId val="101134720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,14 +3749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89846912"/>
+        <c:crossAx val="101136256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89846912"/>
+        <c:axId val="101136256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89836928"/>
+        <c:crossAx val="101134720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3748,7 +3821,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,7 +3966,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3941,16 +4013,19 @@
                   <c:v>2020592.460434271</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3137837.6086673411</c:v>
+                  <c:v>3985735.7610334312</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3899735.8220441043</c:v>
+                  <c:v>3943392.1825073613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2759271.3080914733</c:v>
+                  <c:v>2792051.0280197761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2425149.3465615129</c:v>
+                  <c:v>2453668.2947586924</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>903084.09463123081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,8 +4040,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89972736"/>
-        <c:axId val="89970944"/>
+        <c:axId val="101171968"/>
+        <c:axId val="101161984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3991,7 +4066,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4048,6 +4123,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,7 +4135,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4114,6 +4192,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,11 +4211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89963520"/>
-        <c:axId val="89969408"/>
+        <c:axId val="101158912"/>
+        <c:axId val="101160448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89963520"/>
+        <c:axId val="101158912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,14 +4258,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89969408"/>
+        <c:crossAx val="101160448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89969408"/>
+        <c:axId val="101160448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,12 +4316,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89963520"/>
+        <c:crossAx val="101158912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89970944"/>
+        <c:axId val="101161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,12 +4358,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89972736"/>
+        <c:crossAx val="101171968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89972736"/>
+        <c:axId val="101171968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89970944"/>
+        <c:crossAx val="101161984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4422,7 +4503,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4469,16 +4550,19 @@
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>338807.23397602042</c:v>
+                  <c:v>397378.80618793133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391641.90745168331</c:v>
+                  <c:v>394559.35592032992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4493,8 +4577,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506179584"/>
-        <c:axId val="502491392"/>
+        <c:axId val="604023040"/>
+        <c:axId val="604021120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4519,7 +4603,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4576,6 +4660,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,7 +4672,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4642,6 +4729,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,11 +4748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496835584"/>
-        <c:axId val="501917568"/>
+        <c:axId val="564056448"/>
+        <c:axId val="564058368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496835584"/>
+        <c:axId val="564056448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,14 +4795,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501917568"/>
+        <c:crossAx val="564058368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501917568"/>
+        <c:axId val="564058368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,12 +4853,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496835584"/>
+        <c:crossAx val="564056448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502491392"/>
+        <c:axId val="604021120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,12 +4895,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506179584"/>
+        <c:crossAx val="604023040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506179584"/>
+        <c:axId val="604023040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,7 +4909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502491392"/>
+        <c:crossAx val="604021120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4968,7 +5058,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5025,6 +5115,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5034,7 +5127,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5081,16 +5174,19 @@
                   <c:v>3962204.5817315388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4284071.4540087581</c:v>
+                  <c:v>4339714.4476100737</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4675713.3614604417</c:v>
+                  <c:v>4734273.8035304034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4986690.6232638806</c:v>
+                  <c:v>5047709.1225246815</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5272027.5795797678</c:v>
+                  <c:v>5335278.6955962423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5475584.2183194058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,7 +5229,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5190,6 +5286,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5199,7 +5298,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5246,16 +5345,19 @@
                   <c:v>3831387.1831490276</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3807677.9214338777</c:v>
+                  <c:v>3863320.9150351929</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4150082.5947067062</c:v>
+                  <c:v>4207923.5150201302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4660409.122863424</c:v>
+                  <c:v>4723486.4896567063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4965164.1997491419</c:v>
+                  <c:v>5030737.0022655586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5630279.8278727904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,7 +5400,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5355,6 +5457,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5364,7 +5469,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5411,16 +5516,19 @@
                   <c:v>-130817.39858251112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-476393.5325748804</c:v>
+                  <c:v>-476393.53257488087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-525630.76675373549</c:v>
+                  <c:v>-526350.28851027321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-326281.5004004566</c:v>
+                  <c:v>-324222.63286797516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-306863.37983062584</c:v>
+                  <c:v>-304541.69333068375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154695.60955338459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5442,11 +5550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77992320"/>
-        <c:axId val="77993856"/>
+        <c:axId val="680016128"/>
+        <c:axId val="680045568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77992320"/>
+        <c:axId val="680016128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5489,14 +5597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77993856"/>
+        <c:crossAx val="680045568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77993856"/>
+        <c:axId val="680045568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,7 +5655,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77992320"/>
+        <c:crossAx val="680016128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5715,7 +5823,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5762,16 +5870,19 @@
                   <c:v>240016.8817935377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>321866.87227721937</c:v>
+                  <c:v>377509.86587853474</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391641.90745168331</c:v>
+                  <c:v>394559.35592032992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140305.52272316307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,8 +5897,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78034048"/>
-        <c:axId val="78024064"/>
+        <c:axId val="91011328"/>
+        <c:axId val="91009792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5812,7 +5923,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5869,6 +5980,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,7 +5992,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5935,6 +6049,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5951,11 +6068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78020992"/>
-        <c:axId val="78022528"/>
+        <c:axId val="91002368"/>
+        <c:axId val="91003904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78020992"/>
+        <c:axId val="91002368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,14 +6115,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78022528"/>
+        <c:crossAx val="91003904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78022528"/>
+        <c:axId val="91003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6056,12 +6173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78020992"/>
+        <c:crossAx val="91002368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78024064"/>
+        <c:axId val="91009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6098,12 +6215,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78034048"/>
+        <c:crossAx val="91011328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78034048"/>
+        <c:axId val="91011328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,7 +6229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78024064"/>
+        <c:crossAx val="91009792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6261,7 +6378,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6318,6 +6435,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6327,7 +6447,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6374,16 +6494,19 @@
                   <c:v>33441860.984159492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36422806.712393463</c:v>
+                  <c:v>37228309.95714125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40322542.534437567</c:v>
+                  <c:v>41171702.139648609</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43081813.842529044</c:v>
+                  <c:v>43963753.167668387</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45506963.189090557</c:v>
+                  <c:v>46417421.46242708</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47275351.352326751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6426,7 +6549,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6483,6 +6606,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6492,7 +6618,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6539,16 +6665,19 @@
                   <c:v>33093310.17754392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33089368.802103221</c:v>
+                  <c:v>33894872.046851009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36561224.684153311</c:v>
+                  <c:v>37399968.294967815</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41076714.850891002</c:v>
+                  <c:v>41988527.240865454</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43673014.965670273</c:v>
+                  <c:v>44617145.473069079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49548008.919266947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6720,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6648,6 +6777,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6657,7 +6789,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6707,13 +6839,16 @@
                   <c:v>-3333437.9102902412</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3761317.850284256</c:v>
+                  <c:v>-3771733.8446807936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2005098.991638042</c:v>
+                  <c:v>-1975225.9268029332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1833948.2234202847</c:v>
+                  <c:v>-1800275.9893580005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2272657.5669401959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6735,11 +6870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78045568"/>
-        <c:axId val="78047104"/>
+        <c:axId val="91027328"/>
+        <c:axId val="91028864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78045568"/>
+        <c:axId val="91027328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,14 +6917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78047104"/>
+        <c:crossAx val="91028864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78047104"/>
+        <c:axId val="91028864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6840,7 +6975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78045568"/>
+        <c:crossAx val="91027328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7008,7 +7143,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7055,16 +7190,19 @@
                   <c:v>1919562.8374125573</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2980945.728233974</c:v>
+                  <c:v>3786448.9729817593</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3899735.8220441043</c:v>
+                  <c:v>3943392.1825073613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2759271.3080914733</c:v>
+                  <c:v>2792051.0280197761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2425149.3465615129</c:v>
+                  <c:v>2453668.2947586924</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>857929.88989966922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7079,8 +7217,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78214272"/>
-        <c:axId val="78212480"/>
+        <c:axId val="91069056"/>
+        <c:axId val="91067520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7105,7 +7243,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7162,6 +7300,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7171,7 +7312,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7228,6 +7369,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7244,11 +7388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78209408"/>
-        <c:axId val="78210944"/>
+        <c:axId val="91043712"/>
+        <c:axId val="91045248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78209408"/>
+        <c:axId val="91043712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7291,14 +7435,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78210944"/>
+        <c:crossAx val="91045248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78210944"/>
+        <c:axId val="91045248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7349,12 +7493,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78209408"/>
+        <c:crossAx val="91043712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78212480"/>
+        <c:axId val="91067520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,12 +7535,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78214272"/>
+        <c:crossAx val="91069056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78214272"/>
+        <c:axId val="91069056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7405,7 +7549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78212480"/>
+        <c:crossAx val="91067520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7554,7 +7698,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7611,6 +7755,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7620,7 +7767,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7667,16 +7814,19 @@
                   <c:v>1126429.0541853667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1285419.4276139876</c:v>
+                  <c:v>1328381.384441121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1624509.0397366071</c:v>
+                  <c:v>1671267.0019886445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1807376.8075366851</c:v>
+                  <c:v>1856307.2108222744</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1940918.3647482875</c:v>
+                  <c:v>1991419.1722474105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2047999.5316581603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7719,7 +7869,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7776,6 +7926,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,7 +7938,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7832,16 +7985,19 @@
                   <c:v>1124427.1205732427</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1181998.5669373057</c:v>
+                  <c:v>1224960.5237644389</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1505803.7087238817</c:v>
+                  <c:v>1552006.1282087194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1761002.7754212453</c:v>
+                  <c:v>1811596.9697041714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1901881.7494379897</c:v>
+                  <c:v>1954257.1543548342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2189234.3936469299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7884,7 +8040,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7941,6 +8097,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7950,7 +8109,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7997,16 +8156,19 @@
                   <c:v>-2001.9336121240631</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-103420.86067668186</c:v>
+                  <c:v>-103420.86067668209</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-118705.33101272536</c:v>
+                  <c:v>-119260.87377992505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-46374.032115439884</c:v>
+                  <c:v>-44710.241118103033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-39036.615310297813</c:v>
+                  <c:v>-37162.017892576288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>141234.86198876961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8028,11 +8190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78418304"/>
-        <c:axId val="78419840"/>
+        <c:axId val="93562752"/>
+        <c:axId val="93564288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78418304"/>
+        <c:axId val="93562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8075,14 +8237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78419840"/>
+        <c:crossAx val="93564288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78419840"/>
+        <c:axId val="93564288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78418304"/>
+        <c:crossAx val="93562752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8292,7 +8454,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8339,16 +8501,19 @@
                   <c:v>33073.038054563942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>158990.37342862081</c:v>
+                  <c:v>201952.33025575429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>339089.61212261964</c:v>
+                  <c:v>342885.61754752346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>182867.767800078</c:v>
+                  <c:v>185040.20883362993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133541.55721160246</c:v>
+                  <c:v>135111.96142513602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56580.359410749836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8363,8 +8528,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88740608"/>
-        <c:axId val="78445568"/>
+        <c:axId val="95226112"/>
+        <c:axId val="95224576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8389,7 +8554,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8446,6 +8611,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8455,7 +8623,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8512,6 +8680,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8528,11 +8699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78442496"/>
-        <c:axId val="78444032"/>
+        <c:axId val="93578752"/>
+        <c:axId val="93580288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78442496"/>
+        <c:axId val="93578752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8575,14 +8746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78444032"/>
+        <c:crossAx val="93580288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78444032"/>
+        <c:axId val="93580288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8633,12 +8804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78442496"/>
+        <c:crossAx val="93578752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78445568"/>
+        <c:axId val="95224576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8675,12 +8846,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88740608"/>
+        <c:crossAx val="95226112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88740608"/>
+        <c:axId val="95226112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8689,7 +8860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78445568"/>
+        <c:crossAx val="95224576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8838,7 +9009,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8895,6 +9066,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8904,7 +9078,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8951,16 +9125,19 @@
                   <c:v>2423771.1068976154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2762578.3408736358</c:v>
+                  <c:v>2821149.9130855468</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3154220.248325319</c:v>
+                  <c:v>3215709.269005877</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3465197.5101287584</c:v>
+                  <c:v>3529144.5880001546</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3750534.466444646</c:v>
+                  <c:v>3816714.1610717154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3964404.1849908344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9003,7 +9180,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9060,6 +9237,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9069,7 +9249,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9116,16 +9296,19 @@
                   <c:v>2327043.5444385991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2455960.5550365578</c:v>
+                  <c:v>2514532.1272484688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2815844.3391707027</c:v>
+                  <c:v>2876575.9685285888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3262080.7169962376</c:v>
+                  <c:v>3328187.6480770046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3561009.5007678727</c:v>
+                  <c:v>3629624.4905932853</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4108649.458237621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9168,7 +9351,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9225,6 +9408,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9234,7 +9420,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9284,13 +9470,16 @@
                   <c:v>-306617.785837078</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-338375.9091546163</c:v>
+                  <c:v>-339133.3004772882</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-203116.79313252075</c:v>
+                  <c:v>-200956.93992315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-189524.96567677334</c:v>
+                  <c:v>-187089.67047843011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144245.27324678656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9312,11 +9501,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88756224"/>
-        <c:axId val="88757760"/>
+        <c:axId val="95237248"/>
+        <c:axId val="95238784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88756224"/>
+        <c:axId val="95237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9359,14 +9548,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88757760"/>
+        <c:crossAx val="95238784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88757760"/>
+        <c:axId val="95238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9417,7 +9606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88756224"/>
+        <c:crossAx val="95237248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20749,6 +20938,1021 @@
             <v>5162984.7923986483</v>
           </cell>
         </row>
+        <row r="373">
+          <cell r="A373">
+            <v>44929</v>
+          </cell>
+          <cell r="B373">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D373">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="E373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F373">
+            <v>1565200</v>
+          </cell>
+          <cell r="G373">
+            <v>1129.6409912109375</v>
+          </cell>
+          <cell r="H373">
+            <v>371</v>
+          </cell>
+          <cell r="I373">
+            <v>5153287.2592654983</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374">
+            <v>44930</v>
+          </cell>
+          <cell r="B374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C374">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D374">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="F374">
+            <v>1636900</v>
+          </cell>
+          <cell r="G374">
+            <v>1184.56201171875</v>
+          </cell>
+          <cell r="H374">
+            <v>372</v>
+          </cell>
+          <cell r="I374">
+            <v>5143834.6053427421</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375">
+            <v>44931</v>
+          </cell>
+          <cell r="B375">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C375">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="D375">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E375">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="F375">
+            <v>1151000</v>
+          </cell>
+          <cell r="G375">
+            <v>847.927001953125</v>
+          </cell>
+          <cell r="H375">
+            <v>373</v>
+          </cell>
+          <cell r="I375">
+            <v>5133129.9549262738</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376">
+            <v>44932</v>
+          </cell>
+          <cell r="B376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C376">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E376">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="F376">
+            <v>2536002</v>
+          </cell>
+          <cell r="G376">
+            <v>1894.322998046875</v>
+          </cell>
+          <cell r="H376">
+            <v>374</v>
+          </cell>
+          <cell r="I376">
+            <v>5126185.7625334226</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377">
+            <v>44935</v>
+          </cell>
+          <cell r="B377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C377">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="E377">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="F377">
+            <v>2679501</v>
+          </cell>
+          <cell r="G377">
+            <v>2000.68994140625</v>
+          </cell>
+          <cell r="H377">
+            <v>375</v>
+          </cell>
+          <cell r="I377">
+            <v>5119661.2698333338</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378">
+            <v>44936</v>
+          </cell>
+          <cell r="B378">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C378">
+            <v>0.75499999523162842</v>
+          </cell>
+          <cell r="D378">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E378">
+            <v>0.75300002098083496</v>
+          </cell>
+          <cell r="F378">
+            <v>1321912</v>
+          </cell>
+          <cell r="G378">
+            <v>988.56402587890625</v>
+          </cell>
+          <cell r="H378">
+            <v>376</v>
+          </cell>
+          <cell r="I378">
+            <v>5109560.872839096</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379">
+            <v>44937</v>
+          </cell>
+          <cell r="B379">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="C379">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D379">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="E379">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="F379">
+            <v>2797004</v>
+          </cell>
+          <cell r="G379">
+            <v>2105.48388671875</v>
+          </cell>
+          <cell r="H379">
+            <v>377</v>
+          </cell>
+          <cell r="I379">
+            <v>5103426.7697281167</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380">
+            <v>44938</v>
+          </cell>
+          <cell r="B380">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="C380">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D380">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="E380">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="F380">
+            <v>2889600</v>
+          </cell>
+          <cell r="G380">
+            <v>2174.404052734375</v>
+          </cell>
+          <cell r="H380">
+            <v>378</v>
+          </cell>
+          <cell r="I380">
+            <v>5097570.0851521166</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381">
+            <v>44939</v>
+          </cell>
+          <cell r="B381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D381">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="E381">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="F381">
+            <v>2609100</v>
+          </cell>
+          <cell r="G381">
+            <v>1971.1600341796875</v>
+          </cell>
+          <cell r="H381">
+            <v>379</v>
+          </cell>
+          <cell r="I381">
+            <v>5091004.2010224275</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382">
+            <v>44942</v>
+          </cell>
+          <cell r="B382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="C382">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="D382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E382">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="F382">
+            <v>3660307</v>
+          </cell>
+          <cell r="G382">
+            <v>2824.14404296875</v>
+          </cell>
+          <cell r="H382">
+            <v>380</v>
+          </cell>
+          <cell r="I382">
+            <v>5087239.2083881581</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383">
+            <v>44943</v>
+          </cell>
+          <cell r="B383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="C383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="D383">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="E383">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="F383">
+            <v>1479900</v>
+          </cell>
+          <cell r="G383">
+            <v>1148.1639404296875</v>
+          </cell>
+          <cell r="H383">
+            <v>381</v>
+          </cell>
+          <cell r="I383">
+            <v>5077771.1264763782</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384">
+            <v>44944</v>
+          </cell>
+          <cell r="B384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="C384">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D384">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="E384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="F384">
+            <v>5034005</v>
+          </cell>
+          <cell r="G384">
+            <v>3914.56298828125</v>
+          </cell>
+          <cell r="H384">
+            <v>382</v>
+          </cell>
+          <cell r="I384">
+            <v>5077656.5554646598</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385">
+            <v>44945</v>
+          </cell>
+          <cell r="B385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C385">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="D385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E385">
+            <v>0.78200000524520874</v>
+          </cell>
+          <cell r="F385">
+            <v>1876500</v>
+          </cell>
+          <cell r="G385">
+            <v>1461.1739501953125</v>
+          </cell>
+          <cell r="H385">
+            <v>383</v>
+          </cell>
+          <cell r="I385">
+            <v>5069298.4443537863</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386">
+            <v>44946</v>
+          </cell>
+          <cell r="B386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C386">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E386">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="F386">
+            <v>6181202</v>
+          </cell>
+          <cell r="G386">
+            <v>4860.455078125</v>
+          </cell>
+          <cell r="H386">
+            <v>384</v>
+          </cell>
+          <cell r="I386">
+            <v>5072194.0265299482</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387">
+            <v>44956</v>
+          </cell>
+          <cell r="B387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="C387">
+            <v>0.81000000238418579</v>
+          </cell>
+          <cell r="D387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="E387">
+            <v>0.79799997806549072</v>
+          </cell>
+          <cell r="F387">
+            <v>2619200</v>
+          </cell>
+          <cell r="G387">
+            <v>2099.212890625</v>
+          </cell>
+          <cell r="H387">
+            <v>385</v>
+          </cell>
+          <cell r="I387">
+            <v>5065822.6134740263</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388">
+            <v>44957</v>
+          </cell>
+          <cell r="B388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="C388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D388">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E388">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="F388">
+            <v>2396100</v>
+          </cell>
+          <cell r="G388">
+            <v>1900.77001953125</v>
+          </cell>
+          <cell r="H388">
+            <v>386</v>
+          </cell>
+          <cell r="I388">
+            <v>5058906.2336463733</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389">
+            <v>44958</v>
+          </cell>
+          <cell r="B389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C389">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E389">
+            <v>0.79900002479553223</v>
+          </cell>
+          <cell r="F389">
+            <v>2298500</v>
+          </cell>
+          <cell r="G389">
+            <v>1828.115966796875</v>
+          </cell>
+          <cell r="H389">
+            <v>387</v>
+          </cell>
+          <cell r="I389">
+            <v>5051773.4010012923</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390">
+            <v>44959</v>
+          </cell>
+          <cell r="B390">
+            <v>0.80099999904632568</v>
+          </cell>
+          <cell r="C390">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="D390">
+            <v>0.79400002956390381</v>
+          </cell>
+          <cell r="E390">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="F390">
+            <v>1222000</v>
+          </cell>
+          <cell r="G390">
+            <v>974.9000244140625</v>
+          </cell>
+          <cell r="H390">
+            <v>388</v>
+          </cell>
+          <cell r="I390">
+            <v>5041902.8509987118</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391">
+            <v>44960</v>
+          </cell>
+          <cell r="B391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D391">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E391">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="F391">
+            <v>2231500</v>
+          </cell>
+          <cell r="G391">
+            <v>1757.35205078125</v>
+          </cell>
+          <cell r="H391">
+            <v>389</v>
+          </cell>
+          <cell r="I391">
+            <v>5034678.1650064271</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392">
+            <v>44963</v>
+          </cell>
+          <cell r="B392">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C392">
+            <v>0.7850000262260437</v>
+          </cell>
+          <cell r="D392">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E392">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="F392">
+            <v>653500</v>
+          </cell>
+          <cell r="G392">
+            <v>509.80899047851562</v>
+          </cell>
+          <cell r="H392">
+            <v>390</v>
+          </cell>
+          <cell r="I392">
+            <v>5023444.3748397436</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393">
+            <v>44964</v>
+          </cell>
+          <cell r="B393">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C393">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="D393">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="E393">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="F393">
+            <v>1518500</v>
+          </cell>
+          <cell r="G393">
+            <v>1184.8780517578125</v>
+          </cell>
+          <cell r="H393">
+            <v>391</v>
+          </cell>
+          <cell r="I393">
+            <v>5014480.3227301789</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394">
+            <v>44965</v>
+          </cell>
+          <cell r="B394">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="C394">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D394">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E394">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="F394">
+            <v>1171112</v>
+          </cell>
+          <cell r="G394">
+            <v>912.447021484375</v>
+          </cell>
+          <cell r="H394">
+            <v>392</v>
+          </cell>
+          <cell r="I394">
+            <v>5004675.8117028065</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395">
+            <v>44966</v>
+          </cell>
+          <cell r="B395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="F395">
+            <v>1557100</v>
+          </cell>
+          <cell r="G395">
+            <v>1221.449951171875</v>
+          </cell>
+          <cell r="H395">
+            <v>393</v>
+          </cell>
+          <cell r="I395">
+            <v>4995903.354166667</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396">
+            <v>44967</v>
+          </cell>
+          <cell r="B396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D396">
+            <v>0.77899998426437378</v>
+          </cell>
+          <cell r="E396">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="F396">
+            <v>2219900</v>
+          </cell>
+          <cell r="G396">
+            <v>1734.8929443359375</v>
+          </cell>
+          <cell r="H396">
+            <v>394</v>
+          </cell>
+          <cell r="I396">
+            <v>4988857.6603743657</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397">
+            <v>44970</v>
+          </cell>
+          <cell r="B397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="C397">
+            <v>0.79000002145767212</v>
+          </cell>
+          <cell r="D397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E397">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="F397">
+            <v>2053500</v>
+          </cell>
+          <cell r="G397">
+            <v>1613.4949951171875</v>
+          </cell>
+          <cell r="H397">
+            <v>395</v>
+          </cell>
+          <cell r="I397">
+            <v>4981426.375158228</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398">
+            <v>44971</v>
+          </cell>
+          <cell r="B398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D398">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E398">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="F398">
+            <v>1283308</v>
+          </cell>
+          <cell r="G398">
+            <v>1008.1619873046875</v>
+          </cell>
+          <cell r="H398">
+            <v>396</v>
+          </cell>
+          <cell r="I398">
+            <v>4972087.6923926771</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399">
+            <v>44972</v>
+          </cell>
+          <cell r="B399">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C399">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="D399">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="E399">
+            <v>0.78600001335144043</v>
+          </cell>
+          <cell r="F399">
+            <v>854601</v>
+          </cell>
+          <cell r="G399">
+            <v>671.81597900390625</v>
+          </cell>
+          <cell r="H399">
+            <v>397</v>
+          </cell>
+          <cell r="I399">
+            <v>4961716.1893891692</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400">
+            <v>44973</v>
+          </cell>
+          <cell r="B400">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="C400">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D400">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="E400">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="F400">
+            <v>1755000</v>
+          </cell>
+          <cell r="G400">
+            <v>1372.9659423828125</v>
+          </cell>
+          <cell r="H400">
+            <v>398</v>
+          </cell>
+          <cell r="I400">
+            <v>4953659.1135364324</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="A401">
+            <v>44974</v>
+          </cell>
+          <cell r="B401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="C401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D401">
+            <v>0.75999999046325684</v>
+          </cell>
+          <cell r="E401">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="F401">
+            <v>3067106</v>
+          </cell>
+          <cell r="G401">
+            <v>2349.093017578125</v>
+          </cell>
+          <cell r="H401">
+            <v>399</v>
+          </cell>
+          <cell r="I401">
+            <v>4948930.9102443606</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402">
+            <v>44977</v>
+          </cell>
+          <cell r="B402">
+            <v>0.75800001621246338</v>
+          </cell>
+          <cell r="C402">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D402">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E402">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="F402">
+            <v>956200</v>
+          </cell>
+          <cell r="G402">
+            <v>735.38299560546875</v>
+          </cell>
+          <cell r="H402">
+            <v>400</v>
+          </cell>
+          <cell r="I402">
+            <v>4938949.08296875</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403">
+            <v>44978</v>
+          </cell>
+          <cell r="B403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C403">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="D403">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="E403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="F403">
+            <v>1222500</v>
+          </cell>
+          <cell r="G403">
+            <v>944.00799560546875</v>
+          </cell>
+          <cell r="H403">
+            <v>401</v>
+          </cell>
+          <cell r="I403">
+            <v>4929681.1301433919</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404">
+            <v>44979</v>
+          </cell>
+          <cell r="B404">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="C404">
+            <v>0.77100002765655518</v>
+          </cell>
+          <cell r="D404">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E404">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="F404">
+            <v>1488800</v>
+          </cell>
+          <cell r="G404">
+            <v>1145.47900390625</v>
+          </cell>
+          <cell r="H404">
+            <v>402</v>
+          </cell>
+          <cell r="I404">
+            <v>4921121.7243470149</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405">
+            <v>44980</v>
+          </cell>
+          <cell r="B405">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="C405">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="F405">
+            <v>1037301.9375</v>
+          </cell>
+          <cell r="G405">
+            <v>799.7540283203125</v>
+          </cell>
+          <cell r="H405">
+            <v>403</v>
+          </cell>
+          <cell r="I405">
+            <v>4911484.4544044668</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406">
+            <v>44981</v>
+          </cell>
+          <cell r="B406">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="C406">
+            <v>0.76899999380111694</v>
+          </cell>
+          <cell r="D406">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E406">
+            <v>0.76499998569488525</v>
+          </cell>
+          <cell r="F406">
+            <v>1018601</v>
+          </cell>
+          <cell r="G406">
+            <v>779.92901611328125</v>
+          </cell>
+          <cell r="H406">
+            <v>404</v>
+          </cell>
+          <cell r="I406">
+            <v>4901848.6042698016</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407">
+            <v>44984</v>
+          </cell>
+          <cell r="B407">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="C407">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="D407">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E407">
+            <v>0.75700002908706665</v>
+          </cell>
+          <cell r="F407">
+            <v>2463800</v>
+          </cell>
+          <cell r="G407">
+            <v>1870.217041015625</v>
+          </cell>
+          <cell r="H407">
+            <v>405</v>
+          </cell>
+          <cell r="I407">
+            <v>4895828.7311728392</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -24753,10 +25957,10 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>23.5</v>
+            <v>24.68000031</v>
           </cell>
           <cell r="D347">
-            <v>33.149565178898534</v>
+            <v>33.152985469652158</v>
           </cell>
         </row>
         <row r="348">
@@ -24765,10 +25969,10 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>23.5</v>
+            <v>24.6341</v>
           </cell>
           <cell r="D348">
-            <v>33.121676262196516</v>
+            <v>33.128364413381483</v>
           </cell>
         </row>
         <row r="349">
@@ -24777,10 +25981,10 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>23.5</v>
+            <v>24.469999309999999</v>
           </cell>
           <cell r="D349">
-            <v>33.093948088530247</v>
+            <v>33.103412352564824</v>
           </cell>
         </row>
         <row r="350">
@@ -24789,10 +25993,10 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>23.33</v>
+            <v>24.540000920000001</v>
           </cell>
           <cell r="D350">
-            <v>33.065890766436766</v>
+            <v>33.078804848448264</v>
           </cell>
         </row>
         <row r="351">
@@ -24801,10 +26005,10 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>23.05</v>
+            <v>24.780000690000001</v>
           </cell>
           <cell r="D351">
-            <v>33.037191939025774</v>
+            <v>33.055026039971331</v>
           </cell>
         </row>
         <row r="352">
@@ -24813,10 +26017,10 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>22.91</v>
+            <v>24.440000529999999</v>
           </cell>
           <cell r="D352">
-            <v>33.008257104914271</v>
+            <v>33.030411681371412</v>
           </cell>
         </row>
         <row r="353">
@@ -24825,10 +26029,10 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>23</v>
+            <v>24.770099999999999</v>
           </cell>
           <cell r="D353">
-            <v>32.979743551908818</v>
+            <v>33.006878029857532</v>
           </cell>
         </row>
         <row r="354">
@@ -24837,10 +26041,10 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>23.46</v>
+            <v>24.93</v>
           </cell>
           <cell r="D354">
-            <v>32.952698825909074</v>
+            <v>32.983932353636348</v>
           </cell>
         </row>
         <row r="355">
@@ -24849,10 +26053,10 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>22.93</v>
+            <v>24.52</v>
           </cell>
           <cell r="D355">
-            <v>32.924305911388082</v>
+            <v>32.959955208158625</v>
           </cell>
         </row>
         <row r="356">
@@ -24861,10 +26065,10 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.03</v>
+            <v>23.94</v>
           </cell>
           <cell r="D356">
-            <v>32.89635589468925</v>
+            <v>32.934475108700553</v>
           </cell>
         </row>
         <row r="357">
@@ -24873,10 +26077,10 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>22.61000061</v>
+            <v>23.5</v>
           </cell>
           <cell r="D357">
-            <v>32.867380245999989</v>
+            <v>32.90789912247886</v>
           </cell>
         </row>
         <row r="358">
@@ -24885,10 +26089,10 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>22.040000920000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D358">
-            <v>32.836966259129198</v>
+            <v>32.881472439550549</v>
           </cell>
         </row>
         <row r="359">
@@ -24897,10 +26101,10 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>22.239999770000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D359">
-            <v>32.807282879607826</v>
+            <v>32.85519380526609</v>
           </cell>
         </row>
         <row r="360">
@@ -24909,10 +26113,10 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>22.920000080000001</v>
+            <v>23.33</v>
           </cell>
           <cell r="D360">
-            <v>32.779664771229037</v>
+            <v>32.8285871186592</v>
           </cell>
         </row>
         <row r="361">
@@ -24921,10 +26125,10 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>22.850000380000001</v>
+            <v>23.05</v>
           </cell>
           <cell r="D361">
-            <v>32.752005538941489</v>
+            <v>32.801348714428954</v>
           </cell>
         </row>
         <row r="362">
@@ -24933,10 +26137,10 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>23.649999619999999</v>
+            <v>22.91</v>
           </cell>
           <cell r="D362">
-            <v>32.726722189166651</v>
+            <v>32.773872745777759</v>
           </cell>
         </row>
         <row r="363">
@@ -24945,10 +26149,10 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23.719999309999999</v>
+            <v>23</v>
           </cell>
           <cell r="D363">
-            <v>32.701772818310232</v>
+            <v>32.746798306038762</v>
           </cell>
         </row>
         <row r="364">
@@ -24957,10 +26161,10 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.850000380000001</v>
+            <v>23.46</v>
           </cell>
           <cell r="D364">
-            <v>32.677320408259654</v>
+            <v>32.721144167071806</v>
           </cell>
         </row>
         <row r="365">
@@ -24969,10 +26173,10 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>23.590000150000002</v>
+            <v>22.93</v>
           </cell>
           <cell r="D365">
-            <v>32.652286468154252</v>
+            <v>32.694171318126706</v>
           </cell>
         </row>
         <row r="366">
@@ -24981,10 +26185,10 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.399999619999999</v>
+            <v>23.030000690000001</v>
           </cell>
           <cell r="D366">
-            <v>32.626868097692288</v>
+            <v>32.66762139881866</v>
           </cell>
         </row>
         <row r="367">
@@ -24992,10 +26196,10 @@
             <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>23.340000150000002</v>
+            <v>22.61</v>
           </cell>
           <cell r="D367">
-            <v>32.601424623862997</v>
+            <v>32.640066271698615</v>
           </cell>
         </row>
         <row r="368">
@@ -25007,7 +26211,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D368">
-            <v>32.57256827494534</v>
+            <v>32.611104344508178</v>
           </cell>
         </row>
         <row r="369">
@@ -25019,7 +26223,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D369">
-            <v>32.544414137329682</v>
+            <v>32.582845203978181</v>
           </cell>
         </row>
         <row r="370">
@@ -25031,7 +26235,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D370">
-            <v>32.518260838260851</v>
+            <v>32.556587472663026</v>
           </cell>
         </row>
         <row r="371">
@@ -25043,7 +26247,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D371">
-            <v>32.492059590406484</v>
+            <v>32.530282358590767</v>
           </cell>
         </row>
         <row r="372">
@@ -25055,7 +26259,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D372">
-            <v>32.468162131027007</v>
+            <v>32.506281594432416</v>
           </cell>
         </row>
         <row r="373">
@@ -25067,7 +26271,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D373">
-            <v>32.444582177331519</v>
+            <v>32.482598892857126</v>
           </cell>
         </row>
         <row r="374">
@@ -25079,7 +26283,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D374">
-            <v>32.421478462822563</v>
+            <v>32.459392982876324</v>
           </cell>
         </row>
         <row r="375">
@@ -25091,7 +26295,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D375">
-            <v>32.39780157726539</v>
+            <v>32.435614449812313</v>
           </cell>
         </row>
         <row r="376">
@@ -25103,7 +26307,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D376">
-            <v>32.373743283262009</v>
+            <v>32.411455051871634</v>
           </cell>
         </row>
         <row r="377">
@@ -25115,7 +26319,7 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D377">
-            <v>32.349653301573312</v>
+            <v>32.387264505466646</v>
           </cell>
         </row>
         <row r="378">
@@ -25127,7 +26331,7 @@
             <v>22.829999919999999</v>
           </cell>
           <cell r="D378">
-            <v>32.324335074494662</v>
+            <v>32.361846248590403</v>
           </cell>
         </row>
         <row r="379">
@@ -25139,7 +26343,7 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D379">
-            <v>32.298912434429688</v>
+            <v>32.336324109389899</v>
           </cell>
         </row>
         <row r="380">
@@ -25151,7 +26355,7 @@
             <v>23.18000031</v>
           </cell>
           <cell r="D380">
-            <v>32.274788328280401</v>
+            <v>32.312101030555532</v>
           </cell>
         </row>
         <row r="381">
@@ -25163,7 +26367,7 @@
             <v>22.959999079999999</v>
           </cell>
           <cell r="D381">
-            <v>32.250211047941931</v>
+            <v>32.287425299815283</v>
           </cell>
         </row>
         <row r="382">
@@ -25174,7 +26378,7 @@
             <v>22.13999939</v>
           </cell>
           <cell r="D382">
-            <v>32.223605227789449</v>
+            <v>32.260721547421028</v>
           </cell>
         </row>
         <row r="383">
@@ -25185,7 +26389,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D383">
-            <v>32.197401538923856</v>
+            <v>32.234420440393677</v>
           </cell>
         </row>
         <row r="384">
@@ -25197,7 +26401,7 @@
             <v>22.270000459999999</v>
           </cell>
           <cell r="D384">
-            <v>32.171413577984268</v>
+            <v>32.208335571335049</v>
           </cell>
         </row>
         <row r="385">
@@ -25209,7 +26413,7 @@
             <v>22.600000380000001</v>
           </cell>
           <cell r="D385">
-            <v>32.146422943002584</v>
+            <v>32.183248534281958</v>
           </cell>
         </row>
         <row r="386">
@@ -25221,7 +26425,7 @@
             <v>22.479999540000001</v>
           </cell>
           <cell r="D386">
-            <v>32.121249965390597</v>
+            <v>32.157979656692682</v>
           </cell>
         </row>
         <row r="387">
@@ -25233,7 +26437,7 @@
             <v>23.200000760000002</v>
           </cell>
           <cell r="D387">
-            <v>32.098077889532441</v>
+            <v>32.134712179038935</v>
           </cell>
         </row>
         <row r="388">
@@ -25245,7 +26449,7 @@
             <v>23.190000529999999</v>
           </cell>
           <cell r="D388">
-            <v>32.074999968911889</v>
+            <v>32.111539350932617</v>
           </cell>
         </row>
         <row r="389">
@@ -25257,7 +26461,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D389">
-            <v>32.051627877751912</v>
+            <v>32.088072842764831</v>
           </cell>
         </row>
         <row r="390">
@@ -25269,7 +26473,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D390">
-            <v>32.027680383814406</v>
+            <v>32.064031418505131</v>
           </cell>
         </row>
         <row r="391">
@@ -25281,7 +26485,7 @@
             <v>22.31999969</v>
           </cell>
           <cell r="D391">
-            <v>32.002724906452414</v>
+            <v>32.038982493753188</v>
           </cell>
         </row>
         <row r="392">
@@ -25293,7 +26497,7 @@
             <v>22.870000839999999</v>
           </cell>
           <cell r="D392">
-            <v>31.979307665256382</v>
+            <v>32.015472284384586</v>
           </cell>
         </row>
         <row r="393">
@@ -25305,7 +26509,7 @@
             <v>22.88999939</v>
           </cell>
           <cell r="D393">
-            <v>31.95606135253194</v>
+            <v>31.992133479028105</v>
           </cell>
         </row>
         <row r="394">
@@ -25317,7 +26521,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D394">
-            <v>31.934362218367319</v>
+            <v>31.970342324132627</v>
           </cell>
         </row>
         <row r="395">
@@ -25329,7 +26533,7 @@
             <v>23.129999160000001</v>
           </cell>
           <cell r="D395">
-            <v>31.911959258931272</v>
+            <v>31.947847812264605</v>
           </cell>
         </row>
         <row r="396">
@@ -25341,7 +26545,7 @@
             <v>23.010000229999999</v>
           </cell>
           <cell r="D396">
-            <v>31.889365454289315</v>
+            <v>31.925162919923835</v>
           </cell>
         </row>
         <row r="397">
@@ -25353,7 +26557,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D397">
-            <v>31.866936682734149</v>
+            <v>31.902643521873394</v>
           </cell>
         </row>
         <row r="398">
@@ -25365,7 +26569,7 @@
             <v>23</v>
           </cell>
           <cell r="D398">
-            <v>31.844545428484821</v>
+            <v>31.880162098838358</v>
           </cell>
         </row>
         <row r="399">
@@ -25377,7 +26581,7 @@
             <v>22.649999619999999</v>
           </cell>
           <cell r="D399">
-            <v>31.821385363476043</v>
+            <v>31.856912319294686</v>
           </cell>
         </row>
         <row r="400">
@@ -25389,7 +26593,7 @@
             <v>22.540000920000001</v>
           </cell>
           <cell r="D400">
-            <v>31.798065302060277</v>
+            <v>31.833502994170832</v>
           </cell>
         </row>
         <row r="401">
@@ -25401,7 +26605,7 @@
             <v>22.510000229999999</v>
           </cell>
           <cell r="D401">
-            <v>31.774786943483686</v>
+            <v>31.810135819323285</v>
           </cell>
         </row>
         <row r="402">
@@ -25413,7 +26617,7 @@
             <v>22.36000061</v>
           </cell>
           <cell r="D402">
-            <v>31.751249977649977</v>
+            <v>31.786510481299977</v>
           </cell>
         </row>
         <row r="403">
@@ -25425,7 +26629,7 @@
             <v>22.200000760000002</v>
           </cell>
           <cell r="D403">
-            <v>31.727431401047358</v>
+            <v>31.762603973266813</v>
           </cell>
         </row>
         <row r="404">
@@ -25437,7 +26641,7 @@
             <v>22.700000760000002</v>
           </cell>
           <cell r="D404">
-            <v>31.704975105920376</v>
+            <v>31.740060184179082</v>
           </cell>
         </row>
         <row r="405">
@@ -25448,7 +26652,7 @@
             <v>22.809999470000001</v>
           </cell>
           <cell r="D405">
-            <v>31.682903206079384</v>
+            <v>31.717901224590552</v>
           </cell>
         </row>
         <row r="406">
@@ -25460,7 +26664,7 @@
             <v>23.170000080000001</v>
           </cell>
           <cell r="D406">
-            <v>31.661831663688094</v>
+            <v>31.696743053440571</v>
           </cell>
         </row>
         <row r="407">
@@ -25472,7 +26676,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D407">
-            <v>31.640518500790101</v>
+            <v>31.675343689580224</v>
           </cell>
         </row>
         <row r="408">
@@ -25484,7 +26688,7 @@
             <v>23.219999309999999</v>
           </cell>
           <cell r="D408">
-            <v>31.619778305738894</v>
+            <v>31.654517718201948</v>
           </cell>
         </row>
         <row r="409">
@@ -25496,7 +26700,7 @@
             <v>23.459999079999999</v>
           </cell>
           <cell r="D409">
-            <v>31.599729708132653</v>
+            <v>31.634383765773933</v>
           </cell>
         </row>
         <row r="410">
@@ -25508,7 +26712,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D410">
-            <v>31.580245075563703</v>
+            <v>31.614814196789194</v>
           </cell>
         </row>
         <row r="411">
@@ -25520,7 +26724,7 @@
             <v>23.629999160000001</v>
           </cell>
           <cell r="D411">
-            <v>31.560806821491422</v>
+            <v>31.595291421638123</v>
           </cell>
         </row>
         <row r="412">
@@ -25532,7 +26736,7 @@
             <v>23.840000150000002</v>
           </cell>
           <cell r="D412">
-            <v>31.541975585707295</v>
+            <v>31.576376077073149</v>
           </cell>
         </row>
         <row r="413">
@@ -25544,7 +26748,7 @@
             <v>23.600000380000001</v>
           </cell>
           <cell r="D413">
-            <v>31.522652045060806</v>
+            <v>31.556968836934285</v>
           </cell>
         </row>
         <row r="414">
@@ -25556,7 +26760,7 @@
             <v>23.329999919999999</v>
           </cell>
           <cell r="D414">
-            <v>31.502766967087357</v>
+            <v>31.537000465776678</v>
           </cell>
         </row>
         <row r="415">
@@ -25568,7 +26772,7 @@
             <v>23.270000459999999</v>
           </cell>
           <cell r="D415">
-            <v>31.482832907748161</v>
+            <v>31.51698351661015</v>
           </cell>
         </row>
         <row r="416">
@@ -25580,7 +26784,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D416">
-            <v>31.463550702656981</v>
+            <v>31.497618822125581</v>
           </cell>
         </row>
         <row r="417">
@@ -25592,7 +26796,7 @@
             <v>23.350000380000001</v>
           </cell>
           <cell r="D417">
-            <v>31.443999978987929</v>
+            <v>31.477986006602389</v>
           </cell>
         </row>
         <row r="418">
@@ -25604,7 +26808,7 @@
             <v>23.079999919999999</v>
           </cell>
           <cell r="D418">
-            <v>31.423894209615362</v>
+            <v>31.457798540048056</v>
           </cell>
         </row>
         <row r="419">
@@ -25616,7 +26820,7 @@
             <v>22.709999079999999</v>
           </cell>
           <cell r="D419">
-            <v>31.402997578609092</v>
+            <v>31.436820603693025</v>
           </cell>
         </row>
         <row r="420">
@@ -25628,7 +26832,7 @@
             <v>22.61000061</v>
           </cell>
           <cell r="D420">
-            <v>31.381961700693761</v>
+            <v>31.415703809449742</v>
           </cell>
         </row>
         <row r="421">
@@ -25640,7 +26844,7 @@
             <v>22.549999239999998</v>
           </cell>
           <cell r="D421">
-            <v>31.360883031336495</v>
+            <v>31.394544609999983</v>
           </cell>
         </row>
         <row r="422">
@@ -25652,7 +26856,7 @@
             <v>22.450000760000002</v>
           </cell>
           <cell r="D422">
-            <v>31.33966664497617</v>
+            <v>31.373248077023792</v>
           </cell>
         </row>
         <row r="423">
@@ -25664,7 +26868,7 @@
             <v>22.790000920000001</v>
           </cell>
           <cell r="D423">
-            <v>31.319358650380028</v>
+            <v>31.352860316555802</v>
           </cell>
         </row>
         <row r="424">
@@ -25676,7 +26880,7 @@
             <v>23</v>
           </cell>
           <cell r="D424">
-            <v>31.29964453035543</v>
+            <v>31.333066808696664</v>
           </cell>
         </row>
         <row r="425">
@@ -25688,7 +26892,7 @@
             <v>22.729999540000001</v>
           </cell>
           <cell r="D425">
-            <v>31.279385322340406</v>
+            <v>31.312728588203292</v>
           </cell>
         </row>
         <row r="426">
@@ -25699,7 +26903,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D426">
-            <v>31.259292432971684</v>
+            <v>31.292557059056588</v>
           </cell>
         </row>
         <row r="427">
@@ -25710,7 +26914,197 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D427">
-            <v>31.23924703847057</v>
+            <v>31.272433394847042</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v xml:space="preserve">2023/1/3
+</v>
+          </cell>
+          <cell r="C428">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D428">
+            <v>31.252615475892004</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v xml:space="preserve">2023/1/4
+</v>
+          </cell>
+          <cell r="C429">
+            <v>23.409999849999998</v>
+          </cell>
+          <cell r="D429">
+            <v>31.234248694566734</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v xml:space="preserve">2023/1/5
+</v>
+          </cell>
+          <cell r="C430">
+            <v>23.5</v>
+          </cell>
+          <cell r="D430">
+            <v>31.216178020046716</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v xml:space="preserve">2023/1/6
+</v>
+          </cell>
+          <cell r="C431">
+            <v>23.579999919999999</v>
+          </cell>
+          <cell r="D431">
+            <v>31.198378071095561</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v xml:space="preserve">2023/1/9
+</v>
+          </cell>
+          <cell r="C432">
+            <v>23.81999969</v>
+          </cell>
+          <cell r="D432">
+            <v>31.181219051604643</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v xml:space="preserve">2023/1/10
+</v>
+          </cell>
+          <cell r="C433">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D433">
+            <v>31.163745224617159</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v xml:space="preserve">2023/1/11
+</v>
+          </cell>
+          <cell r="C434">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D434">
+            <v>31.146653223379619</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v xml:space="preserve">2023/1/12
+</v>
+          </cell>
+          <cell r="C435">
+            <v>24.100000380000001</v>
+          </cell>
+          <cell r="D435">
+            <v>31.13037919833717</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v xml:space="preserve">2023/1/13
+</v>
+          </cell>
+          <cell r="C436">
+            <v>24.450000760000002</v>
+          </cell>
+          <cell r="D436">
+            <v>31.114986621290313</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v xml:space="preserve">2023/1/16
+</v>
+          </cell>
+          <cell r="C437">
+            <v>24.520000459999999</v>
+          </cell>
+          <cell r="D437">
+            <v>31.099825733563208</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v xml:space="preserve">2023/1/17
+</v>
+          </cell>
+          <cell r="C438">
+            <v>24.530000690000001</v>
+          </cell>
+          <cell r="D438">
+            <v>31.084757327499986</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v xml:space="preserve">2023/1/18
+</v>
+          </cell>
+          <cell r="C439">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D439">
+            <v>31.0702384314874</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v xml:space="preserve">2023/1/19
+</v>
+          </cell>
+          <cell r="C440">
+            <v>24.829999919999999</v>
+          </cell>
+          <cell r="D440">
+            <v>31.055991311598159</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v xml:space="preserve">2023/1/20
+</v>
+          </cell>
+          <cell r="C441">
+            <v>25.170000080000001</v>
+          </cell>
+          <cell r="D441">
+            <v>31.042583586697024</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>44956</v>
+          </cell>
+          <cell r="C442">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D442">
+            <v>31.028623168590894</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>44957</v>
+          </cell>
+          <cell r="C443">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D443">
+            <v>31.014726063038534</v>
           </cell>
         </row>
       </sheetData>
@@ -26595,17 +27989,47 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="A21">
+            <v>44925</v>
+          </cell>
+          <cell r="B21">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="C21">
+            <v>2000</v>
+          </cell>
+          <cell r="D21">
+            <v>2766.2517672200333</v>
+          </cell>
+          <cell r="E21">
+            <v>54709.468702742495</v>
+          </cell>
+          <cell r="F21">
+            <v>39554.945324245164</v>
+          </cell>
+          <cell r="G21">
+            <v>46000</v>
+          </cell>
+          <cell r="H21">
+            <v>39554.945324245164</v>
+          </cell>
+          <cell r="I21">
+            <v>-6445.0546757548364</v>
+          </cell>
           <cell r="J21">
-            <v>0</v>
+            <v>2.9999613761901855E-3</v>
           </cell>
           <cell r="K21">
-            <v>0</v>
+            <v>1.2551505365504848E-2</v>
           </cell>
           <cell r="L21">
-            <v>0</v>
+            <v>2.9999613761901855E-3</v>
           </cell>
           <cell r="M21">
-            <v>0</v>
+            <v>3.6230059467468385E-2</v>
+          </cell>
+          <cell r="N21">
+            <v>34.643899430457921</v>
           </cell>
         </row>
         <row r="22">
@@ -28665,26 +30089,56 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="A21">
+            <v>44925</v>
+          </cell>
+          <cell r="B21">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="C21">
+            <v>2000</v>
+          </cell>
+          <cell r="D21">
+            <v>2766.2517672200333</v>
+          </cell>
+          <cell r="E21">
+            <v>46654.023460699871</v>
+          </cell>
+          <cell r="F21">
+            <v>33730.858494912194</v>
+          </cell>
+          <cell r="G21">
+            <v>39000</v>
+          </cell>
+          <cell r="H21">
+            <v>33730.858494912194</v>
+          </cell>
+          <cell r="I21">
+            <v>-5269.1415050878059</v>
+          </cell>
           <cell r="J21">
-            <v>0</v>
+            <v>0.75199997425079346</v>
           </cell>
           <cell r="K21">
-            <v>0</v>
+            <v>0.7070000171661377</v>
           </cell>
           <cell r="L21">
-            <v>0</v>
+            <v>0.86000001430511475</v>
           </cell>
           <cell r="M21">
-            <v>0</v>
+            <v>0.65399998426437378</v>
           </cell>
           <cell r="N21">
-            <v>0</v>
+            <v>33.495143524202234</v>
           </cell>
           <cell r="O21">
-            <v>0</v>
+            <v>27.000071158106511</v>
           </cell>
           <cell r="P21">
-            <v>0</v>
+            <v>26.172177812367234</v>
+          </cell>
+          <cell r="Q21">
+            <v>28.655857849585068</v>
           </cell>
         </row>
         <row r="22">
@@ -30217,9 +31671,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -30324,42 +31778,42 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="31">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="29">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="29">
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G21" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G22" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:H21" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I21" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I22" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" ref="J3:J21" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K21" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="29">
-        <f t="shared" ref="L3:L21" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L22" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="27"/>
@@ -30397,15 +31851,15 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="31">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="29">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="29">
-        <f t="shared" ref="E4:E21" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E22" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="30">
@@ -30487,11 +31941,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="31">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="29">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="29">
@@ -30546,11 +32000,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="31">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="29">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="29">
@@ -30603,11 +32057,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="31">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="29">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="29">
@@ -30657,11 +32111,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="31">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="29">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="29">
@@ -30707,11 +32161,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="31">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="29">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="29">
@@ -30760,11 +32214,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="31">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="29">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="29">
@@ -30813,11 +32267,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="31">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="29">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="29">
@@ -30866,11 +32320,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="31">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="29">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="29">
@@ -30917,11 +32371,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="31">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="29">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="29">
@@ -30968,11 +32422,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="31">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="29">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="29">
@@ -31018,11 +32472,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="31">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="29">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="29">
@@ -31068,11 +32522,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="31">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="29">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="29">
@@ -31118,11 +32572,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="31">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="29">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="29">
@@ -31168,36 +32622,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="31">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="29">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="29">
         <f t="shared" si="7"/>
-        <v>338807.23397602042</v>
+        <v>397378.80618793133</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" si="0"/>
-        <v>486792.0168463827</v>
+        <v>570946.57704363531</v>
       </c>
       <c r="G18" s="30">
         <f t="shared" si="1"/>
-        <v>3453169.3830283899</v>
+        <v>3537323.9432256427</v>
       </c>
       <c r="H18" s="30">
         <f t="shared" si="2"/>
-        <v>2403405.8214305816</v>
+        <v>2461977.3936424926</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="3"/>
-        <v>2702774.6770976437</v>
+        <v>2761346.2493095547</v>
       </c>
       <c r="J18" s="30">
         <f t="shared" si="4"/>
-        <v>2403405.8214305816</v>
+        <v>2461977.3936424926</v>
       </c>
       <c r="K18" s="30">
         <f t="shared" si="5"/>
@@ -31218,40 +32672,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="31">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="29">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="7"/>
-        <v>391641.90745168331</v>
+        <v>394559.35592032992</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>570075.57608662441</v>
+        <v>574322.22611263557</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="1"/>
-        <v>4023244.9591150144</v>
+        <v>4111646.1693382785</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="2"/>
-        <v>2763969.1929088128</v>
+        <v>2824700.8222666993</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="3"/>
-        <v>3094416.5845493269</v>
+        <v>3155905.6052298844</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="4"/>
-        <v>2763969.1929088128</v>
+        <v>2824700.8222666993</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="5"/>
-        <v>-330447.39164051414</v>
+        <v>-331204.78296318511</v>
       </c>
       <c r="L19" s="29">
         <f t="shared" si="6"/>
@@ -31267,40 +32721,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="31">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="29">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="7"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="0"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="30">
         <f t="shared" si="1"/>
-        <v>4455157.8055682275</v>
+        <v>4546972.9839764424</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="2"/>
-        <v>3207713.7474722113</v>
+        <v>3273820.6785529791</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="3"/>
-        <v>3405393.8463527663</v>
+        <v>3469340.924224162</v>
       </c>
       <c r="J20" s="30">
         <f t="shared" si="4"/>
-        <v>3207713.7474722113</v>
+        <v>3273820.6785529791</v>
       </c>
       <c r="K20" s="30">
         <f t="shared" si="5"/>
-        <v>-197680.09888055502</v>
+        <v>-195520.24567118287</v>
       </c>
       <c r="L20" s="29">
         <f t="shared" si="6"/>
@@ -31316,42 +32770,91 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="31">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="29">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="7"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="0"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="30">
         <f t="shared" si="1"/>
-        <v>4849814.7353992322</v>
+        <v>4944717.9038303997</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="2"/>
-        <v>3506416.0051296353</v>
+        <v>3575030.9949550489</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="3"/>
-        <v>3690730.8026686539</v>
+        <v>3756910.4972957228</v>
       </c>
       <c r="J21" s="30">
         <f t="shared" si="4"/>
-        <v>3506416.0051296353</v>
+        <v>3575030.9949550489</v>
       </c>
       <c r="K21" s="30">
         <f t="shared" si="5"/>
-        <v>-184314.79753901856</v>
+        <v>-181879.50234067393</v>
       </c>
       <c r="L21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="31">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="29">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="7"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>187186.34809855712</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="1"/>
+        <v>5131904.2519289572</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="2"/>
+        <v>4049072.3250765675</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="3"/>
+        <v>3904600.5212148419</v>
+      </c>
+      <c r="J22" s="30">
+        <f t="shared" si="4"/>
+        <v>4049072.3250765675</v>
+      </c>
+      <c r="K22" s="30">
+        <f t="shared" si="5"/>
+        <v>144471.80386172561</v>
+      </c>
+      <c r="L22" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -31372,7 +32875,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31490,18 +32993,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -31509,7 +33012,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -31517,11 +33020,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -31563,11 +33066,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
@@ -31579,7 +33082,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -31587,7 +33090,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -31599,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -31664,15 +33167,15 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E21" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
+        <f t="shared" ref="E5:E22" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
         <v>52777.576044247049</v>
       </c>
       <c r="F5" s="18">
@@ -31738,11 +33241,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="17">
@@ -31790,7 +33293,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P21" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P22" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -31810,11 +33313,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="17">
@@ -31879,11 +33382,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="17">
@@ -31944,11 +33447,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="17">
@@ -32012,11 +33515,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="17">
@@ -32080,11 +33583,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="17">
@@ -32148,11 +33651,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="17">
@@ -32214,11 +33717,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="17">
@@ -32280,11 +33783,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="17">
@@ -32345,11 +33848,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="17">
@@ -32410,11 +33913,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="17">
@@ -32475,11 +33978,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="17">
@@ -32540,40 +34043,40 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="8"/>
-        <v>321866.87227721937</v>
+        <v>377509.86587853474</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>462452.4160040635</v>
+        <v>542399.24819145352</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="4"/>
-        <v>5470801.7686760109</v>
+        <v>5550748.6008634008</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>3807677.9214338777</v>
+        <v>3863320.9150351929</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="5"/>
-        <v>4284071.4540087581</v>
+        <v>4339714.4476100737</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>3807677.9214338777</v>
+        <v>3863320.9150351929</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="3"/>
-        <v>-476393.5325748804</v>
+        <v>-476393.53257488087</v>
       </c>
       <c r="L18" s="17">
         <f t="shared" si="6"/>
@@ -32605,40 +34108,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="8"/>
-        <v>391641.90745168331</v>
+        <v>394559.35592032992</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>570075.57608662441</v>
+        <v>574322.22611263557</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="4"/>
-        <v>6040877.3447626354</v>
+        <v>6125070.8269760367</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>4150082.5947067062</v>
+        <v>4207923.5150201302</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="5"/>
-        <v>4675713.3614604417</v>
+        <v>4734273.8035304034</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>4150082.5947067062</v>
+        <v>4207923.5150201302</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="3"/>
-        <v>-525630.76675373549</v>
+        <v>-526350.28851027321</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="6"/>
@@ -32670,40 +34173,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="8"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="4"/>
-        <v>6472790.1912158486</v>
+        <v>6560397.6416142005</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>4660409.122863424</v>
+        <v>4723486.4896567063</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="5"/>
-        <v>4986690.6232638806</v>
+        <v>5047709.1225246815</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>4660409.122863424</v>
+        <v>4723486.4896567063</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="3"/>
-        <v>-326281.5004004566</v>
+        <v>-324222.63286797516</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="6"/>
@@ -32735,40 +34238,40 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="17">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="8"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="4"/>
-        <v>6867447.1210468533</v>
+        <v>6958142.5614681579</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>4965164.1997491419</v>
+        <v>5030737.0022655586</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="5"/>
-        <v>5272027.5795797678</v>
+        <v>5335278.6955962423</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>4965164.1997491419</v>
+        <v>5030737.0022655586</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
-        <v>-306863.37983062584</v>
+        <v>-304541.69333068375</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="6"/>
@@ -32789,6 +34292,71 @@
       <c r="P21" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="8"/>
+        <v>140305.52272316307</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>177827.03069362926</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="4"/>
+        <v>7135969.5921617867</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>5630279.8278727904</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="5"/>
+        <v>5475584.2183194058</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>5630279.8278727904</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="3"/>
+        <v>154695.60955338459</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.2551505365504848E-2</v>
+      </c>
+      <c r="N22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>3.6230059467468385E-2</v>
+      </c>
+      <c r="O22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>34.643899430457921</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -32807,7 +34375,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32925,18 +34493,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -32944,7 +34512,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -32952,11 +34520,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -32998,11 +34566,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
@@ -33014,7 +34582,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -33022,7 +34590,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -33034,7 +34602,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -33099,15 +34667,15 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E21" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
+        <f t="shared" ref="E5:E22" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
         <v>136414.52483783176</v>
       </c>
       <c r="F5" s="18">
@@ -33173,11 +34741,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="17">
@@ -33225,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P21" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P22" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
@@ -33245,11 +34813,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="17">
@@ -33314,11 +34882,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="17">
@@ -33379,11 +34947,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="17">
@@ -33447,11 +35015,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="17">
@@ -33515,11 +35083,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="17">
@@ -33583,11 +35151,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="17">
@@ -33649,11 +35217,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="17">
@@ -33715,11 +35283,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="17">
@@ -33780,11 +35348,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="17">
@@ -33845,11 +35413,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="17">
@@ -33910,11 +35478,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="17">
@@ -33975,36 +35543,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="8"/>
-        <v>2980945.728233974</v>
+        <v>3786448.9729817593</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>4282968.123577104</v>
+        <v>5440300.4050797839</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="4"/>
-        <v>47542197.922756404</v>
+        <v>48699530.204259083</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>33089368.802103221</v>
+        <v>33894872.046851009</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="5"/>
-        <v>36422806.712393463</v>
+        <v>37228309.95714125</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>33089368.802103221</v>
+        <v>33894872.046851009</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="3"/>
@@ -34040,40 +35608,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="8"/>
-        <v>3899735.8220441043</v>
+        <v>3943392.1825073613</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>5676471.5497452402</v>
+        <v>5740017.9281266369</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="4"/>
-        <v>53218669.472501643</v>
+        <v>54439548.132385716</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>36561224.684153311</v>
+        <v>37399968.294967815</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="5"/>
-        <v>40322542.534437567</v>
+        <v>41171702.139648609</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>36561224.684153311</v>
+        <v>37399968.294967815</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="3"/>
-        <v>-3761317.850284256</v>
+        <v>-3771733.8446807936</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="6"/>
@@ -34105,40 +35673,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="8"/>
-        <v>2759271.3080914733</v>
+        <v>2792051.0280197761</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>3832321.1089553987</v>
+        <v>3877848.4959356119</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="4"/>
-        <v>57050990.581457041</v>
+        <v>58317396.628321327</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>41076714.850891002</v>
+        <v>41988527.240865454</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="5"/>
-        <v>43081813.842529044</v>
+        <v>43963753.167668387</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>41076714.850891002</v>
+        <v>41988527.240865454</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="3"/>
-        <v>-2005098.991638042</v>
+        <v>-1975225.9268029332</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="6"/>
@@ -34170,40 +35738,40 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="17">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="8"/>
-        <v>2425149.3465615129</v>
+        <v>2453668.2947586924</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>3354286.8328491473</v>
+        <v>3393732.1282739993</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="4"/>
-        <v>60405277.414306186</v>
+        <v>61711128.756595328</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>43673014.965670273</v>
+        <v>44617145.473069079</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="5"/>
-        <v>45506963.189090557</v>
+        <v>46417421.46242708</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>43673014.965670273</v>
+        <v>44617145.473069079</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
-        <v>-1833948.2234202847</v>
+        <v>-1800275.9893580005</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="6"/>
@@ -34224,6 +35792,71 @@
       <c r="P21" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="8"/>
+        <v>857929.88989966922</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>1087363.64686936</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="4"/>
+        <v>62798492.40346469</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>49548008.919266947</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="5"/>
+        <v>47275351.352326751</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>49548008.919266947</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="3"/>
+        <v>2272657.5669401959</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.2551505365504848E-2</v>
+      </c>
+      <c r="N22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>3.6230059467468385E-2</v>
+      </c>
+      <c r="O22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>34.643899430457921</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -34242,7 +35875,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34370,11 +36003,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="17">
@@ -34389,7 +36022,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H21" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H22" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -34397,7 +36030,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J21" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J22" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -34405,11 +36038,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L21" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L22" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M21" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M22" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -34453,11 +36086,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
@@ -34477,7 +36110,7 @@
         <v>146.12645884219521</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I21" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I22" si="4">I3+H4</f>
         <v>146.12645884219521</v>
       </c>
       <c r="J4" s="18">
@@ -34485,7 +36118,7 @@
         <v>147.00321759524837</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K21" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K22" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>147.00321759524837</v>
       </c>
       <c r="L4" s="18">
@@ -34497,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N21" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N22" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="22">
@@ -34562,11 +36195,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
@@ -34578,7 +36211,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G21" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
+        <f t="shared" ref="G5:G22" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
         <v>3941.4049128625688</v>
       </c>
       <c r="H5" s="18">
@@ -34622,7 +36255,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R21" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
+        <f t="shared" ref="R5:R22" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="AB5" s="6"/>
@@ -34644,11 +36277,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="17">
@@ -34724,11 +36357,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="17">
@@ -34801,11 +36434,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="17">
@@ -34874,11 +36507,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="17">
@@ -34950,11 +36583,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="17">
@@ -35026,11 +36659,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="17">
@@ -35102,11 +36735,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="17">
@@ -35176,11 +36809,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="17">
@@ -35250,11 +36883,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="17">
@@ -35323,11 +36956,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="17">
@@ -35396,11 +37029,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="17">
@@ -35469,11 +37102,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="17">
@@ -35542,12 +37175,12 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -35559,31 +37192,31 @@
       </c>
       <c r="G18" s="17">
         <f t="shared" si="8"/>
-        <v>158990.37342862081</v>
+        <v>201952.33025575429</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>228434.45115447452</v>
+        <v>290161.40239491855</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="4"/>
-        <v>1698273.8519380875</v>
+        <v>1760000.8031785314</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="1"/>
-        <v>1181998.5669373057</v>
+        <v>1224960.5237644389</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="5"/>
-        <v>1285419.4276139876</v>
+        <v>1328381.384441121</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="2"/>
-        <v>1181998.5669373057</v>
+        <v>1224960.5237644389</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" si="3"/>
-        <v>-103420.86067668186</v>
+        <v>-103420.86067668209</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="6"/>
@@ -35615,12 +37248,12 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="17">
         <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -35632,31 +37265,31 @@
       </c>
       <c r="G19" s="17">
         <f t="shared" si="8"/>
-        <v>339089.61212261964</v>
+        <v>342885.61754752346</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>493580.23821707739</v>
+        <v>499105.71937283693</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="4"/>
-        <v>2191854.0901551647</v>
+        <v>2259106.5225513685</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>1505803.7087238817</v>
+        <v>1552006.1282087194</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="5"/>
-        <v>1624509.0397366071</v>
+        <v>1671267.0019886445</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="2"/>
-        <v>1505803.7087238817</v>
+        <v>1552006.1282087194</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" si="3"/>
-        <v>-118705.33101272536</v>
+        <v>-119260.87377992505</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" si="6"/>
@@ -35688,12 +37321,12 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="17">
         <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -35705,31 +37338,31 @@
       </c>
       <c r="G20" s="17">
         <f t="shared" si="8"/>
-        <v>182867.767800078</v>
+        <v>185040.20883362993</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>253983.00074106397</v>
+        <v>257000.27983443465</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="4"/>
-        <v>2445837.0908962288</v>
+        <v>2516106.8023858033</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="1"/>
-        <v>1761002.7754212453</v>
+        <v>1811596.9697041714</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="5"/>
-        <v>1807376.8075366851</v>
+        <v>1856307.2108222744</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="2"/>
-        <v>1761002.7754212453</v>
+        <v>1811596.9697041714</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" si="3"/>
-        <v>-46374.032115439884</v>
+        <v>-44710.241118103033</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="6"/>
@@ -35761,12 +37394,12 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="17">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="17">
         <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -35778,31 +37411,31 @@
       </c>
       <c r="G21" s="17">
         <f t="shared" si="8"/>
-        <v>133541.55721160246</v>
+        <v>135111.96142513602</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>184704.78431695525</v>
+        <v>186876.85103242376</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="4"/>
-        <v>2630541.8752131839</v>
+        <v>2702983.6534182271</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="1"/>
-        <v>1901881.7494379897</v>
+        <v>1954257.1543548342</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="5"/>
-        <v>1940918.3647482875</v>
+        <v>1991419.1722474105</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="2"/>
-        <v>1901881.7494379897</v>
+        <v>1954257.1543548342</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" si="3"/>
-        <v>-39036.615310297813</v>
+        <v>-37162.017892576288</v>
       </c>
       <c r="N21" s="17">
         <f t="shared" si="6"/>
@@ -35823,6 +37456,79 @@
       <c r="R21" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2396100</v>
+      </c>
+      <c r="F22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5058906.2336463733</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="8"/>
+        <v>56580.359410749836</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>71711.484439884618</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="4"/>
+        <v>2774695.1378581119</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="1"/>
+        <v>2189234.3936469299</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="5"/>
+        <v>2047999.5316581603</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="2"/>
+        <v>2189234.3936469299</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="3"/>
+        <v>141234.86198876961</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>1.2551505365504848E-2</v>
+      </c>
+      <c r="P22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>3.6230059467468385E-2</v>
+      </c>
+      <c r="Q22" s="22">
+        <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>34.643899430457921</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -35841,7 +37547,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35964,18 +37670,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -35983,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -35991,11 +37697,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -36056,15 +37762,15 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E21" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
+        <f t="shared" ref="E4:E22" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="18">
@@ -36072,7 +37778,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -36080,7 +37786,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -36092,7 +37798,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
@@ -36112,7 +37818,7 @@
         <v>64.221158958000927</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q21" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
+        <f t="shared" ref="Q4:Q22" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
         <v>1</v>
       </c>
       <c r="S4" s="42">
@@ -36165,11 +37871,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
@@ -36243,11 +37949,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="17">
@@ -36319,11 +38025,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="17">
@@ -36392,11 +38098,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="17">
@@ -36461,11 +38167,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="17">
@@ -36533,11 +38239,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="17">
@@ -36605,11 +38311,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="17">
@@ -36677,11 +38383,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="17">
@@ -36747,11 +38453,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="17">
@@ -36817,11 +38523,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="17">
@@ -36886,11 +38592,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="17">
@@ -36955,11 +38661,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="17">
@@ -37024,11 +38730,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="17">
@@ -37093,36 +38799,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="4"/>
-        <v>338807.23397602042</v>
+        <v>397378.80618793133</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>486792.0168463827</v>
+        <v>570946.57704363531</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="5"/>
-        <v>3528679.0599223855</v>
+        <v>3612833.6201196383</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>2455960.5550365578</v>
+        <v>2514532.1272484688</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="6"/>
-        <v>2762578.3408736358</v>
+        <v>2821149.9130855468</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>2455960.5550365578</v>
+        <v>2514532.1272484688</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="3"/>
@@ -37162,40 +38868,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="4"/>
-        <v>391641.90745168331</v>
+        <v>394559.35592032992</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>570075.57608662441</v>
+        <v>574322.22611263557</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="5"/>
-        <v>4098754.63600901</v>
+        <v>4187155.8462322736</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>2815844.3391707027</v>
+        <v>2876575.9685285888</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="6"/>
-        <v>3154220.248325319</v>
+        <v>3215709.269005877</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>2815844.3391707027</v>
+        <v>2876575.9685285888</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="3"/>
-        <v>-338375.9091546163</v>
+        <v>-339133.3004772882</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="7"/>
@@ -37231,40 +38937,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="4"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="5"/>
-        <v>4530667.4824622236</v>
+        <v>4622482.6608704375</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>3262080.7169962376</v>
+        <v>3328187.6480770046</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="6"/>
-        <v>3465197.5101287584</v>
+        <v>3529144.5880001546</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>3262080.7169962376</v>
+        <v>3328187.6480770046</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="3"/>
-        <v>-203116.79313252075</v>
+        <v>-200956.93992315</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="7"/>
@@ -37300,40 +39006,40 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="17">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="4"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="5"/>
-        <v>4925324.4122932283</v>
+        <v>5020227.5807243949</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>3561009.5007678727</v>
+        <v>3629624.4905932853</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="6"/>
-        <v>3750534.466444646</v>
+        <v>3816714.1610717154</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>3561009.5007678727</v>
+        <v>3629624.4905932853</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
-        <v>-189524.96567677334</v>
+        <v>-187089.67047843011</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="7"/>
@@ -37356,6 +39062,75 @@
         <v>19.741142646180776</v>
       </c>
       <c r="Q21" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="4"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>187186.34809855712</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="5"/>
+        <v>5207413.9288229523</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>4108649.458237621</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="6"/>
+        <v>3964404.1849908344</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>4108649.458237621</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="3"/>
+        <v>144245.27324678656</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>33.495143524202234</v>
+      </c>
+      <c r="N22" s="21">
+        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>27.000071158106511</v>
+      </c>
+      <c r="O22" s="21">
+        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>26.172177812367234</v>
+      </c>
+      <c r="P22" s="21">
+        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>28.655857849585068</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -37376,7 +39151,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37492,11 +39267,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="17">
@@ -37511,7 +39286,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H21" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H22" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -37519,7 +39294,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J21" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J22" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -37527,11 +39302,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L21" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L22" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M21" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M22" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -37573,11 +39348,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
@@ -37589,7 +39364,7 @@
         <v>34298297.880000003</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G21" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
+        <f t="shared" ref="G4:G22" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="H4" s="18">
@@ -37597,7 +39372,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I21" si="5">I3+H4</f>
+        <f t="shared" ref="I4:I22" si="5">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="18">
@@ -37605,7 +39380,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K21" si="6">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K22" si="6">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="18">
@@ -37617,7 +39392,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N21" si="7">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N22" si="7">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="7"/>
@@ -37671,11 +39446,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
@@ -37738,11 +39513,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="17">
@@ -37803,11 +39578,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="17">
@@ -37865,11 +39640,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="17">
@@ -37923,11 +39698,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="17">
@@ -37984,11 +39759,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="17">
@@ -38045,11 +39820,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="17">
@@ -38106,11 +39881,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="17">
@@ -38165,11 +39940,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="17">
@@ -38224,11 +39999,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="17">
@@ -38282,11 +40057,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="17">
@@ -38340,11 +40115,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="17">
@@ -38398,11 +40173,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="17">
@@ -38456,12 +40231,12 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38473,27 +40248,27 @@
       </c>
       <c r="G18" s="17">
         <f t="shared" si="4"/>
-        <v>1201936.7943407698</v>
+        <v>1526720.9655698179</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>1726920.7312156446</v>
+        <v>2193564.6688228305</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="5"/>
-        <v>7732226.6205039527</v>
+        <v>8198870.5581111386</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="1"/>
-        <v>5381629.5730162067</v>
+        <v>5706413.7442452544</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="6"/>
-        <v>5844433.8996156417</v>
+        <v>6169218.0708446894</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="2"/>
-        <v>5381629.5730162067</v>
+        <v>5706413.7442452544</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" si="3"/>
@@ -38514,12 +40289,12 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="17">
         <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38531,31 +40306,31 @@
       </c>
       <c r="G19" s="17">
         <f t="shared" si="4"/>
-        <v>2435279.9416079051</v>
+        <v>2462542.1623867596</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>3544803.529013556</v>
+        <v>3584486.5300412835</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="5"/>
-        <v>11277030.149517508</v>
+        <v>11783357.088152422</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>7747319.4492304847</v>
+        <v>8095166.0442423308</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="6"/>
-        <v>8279713.8412235472</v>
+        <v>8631760.2332314495</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="2"/>
-        <v>7747319.4492304847</v>
+        <v>8095166.0442423308</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" si="3"/>
-        <v>-532394.39199306257</v>
+        <v>-536594.18898911867</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" si="7"/>
@@ -38571,12 +40346,12 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="17">
         <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38588,31 +40363,31 @@
       </c>
       <c r="G20" s="17">
         <f t="shared" si="4"/>
-        <v>1313323.0596551057</v>
+        <v>1328925.1361687968</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>1824059.732594914</v>
+        <v>1845729.2824473034</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="5"/>
-        <v>13101089.882112423</v>
+        <v>13629086.370599724</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="1"/>
-        <v>9432785.0899461322</v>
+        <v>9812942.5767630897</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="6"/>
-        <v>9593036.9008786529</v>
+        <v>9960685.3694002461</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="2"/>
-        <v>9432785.0899461322</v>
+        <v>9812942.5767630897</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" si="3"/>
-        <v>-160251.81093252078</v>
+        <v>-147742.79263715632</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="7"/>
@@ -38628,12 +40403,12 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="17">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="17">
         <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38645,33 +40420,90 @@
       </c>
       <c r="G21" s="17">
         <f t="shared" si="4"/>
-        <v>959071.18361059949</v>
+        <v>970349.54114415869</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>1326516.1782763151</v>
+        <v>1342115.5665055888</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="5"/>
-        <v>14427606.060388738</v>
+        <v>14971201.937105313</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="1"/>
-        <v>10431159.037189066</v>
+        <v>10824178.850611808</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="6"/>
-        <v>10552108.084489252</v>
+        <v>10931034.910544405</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="2"/>
-        <v>10431159.037189066</v>
+        <v>10824178.850611808</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" si="3"/>
-        <v>-120949.04730018601</v>
+        <v>-106856.05993259698</v>
       </c>
       <c r="N21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2396100</v>
+      </c>
+      <c r="F22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5058906.2336463733</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="4"/>
+        <v>427736.68836834806</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>542125.09767951048</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="5"/>
+        <v>15513327.034784824</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="1"/>
+        <v>12240014.638386695</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="6"/>
+        <v>11358771.598912753</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="2"/>
+        <v>12240014.638386695</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="3"/>
+        <v>881243.03947394155</v>
+      </c>
+      <c r="N22" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -38692,9 +40524,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -38799,18 +40631,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -38818,7 +40650,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -38826,11 +40658,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -38872,15 +40704,15 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E21" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
+        <f t="shared" ref="E4:E22" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="F4" s="18">
@@ -38888,7 +40720,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -38896,7 +40728,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -38908,7 +40740,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="7"/>
@@ -38962,11 +40794,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
@@ -39021,11 +40853,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="17">
@@ -39078,11 +40910,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="17">
@@ -39132,11 +40964,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="17">
@@ -39182,11 +41014,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="17">
@@ -39235,11 +41067,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="17">
@@ -39288,11 +41120,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="17">
@@ -39341,11 +41173,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="17">
@@ -39392,11 +41224,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="17">
@@ -39443,11 +41275,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="17">
@@ -39493,11 +41325,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="17">
@@ -39543,11 +41375,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="17">
@@ -39593,11 +41425,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="17">
@@ -39643,36 +41475,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="4"/>
-        <v>3137837.6086673411</v>
+        <v>3985735.7610334312</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>4508387.4985022154</v>
+        <v>5726632.0053471411</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="5"/>
-        <v>29367212.610855646</v>
+        <v>30585457.117700573</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>20439579.389013644</v>
+        <v>21287477.541379735</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="6"/>
-        <v>22487355.753114704</v>
+        <v>23335253.905480795</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>20439579.389013644</v>
+        <v>21287477.541379735</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="3"/>
@@ -39693,40 +41525,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="4"/>
-        <v>3899735.8220441043</v>
+        <v>3943392.1825073613</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>5676471.5497452402</v>
+        <v>5740017.9281266369</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="5"/>
-        <v>35043684.160600886</v>
+        <v>36325475.04582721</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>24075010.199536402</v>
+        <v>24955600.507737815</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="6"/>
-        <v>26387091.575158808</v>
+        <v>27278646.087988157</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>24075010.199536402</v>
+        <v>24955600.507737815</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="3"/>
-        <v>-2312081.3756224066</v>
+        <v>-2323045.5802503414</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="7"/>
@@ -39742,40 +41574,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="4"/>
-        <v>2759271.3080914733</v>
+        <v>2792051.0280197761</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>3832321.1089553987</v>
+        <v>3877848.4959356119</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="5"/>
-        <v>38876005.269556284</v>
+        <v>40203323.541762821</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>27990724.906331956</v>
+        <v>28946394.100295544</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="6"/>
-        <v>29146362.883250281</v>
+        <v>30070697.116007932</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>27990724.906331956</v>
+        <v>28946394.100295544</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="3"/>
-        <v>-1155637.9769183248</v>
+        <v>-1124303.0157123879</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="7"/>
@@ -39791,42 +41623,91 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="17">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="4"/>
-        <v>2425149.3465615129</v>
+        <v>2453668.2947586924</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>3354286.8328491473</v>
+        <v>3393732.1282739993</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="5"/>
-        <v>42230292.102405429</v>
+        <v>43597055.670036823</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>30532500.767162703</v>
+        <v>31520670.812874004</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="6"/>
-        <v>31571512.229811795</v>
+        <v>32524365.410766624</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>30532500.767162703</v>
+        <v>31520670.812874004</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
-        <v>-1039011.4626490921</v>
+        <v>-1003694.5978926197</v>
       </c>
       <c r="L21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="31">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="4"/>
+        <v>903084.09463123081</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>1144593.3124940631</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="5"/>
+        <v>44741648.982530884</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>35301159.916489385</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="6"/>
+        <v>33427449.505397856</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>35301159.916489385</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="3"/>
+        <v>1873710.4110915288</v>
+      </c>
+      <c r="L22" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -530,7 +530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91282816"/>
-        <c:axId val="93557888"/>
+        <c:axId val="469030016"/>
+        <c:axId val="469031552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91282816"/>
+        <c:axId val="469030016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,14 +1125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93557888"/>
+        <c:crossAx val="469031552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93557888"/>
+        <c:axId val="469031552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91282816"/>
+        <c:crossAx val="469030016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,7 +1197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1418,8 +1416,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95266304"/>
-        <c:axId val="95264768"/>
+        <c:axId val="471773952"/>
+        <c:axId val="471763968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1589,11 +1587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95257344"/>
-        <c:axId val="95258880"/>
+        <c:axId val="471760896"/>
+        <c:axId val="471762432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95257344"/>
+        <c:axId val="471760896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,14 +1634,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95258880"/>
+        <c:crossAx val="471762432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95258880"/>
+        <c:axId val="471762432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,12 +1692,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95257344"/>
+        <c:crossAx val="471760896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95264768"/>
+        <c:axId val="471763968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,12 +1734,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95266304"/>
+        <c:crossAx val="471773952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95266304"/>
+        <c:axId val="471773952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95264768"/>
+        <c:crossAx val="471763968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,11 +2389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101024512"/>
-        <c:axId val="101026048"/>
+        <c:axId val="471973888"/>
+        <c:axId val="471975424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101024512"/>
+        <c:axId val="471973888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,14 +2436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101026048"/>
+        <c:crossAx val="471975424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101026048"/>
+        <c:axId val="471975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101024512"/>
+        <c:crossAx val="471973888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,8 +2727,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101049472"/>
-        <c:axId val="101039488"/>
+        <c:axId val="472412544"/>
+        <c:axId val="472410752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2900,11 +2898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101036416"/>
-        <c:axId val="101037952"/>
+        <c:axId val="472403328"/>
+        <c:axId val="472409216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101036416"/>
+        <c:axId val="472403328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,14 +2945,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101037952"/>
+        <c:crossAx val="472409216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101037952"/>
+        <c:axId val="472409216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,12 +3003,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101036416"/>
+        <c:crossAx val="472403328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101039488"/>
+        <c:axId val="472410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,12 +3045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101049472"/>
+        <c:crossAx val="472412544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101049472"/>
+        <c:axId val="472412544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101039488"/>
+        <c:crossAx val="472410752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,11 +3700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101134720"/>
-        <c:axId val="101136256"/>
+        <c:axId val="472141824"/>
+        <c:axId val="472143360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101134720"/>
+        <c:axId val="472141824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,14 +3747,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101136256"/>
+        <c:crossAx val="472143360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101136256"/>
+        <c:axId val="472143360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +3805,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101134720"/>
+        <c:crossAx val="472141824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4040,8 +4038,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101171968"/>
-        <c:axId val="101161984"/>
+        <c:axId val="472445312"/>
+        <c:axId val="472443520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4211,11 +4209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101158912"/>
-        <c:axId val="101160448"/>
+        <c:axId val="472157568"/>
+        <c:axId val="472441984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101158912"/>
+        <c:axId val="472157568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4258,14 +4256,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101160448"/>
+        <c:crossAx val="472441984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101160448"/>
+        <c:axId val="472441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4316,12 +4314,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101158912"/>
+        <c:crossAx val="472157568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101161984"/>
+        <c:axId val="472443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,12 +4356,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101171968"/>
+        <c:crossAx val="472445312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101171968"/>
+        <c:axId val="472445312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,7 +4370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101161984"/>
+        <c:crossAx val="472443520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,8 +4575,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604023040"/>
-        <c:axId val="604021120"/>
+        <c:axId val="469206528"/>
+        <c:axId val="469204992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4748,11 +4746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564056448"/>
-        <c:axId val="564058368"/>
+        <c:axId val="469193472"/>
+        <c:axId val="469195008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564056448"/>
+        <c:axId val="469193472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4795,14 +4793,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564058368"/>
+        <c:crossAx val="469195008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564058368"/>
+        <c:axId val="469195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4853,12 +4851,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564056448"/>
+        <c:crossAx val="469193472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="604021120"/>
+        <c:axId val="469204992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,12 +4893,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604023040"/>
+        <c:crossAx val="469206528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="604023040"/>
+        <c:axId val="469206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4909,7 +4907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604021120"/>
+        <c:crossAx val="469204992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5002,6 +5000,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5183,10 +5182,10 @@
                   <c:v>5047709.1225246815</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5335278.6955962423</c:v>
+                  <c:v>5320900.2169426642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5475584.2183194058</c:v>
+                  <c:v>5461205.7396658277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5354,10 +5353,10 @@
                   <c:v>4723486.4896567063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5030737.0022655586</c:v>
+                  <c:v>5016358.5236119805</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5630279.8278727904</c:v>
+                  <c:v>5614588.7912871493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,7 +5527,7 @@
                   <c:v>-304541.69333068375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>154695.60955338459</c:v>
+                  <c:v>153383.05162132159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,11 +5549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680016128"/>
-        <c:axId val="680045568"/>
+        <c:axId val="470829312"/>
+        <c:axId val="470831104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="680016128"/>
+        <c:axId val="470829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,14 +5596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680045568"/>
+        <c:crossAx val="470831104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="680045568"/>
+        <c:axId val="470831104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5655,7 +5654,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680016128"/>
+        <c:crossAx val="470829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5669,6 +5668,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5879,7 +5879,7 @@
                   <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287569.57307156065</c:v>
+                  <c:v>273191.09441798262</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>140305.52272316307</c:v>
@@ -5897,8 +5897,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91011328"/>
-        <c:axId val="91009792"/>
+        <c:axId val="470871040"/>
+        <c:axId val="470869504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6068,11 +6068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91002368"/>
-        <c:axId val="91003904"/>
+        <c:axId val="470862080"/>
+        <c:axId val="470867968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91002368"/>
+        <c:axId val="470862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6115,14 +6115,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91003904"/>
+        <c:crossAx val="470867968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91003904"/>
+        <c:axId val="470867968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6173,12 +6173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91002368"/>
+        <c:crossAx val="470862080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91009792"/>
+        <c:axId val="470869504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,12 +6215,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91011328"/>
+        <c:crossAx val="470871040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91011328"/>
+        <c:axId val="470871040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,7 +6229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91009792"/>
+        <c:crossAx val="470869504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6322,6 +6322,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6503,10 +6504,10 @@
                   <c:v>43963753.167668387</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46417421.46242708</c:v>
+                  <c:v>46294738.047689147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47275351.352326751</c:v>
+                  <c:v>47152667.937588818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6674,10 +6675,10 @@
                   <c:v>41988527.240865454</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44617145.473069079</c:v>
+                  <c:v>44494462.058331147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49548008.919266947</c:v>
+                  <c:v>49414126.19109492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6848,7 +6849,7 @@
                   <c:v>-1800275.9893580005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2272657.5669401959</c:v>
+                  <c:v>2261458.2535061017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6870,11 +6871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91027328"/>
-        <c:axId val="91028864"/>
+        <c:axId val="471423232"/>
+        <c:axId val="471425024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91027328"/>
+        <c:axId val="471423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6917,14 +6918,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91028864"/>
+        <c:crossAx val="471425024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91028864"/>
+        <c:axId val="471425024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,7 +6976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91027328"/>
+        <c:crossAx val="471423232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6989,6 +6990,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7199,7 +7201,7 @@
                   <c:v>2792051.0280197761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2453668.2947586924</c:v>
+                  <c:v>2330984.8800207577</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>857929.88989966922</c:v>
@@ -7217,8 +7219,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91069056"/>
-        <c:axId val="91067520"/>
+        <c:axId val="471467904"/>
+        <c:axId val="471466368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7388,11 +7390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91043712"/>
-        <c:axId val="91045248"/>
+        <c:axId val="471450752"/>
+        <c:axId val="471452288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91043712"/>
+        <c:axId val="471450752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7435,14 +7437,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91045248"/>
+        <c:crossAx val="471452288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91045248"/>
+        <c:axId val="471452288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7493,12 +7495,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91043712"/>
+        <c:crossAx val="471450752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91067520"/>
+        <c:axId val="471466368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7535,12 +7537,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91069056"/>
+        <c:crossAx val="471467904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91069056"/>
+        <c:axId val="471467904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7549,7 +7551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91067520"/>
+        <c:crossAx val="471466368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7642,6 +7644,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7823,10 +7826,10 @@
                   <c:v>1856307.2108222744</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1991419.1722474105</c:v>
+                  <c:v>1984663.5741761536</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2047999.5316581603</c:v>
+                  <c:v>2041243.9335869034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,10 +7997,10 @@
                   <c:v>1811596.9697041714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1954257.1543548342</c:v>
+                  <c:v>1947501.5562835776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2189234.3936469299</c:v>
+                  <c:v>2181862.102109842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8165,10 +8168,10 @@
                   <c:v>-44710.241118103033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-37162.017892576288</c:v>
+                  <c:v>-37162.017892576056</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141234.86198876961</c:v>
+                  <c:v>140618.16852293862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8190,11 +8193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93562752"/>
-        <c:axId val="93564288"/>
+        <c:axId val="471663360"/>
+        <c:axId val="471664896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93562752"/>
+        <c:axId val="471663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8237,14 +8240,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93564288"/>
+        <c:crossAx val="471664896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93564288"/>
+        <c:axId val="471664896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8295,7 +8298,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93562752"/>
+        <c:crossAx val="471663360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8309,6 +8312,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8510,7 +8514,7 @@
                   <c:v>185040.20883362993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135111.96142513602</c:v>
+                  <c:v>128356.36335387925</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>56580.359410749836</c:v>
@@ -8528,8 +8532,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95226112"/>
-        <c:axId val="95224576"/>
+        <c:axId val="471721088"/>
+        <c:axId val="471702912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8699,11 +8703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93578752"/>
-        <c:axId val="93580288"/>
+        <c:axId val="471699840"/>
+        <c:axId val="471701376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93578752"/>
+        <c:axId val="471699840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8746,14 +8750,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93580288"/>
+        <c:crossAx val="471701376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93580288"/>
+        <c:axId val="471701376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8804,12 +8808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93578752"/>
+        <c:crossAx val="471699840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95224576"/>
+        <c:axId val="471702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8846,12 +8850,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95226112"/>
+        <c:crossAx val="471721088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95226112"/>
+        <c:axId val="471721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8860,7 +8864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95224576"/>
+        <c:crossAx val="471702912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9501,11 +9505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95237248"/>
-        <c:axId val="95238784"/>
+        <c:axId val="471736704"/>
+        <c:axId val="471738240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95237248"/>
+        <c:axId val="471736704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9548,14 +9552,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95238784"/>
+        <c:crossAx val="471738240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95238784"/>
+        <c:axId val="471738240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9606,7 +9610,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95237248"/>
+        <c:crossAx val="471736704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27122,11 +27126,6 @@
       <sheetName val="model1&amp;RSI"/>
       <sheetName val="model1&amp;KDJ"/>
       <sheetName val="model1&amp;2"/>
-      <sheetName val="模型一计算RSI"/>
-      <sheetName val="模型一计算KDJ"/>
-      <sheetName val="模型一"/>
-      <sheetName val="模型一计算CCI"/>
-      <sheetName val="模型一或二PE副本"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -27177,35 +27176,11 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2">
             <v>2000</v>
           </cell>
           <cell r="D2" t="str">
             <v>unit:yuan</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -27236,9 +27211,6 @@
           <cell r="I3">
             <v>0</v>
           </cell>
-          <cell r="J3">
-            <v>0</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -28033,1018 +28005,47 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="A22">
+            <v>44957</v>
+          </cell>
+          <cell r="B22">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="C22">
+            <v>2000</v>
+          </cell>
+          <cell r="D22">
+            <v>2534.8543270744931</v>
+          </cell>
+          <cell r="E22">
+            <v>57244.323029816987</v>
+          </cell>
+          <cell r="F22">
+            <v>45165.769423825928</v>
+          </cell>
+          <cell r="G22">
+            <v>48000</v>
+          </cell>
+          <cell r="H22">
+            <v>45165.769423825928</v>
+          </cell>
+          <cell r="I22">
+            <v>-2834.2305761740718</v>
+          </cell>
           <cell r="J22">
-            <v>0</v>
+            <v>6.5999984741210938E-2</v>
           </cell>
           <cell r="K22">
-            <v>0</v>
+            <v>2.145958526145586E-2</v>
           </cell>
           <cell r="L22">
-            <v>0</v>
+            <v>6.5999984741210938E-2</v>
           </cell>
           <cell r="M22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>0</v>
-          </cell>
-          <cell r="M23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="M24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>0</v>
-          </cell>
-          <cell r="K25">
-            <v>0</v>
-          </cell>
-          <cell r="L25">
-            <v>0</v>
-          </cell>
-          <cell r="M25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>0</v>
-          </cell>
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="M26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>0</v>
-          </cell>
-          <cell r="K27">
-            <v>0</v>
-          </cell>
-          <cell r="L27">
-            <v>0</v>
-          </cell>
-          <cell r="M27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-          <cell r="K28">
-            <v>0</v>
-          </cell>
-          <cell r="L28">
-            <v>0</v>
-          </cell>
-          <cell r="M28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-          <cell r="K29">
-            <v>0</v>
-          </cell>
-          <cell r="L29">
-            <v>0</v>
-          </cell>
-          <cell r="M29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>0</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="L30">
-            <v>0</v>
-          </cell>
-          <cell r="M30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-          <cell r="K31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>0</v>
-          </cell>
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-          <cell r="M32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>0</v>
-          </cell>
-          <cell r="K33">
-            <v>0</v>
-          </cell>
-          <cell r="L33">
-            <v>0</v>
-          </cell>
-          <cell r="M33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>0</v>
-          </cell>
-          <cell r="K34">
-            <v>0</v>
-          </cell>
-          <cell r="L34">
-            <v>0</v>
-          </cell>
-          <cell r="M34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-          <cell r="K35">
-            <v>0</v>
-          </cell>
-          <cell r="L35">
-            <v>0</v>
-          </cell>
-          <cell r="M35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-          <cell r="K36">
-            <v>0</v>
-          </cell>
-          <cell r="L36">
-            <v>0</v>
-          </cell>
-          <cell r="M36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>0</v>
-          </cell>
-          <cell r="K37">
-            <v>0</v>
-          </cell>
-          <cell r="L37">
-            <v>0</v>
-          </cell>
-          <cell r="M37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>0</v>
-          </cell>
-          <cell r="K38">
-            <v>0</v>
-          </cell>
-          <cell r="L38">
-            <v>0</v>
-          </cell>
-          <cell r="M38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>0</v>
-          </cell>
-          <cell r="K39">
-            <v>0</v>
-          </cell>
-          <cell r="L39">
-            <v>0</v>
-          </cell>
-          <cell r="M39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>0</v>
-          </cell>
-          <cell r="K40">
-            <v>0</v>
-          </cell>
-          <cell r="L40">
-            <v>0</v>
-          </cell>
-          <cell r="M40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>0</v>
-          </cell>
-          <cell r="K41">
-            <v>0</v>
-          </cell>
-          <cell r="L41">
-            <v>0</v>
-          </cell>
-          <cell r="M41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>0</v>
-          </cell>
-          <cell r="K42">
-            <v>0</v>
-          </cell>
-          <cell r="L42">
-            <v>0</v>
-          </cell>
-          <cell r="M42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>0</v>
-          </cell>
-          <cell r="K43">
-            <v>0</v>
-          </cell>
-          <cell r="L43">
-            <v>0</v>
-          </cell>
-          <cell r="M43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>0</v>
-          </cell>
-          <cell r="K44">
-            <v>0</v>
-          </cell>
-          <cell r="L44">
-            <v>0</v>
-          </cell>
-          <cell r="M44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>0</v>
-          </cell>
-          <cell r="K45">
-            <v>0</v>
-          </cell>
-          <cell r="L45">
-            <v>0</v>
-          </cell>
-          <cell r="M45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>0</v>
-          </cell>
-          <cell r="K46">
-            <v>0</v>
-          </cell>
-          <cell r="L46">
-            <v>0</v>
-          </cell>
-          <cell r="M46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="J110">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="J111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="J112">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="J113">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="J114">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="J115">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="J116">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="J117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="J118">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="J119">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="J120">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="J121">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="J122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="J123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="J124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="J125">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="J126">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="J127">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="J128">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="J129">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="J130">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="J131">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="J132">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="J133">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="J134">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="J135">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="J136">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="J137">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="J138">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="J139">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="J140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="J141">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="J142">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="J143">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="J144">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="J145">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="J146">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="J147">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="J148">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="J149">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="J150">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="J151">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="J152">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="J153">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="J154">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="J155">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="J156">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="J157">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="J158">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="J159">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="J160">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="J161">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="J162">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="J163">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="J164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="J165">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="J166">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="J167">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="J168">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="J169">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="J170">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="J171">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="J172">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="J173">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="J174">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="J175">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="J176">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="J177">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="J178">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="J179">
-            <v>0</v>
+            <v>4.119171367975881E-2</v>
+          </cell>
+          <cell r="N22">
+            <v>52.096849935138493</v>
           </cell>
         </row>
       </sheetData>
@@ -29103,35 +28104,11 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2">
             <v>2000</v>
           </cell>
           <cell r="D2" t="str">
             <v>unit:yuan</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -30142,1242 +29119,60 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="A22">
+            <v>44957</v>
+          </cell>
+          <cell r="B22">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="C22">
+            <v>2000</v>
+          </cell>
+          <cell r="D22">
+            <v>2534.8543270744931</v>
+          </cell>
+          <cell r="E22">
+            <v>49188.877787774363</v>
+          </cell>
+          <cell r="F22">
+            <v>38810.02333143448</v>
+          </cell>
+          <cell r="G22">
+            <v>41000</v>
+          </cell>
+          <cell r="H22">
+            <v>38810.02333143448</v>
+          </cell>
+          <cell r="I22">
+            <v>-2189.9766685655195</v>
+          </cell>
           <cell r="J22">
-            <v>0</v>
+            <v>0.81000000238418579</v>
           </cell>
           <cell r="K22">
-            <v>0</v>
+            <v>0.7149999737739563</v>
           </cell>
           <cell r="L22">
-            <v>0</v>
+            <v>0.86000001430511475</v>
           </cell>
           <cell r="M22">
-            <v>0</v>
+            <v>0.67799997329711914</v>
           </cell>
           <cell r="N22">
-            <v>0</v>
+            <v>60.988998033047167</v>
           </cell>
           <cell r="O22">
-            <v>0</v>
+            <v>38.329713449753399</v>
           </cell>
           <cell r="P22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>0</v>
-          </cell>
-          <cell r="M23">
-            <v>0</v>
-          </cell>
-          <cell r="N23">
-            <v>0</v>
-          </cell>
-          <cell r="O23">
-            <v>0</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="M24">
-            <v>0</v>
-          </cell>
-          <cell r="N24">
-            <v>0</v>
-          </cell>
-          <cell r="O24">
-            <v>0</v>
-          </cell>
-          <cell r="P24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>0</v>
-          </cell>
-          <cell r="K25">
-            <v>0</v>
-          </cell>
-          <cell r="L25">
-            <v>0</v>
-          </cell>
-          <cell r="M25">
-            <v>0</v>
-          </cell>
-          <cell r="N25">
-            <v>0</v>
-          </cell>
-          <cell r="O25">
-            <v>0</v>
-          </cell>
-          <cell r="P25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>0</v>
-          </cell>
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="M26">
-            <v>0</v>
-          </cell>
-          <cell r="N26">
-            <v>0</v>
-          </cell>
-          <cell r="O26">
-            <v>0</v>
-          </cell>
-          <cell r="P26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>0</v>
-          </cell>
-          <cell r="K27">
-            <v>0</v>
-          </cell>
-          <cell r="L27">
-            <v>0</v>
-          </cell>
-          <cell r="M27">
-            <v>0</v>
-          </cell>
-          <cell r="N27">
-            <v>0</v>
-          </cell>
-          <cell r="O27">
-            <v>0</v>
-          </cell>
-          <cell r="P27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-          <cell r="K28">
-            <v>0</v>
-          </cell>
-          <cell r="L28">
-            <v>0</v>
-          </cell>
-          <cell r="M28">
-            <v>0</v>
-          </cell>
-          <cell r="N28">
-            <v>0</v>
-          </cell>
-          <cell r="O28">
-            <v>0</v>
-          </cell>
-          <cell r="P28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-          <cell r="K29">
-            <v>0</v>
-          </cell>
-          <cell r="L29">
-            <v>0</v>
-          </cell>
-          <cell r="M29">
-            <v>0</v>
-          </cell>
-          <cell r="N29">
-            <v>0</v>
-          </cell>
-          <cell r="O29">
-            <v>0</v>
-          </cell>
-          <cell r="P29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>0</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="L30">
-            <v>0</v>
-          </cell>
-          <cell r="M30">
-            <v>0</v>
-          </cell>
-          <cell r="N30">
-            <v>0</v>
-          </cell>
-          <cell r="O30">
-            <v>0</v>
-          </cell>
-          <cell r="P30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-          <cell r="K31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>0</v>
-          </cell>
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="N31">
-            <v>0</v>
-          </cell>
-          <cell r="O31">
-            <v>0</v>
-          </cell>
-          <cell r="P31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-          <cell r="M32">
-            <v>0</v>
-          </cell>
-          <cell r="N32">
-            <v>0</v>
-          </cell>
-          <cell r="O32">
-            <v>0</v>
-          </cell>
-          <cell r="P32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>0</v>
-          </cell>
-          <cell r="K33">
-            <v>0</v>
-          </cell>
-          <cell r="L33">
-            <v>0</v>
-          </cell>
-          <cell r="M33">
-            <v>0</v>
-          </cell>
-          <cell r="N33">
-            <v>0</v>
-          </cell>
-          <cell r="O33">
-            <v>0</v>
-          </cell>
-          <cell r="P33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>0</v>
-          </cell>
-          <cell r="K34">
-            <v>0</v>
-          </cell>
-          <cell r="L34">
-            <v>0</v>
-          </cell>
-          <cell r="M34">
-            <v>0</v>
-          </cell>
-          <cell r="N34">
-            <v>0</v>
-          </cell>
-          <cell r="O34">
-            <v>0</v>
-          </cell>
-          <cell r="P34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-          <cell r="K35">
-            <v>0</v>
-          </cell>
-          <cell r="L35">
-            <v>0</v>
-          </cell>
-          <cell r="M35">
-            <v>0</v>
-          </cell>
-          <cell r="N35">
-            <v>0</v>
-          </cell>
-          <cell r="O35">
-            <v>0</v>
-          </cell>
-          <cell r="P35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-          <cell r="K36">
-            <v>0</v>
-          </cell>
-          <cell r="L36">
-            <v>0</v>
-          </cell>
-          <cell r="M36">
-            <v>0</v>
-          </cell>
-          <cell r="N36">
-            <v>0</v>
-          </cell>
-          <cell r="O36">
-            <v>0</v>
-          </cell>
-          <cell r="P36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>0</v>
-          </cell>
-          <cell r="K37">
-            <v>0</v>
-          </cell>
-          <cell r="L37">
-            <v>0</v>
-          </cell>
-          <cell r="M37">
-            <v>0</v>
-          </cell>
-          <cell r="N37">
-            <v>0</v>
-          </cell>
-          <cell r="O37">
-            <v>0</v>
-          </cell>
-          <cell r="P37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>0</v>
-          </cell>
-          <cell r="K38">
-            <v>0</v>
-          </cell>
-          <cell r="L38">
-            <v>0</v>
-          </cell>
-          <cell r="M38">
-            <v>0</v>
-          </cell>
-          <cell r="N38">
-            <v>0</v>
-          </cell>
-          <cell r="O38">
-            <v>0</v>
-          </cell>
-          <cell r="P38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>0</v>
-          </cell>
-          <cell r="K39">
-            <v>0</v>
-          </cell>
-          <cell r="L39">
-            <v>0</v>
-          </cell>
-          <cell r="M39">
-            <v>0</v>
-          </cell>
-          <cell r="N39">
-            <v>0</v>
-          </cell>
-          <cell r="O39">
-            <v>0</v>
-          </cell>
-          <cell r="P39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>0</v>
-          </cell>
-          <cell r="K40">
-            <v>0</v>
-          </cell>
-          <cell r="L40">
-            <v>0</v>
-          </cell>
-          <cell r="M40">
-            <v>0</v>
-          </cell>
-          <cell r="N40">
-            <v>0</v>
-          </cell>
-          <cell r="O40">
-            <v>0</v>
-          </cell>
-          <cell r="P40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>0</v>
-          </cell>
-          <cell r="K41">
-            <v>0</v>
-          </cell>
-          <cell r="L41">
-            <v>0</v>
-          </cell>
-          <cell r="M41">
-            <v>0</v>
-          </cell>
-          <cell r="N41">
-            <v>0</v>
-          </cell>
-          <cell r="O41">
-            <v>0</v>
-          </cell>
-          <cell r="P41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>0</v>
-          </cell>
-          <cell r="K42">
-            <v>0</v>
-          </cell>
-          <cell r="L42">
-            <v>0</v>
-          </cell>
-          <cell r="M42">
-            <v>0</v>
-          </cell>
-          <cell r="N42">
-            <v>0</v>
-          </cell>
-          <cell r="O42">
-            <v>0</v>
-          </cell>
-          <cell r="P42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>0</v>
-          </cell>
-          <cell r="K43">
-            <v>0</v>
-          </cell>
-          <cell r="L43">
-            <v>0</v>
-          </cell>
-          <cell r="M43">
-            <v>0</v>
-          </cell>
-          <cell r="N43">
-            <v>0</v>
-          </cell>
-          <cell r="O43">
-            <v>0</v>
-          </cell>
-          <cell r="P43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>0</v>
-          </cell>
-          <cell r="K44">
-            <v>0</v>
-          </cell>
-          <cell r="L44">
-            <v>0</v>
-          </cell>
-          <cell r="M44">
-            <v>0</v>
-          </cell>
-          <cell r="N44">
-            <v>0</v>
-          </cell>
-          <cell r="O44">
-            <v>0</v>
-          </cell>
-          <cell r="P44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>0</v>
-          </cell>
-          <cell r="K45">
-            <v>0</v>
-          </cell>
-          <cell r="L45">
-            <v>0</v>
-          </cell>
-          <cell r="M45">
-            <v>0</v>
-          </cell>
-          <cell r="N45">
-            <v>0</v>
-          </cell>
-          <cell r="O45">
-            <v>0</v>
-          </cell>
-          <cell r="P45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>0</v>
-          </cell>
-          <cell r="K46">
-            <v>0</v>
-          </cell>
-          <cell r="L46">
-            <v>0</v>
-          </cell>
-          <cell r="M46">
-            <v>0</v>
-          </cell>
-          <cell r="N46">
-            <v>0</v>
-          </cell>
-          <cell r="O46">
-            <v>0</v>
-          </cell>
-          <cell r="P46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="J110">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="J111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="J112">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="J113">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="J114">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="J115">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="J116">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="J117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="J118">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="J119">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="J120">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="J121">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="J122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="J123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="J124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="J125">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="J126">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="J127">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="J128">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="J129">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="J130">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="J131">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="J132">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="J133">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="J134">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="J135">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="J136">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="J137">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="J138">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="J139">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="J140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="J141">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="J142">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="J143">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="J144">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="J145">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="J146">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="J147">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="J148">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="J149">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="J150">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="J151">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="J152">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="J153">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="J154">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="J155">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="J156">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="J157">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="J158">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="J159">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="J160">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="J161">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="J162">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="J163">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="J164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="J165">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="J166">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="J167">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="J168">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="J169">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="J170">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="J171">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="J172">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="J173">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="J174">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="J175">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="J176">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="J177">
-            <v>0</v>
+            <v>30.224689691495957</v>
+          </cell>
+          <cell r="Q22">
+            <v>54.539760966268283</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -31673,7 +29468,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -34149,15 +31944,15 @@
       </c>
       <c r="M19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.2904999921189547E-2</v>
+        <v>1.0754166600991289E-2</v>
       </c>
       <c r="N19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>5.2021540741810528E-2</v>
+        <v>4.4851284507818785E-2</v>
       </c>
       <c r="O19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>24.80703135118333</v>
+        <v>23.977388204158451</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
@@ -34214,15 +32009,15 @@
       </c>
       <c r="M20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.0754166600991289E-2</v>
+        <v>1.4461814163367781E-2</v>
       </c>
       <c r="N20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.4851284507818785E-2</v>
+        <v>4.287607908572403E-2</v>
       </c>
       <c r="O20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>23.977388204158451</v>
+        <v>33.729329900837342</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="9"/>
@@ -34247,27 +32042,27 @@
       </c>
       <c r="E21" s="17">
         <f t="shared" si="8"/>
-        <v>287569.57307156065</v>
+        <v>273191.09441798262</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>397744.9198539576</v>
+        <v>377857.67386125971</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="4"/>
-        <v>6958142.5614681579</v>
+        <v>6938255.3154754601</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>5030737.0022655586</v>
+        <v>5016358.5236119805</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="5"/>
-        <v>5335278.6955962423</v>
+        <v>5320900.2169426642</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>5030737.0022655586</v>
+        <v>5016358.5236119805</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
@@ -34279,19 +32074,19 @@
       </c>
       <c r="M21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.4461814163367781E-2</v>
+        <v>1.2551505365504848E-2</v>
       </c>
       <c r="N21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.287607908572403E-2</v>
+        <v>3.6230059467468385E-2</v>
       </c>
       <c r="O21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>33.729329900837342</v>
+        <v>34.643899430457921</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -34320,23 +32115,23 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" si="4"/>
-        <v>7135969.5921617867</v>
+        <v>7116082.346169089</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="1"/>
-        <v>5630279.8278727904</v>
+        <v>5614588.7912871493</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="5"/>
-        <v>5475584.2183194058</v>
+        <v>5461205.7396658277</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="2"/>
-        <v>5630279.8278727904</v>
+        <v>5614588.7912871493</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="3"/>
-        <v>154695.60955338459</v>
+        <v>153383.05162132159</v>
       </c>
       <c r="L22" s="17">
         <f t="shared" si="6"/>
@@ -34344,15 +32139,15 @@
       </c>
       <c r="M22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.2551505365504848E-2</v>
+        <v>2.145958526145586E-2</v>
       </c>
       <c r="N22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>3.6230059467468385E-2</v>
+        <v>4.119171367975881E-2</v>
       </c>
       <c r="O22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>34.643899430457921</v>
+        <v>52.096849935138493</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="9"/>
@@ -35649,15 +33444,15 @@
       </c>
       <c r="M19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.2904999921189547E-2</v>
+        <v>1.0754166600991289E-2</v>
       </c>
       <c r="N19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>5.2021540741810528E-2</v>
+        <v>4.4851284507818785E-2</v>
       </c>
       <c r="O19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>24.80703135118333</v>
+        <v>23.977388204158451</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
@@ -35714,15 +33509,15 @@
       </c>
       <c r="M20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.0754166600991289E-2</v>
+        <v>1.4461814163367781E-2</v>
       </c>
       <c r="N20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.4851284507818785E-2</v>
+        <v>4.287607908572403E-2</v>
       </c>
       <c r="O20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>23.977388204158451</v>
+        <v>33.729329900837342</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="9"/>
@@ -35747,27 +33542,27 @@
       </c>
       <c r="E21" s="17">
         <f t="shared" si="8"/>
-        <v>2453668.2947586924</v>
+        <v>2330984.8800207577</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>3393732.1282739993</v>
+        <v>3224045.5218602996</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="4"/>
-        <v>61711128.756595328</v>
+        <v>61541442.150181629</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>44617145.473069079</v>
+        <v>44494462.058331147</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="5"/>
-        <v>46417421.46242708</v>
+        <v>46294738.047689147</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>44617145.473069079</v>
+        <v>44494462.058331147</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="3"/>
@@ -35779,19 +33574,19 @@
       </c>
       <c r="M21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.4461814163367781E-2</v>
+        <v>1.2551505365504848E-2</v>
       </c>
       <c r="N21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.287607908572403E-2</v>
+        <v>3.6230059467468385E-2</v>
       </c>
       <c r="O21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>33.729329900837342</v>
+        <v>34.643899430457921</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -35820,23 +33615,23 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" si="4"/>
-        <v>62798492.40346469</v>
+        <v>62628805.79705099</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="1"/>
-        <v>49548008.919266947</v>
+        <v>49414126.19109492</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="5"/>
-        <v>47275351.352326751</v>
+        <v>47152667.937588818</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="2"/>
-        <v>49548008.919266947</v>
+        <v>49414126.19109492</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="3"/>
-        <v>2272657.5669401959</v>
+        <v>2261458.2535061017</v>
       </c>
       <c r="L22" s="17">
         <f t="shared" si="6"/>
@@ -35844,15 +33639,15 @@
       </c>
       <c r="M22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.2551505365504848E-2</v>
+        <v>2.145958526145586E-2</v>
       </c>
       <c r="N22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>3.6230059467468385E-2</v>
+        <v>4.119171367975881E-2</v>
       </c>
       <c r="O22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>34.643899430457921</v>
+        <v>52.096849935138493</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="9"/>
@@ -35877,7 +33672,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -37297,15 +35092,15 @@
       </c>
       <c r="O19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.2904999921189547E-2</v>
+        <v>1.0754166600991289E-2</v>
       </c>
       <c r="P19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>5.2021540741810528E-2</v>
+        <v>4.4851284507818785E-2</v>
       </c>
       <c r="Q19" s="22">
         <f>VLOOKUP(A19,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>24.80703135118333</v>
+        <v>23.977388204158451</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="9"/>
@@ -37370,15 +35165,15 @@
       </c>
       <c r="O20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.0754166600991289E-2</v>
+        <v>1.4461814163367781E-2</v>
       </c>
       <c r="P20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.4851284507818785E-2</v>
+        <v>4.287607908572403E-2</v>
       </c>
       <c r="Q20" s="22">
         <f>VLOOKUP(A20,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>23.977388204158451</v>
+        <v>33.729329900837342</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="9"/>
@@ -37411,31 +35206,31 @@
       </c>
       <c r="G21" s="17">
         <f t="shared" si="8"/>
-        <v>135111.96142513602</v>
+        <v>128356.36335387925</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>186876.85103242376</v>
+        <v>177533.00848080261</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="4"/>
-        <v>2702983.6534182271</v>
+        <v>2693639.810866606</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="1"/>
-        <v>1954257.1543548342</v>
+        <v>1947501.5562835776</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="5"/>
-        <v>1991419.1722474105</v>
+        <v>1984663.5741761536</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="2"/>
-        <v>1954257.1543548342</v>
+        <v>1947501.5562835776</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" si="3"/>
-        <v>-37162.017892576288</v>
+        <v>-37162.017892576056</v>
       </c>
       <c r="N21" s="17">
         <f t="shared" si="6"/>
@@ -37443,19 +35238,19 @@
       </c>
       <c r="O21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.4461814163367781E-2</v>
+        <v>1.2551505365504848E-2</v>
       </c>
       <c r="P21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.287607908572403E-2</v>
+        <v>3.6230059467468385E-2</v>
       </c>
       <c r="Q21" s="22">
         <f>VLOOKUP(A21,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>33.729329900837342</v>
+        <v>34.643899430457921</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -37492,23 +35287,23 @@
       </c>
       <c r="I22" s="18">
         <f t="shared" si="4"/>
-        <v>2774695.1378581119</v>
+        <v>2765351.2953064907</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="1"/>
-        <v>2189234.3936469299</v>
+        <v>2181862.102109842</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="5"/>
-        <v>2047999.5316581603</v>
+        <v>2041243.9335869034</v>
       </c>
       <c r="L22" s="18">
         <f t="shared" si="2"/>
-        <v>2189234.3936469299</v>
+        <v>2181862.102109842</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" si="3"/>
-        <v>141234.86198876961</v>
+        <v>140618.16852293862</v>
       </c>
       <c r="N22" s="17">
         <f t="shared" si="6"/>
@@ -37516,15 +35311,15 @@
       </c>
       <c r="O22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.2551505365504848E-2</v>
+        <v>2.145958526145586E-2</v>
       </c>
       <c r="P22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>3.6230059467468385E-2</v>
+        <v>4.119171367975881E-2</v>
       </c>
       <c r="Q22" s="22">
         <f>VLOOKUP(A22,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>34.643899430457921</v>
+        <v>52.096849935138493</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="9"/>
@@ -38909,19 +36704,19 @@
       </c>
       <c r="M19" s="21">
         <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>12.280700225591376</v>
+        <v>12.840462504160149</v>
       </c>
       <c r="N19" s="21">
         <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>25.686750595362994</v>
+        <v>21.404654564962044</v>
       </c>
       <c r="O19" s="21">
         <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>29.439291550094584</v>
+        <v>26.761079221717068</v>
       </c>
       <c r="P19" s="21">
         <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>18.181668685899815</v>
+        <v>10.691805251451996</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="8"/>
@@ -38978,19 +36773,19 @@
       </c>
       <c r="M20" s="21">
         <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>12.840462504160149</v>
+        <v>28.448295795251873</v>
       </c>
       <c r="N20" s="21">
         <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>21.404654564962044</v>
+        <v>23.752534975058655</v>
       </c>
       <c r="O20" s="21">
         <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>26.761079221717068</v>
+        <v>25.758231139497596</v>
       </c>
       <c r="P20" s="21">
         <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>10.691805251451996</v>
+        <v>19.741142646180776</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="8"/>
@@ -39047,19 +36842,19 @@
       </c>
       <c r="M21" s="21">
         <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>28.448295795251873</v>
+        <v>33.495143524202234</v>
       </c>
       <c r="N21" s="21">
         <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>23.752534975058655</v>
+        <v>27.000071158106511</v>
       </c>
       <c r="O21" s="21">
         <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>25.758231139497596</v>
+        <v>26.172177812367234</v>
       </c>
       <c r="P21" s="21">
         <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>19.741142646180776</v>
+        <v>28.655857849585068</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="8"/>
@@ -39116,19 +36911,19 @@
       </c>
       <c r="M22" s="21">
         <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>33.495143524202234</v>
+        <v>60.988998033047167</v>
       </c>
       <c r="N22" s="21">
         <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>27.000071158106511</v>
+        <v>38.329713449753399</v>
       </c>
       <c r="O22" s="21">
         <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>26.172177812367234</v>
+        <v>30.224689691495957</v>
       </c>
       <c r="P22" s="21">
         <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>28.655857849585068</v>
+        <v>54.539760966268283</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -586,7 +586,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -646,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +658,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -715,6 +718,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3904600.5212148419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4084731.4122017911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +763,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -817,6 +823,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +835,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -886,6 +895,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4049072.3250765675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4095773.8939387267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +940,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -988,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,7 +1012,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1057,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>144471.80386172561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11042.481736935675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,11 +1096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469030016"/>
-        <c:axId val="469031552"/>
+        <c:axId val="571822848"/>
+        <c:axId val="571824384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469030016"/>
+        <c:axId val="571822848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,14 +1143,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469031552"/>
+        <c:crossAx val="571824384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469031552"/>
+        <c:axId val="571824384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469030016"/>
+        <c:crossAx val="571822848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,7 +1360,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1402,6 +1420,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>147690.02391911903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180130.89098694932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,8 +1437,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471773952"/>
-        <c:axId val="471763968"/>
+        <c:axId val="571816192"/>
+        <c:axId val="571814656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1442,7 +1463,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1502,6 +1523,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +1535,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1571,6 +1595,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,11 +1614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471760896"/>
-        <c:axId val="471762432"/>
+        <c:axId val="571807232"/>
+        <c:axId val="571808768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471760896"/>
+        <c:axId val="571807232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,14 +1661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471762432"/>
+        <c:crossAx val="571808768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471762432"/>
+        <c:axId val="571808768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,12 +1719,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471760896"/>
+        <c:crossAx val="571807232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471763968"/>
+        <c:axId val="571814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,12 +1761,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471773952"/>
+        <c:crossAx val="571816192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471773952"/>
+        <c:axId val="571816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471763968"/>
+        <c:crossAx val="571814656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1924,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1957,6 +1984,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,7 +1996,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2026,6 +2056,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>11358771.598912753</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11532962.367859984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,7 +2101,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2128,6 +2161,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2173,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2197,6 +2233,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12240014.638386695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12010859.474023988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,7 +2278,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2299,6 +2338,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,7 +2350,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2368,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>881243.03947394155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>477897.10616400465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,11 +2434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471973888"/>
-        <c:axId val="471975424"/>
+        <c:axId val="571873920"/>
+        <c:axId val="571879808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471973888"/>
+        <c:axId val="571873920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,14 +2481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471975424"/>
+        <c:crossAx val="571879808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471975424"/>
+        <c:axId val="571879808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471973888"/>
+        <c:crossAx val="571873920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,7 +2698,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2713,6 +2758,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>427736.68836834806</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>174190.76894722995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2727,8 +2775,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472412544"/>
-        <c:axId val="472410752"/>
+        <c:axId val="571910016"/>
+        <c:axId val="571908480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2753,7 +2801,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2813,6 +2861,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,7 +2873,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2882,6 +2933,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,11 +2952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472403328"/>
-        <c:axId val="472409216"/>
+        <c:axId val="571905152"/>
+        <c:axId val="571906688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472403328"/>
+        <c:axId val="571905152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,14 +2999,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472409216"/>
+        <c:crossAx val="571906688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472409216"/>
+        <c:axId val="571906688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,12 +3057,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472403328"/>
+        <c:crossAx val="571905152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472410752"/>
+        <c:axId val="571908480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,12 +3099,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472412544"/>
+        <c:crossAx val="571910016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="472412544"/>
+        <c:axId val="571910016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472410752"/>
+        <c:crossAx val="571908480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3208,7 +3262,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3268,6 +3322,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,7 +3334,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3337,6 +3394,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>33427449.505397856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34643870.054104492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,7 +3439,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3439,6 +3499,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,7 +3511,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3508,6 +3571,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>35301159.916489385</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35354299.234405242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,7 +3616,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3610,6 +3676,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,7 +3688,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3679,6 +3748,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1873710.4110915288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>710429.18030074984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,11 +3772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472141824"/>
-        <c:axId val="472143360"/>
+        <c:axId val="573622912"/>
+        <c:axId val="573628800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472141824"/>
+        <c:axId val="573622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,14 +3819,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472143360"/>
+        <c:crossAx val="573628800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472143360"/>
+        <c:axId val="573628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,7 +3877,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472141824"/>
+        <c:crossAx val="573622912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3964,7 +4036,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4024,6 +4096,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>903084.09463123081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1216420.548706634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4038,8 +4113,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472445312"/>
-        <c:axId val="472443520"/>
+        <c:axId val="573667200"/>
+        <c:axId val="573665664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4064,7 +4139,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4124,6 +4199,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +4211,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4193,6 +4271,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4209,11 +4290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472157568"/>
-        <c:axId val="472441984"/>
+        <c:axId val="573654144"/>
+        <c:axId val="573655680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472157568"/>
+        <c:axId val="573654144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4256,14 +4337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472441984"/>
+        <c:crossAx val="573655680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472441984"/>
+        <c:axId val="573655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4314,12 +4395,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472157568"/>
+        <c:crossAx val="573654144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472443520"/>
+        <c:axId val="573665664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,12 +4437,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472445312"/>
+        <c:crossAx val="573667200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="472445312"/>
+        <c:axId val="573667200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4370,7 +4451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472443520"/>
+        <c:crossAx val="573665664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4501,7 +4582,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4561,6 +4642,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>147690.02391911903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180130.89098694932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,8 +4659,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="469206528"/>
-        <c:axId val="469204992"/>
+        <c:axId val="591313152"/>
+        <c:axId val="578194816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4601,7 +4685,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4661,6 +4745,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,7 +4757,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4730,6 +4817,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4746,11 +4836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469193472"/>
-        <c:axId val="469195008"/>
+        <c:axId val="578191360"/>
+        <c:axId val="578192896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469193472"/>
+        <c:axId val="578191360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4793,14 +4883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469195008"/>
+        <c:crossAx val="578192896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469195008"/>
+        <c:axId val="578192896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,12 +4941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469193472"/>
+        <c:crossAx val="578191360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469204992"/>
+        <c:axId val="578194816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4893,12 +4983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469206528"/>
+        <c:crossAx val="591313152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="469206528"/>
+        <c:axId val="591313152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469204992"/>
+        <c:crossAx val="578194816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5000,7 +5090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5057,7 +5146,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5117,6 +5206,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,7 +5218,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5186,6 +5278,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5461205.7396658277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5497231.9178632172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5228,7 +5323,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5288,6 +5383,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,7 +5395,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5357,6 +5455,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5614588.7912871493</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5465597.089761504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5399,7 +5500,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5459,6 +5560,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5468,7 +5572,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5528,6 +5632,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>153383.05162132159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-31634.82810171321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,11 +5656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470829312"/>
-        <c:axId val="470831104"/>
+        <c:axId val="346942848"/>
+        <c:axId val="346944640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470829312"/>
+        <c:axId val="346942848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,14 +5703,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470831104"/>
+        <c:crossAx val="346944640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470831104"/>
+        <c:axId val="346944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5654,7 +5761,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470829312"/>
+        <c:crossAx val="346942848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5668,7 +5775,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5823,7 +5929,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5883,6 +5989,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>140305.52272316307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36026.178197389869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,8 +6006,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="470871040"/>
-        <c:axId val="470869504"/>
+        <c:axId val="346971136"/>
+        <c:axId val="346969600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5923,7 +6032,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5983,6 +6092,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,7 +6104,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6052,6 +6164,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,11 +6183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470862080"/>
-        <c:axId val="470867968"/>
+        <c:axId val="346962176"/>
+        <c:axId val="346968064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470862080"/>
+        <c:axId val="346962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6115,14 +6230,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470867968"/>
+        <c:crossAx val="346968064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470867968"/>
+        <c:axId val="346968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6173,12 +6288,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470862080"/>
+        <c:crossAx val="346962176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470869504"/>
+        <c:axId val="346969600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,12 +6330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470871040"/>
+        <c:crossAx val="346971136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="470871040"/>
+        <c:axId val="346971136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,7 +6344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="470869504"/>
+        <c:crossAx val="346969600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6322,7 +6437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6379,7 +6493,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6439,6 +6553,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6448,7 +6565,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6508,6 +6625,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>47152667.937588818</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47395952.047330149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6550,7 +6670,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6610,6 +6730,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6619,7 +6742,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6679,6 +6802,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>49414126.19109492</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48029063.649621032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6721,7 +6847,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6781,6 +6907,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6790,7 +6919,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6850,6 +6979,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2261458.2535061017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>633111.60229088366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6871,11 +7003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471423232"/>
-        <c:axId val="471425024"/>
+        <c:axId val="487439744"/>
+        <c:axId val="494863488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471423232"/>
+        <c:axId val="487439744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6918,14 +7050,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471425024"/>
+        <c:crossAx val="494863488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471425024"/>
+        <c:axId val="494863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6976,7 +7108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471423232"/>
+        <c:crossAx val="487439744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6990,7 +7122,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7145,7 +7276,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7205,6 +7336,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>857929.88989966922</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>243284.1097413268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7219,8 +7353,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471467904"/>
-        <c:axId val="471466368"/>
+        <c:axId val="499100672"/>
+        <c:axId val="499099136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7245,7 +7379,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7305,6 +7439,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7314,7 +7451,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7374,6 +7511,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7390,11 +7530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471450752"/>
-        <c:axId val="471452288"/>
+        <c:axId val="495532288"/>
+        <c:axId val="499097600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471450752"/>
+        <c:axId val="495532288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7437,14 +7577,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471452288"/>
+        <c:crossAx val="499097600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471452288"/>
+        <c:axId val="499097600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7495,12 +7635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471450752"/>
+        <c:crossAx val="495532288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471466368"/>
+        <c:axId val="499099136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7537,12 +7677,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471467904"/>
+        <c:crossAx val="499100672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471467904"/>
+        <c:axId val="499100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7551,7 +7691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471466368"/>
+        <c:crossAx val="499099136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7701,7 +7841,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7761,6 +7901,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7770,7 +7913,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7830,6 +7973,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2041243.9335869034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2046094.8157601175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +8018,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7932,6 +8078,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7941,7 +8090,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8001,6 +8150,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2181862.102109842</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2114813.9521390004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8043,7 +8195,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8103,6 +8255,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8112,7 +8267,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8172,6 +8327,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>140618.16852293862</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68719.136378882919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8193,11 +8351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471663360"/>
-        <c:axId val="471664896"/>
+        <c:axId val="569535872"/>
+        <c:axId val="569537664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471663360"/>
+        <c:axId val="569535872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8240,14 +8398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471664896"/>
+        <c:crossAx val="569537664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471664896"/>
+        <c:axId val="569537664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8298,7 +8456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471663360"/>
+        <c:crossAx val="569535872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8458,7 +8616,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8518,6 +8676,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>56580.359410749836</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4850.8821732139995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8532,8 +8693,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471721088"/>
-        <c:axId val="471702912"/>
+        <c:axId val="569563776"/>
+        <c:axId val="569562240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8558,7 +8719,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8618,6 +8779,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8627,7 +8791,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8687,6 +8851,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8703,11 +8870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471699840"/>
-        <c:axId val="471701376"/>
+        <c:axId val="569558912"/>
+        <c:axId val="569560448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471699840"/>
+        <c:axId val="569558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8750,14 +8917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471701376"/>
+        <c:crossAx val="569560448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471701376"/>
+        <c:axId val="569560448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8808,12 +8975,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471699840"/>
+        <c:crossAx val="569558912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471702912"/>
+        <c:axId val="569562240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8850,12 +9017,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471721088"/>
+        <c:crossAx val="569563776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471721088"/>
+        <c:axId val="569563776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8864,7 +9031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471702912"/>
+        <c:crossAx val="569562240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9013,7 +9180,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9073,6 +9240,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9082,7 +9252,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9142,6 +9312,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3964404.1849908344</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4144535.0759777837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9184,7 +9357,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9244,6 +9417,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9253,7 +9429,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9313,6 +9489,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4108649.458237621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4153387.7782729845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9355,7 +9534,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9415,6 +9594,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9424,7 +9606,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9484,6 +9666,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>144245.27324678656</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8852.7022952008992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9505,11 +9690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471736704"/>
-        <c:axId val="471738240"/>
+        <c:axId val="571722752"/>
+        <c:axId val="571724544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471736704"/>
+        <c:axId val="571722752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9552,14 +9737,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471738240"/>
+        <c:crossAx val="571724544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471738240"/>
+        <c:axId val="571724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9610,7 +9795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471736704"/>
+        <c:crossAx val="571722752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9696,14 +9881,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21957,6 +22142,35 @@
             <v>4895828.7311728392</v>
           </cell>
         </row>
+        <row r="408">
+          <cell r="A408">
+            <v>44985</v>
+          </cell>
+          <cell r="B408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="C408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="D408">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="E408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="F408">
+            <v>699600</v>
+          </cell>
+          <cell r="G408">
+            <v>532.60498046875</v>
+          </cell>
+          <cell r="H408">
+            <v>406</v>
+          </cell>
+          <cell r="I408">
+            <v>4885493.1924261088</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -21982,9 +22196,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -27109,6 +27320,244 @@
           </cell>
           <cell r="D443">
             <v>31.014726063038534</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v xml:space="preserve">2023/2/1
+</v>
+          </cell>
+          <cell r="C444">
+            <v>25.239999770000001</v>
+          </cell>
+          <cell r="D444">
+            <v>31.001661071425325</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v xml:space="preserve">2023/2/2
+</v>
+          </cell>
+          <cell r="C445">
+            <v>25.129999160000001</v>
+          </cell>
+          <cell r="D445">
+            <v>30.988406755598181</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v xml:space="preserve">2023/2/3
+</v>
+          </cell>
+          <cell r="C446">
+            <v>24.93000031</v>
+          </cell>
+          <cell r="D446">
+            <v>30.974761696036023</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v xml:space="preserve">2023/2/6
+</v>
+          </cell>
+          <cell r="C447">
+            <v>24.600000380000001</v>
+          </cell>
+          <cell r="D447">
+            <v>30.960436389707851</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v xml:space="preserve">2023/2/7
+</v>
+          </cell>
+          <cell r="C448">
+            <v>24.61000061</v>
+          </cell>
+          <cell r="D448">
+            <v>30.94619774446187</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v xml:space="preserve">2023/2/8
+</v>
+          </cell>
+          <cell r="C449">
+            <v>24.5</v>
+          </cell>
+          <cell r="D449">
+            <v>30.931776720425042</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v xml:space="preserve">2023/2/9
+</v>
+          </cell>
+          <cell r="C450">
+            <v>24.870000839999999</v>
+          </cell>
+          <cell r="D450">
+            <v>30.918245970691949</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v xml:space="preserve">2023/2/10
+</v>
+          </cell>
+          <cell r="C451">
+            <v>24.63999939</v>
+          </cell>
+          <cell r="D451">
+            <v>30.904263238886397</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v xml:space="preserve">2023/2/13
+</v>
+          </cell>
+          <cell r="C452">
+            <v>24.879999160000001</v>
+          </cell>
+          <cell r="D452">
+            <v>30.890875985377765</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v xml:space="preserve">2023/2/14
+</v>
+          </cell>
+          <cell r="C453">
+            <v>24.809999470000001</v>
+          </cell>
+          <cell r="D453">
+            <v>30.87739288889134</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v xml:space="preserve">2023/2/15
+</v>
+          </cell>
+          <cell r="C454">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D454">
+            <v>30.86381458553096</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v xml:space="preserve">2023/2/16
+</v>
+          </cell>
+          <cell r="C455">
+            <v>24.489999770000001</v>
+          </cell>
+          <cell r="D455">
+            <v>30.849744354150097</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v xml:space="preserve">2023/2/17
+</v>
+          </cell>
+          <cell r="C456">
+            <v>23.950000760000002</v>
+          </cell>
+          <cell r="D456">
+            <v>30.834546681035228</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v xml:space="preserve">2023/2/20
+</v>
+          </cell>
+          <cell r="C457">
+            <v>24.409999849999998</v>
+          </cell>
+          <cell r="D457">
+            <v>30.820426797890097</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v xml:space="preserve">2023/2/21
+</v>
+          </cell>
+          <cell r="C458">
+            <v>24.399999619999999</v>
+          </cell>
+          <cell r="D458">
+            <v>30.806346913728056</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v xml:space="preserve">2023/2/22
+</v>
+          </cell>
+          <cell r="C459">
+            <v>24.200000760000002</v>
+          </cell>
+          <cell r="D459">
+            <v>30.791891014048126</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v xml:space="preserve">2023/2/23
+</v>
+          </cell>
+          <cell r="C460">
+            <v>24.229999540000001</v>
+          </cell>
+          <cell r="D460">
+            <v>30.777563740087324</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v xml:space="preserve">2023/2/24
+</v>
+          </cell>
+          <cell r="C461">
+            <v>24.020000459999999</v>
+          </cell>
+          <cell r="D461">
+            <v>30.762841379999987</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462">
+            <v>44984</v>
+          </cell>
+          <cell r="C462">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D462">
+            <v>30.747661291543466</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463">
+            <v>44985</v>
+          </cell>
+          <cell r="C463">
+            <v>23.979999540000001</v>
+          </cell>
+          <cell r="D463">
+            <v>30.732980897288492</v>
           </cell>
         </row>
       </sheetData>
@@ -27176,11 +27625,35 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2">
             <v>2000</v>
           </cell>
           <cell r="D2" t="str">
             <v>unit:yuan</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -27209,6 +27682,9 @@
             <v>2000</v>
           </cell>
           <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
             <v>0</v>
           </cell>
         </row>
@@ -28104,11 +28580,35 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2">
             <v>2000</v>
           </cell>
           <cell r="D2" t="str">
             <v>unit:yuan</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -29466,7 +29966,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29584,31 +30084,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G22" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G23" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:H22" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I22" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I23" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" ref="J3:J22" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K22" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="29">
-        <f t="shared" ref="L3:L22" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L23" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="27"/>
@@ -29635,6 +30135,16 @@
       </c>
       <c r="W3" s="46" t="s">
         <v>14</v>
+      </c>
+      <c r="Y3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>245217.81577195294</v>
+      </c>
+      <c r="AA3" s="24">
+        <f>-Z3</f>
+        <v>-245217.81577195294</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29654,7 +30164,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="29">
-        <f t="shared" ref="E4:E22" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E23" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="30">
@@ -29717,9 +30227,16 @@
         <f>V4</f>
         <v>1.0873077815565837E-2</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
+      <c r="Y4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>3511692.6815237701</v>
+      </c>
+      <c r="AA4" s="27">
+        <f>-Z4</f>
+        <v>-3511692.6815237701</v>
+      </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="27"/>
       <c r="AD4" s="27"/>
@@ -29776,9 +30293,43 @@
         <v>0</v>
       </c>
       <c r="M5" s="27"/>
-      <c r="Y5" s="19"/>
+      <c r="P5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="35">
+        <f>R5-R4</f>
+        <v>3511692.6815237701</v>
+      </c>
+      <c r="R5" s="34">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>3756910.4972957228</v>
+      </c>
+      <c r="S5" s="34">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>3575030.9949550489</v>
+      </c>
+      <c r="T5" s="34">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-181879.50234067393</v>
+      </c>
+      <c r="U5" s="34">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="33">
+        <f>(S5-R5)/R5</f>
+        <v>-4.8411987049357008E-2</v>
+      </c>
+      <c r="W5" s="33">
+        <v>-4.5572950047727101E-2</v>
+      </c>
+      <c r="Y5" s="42">
+        <v>44925</v>
+      </c>
       <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
+      <c r="AA5" s="27">
+        <v>3575030.9949550489</v>
+      </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="27"/>
       <c r="AD5" s="27"/>
@@ -29837,7 +30388,10 @@
       <c r="M6" s="27"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
-      <c r="AA6" s="28"/>
+      <c r="AA6" s="28">
+        <f>IRR(AA3:AA5)</f>
+        <v>-4.5572950047727101E-2</v>
+      </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
       <c r="AD6" s="28"/>
@@ -30650,6 +31204,55 @@
         <v>144471.80386172561</v>
       </c>
       <c r="L22" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="31">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="29">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="7"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="0"/>
+        <v>236082.42239213682</v>
+      </c>
+      <c r="G23" s="30">
+        <f t="shared" si="1"/>
+        <v>5367986.6743210936</v>
+      </c>
+      <c r="H23" s="30">
+        <f t="shared" si="2"/>
+        <v>4095773.8939387267</v>
+      </c>
+      <c r="I23" s="30">
+        <f t="shared" si="3"/>
+        <v>4084731.4122017911</v>
+      </c>
+      <c r="J23" s="30">
+        <f t="shared" si="4"/>
+        <v>4095773.8939387267</v>
+      </c>
+      <c r="K23" s="30">
+        <f t="shared" si="5"/>
+        <v>11042.481736935675</v>
+      </c>
+      <c r="L23" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -30670,7 +31273,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30799,7 +31402,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -30807,7 +31410,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -30815,11 +31418,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -30850,6 +31453,16 @@
       </c>
       <c r="X3" s="46" t="s">
         <v>14</v>
+      </c>
+      <c r="Z3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>391166.0852938749</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>-AA3</f>
+        <v>-391166.0852938749</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30877,7 +31490,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -30885,7 +31498,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -30897,7 +31510,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -30943,9 +31556,16 @@
         <f>W4</f>
         <v>1.5772054826979239E-2</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="Z4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>4929734.1316487892</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>-AA4</f>
+        <v>-4929734.1316487892</v>
+      </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -30970,7 +31590,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E22" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
+        <f t="shared" ref="E5:E23" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^2*P5,-$E$2*(D5-C5)^2*P5)</f>
         <v>52777.576044247049</v>
       </c>
       <c r="F5" s="18">
@@ -31017,9 +31637,43 @@
         <f>IF(O4&lt;20,2,IF(AND((O4&lt;25),(O4&gt;20)),1,IF(AND((O4&gt;25),(O4&lt;50)),0.95,IF(AND((O4&gt;50),(O4&lt;80)),0.2,IF(O4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="6"/>
+      <c r="Q5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="R5" s="10">
+        <f>S5-S4</f>
+        <v>4929734.1316487892</v>
+      </c>
+      <c r="S5" s="4">
+        <f>VLOOKUP(Q5,A:I,9,)</f>
+        <v>5320900.2169426642</v>
+      </c>
+      <c r="T5" s="4">
+        <f>VLOOKUP(Q5,A:J,10,)</f>
+        <v>5016358.5236119805</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(Q5,A:K,11,)</f>
+        <v>-304541.69333068375</v>
+      </c>
+      <c r="V5" s="4">
+        <f>VLOOKUP(Q5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" ref="W5" si="9">(T5-S5)/S5</f>
+        <v>-5.7234994251718997E-2</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-5.3511597687478707E-2</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>44925</v>
+      </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="AB5" s="7">
+        <v>5016358.5236119805</v>
+      </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -31088,12 +31742,15 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P22" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P23" si="10">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="8">
+        <f>IRR(AB3:AB5)</f>
+        <v>-5.3511597687478707E-2</v>
+      </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="8"/>
@@ -31160,7 +31817,7 @@
         <v>21.227182147461402</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z7" s="7"/>
@@ -31229,7 +31886,7 @@
         <v>31.099526985700965</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -31294,7 +31951,7 @@
         <v>26.838924575142201</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="Z9" s="6"/>
@@ -31362,7 +32019,7 @@
         <v>14.322444405674213</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="Z10" s="19"/>
@@ -31430,7 +32087,7 @@
         <v>13.642146052069533</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z11" s="19"/>
@@ -31498,7 +32155,7 @@
         <v>8.689326444394684</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z12" s="19"/>
@@ -31564,7 +32221,7 @@
         <v>6.4205042138901032</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AB13" s="2"/>
@@ -31630,7 +32287,7 @@
         <v>16.460272725009055</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -31695,7 +32352,7 @@
         <v>42.410281485830289</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -31760,7 +32417,7 @@
         <v>36.33007091430315</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -31825,7 +32482,7 @@
         <v>31.847259478939737</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -31890,7 +32547,7 @@
         <v>24.80703135118333</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -31955,7 +32612,7 @@
         <v>23.977388204158451</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -32020,7 +32677,7 @@
         <v>33.729329900837342</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -32085,7 +32742,7 @@
         <v>34.643899430457921</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -32150,8 +32807,73 @@
         <v>52.096849935138493</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="8"/>
+        <v>36026.178197389869</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>47216.484478427374</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="4"/>
+        <v>7163298.8306475161</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="1"/>
+        <v>5465597.089761504</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="5"/>
+        <v>5497231.9178632172</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="2"/>
+        <v>5465597.089761504</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="3"/>
+        <v>-31634.82810171321</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="N23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="O23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>52.096849935138493</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -32170,7 +32892,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32299,7 +33021,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -32307,7 +33029,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -32315,11 +33037,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -32350,6 +33072,16 @@
       </c>
       <c r="X3" s="46" t="s">
         <v>14</v>
+      </c>
+      <c r="Z3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1479712.5784384708</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>-AA3</f>
+        <v>-1479712.5784384708</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -32377,7 +33109,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -32385,7 +33117,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -32397,7 +33129,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="22">
@@ -32443,9 +33175,16 @@
         <f>W4</f>
         <v>1.8594879481117182E-2</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="Z4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>44815025.469250679</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>-AA4</f>
+        <v>-44815025.469250679</v>
+      </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -32470,7 +33209,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E22" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
+        <f t="shared" ref="E5:E23" si="8">IF(C5&lt;D5,$E$2*(D5-C5)^3*P5,$E$2*(D5-C5)^3*P5)</f>
         <v>136414.52483783176</v>
       </c>
       <c r="F5" s="18">
@@ -32517,9 +33256,43 @@
         <f>IF(O4&lt;20,2,IF(AND((O4&lt;25),(O4&gt;20)),1,IF(AND((O4&gt;25),(O4&lt;50)),0.95,IF(AND((O4&gt;50),(O4&lt;80)),0.2,IF(O4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="6"/>
+      <c r="Q5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="R5" s="10">
+        <f>S5-S4</f>
+        <v>44815025.469250679</v>
+      </c>
+      <c r="S5" s="4">
+        <f>VLOOKUP(Q5,A:I,9,)</f>
+        <v>46294738.047689147</v>
+      </c>
+      <c r="T5" s="4">
+        <f>VLOOKUP(Q5,A:J,10,)</f>
+        <v>44494462.058331147</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(Q5,A:K,11,)</f>
+        <v>-1800275.9893580005</v>
+      </c>
+      <c r="V5" s="4">
+        <f>VLOOKUP(Q5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" ref="W5" si="9">(T5-S5)/S5</f>
+        <v>-3.8887270244482207E-2</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-3.7726903588423899E-2</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>44925</v>
+      </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="AB5" s="7">
+        <v>44494462.058331147</v>
+      </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -32588,12 +33361,15 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P22" si="9">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
+        <f t="shared" ref="P6:P23" si="10">IF(O5&lt;20,2,IF(AND((O5&lt;25),(O5&gt;20)),1,IF(AND((O5&gt;25),(O5&lt;50)),0.95,IF(AND((O5&gt;50),(O5&lt;80)),0.2,IF(O5&gt;80,1,)))))</f>
         <v>2</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="8">
+        <f>IRR(AB3:AB5)</f>
+        <v>-3.7726903588423899E-2</v>
+      </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="8"/>
@@ -32660,7 +33436,7 @@
         <v>21.227182147461402</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z7" s="7"/>
@@ -32729,7 +33505,7 @@
         <v>31.099526985700965</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -32794,7 +33570,7 @@
         <v>26.838924575142201</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="Z9" s="6"/>
@@ -32862,7 +33638,7 @@
         <v>14.322444405674213</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="Z10" s="19"/>
@@ -32930,7 +33706,7 @@
         <v>13.642146052069533</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z11" s="19"/>
@@ -32998,7 +33774,7 @@
         <v>8.689326444394684</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z12" s="19"/>
@@ -33064,7 +33840,7 @@
         <v>6.4205042138901032</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AB13" s="2"/>
@@ -33130,7 +33906,7 @@
         <v>16.460272725009055</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -33195,7 +33971,7 @@
         <v>42.410281485830289</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -33260,7 +34036,7 @@
         <v>36.33007091430315</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -33325,7 +34101,7 @@
         <v>31.847259478939737</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -33390,7 +34166,7 @@
         <v>24.80703135118333</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -33455,7 +34231,7 @@
         <v>23.977388204158451</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -33520,7 +34296,7 @@
         <v>33.729329900837342</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -33585,7 +34361,7 @@
         <v>34.643899430457921</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
     </row>
@@ -33650,8 +34426,73 @@
         <v>52.096849935138493</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="8"/>
+        <v>243284.1097413268</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>318852.03943952132</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="4"/>
+        <v>62947657.836490512</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="1"/>
+        <v>48029063.649621032</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="5"/>
+        <v>47395952.047330149</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="2"/>
+        <v>48029063.649621032</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="3"/>
+        <v>633111.60229088366</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="N23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="O23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>52.096849935138493</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -33670,7 +34511,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33817,7 +34658,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H22" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H23" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -33825,7 +34666,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J22" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J23" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -33833,11 +34674,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L22" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L23" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M22" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M23" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -33871,6 +34712,16 @@
       <c r="Z3" s="46" t="s">
         <v>14</v>
       </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>39715.271063418011</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-39715.271063418011</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -33905,7 +34756,7 @@
         <v>146.12645884219521</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I23" si="4">I3+H4</f>
         <v>146.12645884219521</v>
       </c>
       <c r="J4" s="18">
@@ -33913,7 +34764,7 @@
         <v>147.00321759524837</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K22" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K23" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>147.00321759524837</v>
       </c>
       <c r="L4" s="18">
@@ -33925,7 +34776,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N22" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N23" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="22">
@@ -33971,9 +34822,16 @@
         <f>Y4</f>
         <v>1.5166496443425811E-2</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1944948.3031127355</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>-AC4</f>
+        <v>-1944948.3031127355</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -34006,7 +34864,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G22" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
+        <f t="shared" ref="G5:G23" si="8">IF(C5&lt;D5,$G$2*(D5-C5)^3*R5*E5/F5,$G$2*(D5-C5)^3*R5*E5/F5)</f>
         <v>3941.4049128625688</v>
       </c>
       <c r="H5" s="18">
@@ -34050,12 +34908,46 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R22" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
+        <f t="shared" ref="R5:R23" si="9">IF(Q4&lt;20,2,IF(AND((Q4&lt;25),(Q4&gt;20)),1,IF(AND((Q4&gt;25),(Q4&lt;50)),0.95,IF(AND((Q4&gt;50),(Q4&lt;80)),0.2,IF(Q4&gt;80,1,)))))</f>
         <v>2</v>
       </c>
-      <c r="AB5" s="6"/>
+      <c r="S5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="T5" s="10">
+        <f>U5-U4</f>
+        <v>1944948.3031127355</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(S5,A:K,11,)</f>
+        <v>1984663.5741761536</v>
+      </c>
+      <c r="V5" s="4">
+        <f>VLOOKUP(S5,A:L,12,)</f>
+        <v>1947501.5562835776</v>
+      </c>
+      <c r="W5" s="4">
+        <f>VLOOKUP(S5,A:M,13,)</f>
+        <v>-37162.017892576056</v>
+      </c>
+      <c r="X5" s="4">
+        <f>VLOOKUP(S5,A:N,14,)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" ref="Y5" si="10">(V5-U5)/U5</f>
+        <v>-1.8724593112967394E-2</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>-1.8363860705057022E-2</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>44925</v>
+      </c>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7">
+        <v>1947501.5562835776</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -34137,7 +35029,10 @@
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <f>IRR(AD3:AD5)</f>
+        <v>-1.8363860705057022E-2</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="8"/>
@@ -35324,6 +36219,79 @@
       <c r="R22" s="1">
         <f t="shared" si="9"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>699600</v>
+      </c>
+      <c r="F23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>4885493.1924261088</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="8"/>
+        <v>4850.8821732139995</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>6357.6436441108026</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="4"/>
+        <v>2771708.9389506015</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="1"/>
+        <v>2114813.9521390004</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="5"/>
+        <v>2046094.8157601175</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="2"/>
+        <v>2114813.9521390004</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="3"/>
+        <v>68719.136378882919</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$K,11)</f>
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="P23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$M,13)</f>
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="Q23" s="22">
+        <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$N,14)</f>
+        <v>52.096849935138493</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -35342,7 +36310,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35476,7 +36444,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -35484,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -35492,11 +36460,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -35546,6 +36514,16 @@
       </c>
       <c r="Z3" s="46" t="s">
         <v>14</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>245217.81577195294</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-245217.81577195294</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35565,7 +36543,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E22" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
+        <f t="shared" ref="E4:E23" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="18">
@@ -35573,7 +36551,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="18">
@@ -35581,7 +36559,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="18">
@@ -35593,7 +36571,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
@@ -35613,7 +36591,7 @@
         <v>64.221158958000927</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q22" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
+        <f t="shared" ref="Q4:Q23" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
         <v>1</v>
       </c>
       <c r="S4" s="42">
@@ -35647,9 +36625,16 @@
         <f>Y4</f>
         <v>1.0873077815565837E-2</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>3571496.3452997627</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>-AC4</f>
+        <v>-3571496.3452997627</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -35725,9 +36710,43 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AB5" s="6"/>
+      <c r="S5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="T5" s="10">
+        <f>U5-U4</f>
+        <v>3571496.3452997627</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(S5,A:I,9,)</f>
+        <v>3816714.1610717154</v>
+      </c>
+      <c r="V5" s="4">
+        <f>VLOOKUP(S5,A:J,10,)</f>
+        <v>3629624.4905932853</v>
+      </c>
+      <c r="W5" s="4">
+        <f>VLOOKUP(S5,A:K,11,)</f>
+        <v>-187089.67047843011</v>
+      </c>
+      <c r="X5" s="4">
+        <f>VLOOKUP(S5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" ref="Y5" si="10">(V5-U5)/U5</f>
+        <v>-4.9018517652340048E-2</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>-4.6188071097940209E-2</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>44925</v>
+      </c>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7">
+        <v>3629624.4905932853</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -35805,7 +36824,10 @@
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <f>IRR(AD3:AD5)</f>
+        <v>-4.6188071097940209E-2</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="8"/>
@@ -36926,6 +37948,75 @@
         <v>54.539760966268283</v>
       </c>
       <c r="Q22" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="4"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>236082.42239213682</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="5"/>
+        <v>5443496.3512150887</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="1"/>
+        <v>4153387.7782729845</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="6"/>
+        <v>4144535.0759777837</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="2"/>
+        <v>4153387.7782729845</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="3"/>
+        <v>8852.7022952008992</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>60.988998033047167</v>
+      </c>
+      <c r="N23" s="21">
+        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>38.329713449753399</v>
+      </c>
+      <c r="O23" s="21">
+        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>30.224689691495957</v>
+      </c>
+      <c r="P23" s="21">
+        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>54.539760966268283</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -36946,7 +38037,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37081,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H22" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H23" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -37089,7 +38180,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J22" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J23" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
@@ -37097,11 +38188,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L22" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L23" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" ref="M3:M22" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M23" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="17">
@@ -37132,6 +38223,16 @@
       </c>
       <c r="Z3" s="46" t="s">
         <v>14</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>178636.11802005771</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-178636.11802005771</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37159,7 +38260,7 @@
         <v>34298297.880000003</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G22" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
+        <f t="shared" ref="G4:G23" si="4">IF(C4&lt;D4,$G$2*(D4-C4)^3*E4/F4,$G$2*(D4-C4)^3*E4/F4)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="H4" s="18">
@@ -37167,7 +38268,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="5">I3+H4</f>
+        <f t="shared" ref="I4:I23" si="5">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="18">
@@ -37175,7 +38276,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K22" si="6">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K23" si="6">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="18">
@@ -37187,7 +38288,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N22" si="7">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N23" si="7">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="7"/>
@@ -37222,9 +38323,16 @@
         <f>Y4</f>
         <v>1.0269351792964985E-2</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>10752398.792524347</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>-AC4</f>
+        <v>-10752398.792524347</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -37289,9 +38397,43 @@
         <v>0</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="AB5" s="6"/>
+      <c r="S5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="T5" s="10">
+        <f>U5-U4</f>
+        <v>10752398.792524347</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(S5,A:K,11,)</f>
+        <v>10931034.910544405</v>
+      </c>
+      <c r="V5" s="4">
+        <f>VLOOKUP(S5,A:L,12,)</f>
+        <v>10824178.850611808</v>
+      </c>
+      <c r="W5" s="4">
+        <f>VLOOKUP(S5,A:M,13,)</f>
+        <v>-106856.05993259698</v>
+      </c>
+      <c r="X5" s="4">
+        <f>VLOOKUP(S5,A:N,14,)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" ref="Y5" si="9">(V5-U5)/U5</f>
+        <v>-9.7754751317755302E-3</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>-9.6197799803419137E-3</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>44925</v>
+      </c>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7">
+        <v>10824178.850611808</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -37358,7 +38500,10 @@
       <c r="O6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <f>IRR(AD3:AD5)</f>
+        <v>-9.6197799803419137E-3</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="8"/>
@@ -38299,6 +39444,63 @@
         <v>881243.03947394155</v>
       </c>
       <c r="N22" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>699600</v>
+      </c>
+      <c r="F23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>4885493.1924261088</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="4"/>
+        <v>174190.76894722995</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>228297.20358397876</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="5"/>
+        <v>15741624.238368802</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="1"/>
+        <v>12010859.474023988</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="6"/>
+        <v>11532962.367859984</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="2"/>
+        <v>12010859.474023988</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="3"/>
+        <v>477897.10616400465</v>
+      </c>
+      <c r="N23" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -38319,7 +39521,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38437,7 +39639,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="18">
@@ -38445,7 +39647,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="18">
@@ -38453,11 +39655,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="17">
@@ -38488,6 +39690,16 @@
       </c>
       <c r="W3" s="46" t="s">
         <v>14</v>
+      </c>
+      <c r="Y3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>905989.43478514929</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>-Z3</f>
+        <v>-905989.43478514929</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -38507,7 +39719,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:E22" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
+        <f t="shared" ref="E4:E23" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^3,$E$2*(D4-C4)^3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="F4" s="18">
@@ -38515,7 +39727,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="5">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="18">
@@ -38523,7 +39735,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="18">
@@ -38535,7 +39747,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="7"/>
@@ -38570,9 +39782,16 @@
         <f>V4</f>
         <v>1.3754185445609043E-2</v>
       </c>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="Y4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>31618375.975981474</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>-Z4</f>
+        <v>-31618375.975981474</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
@@ -38629,9 +39848,43 @@
         <v>0</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="Y5" s="6"/>
+      <c r="P5" s="42">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>R5-R4</f>
+        <v>31618375.975981474</v>
+      </c>
+      <c r="R5" s="4">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>32524365.410766624</v>
+      </c>
+      <c r="S5" s="4">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>31520670.812874004</v>
+      </c>
+      <c r="T5" s="4">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-1003694.5978926197</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" ref="V5" si="9">(S5-R5)/R5</f>
+        <v>-3.0859774978433986E-2</v>
+      </c>
+      <c r="W5" s="9">
+        <v>-3.0047919023080905E-2</v>
+      </c>
+      <c r="Y5" s="42">
+        <v>44925</v>
+      </c>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
+      <c r="AA5" s="7">
+        <v>31520670.812874004</v>
+      </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
@@ -38690,7 +39943,10 @@
       <c r="M6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="8">
+        <f>IRR(AA3:AA5)</f>
+        <v>-3.0047919023080905E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8"/>
@@ -39503,6 +40759,55 @@
         <v>1873710.4110915288</v>
       </c>
       <c r="L22" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="31">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="4"/>
+        <v>1216420.548706634</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>1594260.1971976068</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="5"/>
+        <v>46335909.179728493</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="1"/>
+        <v>35354299.234405242</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="6"/>
+        <v>34643870.054104492</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="2"/>
+        <v>35354299.234405242</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="3"/>
+        <v>710429.18030074984</v>
+      </c>
+      <c r="L23" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -582,7 +582,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -645,6 +645,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,7 +657,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -717,6 +720,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4084731.4122017911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4238408.0789196044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,7 +765,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -822,6 +828,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +840,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -894,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4095773.8939387267</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4292394.5410793964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +948,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -999,6 +1011,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1023,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1071,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>11042.481736935675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53986.462159791961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,11 +1110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80568704"/>
-        <c:axId val="80570624"/>
+        <c:axId val="473450752"/>
+        <c:axId val="473465216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80568704"/>
+        <c:axId val="473450752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,14 +1157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80570624"/>
+        <c:crossAx val="473465216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80570624"/>
+        <c:axId val="473465216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80568704"/>
+        <c:crossAx val="473450752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1357,7 +1375,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1420,6 +1438,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,8 +1455,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80990592"/>
-        <c:axId val="80988800"/>
+        <c:axId val="573979648"/>
+        <c:axId val="573978112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1460,7 +1481,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1523,6 +1544,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,7 +1556,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1595,6 +1619,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,11 +1638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80977280"/>
-        <c:axId val="80987264"/>
+        <c:axId val="573966592"/>
+        <c:axId val="573976576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80977280"/>
+        <c:axId val="573966592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,14 +1685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80987264"/>
+        <c:crossAx val="573976576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80987264"/>
+        <c:axId val="573976576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,12 +1743,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80977280"/>
+        <c:crossAx val="573966592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80988800"/>
+        <c:axId val="573978112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,12 +1785,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80990592"/>
+        <c:crossAx val="573979648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80990592"/>
+        <c:axId val="573979648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80988800"/>
+        <c:crossAx val="573978112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1922,7 +1949,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1985,6 +2012,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,7 +2024,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2057,6 +2087,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>11532962.367859984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11871417.651236532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,7 +2132,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2162,6 +2195,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,7 +2207,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2234,6 +2270,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>12010859.474023988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12475248.006517993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,7 +2315,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2339,6 +2378,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,7 +2390,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2411,6 +2453,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>477897.10616400465</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>603830.35528146103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,11 +2477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94376704"/>
-        <c:axId val="94378240"/>
+        <c:axId val="574012800"/>
+        <c:axId val="574018688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94376704"/>
+        <c:axId val="574012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,14 +2524,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94378240"/>
+        <c:crossAx val="574018688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94378240"/>
+        <c:axId val="574018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94376704"/>
+        <c:crossAx val="574012800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2697,7 +2742,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2760,6 +2805,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>174190.76894722995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338455.28337654838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,8 +2822,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94412800"/>
-        <c:axId val="94406912"/>
+        <c:axId val="574110336"/>
+        <c:axId val="574108800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2800,7 +2848,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2863,6 +2911,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2923,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2935,6 +2986,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,11 +3005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94403584"/>
-        <c:axId val="94405376"/>
+        <c:axId val="574101376"/>
+        <c:axId val="574102912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94403584"/>
+        <c:axId val="574101376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,14 +3052,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94405376"/>
+        <c:crossAx val="574102912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94405376"/>
+        <c:axId val="574102912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,12 +3110,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94403584"/>
+        <c:crossAx val="574101376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94406912"/>
+        <c:axId val="574108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,12 +3152,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94412800"/>
+        <c:crossAx val="574110336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94412800"/>
+        <c:axId val="574110336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,7 +3166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94406912"/>
+        <c:crossAx val="574108800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3262,7 +3316,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3325,6 +3379,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,7 +3391,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3397,6 +3454,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>34643870.054104492</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35602416.917040333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,7 +3499,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3502,6 +3562,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,7 +3574,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3574,6 +3637,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>35354299.234405242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36683534.121998131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,7 +3682,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3679,6 +3745,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,7 +3757,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3751,6 +3820,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>710429.18030074984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1081117.2049577981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,11 +3844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94798592"/>
-        <c:axId val="94800128"/>
+        <c:axId val="574176640"/>
+        <c:axId val="574178432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94798592"/>
+        <c:axId val="574176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,14 +3891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94800128"/>
+        <c:crossAx val="574178432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94800128"/>
+        <c:axId val="574178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3877,7 +3949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94798592"/>
+        <c:crossAx val="574176640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4037,7 +4109,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4100,6 +4172,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1216420.548706634</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>958546.8629358405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4114,8 +4189,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94908416"/>
-        <c:axId val="94906624"/>
+        <c:axId val="574212736"/>
+        <c:axId val="574211200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4140,7 +4215,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4203,6 +4278,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +4290,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4275,6 +4353,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4291,11 +4372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94825472"/>
-        <c:axId val="94905088"/>
+        <c:axId val="574199680"/>
+        <c:axId val="574201216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94825472"/>
+        <c:axId val="574199680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,14 +4419,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94905088"/>
+        <c:crossAx val="574201216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94905088"/>
+        <c:axId val="574201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4396,12 +4477,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94825472"/>
+        <c:crossAx val="574199680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94906624"/>
+        <c:axId val="574211200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,12 +4519,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94908416"/>
+        <c:crossAx val="574212736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94908416"/>
+        <c:axId val="574212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94906624"/>
+        <c:crossAx val="574211200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4583,7 +4664,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4646,6 +4727,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4660,8 +4744,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="264016256"/>
-        <c:axId val="264014464"/>
+        <c:axId val="573988864"/>
+        <c:axId val="553387904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4686,7 +4770,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4749,6 +4833,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4758,7 +4845,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4821,6 +4908,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4837,11 +4927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100703232"/>
-        <c:axId val="264012928"/>
+        <c:axId val="551163776"/>
+        <c:axId val="553385984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100703232"/>
+        <c:axId val="551163776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4884,14 +4974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264012928"/>
+        <c:crossAx val="553385984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264012928"/>
+        <c:axId val="553385984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,12 +5032,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100703232"/>
+        <c:crossAx val="551163776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264014464"/>
+        <c:axId val="553387904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4984,12 +5074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264016256"/>
+        <c:crossAx val="573988864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="264016256"/>
+        <c:axId val="573988864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4998,7 +5088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264014464"/>
+        <c:crossAx val="553387904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5148,7 +5238,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5211,6 +5301,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5220,7 +5313,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5283,6 +5376,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5497231.9178632172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5527967.2512067799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5325,7 +5421,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5388,6 +5484,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,7 +5496,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5460,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5465597.089761504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5553638.9298849665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,7 +5604,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5565,6 +5667,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5574,7 +5679,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5637,6 +5742,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-31634.82810171321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25671.67867818661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5658,11 +5766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487527552"/>
-        <c:axId val="487529472"/>
+        <c:axId val="643614976"/>
+        <c:axId val="644894720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487527552"/>
+        <c:axId val="643614976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,14 +5813,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487529472"/>
+        <c:crossAx val="644894720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487529472"/>
+        <c:axId val="644894720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5763,7 +5871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487527552"/>
+        <c:crossAx val="643614976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5932,7 +6040,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5995,6 +6103,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>36026.178197389869</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30735.333343562696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6009,8 +6120,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="559935872"/>
-        <c:axId val="559880064"/>
+        <c:axId val="442982400"/>
+        <c:axId val="442976512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6035,7 +6146,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6098,6 +6209,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6107,7 +6221,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6170,6 +6284,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6186,11 +6303,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499270784"/>
-        <c:axId val="559878528"/>
+        <c:axId val="670374912"/>
+        <c:axId val="442974976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499270784"/>
+        <c:axId val="670374912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6233,14 +6350,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559878528"/>
+        <c:crossAx val="442974976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559878528"/>
+        <c:axId val="442974976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,12 +6408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499270784"/>
+        <c:crossAx val="670374912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559880064"/>
+        <c:axId val="442976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6333,12 +6450,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559935872"/>
+        <c:crossAx val="442982400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="559935872"/>
+        <c:axId val="442982400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6347,7 +6464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559880064"/>
+        <c:crossAx val="442976512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6497,7 +6614,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6560,6 +6677,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,7 +6689,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6632,6 +6752,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>47395952.047330149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47587661.419917315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6674,7 +6797,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6737,6 +6860,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6746,7 +6872,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6809,6 +6935,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>48029063.649621032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48724355.305436723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6851,7 +6980,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6914,6 +7043,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +7055,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6986,6 +7118,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>633111.60229088366</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1136693.8855194077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7007,11 +7142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578421888"/>
-        <c:axId val="578423808"/>
+        <c:axId val="466264448"/>
+        <c:axId val="466265984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578421888"/>
+        <c:axId val="466264448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,14 +7189,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578423808"/>
+        <c:crossAx val="466265984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578423808"/>
+        <c:axId val="466265984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7112,7 +7247,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578421888"/>
+        <c:crossAx val="466264448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7281,7 +7416,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7344,6 +7479,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>243284.1097413268</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>191709.37258716812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7358,8 +7496,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80520704"/>
-        <c:axId val="80519168"/>
+        <c:axId val="572719488"/>
+        <c:axId val="560007808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7384,7 +7522,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7447,6 +7585,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7456,7 +7597,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7519,6 +7660,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7535,11 +7679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80515840"/>
-        <c:axId val="80517376"/>
+        <c:axId val="553897344"/>
+        <c:axId val="560006272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80515840"/>
+        <c:axId val="553897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7582,14 +7726,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80517376"/>
+        <c:crossAx val="560006272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80517376"/>
+        <c:axId val="560006272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7640,12 +7784,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80515840"/>
+        <c:crossAx val="553897344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80519168"/>
+        <c:axId val="560007808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7682,12 +7826,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80520704"/>
+        <c:crossAx val="572719488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80520704"/>
+        <c:axId val="572719488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7696,7 +7840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80519168"/>
+        <c:crossAx val="560007808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7846,7 +7990,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7909,6 +8053,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7918,7 +8065,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7981,6 +8128,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2046094.8157601175</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2055520.1527655404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8023,7 +8173,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8086,6 +8236,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8095,7 +8248,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8158,6 +8311,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2114813.9521390004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2146413.0055922577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8200,7 +8356,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8263,6 +8419,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8272,7 +8431,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8335,6 +8494,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>68719.136378882919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90892.85282671731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8356,11 +8518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80635776"/>
-        <c:axId val="80637312"/>
+        <c:axId val="572744448"/>
+        <c:axId val="572745984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80635776"/>
+        <c:axId val="572744448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8403,14 +8565,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80637312"/>
+        <c:crossAx val="572745984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80637312"/>
+        <c:axId val="572745984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8461,7 +8623,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80635776"/>
+        <c:crossAx val="572744448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8621,7 +8783,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8684,6 +8846,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4850.8821732139995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9425.3370054228653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8698,8 +8863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80888960"/>
-        <c:axId val="80887168"/>
+        <c:axId val="572767616"/>
+        <c:axId val="572766080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8724,7 +8889,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8787,6 +8952,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8796,7 +8964,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8859,6 +9027,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8875,11 +9046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80884096"/>
-        <c:axId val="80885632"/>
+        <c:axId val="572754560"/>
+        <c:axId val="572764544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80884096"/>
+        <c:axId val="572754560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8922,14 +9093,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80885632"/>
+        <c:crossAx val="572764544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80885632"/>
+        <c:axId val="572764544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8980,12 +9151,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80884096"/>
+        <c:crossAx val="572754560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80887168"/>
+        <c:axId val="572766080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9022,12 +9193,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80888960"/>
+        <c:crossAx val="572767616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80888960"/>
+        <c:axId val="572767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9036,7 +9207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80887168"/>
+        <c:crossAx val="572766080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9186,7 +9357,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9249,6 +9420,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9258,7 +9432,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9321,6 +9495,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4144535.0759777837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4298211.742695597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9363,7 +9540,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9426,6 +9603,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9435,7 +9615,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9498,6 +9678,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4153387.7782729845</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4350612.5040530041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9540,7 +9723,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9603,6 +9786,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9612,7 +9798,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9675,6 +9861,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>8852.7022952008992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52400.761357407086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9696,11 +9885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80958592"/>
-        <c:axId val="80960128"/>
+        <c:axId val="572903424"/>
+        <c:axId val="572904960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80958592"/>
+        <c:axId val="572903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9743,14 +9932,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80960128"/>
+        <c:crossAx val="572904960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80960128"/>
+        <c:axId val="572904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9801,7 +9990,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80958592"/>
+        <c:crossAx val="572903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10653,7 +10842,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11714,6 +11903,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="31">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="29">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="29">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F24" s="30">
+        <v>199321.22075911172</v>
+      </c>
+      <c r="G24" s="30">
+        <v>5567307.8950802051</v>
+      </c>
+      <c r="H24" s="30">
+        <v>4292394.5410793964</v>
+      </c>
+      <c r="I24" s="30">
+        <v>4238408.0789196044</v>
+      </c>
+      <c r="J24" s="30">
+        <v>4292394.5410793964</v>
+      </c>
+      <c r="K24" s="30">
+        <v>53986.462159791961</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11730,7 +11957,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13012,15 +13239,65 @@
         <v>0</v>
       </c>
       <c r="M23" s="22">
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="N23" s="22">
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="O23" s="22">
+        <v>52.096849935138493</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="16">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="17">
+        <v>30735.333343562696</v>
+      </c>
+      <c r="F24" s="18">
+        <v>39864.244151822342</v>
+      </c>
+      <c r="G24" s="18">
+        <v>7203163.0747993384</v>
+      </c>
+      <c r="H24" s="18">
+        <v>5553638.9298849665</v>
+      </c>
+      <c r="I24" s="18">
+        <v>5527967.2512067799</v>
+      </c>
+      <c r="J24" s="18">
+        <v>5553638.9298849665</v>
+      </c>
+      <c r="K24" s="18">
+        <v>25671.67867818661</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
         <v>1.7882987717879884E-2</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N24" s="22">
         <v>3.8659755280388813E-2</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O24" s="22">
         <v>46.257374337161167</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P24" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -13040,7 +13317,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14322,15 +14599,65 @@
         <v>0</v>
       </c>
       <c r="M23" s="22">
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="N23" s="22">
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="O23" s="22">
+        <v>52.096849935138493</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="16">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="17">
+        <v>191709.37258716812</v>
+      </c>
+      <c r="F24" s="18">
+        <v>248650.2797799714</v>
+      </c>
+      <c r="G24" s="18">
+        <v>63196308.116270483</v>
+      </c>
+      <c r="H24" s="18">
+        <v>48724355.305436723</v>
+      </c>
+      <c r="I24" s="18">
+        <v>47587661.419917315</v>
+      </c>
+      <c r="J24" s="18">
+        <v>48724355.305436723</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1136693.8855194077</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
         <v>1.7882987717879884E-2</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N24" s="22">
         <v>3.8659755280388813E-2</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O24" s="22">
         <v>46.257374337161167</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P24" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -14350,9 +14677,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -15770,15 +16097,71 @@
         <v>0</v>
       </c>
       <c r="O23" s="22">
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="P23" s="22">
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>52.096849935138493</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="16">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1673001</v>
+      </c>
+      <c r="F24" s="17">
+        <v>4738143.9705710951</v>
+      </c>
+      <c r="G24" s="17">
+        <v>9425.3370054228653</v>
+      </c>
+      <c r="H24" s="18">
+        <v>12224.820580189935</v>
+      </c>
+      <c r="I24" s="18">
+        <v>2783933.7595307915</v>
+      </c>
+      <c r="J24" s="18">
+        <v>2146413.0055922577</v>
+      </c>
+      <c r="K24" s="18">
+        <v>2055520.1527655404</v>
+      </c>
+      <c r="L24" s="18">
+        <v>2146413.0055922577</v>
+      </c>
+      <c r="M24" s="18">
+        <v>90892.85282671731</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="22">
         <v>1.7882987717879884E-2</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P24" s="22">
         <v>3.8659755280388813E-2</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q24" s="22">
         <v>46.257374337161167</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R24" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -15798,7 +16181,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17159,18 +17542,71 @@
         <v>0</v>
       </c>
       <c r="M23" s="21">
+        <v>60.988998033047167</v>
+      </c>
+      <c r="N23" s="21">
+        <v>38.329713449753399</v>
+      </c>
+      <c r="O23" s="21">
+        <v>30.224689691495957</v>
+      </c>
+      <c r="P23" s="21">
+        <v>54.539760966268283</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="16">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="17">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F24" s="18">
+        <v>199321.22075911172</v>
+      </c>
+      <c r="G24" s="18">
+        <v>5642817.5719742002</v>
+      </c>
+      <c r="H24" s="18">
+        <v>4350612.5040530041</v>
+      </c>
+      <c r="I24" s="18">
+        <v>4298211.742695597</v>
+      </c>
+      <c r="J24" s="18">
+        <v>4350612.5040530041</v>
+      </c>
+      <c r="K24" s="18">
+        <v>52400.761357407086</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
         <v>46.703307140045339</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N24" s="21">
         <v>41.120911346517381</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O24" s="21">
         <v>33.856763576503099</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P24" s="21">
         <v>55.649206886545954</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -17190,7 +17626,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18386,6 +18822,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="16">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1673001</v>
+      </c>
+      <c r="F24" s="17">
+        <v>4738143.9705710951</v>
+      </c>
+      <c r="G24" s="17">
+        <v>338455.28337654838</v>
+      </c>
+      <c r="H24" s="18">
+        <v>438982.19356136594</v>
+      </c>
+      <c r="I24" s="18">
+        <v>16180606.431930168</v>
+      </c>
+      <c r="J24" s="18">
+        <v>12475248.006517993</v>
+      </c>
+      <c r="K24" s="18">
+        <v>11871417.651236532</v>
+      </c>
+      <c r="L24" s="18">
+        <v>12475248.006517993</v>
+      </c>
+      <c r="M24" s="18">
+        <v>603830.35528146103</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -18402,9 +18882,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -19463,6 +19943,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="16">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="17">
+        <v>958546.8629358405</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1243251.3988998567</v>
+      </c>
+      <c r="G24" s="18">
+        <v>47579160.578628346</v>
+      </c>
+      <c r="H24" s="18">
+        <v>36683534.121998131</v>
+      </c>
+      <c r="I24" s="18">
+        <v>35602416.917040333</v>
+      </c>
+      <c r="J24" s="18">
+        <v>36683534.121998131</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1081117.2049577981</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -1114,11 +1114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103119488"/>
-        <c:axId val="156422912"/>
+        <c:axId val="7063808"/>
+        <c:axId val="7073792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103119488"/>
+        <c:axId val="7063808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,14 +1161,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156422912"/>
+        <c:crossAx val="7073792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156422912"/>
+        <c:axId val="7073792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1219,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103119488"/>
+        <c:crossAx val="7063808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1383,67 +1383,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3953.9484548014116</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26388.788022123525</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87657.679798291982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34459.381729895649</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41606.417199055955</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51151.60056778443</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>358774.0695067739</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397348.414326831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394530.34380952618</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,8 +1458,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413431296"/>
-        <c:axId val="413429760"/>
+        <c:axId val="236007808"/>
+        <c:axId val="236001920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1641,11 +1641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413426432"/>
-        <c:axId val="413427968"/>
+        <c:axId val="236187008"/>
+        <c:axId val="236000384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413426432"/>
+        <c:axId val="236187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,14 +1688,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413427968"/>
+        <c:crossAx val="236000384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413427968"/>
+        <c:axId val="236000384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,12 +1746,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413426432"/>
+        <c:crossAx val="236187008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413429760"/>
+        <c:axId val="236001920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,12 +1788,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413431296"/>
+        <c:crossAx val="236007808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="413431296"/>
+        <c:axId val="236007808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413429760"/>
+        <c:crossAx val="236001920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,11 +2479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413562752"/>
-        <c:axId val="413564288"/>
+        <c:axId val="236053248"/>
+        <c:axId val="236054784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413562752"/>
+        <c:axId val="236053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,14 +2526,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413564288"/>
+        <c:crossAx val="236054784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413564288"/>
+        <c:axId val="236054784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2584,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413562752"/>
+        <c:crossAx val="236053248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2823,8 +2823,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413594752"/>
-        <c:axId val="413584768"/>
+        <c:axId val="236748800"/>
+        <c:axId val="236734720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3006,11 +3006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413581696"/>
-        <c:axId val="413583232"/>
+        <c:axId val="236727296"/>
+        <c:axId val="236733184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413581696"/>
+        <c:axId val="236727296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,14 +3053,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413583232"/>
+        <c:crossAx val="236733184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413583232"/>
+        <c:axId val="236733184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,12 +3111,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413581696"/>
+        <c:crossAx val="236727296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413584768"/>
+        <c:axId val="236734720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,12 +3153,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413594752"/>
+        <c:crossAx val="236748800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="413594752"/>
+        <c:axId val="236748800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413584768"/>
+        <c:crossAx val="236734720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3845,11 +3845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="418096640"/>
-        <c:axId val="418098176"/>
+        <c:axId val="236831104"/>
+        <c:axId val="236832640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="418096640"/>
+        <c:axId val="236831104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,14 +3892,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418098176"/>
+        <c:crossAx val="236832640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418098176"/>
+        <c:axId val="236832640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,7 +3950,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418096640"/>
+        <c:crossAx val="236831104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4190,8 +4190,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513299200"/>
-        <c:axId val="513293312"/>
+        <c:axId val="37248384"/>
+        <c:axId val="37246848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4373,11 +4373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513290240"/>
-        <c:axId val="513291776"/>
+        <c:axId val="8706688"/>
+        <c:axId val="37245312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513290240"/>
+        <c:axId val="8706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,14 +4420,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513291776"/>
+        <c:crossAx val="37245312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513291776"/>
+        <c:axId val="37245312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,12 +4478,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513290240"/>
+        <c:crossAx val="8706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513293312"/>
+        <c:axId val="37246848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,12 +4520,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513299200"/>
+        <c:crossAx val="37248384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="513299200"/>
+        <c:axId val="37248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,7 +4534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513293312"/>
+        <c:crossAx val="37246848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4745,8 +4745,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492884736"/>
-        <c:axId val="418081408"/>
+        <c:axId val="8742400"/>
+        <c:axId val="8740864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4928,11 +4928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="418075392"/>
-        <c:axId val="418079872"/>
+        <c:axId val="8733440"/>
+        <c:axId val="8734976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="418075392"/>
+        <c:axId val="8733440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,14 +4975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418079872"/>
+        <c:crossAx val="8734976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418079872"/>
+        <c:axId val="8734976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,12 +5033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418075392"/>
+        <c:crossAx val="8733440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="418081408"/>
+        <c:axId val="8740864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,12 +5075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492884736"/>
+        <c:crossAx val="8742400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492884736"/>
+        <c:axId val="8742400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,7 +5089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418081408"/>
+        <c:crossAx val="8740864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5182,6 +5182,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5378,7 +5379,7 @@
                   <c:v>5503371.9781989967</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5534064.5665603587</c:v>
+                  <c:v>5649161.7729154676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,7 +5562,7 @@
                   <c:v>5470751.3406425081</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5558804.4778414275</c:v>
+                  <c:v>5673901.6841965364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,11 +5767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543012736"/>
-        <c:axId val="559095808"/>
+        <c:axId val="8771456"/>
+        <c:axId val="8772992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543012736"/>
+        <c:axId val="8771456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,14 +5814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559095808"/>
+        <c:crossAx val="8772992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559095808"/>
+        <c:axId val="8772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5871,7 +5872,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543012736"/>
+        <c:crossAx val="8771456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5885,6 +5886,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6104,7 +6106,7 @@
                   <c:v>35977.59072776723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30692.588361362246</c:v>
+                  <c:v>145789.79471647067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6119,8 +6121,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78428416"/>
-        <c:axId val="78426880"/>
+        <c:axId val="8668672"/>
+        <c:axId val="8667136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6302,11 +6304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78423552"/>
-        <c:axId val="78425088"/>
+        <c:axId val="8659712"/>
+        <c:axId val="8661248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78423552"/>
+        <c:axId val="8659712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6349,14 +6351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78425088"/>
+        <c:crossAx val="8661248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78425088"/>
+        <c:axId val="8661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,12 +6409,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78423552"/>
+        <c:crossAx val="8659712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78426880"/>
+        <c:axId val="8667136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,12 +6451,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78428416"/>
+        <c:crossAx val="8668672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78428416"/>
+        <c:axId val="8668672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6463,7 +6465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78426880"/>
+        <c:crossAx val="8667136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6754,7 @@
                   <c:v>47455367.199520476</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47646676.783183247</c:v>
+                  <c:v>48364087.72191865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6935,7 +6937,7 @@
                   <c:v>48078606.197879843</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48774017.515863314</c:v>
+                  <c:v>49491428.45459871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7118,7 +7120,7 @@
                   <c:v>623238.99835936725</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1127340.7326800674</c:v>
+                  <c:v>1127340.73268006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7140,11 +7142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79104640"/>
-        <c:axId val="79106432"/>
+        <c:axId val="236287872"/>
+        <c:axId val="236289408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79104640"/>
+        <c:axId val="236287872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7187,14 +7189,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79106432"/>
+        <c:crossAx val="236289408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79106432"/>
+        <c:axId val="236289408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7245,7 +7247,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79104640"/>
+        <c:crossAx val="236287872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7478,7 +7480,7 @@
                   <c:v>242792.1103061391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>191309.58366277316</c:v>
+                  <c:v>908720.52239817241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7493,8 +7495,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79141504"/>
-        <c:axId val="79139968"/>
+        <c:axId val="236312448"/>
+        <c:axId val="236310912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7676,11 +7678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79132544"/>
-        <c:axId val="79134080"/>
+        <c:axId val="236299392"/>
+        <c:axId val="236300928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79132544"/>
+        <c:axId val="236299392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7723,14 +7725,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79134080"/>
+        <c:crossAx val="236300928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79134080"/>
+        <c:axId val="236300928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7781,12 +7783,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79132544"/>
+        <c:crossAx val="236299392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79139968"/>
+        <c:axId val="236310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7823,12 +7825,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79141504"/>
+        <c:crossAx val="236312448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79141504"/>
+        <c:axId val="236312448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7837,7 +7839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79139968"/>
+        <c:crossAx val="236310912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8126,7 +8128,7 @@
                   <c:v>2047958.7258135581</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2057364.4073097452</c:v>
+                  <c:v>2092635.7129204471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8309,7 +8311,7 @@
                   <c:v>2116346.0577738336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2147941.5197673105</c:v>
+                  <c:v>2183212.8253780124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8514,11 +8516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156785280"/>
-        <c:axId val="156787072"/>
+        <c:axId val="236369792"/>
+        <c:axId val="236371328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156785280"/>
+        <c:axId val="236369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8561,14 +8563,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156787072"/>
+        <c:crossAx val="236371328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156787072"/>
+        <c:axId val="236371328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8619,7 +8621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156785280"/>
+        <c:crossAx val="236369792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8843,7 +8845,7 @@
                   <c:v>4841.0721149577448</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9405.6814961871642</c:v>
+                  <c:v>44676.987106889028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8858,8 +8860,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156809088"/>
-        <c:axId val="156807552"/>
+        <c:axId val="235950848"/>
+        <c:axId val="235944960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9041,11 +9043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156800128"/>
-        <c:axId val="156801664"/>
+        <c:axId val="235941888"/>
+        <c:axId val="235943424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156800128"/>
+        <c:axId val="235941888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,14 +9090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156801664"/>
+        <c:crossAx val="235943424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156801664"/>
+        <c:axId val="235943424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9146,12 +9148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156800128"/>
+        <c:crossAx val="235941888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156807552"/>
+        <c:axId val="235944960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9188,12 +9190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156809088"/>
+        <c:crossAx val="235950848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156809088"/>
+        <c:axId val="235950848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9202,7 +9204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156807552"/>
+        <c:crossAx val="235944960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9431,67 +9433,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3953.9484548014116</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30342.736476924936</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118000.41627521692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152459.79800511256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194066.21520416852</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245217.81577195294</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421993.94262992905</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>574770.33011790307</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>933544.39962467691</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1363748.8586509286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1808414.7295397499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1965633.5199091178</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2178192.9292407418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2430816.5659137131</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2828164.9802405443</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3222695.3240500707</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3536106.1965513565</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3823653.5656715911</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3971113.6491623991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4151001.6028012354</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4304464.5446080463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9614,67 +9616,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3953.9484548014116</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30185.521826634624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117686.96186391918</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156065.15665986782</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200500.56000818868</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247884.08816460447</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>399422.0133770096</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548163.86017378466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>851002.823007548</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1202768.8752357247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1694274.1423890409</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2073767.3030910541</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2178343.4940141113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2333064.0158782201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2519979.1838576412</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2881923.5769219655</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3333767.6824095966</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3635205.570817343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4114510.0741256624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4158812.3315875791</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4355880.2086214861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9800,64 +9802,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-157.21465029031242</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-313.45441129774554</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3605.358654755255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6434.344804020162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2666.2723926515318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22571.92925291945</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26606.469944118406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-82541.576617128914</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-160979.98341520387</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-114140.58715070901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108133.78318193625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150.56477336958051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-97752.550035492983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-308185.79638290312</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-340771.74712810526</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-202338.51414175984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-188447.99485424813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>143396.42496326333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7810.7287863437086</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51415.664013439789</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9879,11 +9881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413411584"/>
-        <c:axId val="413413376"/>
+        <c:axId val="236151936"/>
+        <c:axId val="236153472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413411584"/>
+        <c:axId val="236151936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9926,14 +9928,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413413376"/>
+        <c:crossAx val="236153472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413413376"/>
+        <c:axId val="236153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9984,7 +9986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413411584"/>
+        <c:crossAx val="236151936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29229,7 +29231,7 @@
       <sheetName val="model1&amp;CCI"/>
       <sheetName val="model1&amp;RSI"/>
       <sheetName val="model1&amp;KDJ"/>
-      <sheetName val="model1&amp;2"/>
+      <sheetName val="model1&amp;pe"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -29280,35 +29282,11 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2">
             <v>2000</v>
           </cell>
           <cell r="D2" t="str">
             <v>unit:yuan</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -29339,9 +29317,6 @@
           <cell r="I3">
             <v>0</v>
           </cell>
-          <cell r="J3">
-            <v>0</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -30221,6 +30196,50 @@
           </cell>
           <cell r="N23">
             <v>46.257374337161167</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>45016</v>
+          </cell>
+          <cell r="B24">
+            <v>0.77100002765655518</v>
+          </cell>
+          <cell r="C24">
+            <v>2000</v>
+          </cell>
+          <cell r="D24">
+            <v>2594.0336293877635</v>
+          </cell>
+          <cell r="E24">
+            <v>62459.588598919538</v>
+          </cell>
+          <cell r="F24">
+            <v>48156.344537184021</v>
+          </cell>
+          <cell r="G24">
+            <v>52000</v>
+          </cell>
+          <cell r="H24">
+            <v>48156.344537184021</v>
+          </cell>
+          <cell r="I24">
+            <v>-3843.6554628159793</v>
+          </cell>
+          <cell r="J24">
+            <v>8.0000162124633789E-3</v>
+          </cell>
+          <cell r="K24">
+            <v>1.6235825800310466E-2</v>
+          </cell>
+          <cell r="L24">
+            <v>8.0000162124633789E-3</v>
+          </cell>
+          <cell r="M24">
+            <v>3.3549798769067905E-2</v>
+          </cell>
+          <cell r="N24">
+            <v>48.393213658495924</v>
           </cell>
         </row>
       </sheetData>
@@ -30279,35 +30298,11 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2">
             <v>2000</v>
           </cell>
           <cell r="D2" t="str">
             <v>unit:yuan</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -30317,50 +30312,50 @@
           <cell r="B3">
             <v>1.0309999999999999</v>
           </cell>
-          <cell r="C3">
-            <v>2000</v>
-          </cell>
-          <cell r="D3">
-            <v>1939.8642095053349</v>
-          </cell>
-          <cell r="E3">
-            <v>1939.8642095053349</v>
-          </cell>
-          <cell r="F3">
-            <v>2000</v>
-          </cell>
-          <cell r="G3">
-            <v>2000</v>
-          </cell>
-          <cell r="H3">
-            <v>2000</v>
-          </cell>
-          <cell r="I3">
-            <v>0</v>
-          </cell>
-          <cell r="J3">
-            <v>1.034</v>
-          </cell>
-          <cell r="K3">
-            <v>1.012</v>
-          </cell>
-          <cell r="L3">
-            <v>1.034</v>
-          </cell>
-          <cell r="M3">
-            <v>1.012</v>
-          </cell>
-          <cell r="N3">
-            <v>86.363636363635862</v>
-          </cell>
-          <cell r="O3">
-            <v>86.363636363635862</v>
-          </cell>
-          <cell r="P3">
-            <v>86.363636363635862</v>
-          </cell>
-          <cell r="Q3">
-            <v>86.363636363635862</v>
+          <cell r="C3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P3" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q3" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="4">
@@ -30370,50 +30365,50 @@
           <cell r="B4">
             <v>1.006</v>
           </cell>
-          <cell r="C4">
-            <v>2000</v>
-          </cell>
-          <cell r="D4">
-            <v>1988.0715705765408</v>
-          </cell>
-          <cell r="E4">
-            <v>3927.9357800818757</v>
-          </cell>
-          <cell r="F4">
-            <v>3951.503394762367</v>
-          </cell>
-          <cell r="G4">
-            <v>4000</v>
-          </cell>
-          <cell r="H4">
-            <v>3951.503394762367</v>
-          </cell>
-          <cell r="I4">
-            <v>-48.496605237633048</v>
-          </cell>
-          <cell r="J4">
-            <v>1.054</v>
-          </cell>
-          <cell r="K4">
-            <v>0.94</v>
-          </cell>
-          <cell r="L4">
-            <v>1.054</v>
-          </cell>
-          <cell r="M4">
-            <v>0.94</v>
-          </cell>
-          <cell r="N4">
-            <v>57.89473684210526</v>
-          </cell>
-          <cell r="O4">
-            <v>76.874003189792333</v>
-          </cell>
-          <cell r="P4">
-            <v>83.200425305688029</v>
-          </cell>
-          <cell r="Q4">
-            <v>64.221158958000927</v>
+          <cell r="C4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P4" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q4" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="5">
@@ -30423,50 +30418,50 @@
           <cell r="B5">
             <v>0.96599999999999997</v>
           </cell>
-          <cell r="C5">
-            <v>2000</v>
-          </cell>
-          <cell r="D5">
-            <v>2070.3933747412011</v>
-          </cell>
-          <cell r="E5">
-            <v>5998.3291548230773</v>
-          </cell>
-          <cell r="F5">
-            <v>5794.3859635590925</v>
-          </cell>
-          <cell r="G5">
-            <v>6000</v>
-          </cell>
-          <cell r="H5">
-            <v>5794.3859635590925</v>
-          </cell>
-          <cell r="I5">
-            <v>-205.61403644090751</v>
-          </cell>
-          <cell r="J5">
-            <v>1.0469999999999999</v>
-          </cell>
-          <cell r="K5">
-            <v>0.95699999999999996</v>
-          </cell>
-          <cell r="L5">
-            <v>1.054</v>
-          </cell>
-          <cell r="M5">
-            <v>0.94</v>
-          </cell>
-          <cell r="N5">
-            <v>22.807017543859651</v>
-          </cell>
-          <cell r="O5">
-            <v>58.851674641148101</v>
-          </cell>
-          <cell r="P5">
-            <v>75.084175084174717</v>
-          </cell>
-          <cell r="Q5">
-            <v>26.386673755094876</v>
+          <cell r="C5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P5" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q5" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="6">
@@ -30476,50 +30471,50 @@
           <cell r="B6">
             <v>0.96099999999999997</v>
           </cell>
-          <cell r="C6">
-            <v>2000</v>
-          </cell>
-          <cell r="D6">
-            <v>2081.1654526534862</v>
-          </cell>
-          <cell r="E6">
-            <v>8079.494607476563</v>
-          </cell>
-          <cell r="F6">
-            <v>7764.3943177849769</v>
-          </cell>
-          <cell r="G6">
-            <v>8000</v>
-          </cell>
-          <cell r="H6">
-            <v>7764.3943177849769</v>
-          </cell>
-          <cell r="I6">
-            <v>-235.60568221502308</v>
-          </cell>
-          <cell r="J6">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="K6">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="L6">
-            <v>1.054</v>
-          </cell>
-          <cell r="M6">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="N6">
-            <v>20.512820512820436</v>
-          </cell>
-          <cell r="O6">
-            <v>46.072056598372207</v>
-          </cell>
-          <cell r="P6">
-            <v>65.41346892224054</v>
-          </cell>
-          <cell r="Q6">
-            <v>7.3892319506355477</v>
+          <cell r="C6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P6" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q6" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="7">
@@ -30529,50 +30524,50 @@
           <cell r="B7">
             <v>0.99299997091293335</v>
           </cell>
-          <cell r="C7">
-            <v>2000</v>
-          </cell>
-          <cell r="D7">
-            <v>2014.098749833056</v>
-          </cell>
-          <cell r="E7">
-            <v>10093.593357309619</v>
-          </cell>
-          <cell r="F7">
-            <v>10022.937910215429</v>
-          </cell>
-          <cell r="G7">
-            <v>10000</v>
-          </cell>
-          <cell r="H7">
-            <v>10022.937910215429</v>
-          </cell>
-          <cell r="I7">
-            <v>22.937910215428928</v>
-          </cell>
-          <cell r="J7">
-            <v>1.0049999952316284</v>
-          </cell>
-          <cell r="K7">
-            <v>0.93900001049041748</v>
-          </cell>
-          <cell r="L7">
-            <v>1.054</v>
-          </cell>
-          <cell r="M7">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="N7">
-            <v>47.863223002507091</v>
-          </cell>
-          <cell r="O7">
-            <v>46.669112066417171</v>
-          </cell>
-          <cell r="P7">
-            <v>59.165349970299417</v>
-          </cell>
-          <cell r="Q7">
-            <v>21.676636258652678</v>
+          <cell r="C7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P7" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q7" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="8">
@@ -30582,50 +30577,50 @@
           <cell r="B8">
             <v>1.0110000371932983</v>
           </cell>
-          <cell r="C8">
-            <v>2000</v>
-          </cell>
-          <cell r="D8">
-            <v>1978.239294186702</v>
-          </cell>
-          <cell r="E8">
-            <v>12071.832651496321</v>
-          </cell>
-          <cell r="F8">
-            <v>12204.623259654054</v>
-          </cell>
-          <cell r="G8">
-            <v>12000</v>
-          </cell>
-          <cell r="H8">
-            <v>12204.623259654054</v>
-          </cell>
-          <cell r="I8">
-            <v>204.62325965405398</v>
-          </cell>
-          <cell r="J8">
-            <v>1.0219999551773071</v>
-          </cell>
-          <cell r="K8">
-            <v>0.98100000619888306</v>
-          </cell>
-          <cell r="L8">
-            <v>1.054</v>
-          </cell>
-          <cell r="M8">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="N8">
-            <v>63.247895037007083</v>
-          </cell>
-          <cell r="O8">
-            <v>52.195373056613811</v>
-          </cell>
-          <cell r="P8">
-            <v>56.842024332404215</v>
-          </cell>
-          <cell r="Q8">
-            <v>42.902070505032995</v>
+          <cell r="C8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P8" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q8" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="9">
@@ -30635,50 +30630,50 @@
           <cell r="B9">
             <v>0.99199998378753662</v>
           </cell>
-          <cell r="C9">
-            <v>2000</v>
-          </cell>
-          <cell r="D9">
-            <v>2016.1290652080834</v>
-          </cell>
-          <cell r="E9">
-            <v>14087.961716704405</v>
-          </cell>
-          <cell r="F9">
-            <v>13975.257794570207</v>
-          </cell>
-          <cell r="G9">
-            <v>14000</v>
-          </cell>
-          <cell r="H9">
-            <v>13975.257794570207</v>
-          </cell>
-          <cell r="I9">
-            <v>-24.742205429793103</v>
-          </cell>
-          <cell r="J9">
-            <v>1.034000039100647</v>
-          </cell>
-          <cell r="K9">
-            <v>0.97600001096725464</v>
-          </cell>
-          <cell r="L9">
-            <v>1.054</v>
-          </cell>
-          <cell r="M9">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="N9">
-            <v>47.008533151740657</v>
-          </cell>
-          <cell r="O9">
-            <v>50.466426421656088</v>
-          </cell>
-          <cell r="P9">
-            <v>54.716825028821511</v>
-          </cell>
-          <cell r="Q9">
-            <v>41.96562920732525</v>
+          <cell r="C9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P9" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q9" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="10">
@@ -30688,50 +30683,50 @@
           <cell r="B10">
             <v>0.89099997282028198</v>
           </cell>
-          <cell r="C10">
-            <v>2000</v>
-          </cell>
-          <cell r="D10">
-            <v>2244.6689798086081</v>
-          </cell>
-          <cell r="E10">
-            <v>16332.630696513013</v>
-          </cell>
-          <cell r="F10">
-            <v>14552.373506676799</v>
-          </cell>
-          <cell r="G10">
-            <v>16000</v>
-          </cell>
-          <cell r="H10">
-            <v>14552.373506676799</v>
-          </cell>
-          <cell r="I10">
-            <v>-1447.6264933232014</v>
-          </cell>
-          <cell r="J10">
-            <v>0.99599999189376831</v>
-          </cell>
-          <cell r="K10">
-            <v>0.88499999046325684</v>
-          </cell>
-          <cell r="L10">
-            <v>1.054</v>
-          </cell>
-          <cell r="M10">
-            <v>0.88499999046325684</v>
-          </cell>
-          <cell r="N10">
-            <v>3.5502852180139421</v>
-          </cell>
-          <cell r="O10">
-            <v>34.827712687108708</v>
-          </cell>
-          <cell r="P10">
-            <v>48.087120914917243</v>
-          </cell>
-          <cell r="Q10">
-            <v>8.3088962314916301</v>
+          <cell r="C10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P10" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q10" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="11">
@@ -30741,50 +30736,50 @@
           <cell r="B11">
             <v>0.88200002908706665</v>
           </cell>
-          <cell r="C11">
-            <v>2000</v>
-          </cell>
-          <cell r="D11">
-            <v>2267.573621363872</v>
-          </cell>
-          <cell r="E11">
-            <v>18600.204317876887</v>
-          </cell>
-          <cell r="F11">
-            <v>16405.380749392796</v>
-          </cell>
-          <cell r="G11">
-            <v>18000</v>
-          </cell>
-          <cell r="H11">
-            <v>16405.380749392796</v>
-          </cell>
-          <cell r="I11">
-            <v>-1594.6192506072039</v>
-          </cell>
-          <cell r="J11">
-            <v>0.91100001335144043</v>
-          </cell>
-          <cell r="K11">
-            <v>0.85000002384185791</v>
-          </cell>
-          <cell r="L11">
-            <v>1.054</v>
-          </cell>
-          <cell r="M11">
-            <v>0.85000002384185791</v>
-          </cell>
-          <cell r="N11">
-            <v>15.686278914269149</v>
-          </cell>
-          <cell r="O11">
-            <v>28.447234762828856</v>
-          </cell>
-          <cell r="P11">
-            <v>41.54049219755445</v>
-          </cell>
-          <cell r="Q11">
-            <v>2.2607198933776687</v>
+          <cell r="C11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P11" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q11" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="12">
@@ -30794,50 +30789,50 @@
           <cell r="B12">
             <v>0.79199999570846558</v>
           </cell>
-          <cell r="C12">
-            <v>3000</v>
-          </cell>
-          <cell r="D12">
-            <v>3787.8788084038033</v>
-          </cell>
-          <cell r="E12">
-            <v>22388.08312628069</v>
-          </cell>
-          <cell r="F12">
-            <v>17731.361739935077</v>
-          </cell>
-          <cell r="G12">
-            <v>21000</v>
-          </cell>
-          <cell r="H12">
-            <v>17731.361739935077</v>
-          </cell>
-          <cell r="I12">
-            <v>-3268.6382600649231</v>
-          </cell>
-          <cell r="J12">
-            <v>0.88599997758865356</v>
-          </cell>
-          <cell r="K12">
-            <v>0.75</v>
-          </cell>
-          <cell r="L12">
-            <v>1.054</v>
-          </cell>
-          <cell r="M12">
-            <v>0.75</v>
-          </cell>
-          <cell r="N12">
-            <v>13.815788061995253</v>
-          </cell>
-          <cell r="O12">
-            <v>23.570085862550986</v>
-          </cell>
-          <cell r="P12">
-            <v>35.550356752553292</v>
-          </cell>
-          <cell r="Q12">
-            <v>-0.39045591745362174</v>
+          <cell r="C12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P12" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q12" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="13">
@@ -30847,50 +30842,50 @@
           <cell r="B13">
             <v>0.71899998188018799</v>
           </cell>
-          <cell r="C13">
-            <v>2000</v>
-          </cell>
-          <cell r="D13">
-            <v>2781.6412383905649</v>
-          </cell>
-          <cell r="E13">
-            <v>25169.724364671256</v>
-          </cell>
-          <cell r="F13">
-            <v>18097.03136212796</v>
-          </cell>
-          <cell r="G13">
-            <v>23000</v>
-          </cell>
-          <cell r="H13">
-            <v>18097.03136212796</v>
-          </cell>
-          <cell r="I13">
-            <v>-4902.9686378720398</v>
-          </cell>
-          <cell r="J13">
-            <v>0.80199998617172241</v>
-          </cell>
-          <cell r="K13">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="L13">
-            <v>1.0469999999999999</v>
-          </cell>
-          <cell r="M13">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N13">
-            <v>16.539438934664105</v>
-          </cell>
-          <cell r="O13">
-            <v>21.226536886588693</v>
-          </cell>
-          <cell r="P13">
-            <v>30.77575013056509</v>
-          </cell>
-          <cell r="Q13">
-            <v>2.1281103986359042</v>
+          <cell r="C13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P13" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q13" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="14">
@@ -30900,50 +30895,50 @@
           <cell r="B14">
             <v>0.74699997901916504</v>
           </cell>
-          <cell r="C14">
-            <v>2000</v>
-          </cell>
-          <cell r="D14">
-            <v>2677.3762465509894</v>
-          </cell>
-          <cell r="E14">
-            <v>27847.100611222246</v>
-          </cell>
-          <cell r="F14">
-            <v>20801.783572327597</v>
-          </cell>
-          <cell r="G14">
-            <v>25000</v>
-          </cell>
-          <cell r="H14">
-            <v>20801.783572327597</v>
-          </cell>
-          <cell r="I14">
-            <v>-4198.2164276724034</v>
-          </cell>
-          <cell r="J14">
-            <v>0.74800002574920654</v>
-          </cell>
-          <cell r="K14">
-            <v>0.68199998140335083</v>
-          </cell>
-          <cell r="L14">
-            <v>1.034000039100647</v>
-          </cell>
-          <cell r="M14">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N14">
-            <v>24.4736792985099</v>
-          </cell>
-          <cell r="O14">
-            <v>22.308917690562428</v>
-          </cell>
-          <cell r="P14">
-            <v>27.953472650564205</v>
-          </cell>
-          <cell r="Q14">
-            <v>11.019807770558877</v>
+          <cell r="C14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q14" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="15">
@@ -30953,50 +30948,50 @@
           <cell r="B15">
             <v>0.84500002861022949</v>
           </cell>
-          <cell r="C15">
-            <v>2000</v>
-          </cell>
-          <cell r="D15">
-            <v>2366.8638251875536</v>
-          </cell>
-          <cell r="E15">
-            <v>30213.964436409799</v>
-          </cell>
-          <cell r="F15">
-            <v>25530.800813194735</v>
-          </cell>
-          <cell r="G15">
-            <v>27000</v>
-          </cell>
-          <cell r="H15">
-            <v>25530.800813194735</v>
-          </cell>
-          <cell r="I15">
-            <v>-1469.1991868052646</v>
-          </cell>
-          <cell r="J15">
-            <v>0.86000001430511475</v>
-          </cell>
-          <cell r="K15">
-            <v>0.74400001764297485</v>
-          </cell>
-          <cell r="L15">
-            <v>1.034000039100647</v>
-          </cell>
-          <cell r="M15">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N15">
-            <v>50.263162311423869</v>
-          </cell>
-          <cell r="O15">
-            <v>31.626999230849577</v>
-          </cell>
-          <cell r="P15">
-            <v>29.177981510659333</v>
-          </cell>
-          <cell r="Q15">
-            <v>36.525034671230067</v>
+          <cell r="C15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q15" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="16">
@@ -31006,50 +31001,50 @@
           <cell r="B16">
             <v>0.80099999904632568</v>
           </cell>
-          <cell r="C16">
-            <v>2000</v>
-          </cell>
-          <cell r="D16">
-            <v>2496.8789043460788</v>
-          </cell>
-          <cell r="E16">
-            <v>32710.843340755877</v>
-          </cell>
-          <cell r="F16">
-            <v>26201.385484749968</v>
-          </cell>
-          <cell r="G16">
-            <v>29000</v>
-          </cell>
-          <cell r="H16">
-            <v>26201.385484749968</v>
-          </cell>
-          <cell r="I16">
-            <v>-2798.6145152500321</v>
-          </cell>
-          <cell r="J16">
-            <v>0.85799998044967651</v>
-          </cell>
-          <cell r="K16">
-            <v>0.79900002479553223</v>
-          </cell>
-          <cell r="L16">
-            <v>1.034000039100647</v>
-          </cell>
-          <cell r="M16">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N16">
-            <v>38.684208833940389</v>
-          </cell>
-          <cell r="O16">
-            <v>33.979402431879848</v>
-          </cell>
-          <cell r="P16">
-            <v>30.778455151066169</v>
-          </cell>
-          <cell r="Q16">
-            <v>40.381296993507206</v>
+          <cell r="C16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q16" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="17">
@@ -31059,50 +31054,50 @@
           <cell r="B17">
             <v>0.76499998569488525</v>
           </cell>
-          <cell r="C17">
-            <v>2000</v>
-          </cell>
-          <cell r="D17">
-            <v>2614.3791338548936</v>
-          </cell>
-          <cell r="E17">
-            <v>35325.222474610768</v>
-          </cell>
-          <cell r="F17">
-            <v>27023.794687745878</v>
-          </cell>
-          <cell r="G17">
-            <v>31000</v>
-          </cell>
-          <cell r="H17">
-            <v>27023.794687745878</v>
-          </cell>
-          <cell r="I17">
-            <v>-3976.205312254122</v>
-          </cell>
-          <cell r="J17">
-            <v>0.82700002193450928</v>
-          </cell>
-          <cell r="K17">
-            <v>0.7630000114440918</v>
-          </cell>
-          <cell r="L17">
-            <v>1.034000039100647</v>
-          </cell>
-          <cell r="M17">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N17">
-            <v>29.210522476986728</v>
-          </cell>
-          <cell r="O17">
-            <v>32.389775780248804</v>
-          </cell>
-          <cell r="P17">
-            <v>31.315562027460384</v>
-          </cell>
-          <cell r="Q17">
-            <v>34.538203285825638</v>
+          <cell r="C17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q17" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="18">
@@ -31112,50 +31107,50 @@
           <cell r="B18">
             <v>0.69599997997283936</v>
           </cell>
-          <cell r="C18">
-            <v>2000</v>
-          </cell>
-          <cell r="D18">
-            <v>2873.5633010766005</v>
-          </cell>
-          <cell r="E18">
-            <v>38198.785775687371</v>
-          </cell>
-          <cell r="F18">
-            <v>26586.354134865192</v>
-          </cell>
-          <cell r="G18">
-            <v>33000</v>
-          </cell>
-          <cell r="H18">
-            <v>26586.354134865192</v>
-          </cell>
-          <cell r="I18">
-            <v>-6413.6458651348075</v>
-          </cell>
-          <cell r="J18">
-            <v>0.77399998903274536</v>
-          </cell>
-          <cell r="K18">
-            <v>0.69599997997283936</v>
-          </cell>
-          <cell r="L18">
-            <v>0.99599999189376831</v>
-          </cell>
-          <cell r="M18">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N18">
-            <v>12.280700225591376</v>
-          </cell>
-          <cell r="O18">
-            <v>25.686750595362994</v>
-          </cell>
-          <cell r="P18">
-            <v>29.439291550094584</v>
-          </cell>
-          <cell r="Q18">
-            <v>18.181668685899815</v>
+          <cell r="C18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q18" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="19">
@@ -31165,50 +31160,50 @@
           <cell r="B19">
             <v>0.68699997663497925</v>
           </cell>
-          <cell r="C19">
-            <v>2000</v>
-          </cell>
-          <cell r="D19">
-            <v>2911.2082503936554</v>
-          </cell>
-          <cell r="E19">
-            <v>41109.994026081025</v>
-          </cell>
-          <cell r="F19">
-            <v>28242.564935381801</v>
-          </cell>
-          <cell r="G19">
-            <v>35000</v>
-          </cell>
-          <cell r="H19">
-            <v>28242.564935381801</v>
-          </cell>
-          <cell r="I19">
-            <v>-6757.4350646181992</v>
-          </cell>
-          <cell r="J19">
-            <v>0.74199998378753662</v>
-          </cell>
-          <cell r="K19">
-            <v>0.67799997329711914</v>
-          </cell>
-          <cell r="L19">
-            <v>0.91100001335144043</v>
-          </cell>
-          <cell r="M19">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N19">
-            <v>12.840462504160149</v>
-          </cell>
-          <cell r="O19">
-            <v>21.404654564962044</v>
-          </cell>
-          <cell r="P19">
-            <v>26.761079221717068</v>
-          </cell>
-          <cell r="Q19">
-            <v>10.691805251451996</v>
+          <cell r="C19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q19" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="20">
@@ -31218,50 +31213,50 @@
           <cell r="B20">
             <v>0.72000002861022949</v>
           </cell>
-          <cell r="C20">
-            <v>2000</v>
-          </cell>
-          <cell r="D20">
-            <v>2777.7776673988105</v>
-          </cell>
-          <cell r="E20">
-            <v>43887.771693479837</v>
-          </cell>
-          <cell r="F20">
-            <v>31599.196874944704</v>
-          </cell>
-          <cell r="G20">
-            <v>37000</v>
-          </cell>
-          <cell r="H20">
-            <v>31599.196874944704</v>
-          </cell>
-          <cell r="I20">
-            <v>-5400.8031250552958</v>
-          </cell>
-          <cell r="J20">
-            <v>0.74500000476837158</v>
-          </cell>
-          <cell r="K20">
-            <v>0.68400001525878906</v>
-          </cell>
-          <cell r="L20">
-            <v>0.88599997758865356</v>
-          </cell>
-          <cell r="M20">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N20">
-            <v>28.448295795251873</v>
-          </cell>
-          <cell r="O20">
-            <v>23.752534975058655</v>
-          </cell>
-          <cell r="P20">
-            <v>25.758231139497596</v>
-          </cell>
-          <cell r="Q20">
-            <v>19.741142646180776</v>
+          <cell r="C20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q20" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="21">
@@ -31271,50 +31266,50 @@
           <cell r="B21">
             <v>0.72299998998641968</v>
           </cell>
-          <cell r="C21">
-            <v>2000</v>
-          </cell>
-          <cell r="D21">
-            <v>2766.2517672200333</v>
-          </cell>
-          <cell r="E21">
-            <v>46654.023460699871</v>
-          </cell>
-          <cell r="F21">
-            <v>33730.858494912194</v>
-          </cell>
-          <cell r="G21">
-            <v>39000</v>
-          </cell>
-          <cell r="H21">
-            <v>33730.858494912194</v>
-          </cell>
-          <cell r="I21">
-            <v>-5269.1415050878059</v>
-          </cell>
-          <cell r="J21">
-            <v>0.75199997425079346</v>
-          </cell>
-          <cell r="K21">
-            <v>0.7070000171661377</v>
-          </cell>
-          <cell r="L21">
-            <v>0.86000001430511475</v>
-          </cell>
-          <cell r="M21">
-            <v>0.65399998426437378</v>
-          </cell>
-          <cell r="N21">
-            <v>33.495143524202234</v>
-          </cell>
-          <cell r="O21">
-            <v>27.000071158106511</v>
-          </cell>
-          <cell r="P21">
-            <v>26.172177812367234</v>
-          </cell>
-          <cell r="Q21">
-            <v>28.655857849585068</v>
+          <cell r="C21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q21" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="22">
@@ -31324,50 +31319,50 @@
           <cell r="B22">
             <v>0.78899997472763062</v>
           </cell>
-          <cell r="C22">
-            <v>2000</v>
-          </cell>
-          <cell r="D22">
-            <v>2534.8543270744931</v>
-          </cell>
-          <cell r="E22">
-            <v>49188.877787774363</v>
-          </cell>
-          <cell r="F22">
-            <v>38810.02333143448</v>
-          </cell>
-          <cell r="G22">
-            <v>41000</v>
-          </cell>
-          <cell r="H22">
-            <v>38810.02333143448</v>
-          </cell>
-          <cell r="I22">
-            <v>-2189.9766685655195</v>
-          </cell>
-          <cell r="J22">
-            <v>0.81000000238418579</v>
-          </cell>
-          <cell r="K22">
-            <v>0.7149999737739563</v>
-          </cell>
-          <cell r="L22">
-            <v>0.86000001430511475</v>
-          </cell>
-          <cell r="M22">
-            <v>0.67799997329711914</v>
-          </cell>
-          <cell r="N22">
-            <v>60.988998033047167</v>
-          </cell>
-          <cell r="O22">
-            <v>38.329713449753399</v>
-          </cell>
-          <cell r="P22">
-            <v>30.224689691495957</v>
-          </cell>
-          <cell r="Q22">
-            <v>54.539760966268283</v>
+          <cell r="C22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q22" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="23">
@@ -31377,50 +31372,103 @@
           <cell r="B23">
             <v>0.7630000114440918</v>
           </cell>
-          <cell r="C23">
-            <v>2000</v>
-          </cell>
-          <cell r="D23">
-            <v>2621.2319397147853</v>
-          </cell>
-          <cell r="E23">
-            <v>51810.109727489151</v>
-          </cell>
-          <cell r="F23">
-            <v>39531.114314993873</v>
-          </cell>
-          <cell r="G23">
-            <v>43000</v>
-          </cell>
-          <cell r="H23">
-            <v>39531.114314993873</v>
-          </cell>
-          <cell r="I23">
-            <v>-3468.8856850061275</v>
-          </cell>
-          <cell r="J23">
-            <v>0.80199998617172241</v>
-          </cell>
-          <cell r="K23">
-            <v>0.75599998235702515</v>
-          </cell>
-          <cell r="L23">
-            <v>0.86000001430511475</v>
-          </cell>
-          <cell r="M23">
-            <v>0.67799997329711914</v>
-          </cell>
-          <cell r="N23">
-            <v>46.703307140045339</v>
-          </cell>
-          <cell r="O23">
-            <v>41.120911346517381</v>
-          </cell>
-          <cell r="P23">
-            <v>33.856763576503099</v>
-          </cell>
-          <cell r="Q23">
-            <v>55.649206886545954</v>
+          <cell r="C23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>45016</v>
+          </cell>
+          <cell r="B24">
+            <v>0.77100002765655518</v>
+          </cell>
+          <cell r="C24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="D24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="E24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="F24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="G24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="H24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="I24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="J24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="K24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="M24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="N24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="O24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q24" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
       </sheetData>
@@ -33076,7 +33124,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -34662,15 +34710,15 @@
       </c>
       <c r="M23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>2.145958526145586E-2</v>
+        <v>1.7882987717879884E-2</v>
       </c>
       <c r="N23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.119171367975881E-2</v>
+        <v>3.8659755280388813E-2</v>
       </c>
       <c r="O23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>52.096849935138493</v>
+        <v>46.257374337161167</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="10"/>
@@ -34695,27 +34743,27 @@
       </c>
       <c r="E24" s="17">
         <f t="shared" si="8"/>
-        <v>30692.588361362246</v>
+        <v>145789.79471647067</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>39808.803191164574</v>
+        <v>189091.81515803171</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="4"/>
-        <v>7209862.877355976</v>
+        <v>7359145.8893228434</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="1"/>
-        <v>5558804.4778414275</v>
+        <v>5673901.6841965364</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="5"/>
-        <v>5534064.5665603587</v>
+        <v>5649161.7729154676</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="2"/>
-        <v>5558804.4778414275</v>
+        <v>5673901.6841965364</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="3"/>
@@ -34727,19 +34775,19 @@
       </c>
       <c r="M24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.7882987717879884E-2</v>
+        <v>1.6235825800310466E-2</v>
       </c>
       <c r="N24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>3.8659755280388813E-2</v>
+        <v>3.3549798769067905E-2</v>
       </c>
       <c r="O24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>46.257374337161167</v>
+        <v>48.393213658495924</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -36346,15 +36394,15 @@
       </c>
       <c r="M23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>2.145958526145586E-2</v>
+        <v>1.7882987717879884E-2</v>
       </c>
       <c r="N23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.119171367975881E-2</v>
+        <v>3.8659755280388813E-2</v>
       </c>
       <c r="O23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>52.096849935138493</v>
+        <v>46.257374337161167</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="10"/>
@@ -36379,31 +36427,31 @@
       </c>
       <c r="E24" s="17">
         <f t="shared" si="8"/>
-        <v>191309.58366277316</v>
+        <v>908720.52239817241</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>248131.74682270276</v>
+        <v>1178625.7974078378</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="4"/>
-        <v>63260720.838248633</v>
+        <v>64191214.888833769</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="1"/>
-        <v>48774017.515863314</v>
+        <v>49491428.45459871</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="5"/>
-        <v>47646676.783183247</v>
+        <v>48364087.72191865</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="2"/>
-        <v>48774017.515863314</v>
+        <v>49491428.45459871</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="3"/>
-        <v>1127340.7326800674</v>
+        <v>1127340.73268006</v>
       </c>
       <c r="L24" s="17">
         <f t="shared" si="6"/>
@@ -36411,19 +36459,19 @@
       </c>
       <c r="M24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.7882987717879884E-2</v>
+        <v>1.6235825800310466E-2</v>
       </c>
       <c r="N24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>3.8659755280388813E-2</v>
+        <v>3.3549798769067905E-2</v>
       </c>
       <c r="O24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>46.257374337161167</v>
+        <v>48.393213658495924</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -38210,15 +38258,15 @@
       </c>
       <c r="O23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>2.145958526145586E-2</v>
+        <v>1.7882987717879884E-2</v>
       </c>
       <c r="P23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>4.119171367975881E-2</v>
+        <v>3.8659755280388813E-2</v>
       </c>
       <c r="Q23" s="22">
         <f>VLOOKUP(A23,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>52.096849935138493</v>
+        <v>46.257374337161167</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="9"/>
@@ -38251,27 +38299,27 @@
       </c>
       <c r="G24" s="17">
         <f t="shared" si="8"/>
-        <v>9405.6814961871642</v>
+        <v>44676.987106889028</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>12199.32705420986</v>
+        <v>57946.803507496836</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="4"/>
-        <v>2785916.2681173324</v>
+        <v>2831663.7445706194</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="1"/>
-        <v>2147941.5197673105</v>
+        <v>2183212.8253780124</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="5"/>
-        <v>2057364.4073097452</v>
+        <v>2092635.7129204471</v>
       </c>
       <c r="L24" s="18">
         <f t="shared" si="2"/>
-        <v>2147941.5197673105</v>
+        <v>2183212.8253780124</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" si="3"/>
@@ -38283,19 +38331,19 @@
       </c>
       <c r="O24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$K,11)</f>
-        <v>1.7882987717879884E-2</v>
+        <v>1.6235825800310466E-2</v>
       </c>
       <c r="P24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$M,13)</f>
-        <v>3.8659755280388813E-2</v>
+        <v>3.3549798769067905E-2</v>
       </c>
       <c r="Q24" s="22">
         <f>VLOOKUP(A24,'[3]model1&amp;RSI'!$A:$N,14)</f>
-        <v>46.257374337161167</v>
+        <v>48.393213658495924</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -38416,9 +38464,9 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <f>MIN(G:G)</f>
-        <v>0</v>
+      <c r="H2" s="4" t="e">
+        <f ca="1">MIN(G:G)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
@@ -38475,25 +38523,25 @@
         <f>IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="21">
-        <f>VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>86.363636363635862</v>
-      </c>
-      <c r="N3" s="21">
-        <f>VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>86.363636363635862</v>
-      </c>
-      <c r="O3" s="21">
-        <f>VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>86.363636363635862</v>
-      </c>
-      <c r="P3" s="21">
-        <f>VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>86.363636363635862</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>IF(OR(P3&lt;0,P3&gt;100),1.2,1)</f>
-        <v>1</v>
+      <c r="M3" s="21" t="e">
+        <f ca="1">VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" s="21" t="e">
+        <f ca="1">VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O3" s="21" t="e">
+        <f ca="1">VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P3" s="21" t="e">
+        <f ca="1">VLOOKUP(A3,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q3" s="1" t="e">
+        <f ca="1">IF(OR(P3&lt;0,P3&gt;100),1.2,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S3" s="45" t="s">
         <v>1</v>
@@ -38546,88 +38594,88 @@
         <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
-      <c r="E4" s="17">
-        <f t="shared" ref="E4:E24" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
-        <v>3953.9484548014116</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="0"/>
-        <v>3930.3662572578642</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:G24" si="5">G3+F4</f>
-        <v>3930.3662572578642</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" si="1"/>
-        <v>3953.9484548014116</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" ref="I4:I24" si="6">IF(E4&gt;0,I3+E4,I3)</f>
-        <v>3953.9484548014116</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="2"/>
-        <v>3953.9484548014116</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
-        <f t="shared" ref="L4:L24" si="7">IF(E4&lt;0,L3-E4,L3)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <f>VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>57.89473684210526</v>
-      </c>
-      <c r="N4" s="21">
-        <f>VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>76.874003189792333</v>
-      </c>
-      <c r="O4" s="21">
-        <f>VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>83.200425305688029</v>
-      </c>
-      <c r="P4" s="21">
-        <f>VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>64.221158958000927</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q24" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
-        <v>1</v>
+      <c r="E4" s="17" t="e">
+        <f t="shared" ref="E4:E24" ca="1" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2*Q4,-$E$2*(D4-C4)^2*Q4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="18" t="e">
+        <f t="shared" ref="G4:G24" ca="1" si="5">G3+F4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="18" t="e">
+        <f t="shared" ref="I4:I24" ca="1" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="17" t="e">
+        <f t="shared" ref="L4:L24" ca="1" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="21" t="e">
+        <f ca="1">VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" s="21" t="e">
+        <f ca="1">VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" s="21" t="e">
+        <f ca="1">VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P4" s="21" t="e">
+        <f ca="1">VLOOKUP(A4,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" s="1" t="e">
+        <f t="shared" ref="Q4:Q24" ca="1" si="8">IF(OR(P4&lt;0,P4&gt;100),1.2,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S4" s="42">
         <v>44561</v>
       </c>
-      <c r="T4" s="10">
-        <f>U4</f>
-        <v>245217.81577195294</v>
-      </c>
-      <c r="U4" s="4">
-        <f>VLOOKUP(S4,A:I,9,)</f>
-        <v>245217.81577195294</v>
-      </c>
-      <c r="V4" s="4">
-        <f>VLOOKUP(S4,A:J,10,)</f>
-        <v>247884.08816460447</v>
-      </c>
-      <c r="W4" s="4">
-        <f>VLOOKUP(S4,A:K,11,)</f>
-        <v>2666.2723926515318</v>
-      </c>
-      <c r="X4" s="4">
-        <f>VLOOKUP(S4,A:L,12,)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="9">
-        <f t="shared" ref="Y4" si="9">(V4-U4)/U4</f>
-        <v>1.0873077815565837E-2</v>
-      </c>
-      <c r="Z4" s="9">
-        <f>Y4</f>
-        <v>1.0873077815565837E-2</v>
+      <c r="T4" s="10" t="e">
+        <f ca="1">U4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4" s="4" t="e">
+        <f ca="1">VLOOKUP(S4,A:I,9,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" s="4" t="e">
+        <f ca="1">VLOOKUP(S4,A:J,10,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" s="4" t="e">
+        <f ca="1">VLOOKUP(S4,A:K,11,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X4" s="4" t="e">
+        <f ca="1">VLOOKUP(S4,A:L,12,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y4" s="9" t="e">
+        <f t="shared" ref="Y4" ca="1" si="9">(V4-U4)/U4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="9" t="e">
+        <f ca="1">Y4</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AB4" s="42">
         <v>44925</v>
@@ -38662,84 +38710,84 @@
         <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
-      <c r="E5" s="17">
-        <f t="shared" si="4"/>
-        <v>26388.788022123525</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="0"/>
-        <v>27317.585944227252</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="5"/>
-        <v>31247.952201485117</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" si="1"/>
-        <v>30185.521826634624</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="6"/>
-        <v>30342.736476924936</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="2"/>
-        <v>30185.521826634624</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="3"/>
-        <v>-157.21465029031242</v>
-      </c>
-      <c r="L5" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <f>VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>22.807017543859651</v>
-      </c>
-      <c r="N5" s="21">
-        <f>VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>58.851674641148101</v>
-      </c>
-      <c r="O5" s="21">
-        <f>VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>75.084175084174717</v>
-      </c>
-      <c r="P5" s="21">
-        <f>VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>26.386673755094876</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E5" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="21" t="e">
+        <f ca="1">VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" s="21" t="e">
+        <f ca="1">VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" s="21" t="e">
+        <f ca="1">VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P5" s="21" t="e">
+        <f ca="1">VLOOKUP(A5,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="S5" s="42">
         <v>44925</v>
       </c>
-      <c r="T5" s="10">
-        <f>U5-U4</f>
-        <v>3578435.7498996384</v>
-      </c>
-      <c r="U5" s="4">
-        <f>VLOOKUP(S5,A:I,9,)</f>
-        <v>3823653.5656715911</v>
-      </c>
-      <c r="V5" s="4">
-        <f>VLOOKUP(S5,A:J,10,)</f>
-        <v>3635205.570817343</v>
-      </c>
-      <c r="W5" s="4">
-        <f>VLOOKUP(S5,A:K,11,)</f>
-        <v>-188447.99485424813</v>
-      </c>
-      <c r="X5" s="4">
-        <f>VLOOKUP(S5,A:L,12,)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="9">
-        <f t="shared" ref="Y5" si="10">(V5-U5)/U5</f>
-        <v>-4.9284798326427071E-2</v>
+      <c r="T5" s="10" t="e">
+        <f ca="1">U5-U4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="4" t="e">
+        <f ca="1">VLOOKUP(S5,A:I,9,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" s="4" t="e">
+        <f ca="1">VLOOKUP(S5,A:J,10,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W5" s="4" t="e">
+        <f ca="1">VLOOKUP(S5,A:K,11,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="4" t="e">
+        <f ca="1">VLOOKUP(S5,A:L,12,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y5" s="9" t="e">
+        <f t="shared" ref="Y5" ca="1" si="10">(V5-U5)/U5</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Z5" s="9">
         <v>-4.6188071097940209E-2</v>
@@ -38774,57 +38822,57 @@
         <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
-      <c r="E6" s="17">
-        <f t="shared" si="4"/>
-        <v>87657.679798291982</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="0"/>
-        <v>91215.067427983333</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="5"/>
-        <v>122463.01962946844</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="1"/>
-        <v>117686.96186391918</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="6"/>
-        <v>118000.41627521692</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="2"/>
-        <v>117686.96186391918</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="3"/>
-        <v>-313.45441129774554</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <f>VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>20.512820512820436</v>
-      </c>
-      <c r="N6" s="21">
-        <f>VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>46.072056598372207</v>
-      </c>
-      <c r="O6" s="21">
-        <f>VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>65.41346892224054</v>
-      </c>
-      <c r="P6" s="21">
-        <f>VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>7.3892319506355477</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E6" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="21" t="e">
+        <f ca="1">VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="21" t="e">
+        <f ca="1">VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" s="21" t="e">
+        <f ca="1">VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" s="21" t="e">
+        <f ca="1">VLOOKUP(A6,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -38853,57 +38901,57 @@
         <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
-      <c r="E7" s="17">
-        <f t="shared" si="4"/>
-        <v>34459.381729895649</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="0"/>
-        <v>34702.298831101441</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="5"/>
-        <v>157165.31846056989</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="1"/>
-        <v>156065.15665986782</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="6"/>
-        <v>152459.79800511256</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="2"/>
-        <v>156065.15665986782</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="3"/>
-        <v>3605.358654755255</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <f>VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>47.863223002507091</v>
-      </c>
-      <c r="N7" s="21">
-        <f>VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>46.669112066417171</v>
-      </c>
-      <c r="O7" s="21">
-        <f>VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>59.165349970299417</v>
-      </c>
-      <c r="P7" s="21">
-        <f>VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>21.676636258652678</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E7" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="21" t="e">
+        <f ca="1">VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" s="21" t="e">
+        <f ca="1">VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O7" s="21" t="e">
+        <f ca="1">VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P7" s="21" t="e">
+        <f ca="1">VLOOKUP(A7,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -38926,57 +38974,57 @@
         <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
-      <c r="E8" s="17">
-        <f t="shared" si="4"/>
-        <v>41606.417199055955</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="0"/>
-        <v>41153.724696748955</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="5"/>
-        <v>198319.04315731884</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>200500.56000818868</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="6"/>
-        <v>194066.21520416852</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="2"/>
-        <v>200500.56000818868</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="3"/>
-        <v>6434.344804020162</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <f>VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>63.247895037007083</v>
-      </c>
-      <c r="N8" s="21">
-        <f>VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>52.195373056613811</v>
-      </c>
-      <c r="O8" s="21">
-        <f>VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>56.842024332404215</v>
-      </c>
-      <c r="P8" s="21">
-        <f>VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>42.902070505032995</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E8" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="21" t="e">
+        <f ca="1">VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N8" s="21" t="e">
+        <f ca="1">VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O8" s="21" t="e">
+        <f ca="1">VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P8" s="21" t="e">
+        <f ca="1">VLOOKUP(A8,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -38995,57 +39043,57 @@
         <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
-      <c r="E9" s="17">
-        <f t="shared" si="4"/>
-        <v>51151.60056778443</v>
-      </c>
-      <c r="F9" s="18">
-        <f t="shared" si="0"/>
-        <v>51564.11431831224</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="5"/>
-        <v>249883.15747563107</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="1"/>
-        <v>247884.08816460447</v>
-      </c>
-      <c r="I9" s="18">
-        <f t="shared" si="6"/>
-        <v>245217.81577195294</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="2"/>
-        <v>247884.08816460447</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="3"/>
-        <v>2666.2723926515318</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <f>VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>47.008533151740657</v>
-      </c>
-      <c r="N9" s="21">
-        <f>VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>50.466426421656088</v>
-      </c>
-      <c r="O9" s="21">
-        <f>VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>54.716825028821511</v>
-      </c>
-      <c r="P9" s="21">
-        <f>VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>41.96562920732525</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E9" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="21" t="e">
+        <f ca="1">VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" s="21" t="e">
+        <f ca="1">VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" s="21" t="e">
+        <f ca="1">VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P9" s="21" t="e">
+        <f ca="1">VLOOKUP(A9,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="7"/>
@@ -39067,57 +39115,57 @@
         <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.709801928118821</v>
       </c>
-      <c r="E10" s="17">
-        <f t="shared" si="4"/>
-        <v>176776.12685797611</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="0"/>
-        <v>198401.94416440517</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" si="5"/>
-        <v>448285.10164003621</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="1"/>
-        <v>399422.0133770096</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="6"/>
-        <v>421993.94262992905</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="2"/>
-        <v>399422.0133770096</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="3"/>
-        <v>-22571.92925291945</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="21">
-        <f>VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>3.5502852180139421</v>
-      </c>
-      <c r="N10" s="21">
-        <f>VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>34.827712687108708</v>
-      </c>
-      <c r="O10" s="21">
-        <f>VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>48.087120914917243</v>
-      </c>
-      <c r="P10" s="21">
-        <f>VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>8.3088962314916301</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E10" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="21" t="e">
+        <f ca="1">VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" s="21" t="e">
+        <f ca="1">VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O10" s="21" t="e">
+        <f ca="1">VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10" s="21" t="e">
+        <f ca="1">VLOOKUP(A10,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AB10" s="19"/>
       <c r="AC10" s="7"/>
@@ -39139,57 +39187,57 @@
         <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189128385091756</v>
       </c>
-      <c r="E11" s="17">
-        <f t="shared" si="4"/>
-        <v>152776.38748797405</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="0"/>
-        <v>173215.85311749773</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="5"/>
-        <v>621500.95475753397</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="1"/>
-        <v>548163.86017378466</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="6"/>
-        <v>574770.33011790307</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="2"/>
-        <v>548163.86017378466</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="3"/>
-        <v>-26606.469944118406</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
-        <f>VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>15.686278914269149</v>
-      </c>
-      <c r="N11" s="21">
-        <f>VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>28.447234762828856</v>
-      </c>
-      <c r="O11" s="21">
-        <f>VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>41.54049219755445</v>
-      </c>
-      <c r="P11" s="21">
-        <f>VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>2.2607198933776687</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E11" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="21" t="e">
+        <f ca="1">VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" s="21" t="e">
+        <f ca="1">VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" s="21" t="e">
+        <f ca="1">VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" s="21" t="e">
+        <f ca="1">VLOOKUP(A11,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AB11" s="19"/>
       <c r="AC11" s="7"/>
@@ -39211,57 +39259,57 @@
         <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340041456763494</v>
       </c>
-      <c r="E12" s="17">
-        <f t="shared" si="4"/>
-        <v>358774.0695067739</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="0"/>
-        <v>452997.56496316736</v>
-      </c>
-      <c r="G12" s="18">
-        <f t="shared" si="5"/>
-        <v>1074498.5197207013</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="1"/>
-        <v>851002.823007548</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="6"/>
-        <v>933544.39962467691</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="2"/>
-        <v>851002.823007548</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="3"/>
-        <v>-82541.576617128914</v>
-      </c>
-      <c r="L12" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="21">
-        <f>VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>13.815788061995253</v>
-      </c>
-      <c r="N12" s="21">
-        <f>VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>23.570085862550986</v>
-      </c>
-      <c r="O12" s="21">
-        <f>VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>35.550356752553292</v>
-      </c>
-      <c r="P12" s="21">
-        <f>VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>-0.39045591745362174</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
+      <c r="E12" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="21" t="e">
+        <f ca="1">VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" s="21" t="e">
+        <f ca="1">VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" s="21" t="e">
+        <f ca="1">VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" s="21" t="e">
+        <f ca="1">VLOOKUP(A12,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q12" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AB12" s="19"/>
     </row>
@@ -39281,57 +39329,57 @@
         <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566115356769217</v>
       </c>
-      <c r="E13" s="17">
-        <f t="shared" si="4"/>
-        <v>430204.45902625163</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="0"/>
-        <v>598337.23208346288</v>
-      </c>
-      <c r="G13" s="18">
-        <f t="shared" si="5"/>
-        <v>1672835.7518041641</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="1"/>
-        <v>1202768.8752357247</v>
-      </c>
-      <c r="I13" s="18">
-        <f t="shared" si="6"/>
-        <v>1363748.8586509286</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="2"/>
-        <v>1202768.8752357247</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="3"/>
-        <v>-160979.98341520387</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
-        <f>VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>16.539438934664105</v>
-      </c>
-      <c r="N13" s="21">
-        <f>VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>21.226536886588693</v>
-      </c>
-      <c r="O13" s="21">
-        <f>VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>30.77575013056509</v>
-      </c>
-      <c r="P13" s="21">
-        <f>VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>2.1281103986359042</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E13" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="21" t="e">
+        <f ca="1">VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" s="21" t="e">
+        <f ca="1">VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O13" s="21" t="e">
+        <f ca="1">VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P13" s="21" t="e">
+        <f ca="1">VLOOKUP(A13,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q13" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
@@ -39351,57 +39399,57 @@
         <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740071647956981</v>
       </c>
-      <c r="E14" s="17">
-        <f t="shared" si="4"/>
-        <v>444665.87088882137</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="0"/>
-        <v>595268.92018481973</v>
-      </c>
-      <c r="G14" s="18">
-        <f t="shared" si="5"/>
-        <v>2268104.6719889836</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="1"/>
-        <v>1694274.1423890409</v>
-      </c>
-      <c r="I14" s="18">
-        <f t="shared" si="6"/>
-        <v>1808414.7295397499</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" si="2"/>
-        <v>1694274.1423890409</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" si="3"/>
-        <v>-114140.58715070901</v>
-      </c>
-      <c r="L14" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
-        <f>VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>24.4736792985099</v>
-      </c>
-      <c r="N14" s="21">
-        <f>VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>22.308917690562428</v>
-      </c>
-      <c r="O14" s="21">
-        <f>VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>27.953472650564205</v>
-      </c>
-      <c r="P14" s="21">
-        <f>VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>11.019807770558877</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E14" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="21" t="e">
+        <f ca="1">VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" s="21" t="e">
+        <f ca="1">VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O14" s="21" t="e">
+        <f ca="1">VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P14" s="21" t="e">
+        <f ca="1">VLOOKUP(A14,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q14" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -39420,57 +39468,57 @@
         <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.118899961366665</v>
       </c>
-      <c r="E15" s="17">
-        <f t="shared" si="4"/>
-        <v>157218.79036936784</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="0"/>
-        <v>186057.73378250105</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" si="5"/>
-        <v>2454162.4057714846</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" si="1"/>
-        <v>2073767.3030910541</v>
-      </c>
-      <c r="I15" s="18">
-        <f t="shared" si="6"/>
-        <v>1965633.5199091178</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" si="2"/>
-        <v>2073767.3030910541</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="3"/>
-        <v>108133.78318193625</v>
-      </c>
-      <c r="L15" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="21">
-        <f>VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>50.263162311423869</v>
-      </c>
-      <c r="N15" s="21">
-        <f>VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>31.626999230849577</v>
-      </c>
-      <c r="O15" s="21">
-        <f>VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>29.177981510659333</v>
-      </c>
-      <c r="P15" s="21">
-        <f>VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>36.525034671230067</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E15" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="21" t="e">
+        <f ca="1">VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" s="21" t="e">
+        <f ca="1">VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O15" s="21" t="e">
+        <f ca="1">VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P15" s="21" t="e">
+        <f ca="1">VLOOKUP(A15,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q15" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -39489,57 +39537,57 @@
         <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.665700887975071</v>
       </c>
-      <c r="E16" s="17">
-        <f t="shared" si="4"/>
-        <v>212559.40933162411</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="0"/>
-        <v>265367.55254019768</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="5"/>
-        <v>2719529.9583116821</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="1"/>
-        <v>2178343.4940141113</v>
-      </c>
-      <c r="I16" s="18">
-        <f t="shared" si="6"/>
-        <v>2178192.9292407418</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="2"/>
-        <v>2178343.4940141113</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="3"/>
-        <v>150.56477336958051</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
-        <f>VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>38.684208833940389</v>
-      </c>
-      <c r="N16" s="21">
-        <f>VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>33.979402431879848</v>
-      </c>
-      <c r="O16" s="21">
-        <f>VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>30.778455151066169</v>
-      </c>
-      <c r="P16" s="21">
-        <f>VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>40.381296993507206</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E16" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" s="21" t="e">
+        <f ca="1">VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" s="21" t="e">
+        <f ca="1">VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O16" s="21" t="e">
+        <f ca="1">VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16" s="21" t="e">
+        <f ca="1">VLOOKUP(A16,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q16" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -39558,57 +39606,57 @@
         <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177209264156971</v>
       </c>
-      <c r="E17" s="17">
-        <f t="shared" si="4"/>
-        <v>252623.6366729713</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="0"/>
-        <v>330226.98221817799</v>
-      </c>
-      <c r="G17" s="18">
-        <f t="shared" si="5"/>
-        <v>3049756.9405298601</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="1"/>
-        <v>2333064.0158782201</v>
-      </c>
-      <c r="I17" s="18">
-        <f t="shared" si="6"/>
-        <v>2430816.5659137131</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="2"/>
-        <v>2333064.0158782201</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="3"/>
-        <v>-97752.550035492983</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <f>VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>29.210522476986728</v>
-      </c>
-      <c r="N17" s="21">
-        <f>VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>32.389775780248804</v>
-      </c>
-      <c r="O17" s="21">
-        <f>VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>31.315562027460384</v>
-      </c>
-      <c r="P17" s="21">
-        <f>VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>34.538203285825638</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E17" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" s="21" t="e">
+        <f ca="1">VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N17" s="21" t="e">
+        <f ca="1">VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O17" s="21" t="e">
+        <f ca="1">VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P17" s="21" t="e">
+        <f ca="1">VLOOKUP(A17,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q17" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -39627,57 +39675,57 @@
         <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>32.639682710465742</v>
       </c>
-      <c r="E18" s="17">
-        <f t="shared" si="4"/>
-        <v>397348.414326831</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="0"/>
-        <v>570902.91057528066</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="5"/>
-        <v>3620659.8511051405</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="1"/>
-        <v>2519979.1838576412</v>
-      </c>
-      <c r="I18" s="18">
-        <f t="shared" si="6"/>
-        <v>2828164.9802405443</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="2"/>
-        <v>2519979.1838576412</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="3"/>
-        <v>-308185.79638290312</v>
-      </c>
-      <c r="L18" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <f>VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>12.280700225591376</v>
-      </c>
-      <c r="N18" s="21">
-        <f>VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>25.686750595362994</v>
-      </c>
-      <c r="O18" s="21">
-        <f>VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>29.439291550094584</v>
-      </c>
-      <c r="P18" s="21">
-        <f>VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>18.181668685899815</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E18" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" s="21" t="e">
+        <f ca="1">VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" s="21" t="e">
+        <f ca="1">VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O18" s="21" t="e">
+        <f ca="1">VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" s="21" t="e">
+        <f ca="1">VLOOKUP(A18,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q18" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -39696,57 +39744,57 @@
         <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>32.234052986719142</v>
       </c>
-      <c r="E19" s="17">
-        <f t="shared" si="4"/>
-        <v>394530.34380952618</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="0"/>
-        <v>574279.99596446904</v>
-      </c>
-      <c r="G19" s="18">
-        <f t="shared" si="5"/>
-        <v>4194939.8470696099</v>
-      </c>
-      <c r="H19" s="18">
-        <f t="shared" si="1"/>
-        <v>2881923.5769219655</v>
-      </c>
-      <c r="I19" s="18">
-        <f t="shared" si="6"/>
-        <v>3222695.3240500707</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" si="2"/>
-        <v>2881923.5769219655</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="3"/>
-        <v>-340771.74712810526</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>12.840462504160149</v>
-      </c>
-      <c r="N19" s="21">
-        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>21.404654564962044</v>
-      </c>
-      <c r="O19" s="21">
-        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>26.761079221717068</v>
-      </c>
-      <c r="P19" s="21">
-        <f>VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>10.691805251451996</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E19" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" s="21" t="e">
+        <f ca="1">VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="21" t="e">
+        <f ca="1">VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" s="21" t="e">
+        <f ca="1">VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" s="21" t="e">
+        <f ca="1">VLOOKUP(A19,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q19" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -39765,57 +39813,57 @@
         <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>31.717553830421821</v>
       </c>
-      <c r="E20" s="17">
-        <f t="shared" si="4"/>
-        <v>313410.87250128563</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="0"/>
-        <v>435292.86117702356</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="5"/>
-        <v>4630232.7082466334</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="1"/>
-        <v>3333767.6824095966</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="6"/>
-        <v>3536106.1965513565</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="2"/>
-        <v>3333767.6824095966</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="3"/>
-        <v>-202338.51414175984</v>
-      </c>
-      <c r="L20" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
-        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>28.448295795251873</v>
-      </c>
-      <c r="N20" s="21">
-        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>23.752534975058655</v>
-      </c>
-      <c r="O20" s="21">
-        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>25.758231139497596</v>
-      </c>
-      <c r="P20" s="21">
-        <f>VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>19.741142646180776</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E20" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" s="21" t="e">
+        <f ca="1">VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" s="21" t="e">
+        <f ca="1">VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O20" s="21" t="e">
+        <f ca="1">VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20" s="21" t="e">
+        <f ca="1">VLOOKUP(A20,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q20" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -39834,57 +39882,57 @@
         <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>31.272103983435283</v>
       </c>
-      <c r="E21" s="17">
-        <f t="shared" si="4"/>
-        <v>287547.36912023439</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="0"/>
-        <v>397714.20899415982</v>
-      </c>
-      <c r="G21" s="18">
-        <f t="shared" si="5"/>
-        <v>5027946.9172407929</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="1"/>
-        <v>3635205.570817343</v>
-      </c>
-      <c r="I21" s="18">
-        <f t="shared" si="6"/>
-        <v>3823653.5656715911</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" si="2"/>
-        <v>3635205.570817343</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="3"/>
-        <v>-188447.99485424813</v>
-      </c>
-      <c r="L21" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>33.495143524202234</v>
-      </c>
-      <c r="N21" s="21">
-        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>27.000071158106511</v>
-      </c>
-      <c r="O21" s="21">
-        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>26.172177812367234</v>
-      </c>
-      <c r="P21" s="21">
-        <f>VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>28.655857849585068</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E21" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" s="21" t="e">
+        <f ca="1">VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21" s="21" t="e">
+        <f ca="1">VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O21" s="21" t="e">
+        <f ca="1">VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P21" s="21" t="e">
+        <f ca="1">VLOOKUP(A21,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q21" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -39903,57 +39951,57 @@
         <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>31.009964160696924</v>
       </c>
-      <c r="E22" s="17">
-        <f t="shared" si="4"/>
-        <v>147460.08349080823</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="0"/>
-        <v>186894.91535372063</v>
-      </c>
-      <c r="G22" s="18">
-        <f t="shared" si="5"/>
-        <v>5214841.8325945139</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="1"/>
-        <v>4114510.0741256624</v>
-      </c>
-      <c r="I22" s="18">
-        <f t="shared" si="6"/>
-        <v>3971113.6491623991</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="2"/>
-        <v>4114510.0741256624</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="3"/>
-        <v>143396.42496326333</v>
-      </c>
-      <c r="L22" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>60.988998033047167</v>
-      </c>
-      <c r="N22" s="21">
-        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>38.329713449753399</v>
-      </c>
-      <c r="O22" s="21">
-        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>30.224689691495957</v>
-      </c>
-      <c r="P22" s="21">
-        <f>VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>54.539760966268283</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E22" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J22" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="21" t="e">
+        <f ca="1">VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" s="21" t="e">
+        <f ca="1">VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O22" s="21" t="e">
+        <f ca="1">VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22" s="21" t="e">
+        <f ca="1">VLOOKUP(A22,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q22" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -39972,57 +40020,57 @@
         <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>30.728425585070163</v>
       </c>
-      <c r="E23" s="17">
-        <f t="shared" si="4"/>
-        <v>179887.95363883613</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" si="0"/>
-        <v>235764.02482402488</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="5"/>
-        <v>5450605.857418539</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="1"/>
-        <v>4158812.3315875791</v>
-      </c>
-      <c r="I23" s="18">
-        <f t="shared" si="6"/>
-        <v>4151001.6028012354</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="2"/>
-        <v>4158812.3315875791</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="3"/>
-        <v>7810.7287863437086</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>60.988998033047167</v>
-      </c>
-      <c r="N23" s="21">
-        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>38.329713449753399</v>
-      </c>
-      <c r="O23" s="21">
-        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>30.224689691495957</v>
-      </c>
-      <c r="P23" s="21">
-        <f>VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>54.539760966268283</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E23" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="21" t="e">
+        <f ca="1">VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" s="21" t="e">
+        <f ca="1">VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" s="21" t="e">
+        <f ca="1">VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P23" s="21" t="e">
+        <f ca="1">VLOOKUP(A23,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q23" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -40041,57 +40089,57 @@
         <f>VLOOKUP(A24,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>30.393087180738309</v>
       </c>
-      <c r="E24" s="17">
-        <f t="shared" si="4"/>
-        <v>153462.94180681123</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="0"/>
-        <v>199044.01595582286</v>
-      </c>
-      <c r="G24" s="18">
-        <f t="shared" si="5"/>
-        <v>5649649.8733743615</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="1"/>
-        <v>4355880.2086214861</v>
-      </c>
-      <c r="I24" s="18">
-        <f t="shared" si="6"/>
-        <v>4304464.5446080463</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="2"/>
-        <v>4355880.2086214861</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="3"/>
-        <v>51415.664013439789</v>
-      </c>
-      <c r="L24" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
-        <f>VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$N,14)</f>
-        <v>46.703307140045339</v>
-      </c>
-      <c r="N24" s="21">
-        <f>VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$O,15)</f>
-        <v>41.120911346517381</v>
-      </c>
-      <c r="O24" s="21">
-        <f>VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$P,16)</f>
-        <v>33.856763576503099</v>
-      </c>
-      <c r="P24" s="21">
-        <f>VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
-        <v>55.649206886545954</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="E24" s="17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="18" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" s="18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="18" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="21" t="e">
+        <f ca="1">VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$N,14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" s="21" t="e">
+        <f ca="1">VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$O,15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O24" s="21" t="e">
+        <f ca="1">VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$P,16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P24" s="21" t="e">
+        <f ca="1">VLOOKUP(A24,'[3]model1&amp;KDJ'!$A:$Q,17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q24" s="1" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -41653,7 +41701,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -1110,11 +1110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113300608"/>
-        <c:axId val="113302144"/>
+        <c:axId val="612362112"/>
+        <c:axId val="612407936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="113300608"/>
+        <c:axId val="612362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,14 +1157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113302144"/>
+        <c:crossAx val="612407936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113302144"/>
+        <c:axId val="612407936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113300608"/>
+        <c:crossAx val="612362112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,6 +1341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1455,8 +1456,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519759360"/>
-        <c:axId val="519757824"/>
+        <c:axId val="489596800"/>
+        <c:axId val="489595264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1638,11 +1639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519750400"/>
-        <c:axId val="519751936"/>
+        <c:axId val="489591936"/>
+        <c:axId val="489593472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519750400"/>
+        <c:axId val="489591936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,14 +1686,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519751936"/>
+        <c:crossAx val="489593472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519751936"/>
+        <c:axId val="489593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,12 +1744,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519750400"/>
+        <c:crossAx val="489591936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519757824"/>
+        <c:axId val="489595264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,12 +1786,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519759360"/>
+        <c:crossAx val="489596800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519759360"/>
+        <c:axId val="489596800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519757824"/>
+        <c:crossAx val="489595264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1886,7 +1887,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>model4(1)</a:t>
+              <a:t>model4(3)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -2477,11 +2478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519825280"/>
-        <c:axId val="519826816"/>
+        <c:axId val="489912576"/>
+        <c:axId val="489926656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519825280"/>
+        <c:axId val="489912576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,14 +2525,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519826816"/>
+        <c:crossAx val="489926656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519826816"/>
+        <c:axId val="489926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519825280"/>
+        <c:crossAx val="489912576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,6 +2709,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2822,8 +2824,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519857280"/>
-        <c:axId val="519851392"/>
+        <c:axId val="489940864"/>
+        <c:axId val="489939328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3005,11 +3007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519848320"/>
-        <c:axId val="519849856"/>
+        <c:axId val="489936000"/>
+        <c:axId val="489937536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519848320"/>
+        <c:axId val="489936000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,14 +3054,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519849856"/>
+        <c:crossAx val="489937536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519849856"/>
+        <c:axId val="489937536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,12 +3112,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519848320"/>
+        <c:crossAx val="489936000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519851392"/>
+        <c:axId val="489939328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,12 +3154,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519857280"/>
+        <c:crossAx val="489940864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519857280"/>
+        <c:axId val="489940864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519851392"/>
+        <c:crossAx val="489939328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3253,7 +3255,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>model4(1)</a:t>
+              <a:t>model4(3)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -3844,11 +3846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523896320"/>
-        <c:axId val="523897856"/>
+        <c:axId val="584788224"/>
+        <c:axId val="584794112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523896320"/>
+        <c:axId val="584788224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,14 +3893,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523897856"/>
+        <c:crossAx val="584794112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523897856"/>
+        <c:axId val="584794112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3951,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523896320"/>
+        <c:crossAx val="584788224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4075,6 +4077,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4189,8 +4192,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="523924224"/>
-        <c:axId val="523922432"/>
+        <c:axId val="585111040"/>
+        <c:axId val="585109504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4372,11 +4375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523919360"/>
-        <c:axId val="523920896"/>
+        <c:axId val="585106176"/>
+        <c:axId val="585107712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523919360"/>
+        <c:axId val="585106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,14 +4422,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523920896"/>
+        <c:crossAx val="585107712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523920896"/>
+        <c:axId val="585107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4477,12 +4480,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523919360"/>
+        <c:crossAx val="585106176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523922432"/>
+        <c:axId val="585109504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,12 +4522,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523924224"/>
+        <c:crossAx val="585111040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="523924224"/>
+        <c:axId val="585111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4533,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523922432"/>
+        <c:crossAx val="585109504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4630,6 +4633,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4744,8 +4748,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519892992"/>
-        <c:axId val="519845760"/>
+        <c:axId val="623126016"/>
+        <c:axId val="623124480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4927,11 +4931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519772416"/>
-        <c:axId val="519843840"/>
+        <c:axId val="617275776"/>
+        <c:axId val="617277312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519772416"/>
+        <c:axId val="617275776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4974,14 +4978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519843840"/>
+        <c:crossAx val="617277312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519843840"/>
+        <c:axId val="617277312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5032,12 +5036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519772416"/>
+        <c:crossAx val="617275776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519845760"/>
+        <c:axId val="623124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,12 +5078,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519892992"/>
+        <c:crossAx val="623126016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519892992"/>
+        <c:axId val="623126016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5088,7 +5092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519845760"/>
+        <c:crossAx val="623124480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5766,11 +5770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592587008"/>
-        <c:axId val="616669184"/>
+        <c:axId val="656211968"/>
+        <c:axId val="656213504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592587008"/>
+        <c:axId val="656211968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,14 +5817,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616669184"/>
+        <c:crossAx val="656213504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616669184"/>
+        <c:axId val="656213504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5871,7 +5875,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592587008"/>
+        <c:crossAx val="656211968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5997,6 +6001,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6120,8 +6125,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="622220800"/>
-        <c:axId val="622202240"/>
+        <c:axId val="694043392"/>
+        <c:axId val="693926144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6303,11 +6308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622184704"/>
-        <c:axId val="622200704"/>
+        <c:axId val="679704832"/>
+        <c:axId val="693924224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="622184704"/>
+        <c:axId val="679704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,14 +6355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622200704"/>
+        <c:crossAx val="693924224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622200704"/>
+        <c:axId val="693924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6408,12 +6413,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622184704"/>
+        <c:crossAx val="679704832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="622202240"/>
+        <c:axId val="693926144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6450,12 +6455,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622220800"/>
+        <c:crossAx val="694043392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="622220800"/>
+        <c:axId val="694043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6464,7 +6469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622202240"/>
+        <c:crossAx val="693926144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6551,7 +6556,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>model4(1)</a:t>
+              <a:t>model4(3)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -7142,11 +7147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626596864"/>
-        <c:axId val="674071680"/>
+        <c:axId val="719829632"/>
+        <c:axId val="719954304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626596864"/>
+        <c:axId val="719829632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7189,14 +7194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674071680"/>
+        <c:crossAx val="719954304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="674071680"/>
+        <c:axId val="719954304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7247,7 +7252,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626596864"/>
+        <c:crossAx val="719829632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7373,6 +7378,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7496,8 +7502,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92399872"/>
-        <c:axId val="92398336"/>
+        <c:axId val="372308608"/>
+        <c:axId val="372307072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7679,11 +7685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92395008"/>
-        <c:axId val="92396544"/>
+        <c:axId val="372295552"/>
+        <c:axId val="372297088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92395008"/>
+        <c:axId val="372295552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7726,14 +7732,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92396544"/>
+        <c:crossAx val="372297088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92396544"/>
+        <c:axId val="372297088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7784,12 +7790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92395008"/>
+        <c:crossAx val="372295552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92398336"/>
+        <c:axId val="372307072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7826,12 +7832,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92399872"/>
+        <c:crossAx val="372308608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92399872"/>
+        <c:axId val="372308608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7840,7 +7846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92398336"/>
+        <c:crossAx val="372307072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7927,7 +7933,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>model4(1)</a:t>
+              <a:t>model4(3)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -8518,11 +8524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519703168"/>
-        <c:axId val="519704960"/>
+        <c:axId val="476564480"/>
+        <c:axId val="476570368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519703168"/>
+        <c:axId val="476564480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8565,14 +8571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519704960"/>
+        <c:crossAx val="476570368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519704960"/>
+        <c:axId val="476570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8623,7 +8629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519703168"/>
+        <c:crossAx val="476564480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8749,6 +8755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8863,8 +8870,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519722880"/>
-        <c:axId val="519721344"/>
+        <c:axId val="489560320"/>
+        <c:axId val="489558784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9046,11 +9053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519718016"/>
-        <c:axId val="519719552"/>
+        <c:axId val="483448320"/>
+        <c:axId val="483449856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519718016"/>
+        <c:axId val="483448320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9093,14 +9100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519719552"/>
+        <c:crossAx val="483449856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519719552"/>
+        <c:axId val="483449856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9151,12 +9158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519718016"/>
+        <c:crossAx val="483448320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519721344"/>
+        <c:axId val="489558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9193,12 +9200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519722880"/>
+        <c:crossAx val="489560320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519722880"/>
+        <c:axId val="489560320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9207,7 +9214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519721344"/>
+        <c:crossAx val="489558784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9885,11 +9892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519739648"/>
-        <c:axId val="519741440"/>
+        <c:axId val="489577088"/>
+        <c:axId val="489578880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519739648"/>
+        <c:axId val="489577088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9932,14 +9939,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519741440"/>
+        <c:crossAx val="489578880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519741440"/>
+        <c:axId val="489578880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9990,7 +9997,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519739648"/>
+        <c:crossAx val="489577088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11055,31 +11062,24 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="35">
-        <f>R4</f>
         <v>245217.81577195294</v>
       </c>
       <c r="R4" s="34">
-        <f>VLOOKUP(P4,A:I,9,)</f>
         <v>245217.81577195294</v>
       </c>
       <c r="S4" s="34">
-        <f>VLOOKUP(P4,A:J,10,)</f>
         <v>247884.08816460447</v>
       </c>
       <c r="T4" s="34">
-        <f>VLOOKUP(P4,A:K,11,)</f>
         <v>2666.2723926515318</v>
       </c>
       <c r="U4" s="34">
-        <f>VLOOKUP(P4,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="V4" s="33">
-        <f>(S4-R4)/R4</f>
         <v>1.0873077815565837E-2</v>
       </c>
       <c r="W4" s="33">
-        <f>V4</f>
         <v>1.0873077815565837E-2</v>
       </c>
       <c r="Y4" s="42">
@@ -11141,27 +11141,21 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="35">
-        <f>R5-R4</f>
         <v>3518640.0716485097</v>
       </c>
       <c r="R5" s="34">
-        <f>VLOOKUP(P5,A:I,9,)</f>
         <v>3763857.8874204624</v>
       </c>
       <c r="S5" s="34">
-        <f>VLOOKUP(P5,A:J,10,)</f>
         <v>3580619.3649953026</v>
       </c>
       <c r="T5" s="34">
-        <f>VLOOKUP(P5,A:K,11,)</f>
         <v>-183238.52242515981</v>
       </c>
       <c r="U5" s="34">
-        <f>VLOOKUP(P5,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="V5" s="33">
-        <f>(S5-R5)/R5</f>
         <v>-4.8683698456729256E-2</v>
       </c>
       <c r="W5" s="33">
@@ -11222,7 +11216,6 @@
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="28">
-        <f>IRR(AA3:AA5)</f>
         <v>-4.5572950047727101E-2</v>
       </c>
       <c r="AB6" s="27"/>
@@ -12189,31 +12182,24 @@
         <v>44561</v>
       </c>
       <c r="R4" s="10">
-        <f>S4</f>
         <v>391166.0852938749</v>
       </c>
       <c r="S4" s="4">
-        <f>VLOOKUP(Q4,A:I,9,)</f>
         <v>391166.0852938749</v>
       </c>
       <c r="T4" s="4">
-        <f>VLOOKUP(Q4,A:J,10,)</f>
         <v>397335.57823758473</v>
       </c>
       <c r="U4" s="4">
-        <f>VLOOKUP(Q4,A:K,11,)</f>
         <v>6169.4929437098326</v>
       </c>
       <c r="V4" s="4">
-        <f>VLOOKUP(Q4,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4" si="0">(T4-S4)/S4</f>
         <v>1.5772054826979239E-2</v>
       </c>
       <c r="X4" s="9">
-        <f>W4</f>
         <v>1.5772054826979239E-2</v>
       </c>
       <c r="Z4" s="42">
@@ -12286,27 +12272,21 @@
         <v>44925</v>
       </c>
       <c r="R5" s="10">
-        <f>S5-S4</f>
         <v>4936141.2228610869</v>
       </c>
       <c r="S5" s="4">
-        <f>VLOOKUP(Q5,A:I,9,)</f>
         <v>5327307.308154962</v>
       </c>
       <c r="T5" s="4">
-        <f>VLOOKUP(Q5,A:J,10,)</f>
         <v>5021488.7754730703</v>
       </c>
       <c r="U5" s="4">
-        <f>VLOOKUP(Q5,A:K,11,)</f>
         <v>-305818.53268189169</v>
       </c>
       <c r="V5" s="4">
-        <f>VLOOKUP(Q5,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="W5" s="9">
-        <f t="shared" ref="W5" si="1">(T5-S5)/S5</f>
         <v>-5.7405836568457255E-2</v>
       </c>
       <c r="X5" s="9">
@@ -12378,7 +12358,6 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <f>IRR(AB3:AB5)</f>
         <v>-5.3511597687478707E-2</v>
       </c>
       <c r="AC6" s="7"/>
@@ -13549,31 +13528,24 @@
         <v>44561</v>
       </c>
       <c r="R4" s="10">
-        <f>S4</f>
         <v>1479712.5784384708</v>
       </c>
       <c r="S4" s="4">
-        <f>VLOOKUP(Q4,A:I,9,)</f>
         <v>1479712.5784384708</v>
       </c>
       <c r="T4" s="4">
-        <f>VLOOKUP(Q4,A:J,10,)</f>
         <v>1507227.6555012274</v>
       </c>
       <c r="U4" s="4">
-        <f>VLOOKUP(Q4,A:K,11,)</f>
         <v>27515.077062756522</v>
       </c>
       <c r="V4" s="4">
-        <f>VLOOKUP(Q4,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4" si="0">(T4-S4)/S4</f>
         <v>1.8594879481117182E-2</v>
       </c>
       <c r="X4" s="9">
-        <f>W4</f>
         <v>1.8594879481117182E-2</v>
       </c>
       <c r="Z4" s="42">
@@ -13646,27 +13618,21 @@
         <v>44925</v>
       </c>
       <c r="R5" s="10">
-        <f>S5-S4</f>
         <v>44876935.423337787</v>
       </c>
       <c r="S5" s="4">
-        <f>VLOOKUP(Q5,A:I,9,)</f>
         <v>46356648.001776256</v>
       </c>
       <c r="T5" s="4">
-        <f>VLOOKUP(Q5,A:J,10,)</f>
         <v>44543708.829216212</v>
       </c>
       <c r="U5" s="4">
-        <f>VLOOKUP(Q5,A:K,11,)</f>
         <v>-1812939.1725600436</v>
       </c>
       <c r="V5" s="4">
-        <f>VLOOKUP(Q5,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="W5" s="9">
-        <f t="shared" ref="W5" si="1">(T5-S5)/S5</f>
         <v>-3.9108504404601833E-2</v>
       </c>
       <c r="X5" s="9">
@@ -13738,7 +13704,6 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <f>IRR(AB3:AB5)</f>
         <v>-3.7726903588423899E-2</v>
       </c>
       <c r="AC6" s="7"/>
@@ -14933,31 +14898,24 @@
         <v>44561</v>
       </c>
       <c r="T4" s="10">
-        <f>U4</f>
         <v>39715.271063418011</v>
       </c>
       <c r="U4" s="4">
-        <f>VLOOKUP(S4,A:K,11,)</f>
         <v>39715.271063418011</v>
       </c>
       <c r="V4" s="4">
-        <f>VLOOKUP(S4,A:L,12,)</f>
         <v>40317.612580751033</v>
       </c>
       <c r="W4" s="4">
-        <f>VLOOKUP(S4,A:M,13,)</f>
         <v>602.34151733302133</v>
       </c>
       <c r="X4" s="4">
-        <f>VLOOKUP(S4,A:N,14,)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4" si="0">(V4-U4)/U4</f>
         <v>1.5166496443425811E-2</v>
       </c>
       <c r="Z4" s="9">
-        <f>Y4</f>
         <v>1.5166496443425811E-2</v>
       </c>
       <c r="AB4" s="42">
@@ -15036,27 +14994,21 @@
         <v>44925</v>
       </c>
       <c r="T5" s="10">
-        <f>U5-U4</f>
         <v>1946954.1077740435</v>
       </c>
       <c r="U5" s="4">
-        <f>VLOOKUP(S5,A:K,11,)</f>
         <v>1986669.3788374616</v>
       </c>
       <c r="V5" s="4">
-        <f>VLOOKUP(S5,A:L,12,)</f>
         <v>1949083.6732141678</v>
       </c>
       <c r="W5" s="4">
-        <f>VLOOKUP(S5,A:M,13,)</f>
         <v>-37585.705623293761</v>
       </c>
       <c r="X5" s="4">
-        <f>VLOOKUP(S5,A:N,14,)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" ref="Y5" si="1">(V5-U5)/U5</f>
         <v>-1.8918953512681497E-2</v>
       </c>
       <c r="Z5" s="9">
@@ -15134,7 +15086,6 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <f>IRR(AD3:AD5)</f>
         <v>-1.8363860705057022E-2</v>
       </c>
       <c r="AE6" s="7"/>
@@ -16438,31 +16389,24 @@
         <v>44561</v>
       </c>
       <c r="T4" s="10">
-        <f>U4</f>
         <v>245217.81577195294</v>
       </c>
       <c r="U4" s="4">
-        <f>VLOOKUP(S4,A:I,9,)</f>
         <v>245217.81577195294</v>
       </c>
       <c r="V4" s="4">
-        <f>VLOOKUP(S4,A:J,10,)</f>
         <v>247884.08816460447</v>
       </c>
       <c r="W4" s="4">
-        <f>VLOOKUP(S4,A:K,11,)</f>
         <v>2666.2723926515318</v>
       </c>
       <c r="X4" s="4">
-        <f>VLOOKUP(S4,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4" si="0">(V4-U4)/U4</f>
         <v>1.0873077815565837E-2</v>
       </c>
       <c r="Z4" s="9">
-        <f>Y4</f>
         <v>1.0873077815565837E-2</v>
       </c>
       <c r="AB4" s="42">
@@ -16538,27 +16482,21 @@
         <v>44925</v>
       </c>
       <c r="T5" s="10">
-        <f>U5-U4</f>
         <v>3578435.7498996384</v>
       </c>
       <c r="U5" s="4">
-        <f>VLOOKUP(S5,A:I,9,)</f>
         <v>3823653.5656715911</v>
       </c>
       <c r="V5" s="4">
-        <f>VLOOKUP(S5,A:J,10,)</f>
         <v>3635205.570817343</v>
       </c>
       <c r="W5" s="4">
-        <f>VLOOKUP(S5,A:K,11,)</f>
         <v>-188447.99485424813</v>
       </c>
       <c r="X5" s="4">
-        <f>VLOOKUP(S5,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" ref="Y5" si="1">(V5-U5)/U5</f>
         <v>-4.9284798326427071E-2</v>
       </c>
       <c r="Z5" s="9">
@@ -16633,7 +16571,6 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <f>IRR(AD3:AD5)</f>
         <v>-4.6188071097940209E-2</v>
       </c>
       <c r="AE6" s="7"/>
@@ -17860,31 +17797,24 @@
         <v>44561</v>
       </c>
       <c r="T4" s="10">
-        <f>U4</f>
         <v>178636.11802005771</v>
       </c>
       <c r="U4" s="4">
-        <f>VLOOKUP(S4,A:K,11,)</f>
         <v>178636.11802005771</v>
       </c>
       <c r="V4" s="4">
-        <f>VLOOKUP(S4,A:L,12,)</f>
         <v>180470.59515893529</v>
       </c>
       <c r="W4" s="4">
-        <f>VLOOKUP(S4,A:M,13,)</f>
         <v>1834.4771388775844</v>
       </c>
       <c r="X4" s="4">
-        <f>VLOOKUP(S4,A:N,14,)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4" si="0">(V4-U4)/U4</f>
         <v>1.0269351792964985E-2</v>
       </c>
       <c r="Z4" s="9">
-        <f>Y4</f>
         <v>1.0269351792964985E-2</v>
       </c>
       <c r="AB4" s="42">
@@ -17952,27 +17882,21 @@
         <v>44925</v>
       </c>
       <c r="T5" s="10">
-        <f>U5-U4</f>
         <v>10768225.868522482</v>
       </c>
       <c r="U5" s="4">
-        <f>VLOOKUP(S5,A:K,11,)</f>
         <v>10946861.98654254</v>
       </c>
       <c r="V5" s="4">
-        <f>VLOOKUP(S5,A:L,12,)</f>
         <v>10836771.20417548</v>
       </c>
       <c r="W5" s="4">
-        <f>VLOOKUP(S5,A:M,13,)</f>
         <v>-110090.78236705996</v>
       </c>
       <c r="X5" s="4">
-        <f>VLOOKUP(S5,A:N,14,)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" ref="Y5" si="1">(V5-U5)/U5</f>
         <v>-1.0056834780816586E-2</v>
       </c>
       <c r="Z5" s="9">
@@ -18039,7 +17963,6 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <f>IRR(AD3:AD5)</f>
         <v>-9.6197799803419137E-3</v>
       </c>
       <c r="AE6" s="7"/>
@@ -19095,31 +19018,24 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="10">
-        <f>R4</f>
         <v>905989.43478514929</v>
       </c>
       <c r="R4" s="4">
-        <f>VLOOKUP(P4,A:I,9,)</f>
         <v>905989.43478514929</v>
       </c>
       <c r="S4" s="4">
-        <f>VLOOKUP(P4,A:J,10,)</f>
         <v>918450.58148294676</v>
       </c>
       <c r="T4" s="4">
-        <f>VLOOKUP(P4,A:K,11,)</f>
         <v>12461.146697797463</v>
       </c>
       <c r="U4" s="4">
-        <f>VLOOKUP(P4,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" ref="V4" si="0">(S4-R4)/R4</f>
         <v>1.3754185445609043E-2</v>
       </c>
       <c r="W4" s="9">
-        <f>V4</f>
         <v>1.3754185445609043E-2</v>
       </c>
       <c r="Y4" s="42">
@@ -19181,27 +19097,21 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="10">
-        <f>R5-R4</f>
         <v>31686237.028773796</v>
       </c>
       <c r="R5" s="4">
-        <f>VLOOKUP(P5,A:I,9,)</f>
         <v>32592226.463558946</v>
       </c>
       <c r="S5" s="4">
-        <f>VLOOKUP(P5,A:J,10,)</f>
         <v>31575040.017907716</v>
       </c>
       <c r="T5" s="4">
-        <f>VLOOKUP(P5,A:K,11,)</f>
         <v>-1017186.4456512295</v>
       </c>
       <c r="U5" s="4">
-        <f>VLOOKUP(P5,A:L,12,)</f>
         <v>0</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" ref="V5" si="1">(S5-R5)/R5</f>
         <v>-3.1209480174315057E-2</v>
       </c>
       <c r="W5" s="9">
@@ -19262,7 +19172,6 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="8">
-        <f>IRR(AA3:AA5)</f>
         <v>-3.0047919023080905E-2</v>
       </c>
       <c r="AB6" s="7"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -582,7 +582,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -648,6 +648,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +666,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -723,6 +732,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4244668.8663569177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4415397.7453730423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4701076.0336823575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4913912.8232615339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +783,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -831,6 +849,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +867,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -906,6 +933,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4297670.0194356609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4356915.6669407403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4462748.14001079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4892523.8597752657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +984,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1014,6 +1050,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,7 +1068,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1089,6 +1134,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53001.153078743257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58482.078432301991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-238327.89367156755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21388.963486268185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,11 +1164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612362112"/>
-        <c:axId val="612407936"/>
+        <c:axId val="503442432"/>
+        <c:axId val="503875840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612362112"/>
+        <c:axId val="503442432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,14 +1211,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612407936"/>
+        <c:crossAx val="503875840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="612407936"/>
+        <c:axId val="503875840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612362112"/>
+        <c:crossAx val="503442432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1430,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1442,6 +1496,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,8 +1519,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489596800"/>
-        <c:axId val="489595264"/>
+        <c:axId val="484926208"/>
+        <c:axId val="484924416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1482,7 +1545,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1548,6 +1611,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,7 +1629,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1623,6 +1695,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,11 +1720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489591936"/>
-        <c:axId val="489593472"/>
+        <c:axId val="484921344"/>
+        <c:axId val="484922880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489591936"/>
+        <c:axId val="484921344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,14 +1767,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489593472"/>
+        <c:crossAx val="484922880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489593472"/>
+        <c:axId val="484922880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,12 +1825,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489591936"/>
+        <c:crossAx val="484921344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489595264"/>
+        <c:axId val="484924416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,12 +1867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489596800"/>
+        <c:crossAx val="484926208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489596800"/>
+        <c:axId val="484926208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489595264"/>
+        <c:crossAx val="484924416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1950,7 +2031,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2016,6 +2097,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,7 +2115,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2091,6 +2181,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>11885188.111577189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12352482.451603269</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13220712.491976377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14028202.028995395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,7 +2232,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2199,6 +2298,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2316,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2274,6 +2382,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12486638.838606769</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12630024.911561659</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12976909.738864124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14415220.650412597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2433,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2382,6 +2499,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,7 +2517,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2457,6 +2583,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>601450.72702958062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>277542.4599583894</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-243802.7531122528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>387018.62141720206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,11 +2613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489912576"/>
-        <c:axId val="489926656"/>
+        <c:axId val="485064704"/>
+        <c:axId val="485066240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489912576"/>
+        <c:axId val="485064704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,14 +2660,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489926656"/>
+        <c:crossAx val="485066240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489926656"/>
+        <c:axId val="485066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2718,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489912576"/>
+        <c:crossAx val="485064704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2744,7 +2879,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2810,6 +2945,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>337749.47190853907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>467294.34002607979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>868230.04037310823</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>807489.53701901867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,8 +2968,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489940864"/>
-        <c:axId val="489939328"/>
+        <c:axId val="485085568"/>
+        <c:axId val="485079680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2850,7 +2994,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2916,6 +3060,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,7 +3078,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2991,6 +3144,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,11 +3169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489936000"/>
-        <c:axId val="489937536"/>
+        <c:axId val="485076352"/>
+        <c:axId val="485078144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489936000"/>
+        <c:axId val="485076352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,14 +3216,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489937536"/>
+        <c:crossAx val="485078144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489937536"/>
+        <c:axId val="485078144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,12 +3274,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489936000"/>
+        <c:crossAx val="485076352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489939328"/>
+        <c:axId val="485079680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,12 +3316,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489940864"/>
+        <c:crossAx val="485085568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489940864"/>
+        <c:axId val="485085568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489939328"/>
+        <c:crossAx val="485079680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3318,7 +3480,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3384,6 +3546,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,7 +3564,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3459,6 +3630,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>35663710.814917281</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36786147.71431727</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39215649.959529325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40777975.387659408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,7 +3681,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3567,6 +3747,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3576,7 +3765,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3642,6 +3831,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>36734968.051809333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36904485.59505818</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37810635.587163784</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41210976.197097443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,7 +3882,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3750,6 +3948,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,7 +3966,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3825,6 +4032,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1071257.236892052</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118337.88074091077</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1405014.3723655418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>433000.80943803489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,11 +4062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584788224"/>
-        <c:axId val="584794112"/>
+        <c:axId val="485498240"/>
+        <c:axId val="485512320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584788224"/>
+        <c:axId val="485498240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,14 +4109,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584794112"/>
+        <c:crossAx val="485512320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584794112"/>
+        <c:axId val="485512320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +4167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584788224"/>
+        <c:crossAx val="485498240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,7 +4328,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4178,6 +4394,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>956547.91831386578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1122436.8993999888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2429502.2452120553</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1562325.4281300842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,8 +4417,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585111040"/>
-        <c:axId val="585109504"/>
+        <c:axId val="485531648"/>
+        <c:axId val="485529856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4218,7 +4443,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4284,6 +4509,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4293,7 +4527,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4359,6 +4593,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,11 +4618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585106176"/>
-        <c:axId val="585107712"/>
+        <c:axId val="485526528"/>
+        <c:axId val="485528320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585106176"/>
+        <c:axId val="485526528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,14 +4665,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585107712"/>
+        <c:crossAx val="485528320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585107712"/>
+        <c:axId val="485528320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,12 +4723,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585106176"/>
+        <c:crossAx val="485526528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585109504"/>
+        <c:axId val="485529856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,12 +4765,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585111040"/>
+        <c:crossAx val="485531648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585111040"/>
+        <c:axId val="485531648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585109504"/>
+        <c:crossAx val="485529856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4668,7 +4911,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4734,6 +4977,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4748,8 +5000,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="623126016"/>
-        <c:axId val="623124480"/>
+        <c:axId val="551932288"/>
+        <c:axId val="551930112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4774,7 +5026,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4840,6 +5092,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4849,7 +5110,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4915,6 +5176,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,11 +5201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617275776"/>
-        <c:axId val="617277312"/>
+        <c:axId val="548727808"/>
+        <c:axId val="551928576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617275776"/>
+        <c:axId val="548727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,14 +5248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617277312"/>
+        <c:crossAx val="551928576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617277312"/>
+        <c:axId val="551928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5036,12 +5306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617275776"/>
+        <c:crossAx val="548727808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="623124480"/>
+        <c:axId val="551930112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,12 +5348,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623126016"/>
+        <c:crossAx val="551932288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="623126016"/>
+        <c:axId val="551932288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,7 +5362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623124480"/>
+        <c:crossAx val="551930112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5242,7 +5512,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5308,6 +5578,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5317,7 +5596,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5383,6 +5662,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5649161.7729154676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5811354.2079807855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6082748.5818746351</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6284943.531974853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,7 +5713,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5491,6 +5779,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5500,7 +5797,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5566,6 +5863,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5673901.6841965364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5688910.9032006897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5725477.0413834555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6205993.5156186232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5608,7 +5914,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5674,6 +5980,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,7 +5998,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5749,6 +6064,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24739.911281068809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-122443.30478009582</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-357271.54049117956</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-78950.016356229782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5770,11 +6094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656211968"/>
-        <c:axId val="656213504"/>
+        <c:axId val="555037824"/>
+        <c:axId val="555039744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656211968"/>
+        <c:axId val="555037824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5817,14 +6141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656213504"/>
+        <c:crossAx val="555039744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656213504"/>
+        <c:axId val="555039744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,7 +6199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656211968"/>
+        <c:crossAx val="555037824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6045,7 +6369,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6111,6 +6435,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>145789.79471647067</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162192.43506531834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271394.3738938499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202194.95010021751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,8 +6458,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="694043392"/>
-        <c:axId val="693926144"/>
+        <c:axId val="567490048"/>
+        <c:axId val="566177152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6151,7 +6484,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6217,6 +6550,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6226,7 +6568,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6292,6 +6634,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6308,11 +6659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679704832"/>
-        <c:axId val="693924224"/>
+        <c:axId val="559373312"/>
+        <c:axId val="566175616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="679704832"/>
+        <c:axId val="559373312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,14 +6706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693924224"/>
+        <c:crossAx val="566175616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="693924224"/>
+        <c:axId val="566175616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6413,12 +6764,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679704832"/>
+        <c:crossAx val="559373312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693926144"/>
+        <c:axId val="566177152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,12 +6806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694043392"/>
+        <c:crossAx val="567490048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="694043392"/>
+        <c:axId val="567490048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6469,7 +6820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="693926144"/>
+        <c:crossAx val="566177152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6619,7 +6970,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6685,6 +7036,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6694,7 +7054,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6760,6 +7120,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48364087.72191865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49430402.776348636</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51738429.909300089</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53222639.06602367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6802,7 +7171,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6868,6 +7237,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6877,7 +7255,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6943,6 +7321,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>49491428.45459871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49273916.609507725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49548003.133989498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53440793.3836805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6985,7 +7372,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7051,6 +7438,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7060,7 +7456,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7126,6 +7522,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1127340.73268006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-156486.16684091091</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2190426.7753105909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>218154.31765682995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7147,11 +7552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="719829632"/>
-        <c:axId val="719954304"/>
+        <c:axId val="608696192"/>
+        <c:axId val="608697728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="719829632"/>
+        <c:axId val="608696192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,14 +7599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719954304"/>
+        <c:crossAx val="608697728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="719954304"/>
+        <c:axId val="608697728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7252,7 +7657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719829632"/>
+        <c:crossAx val="608696192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7422,7 +7827,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7488,6 +7893,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>908720.52239817241</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1066315.0544299893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2308027.1329514524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1484209.1567235799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,8 +7916,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="372308608"/>
-        <c:axId val="372307072"/>
+        <c:axId val="484210176"/>
+        <c:axId val="484208640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7528,7 +7942,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7594,6 +8008,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7603,7 +8026,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7669,6 +8092,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7685,11 +8117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372295552"/>
-        <c:axId val="372297088"/>
+        <c:axId val="484205312"/>
+        <c:axId val="484206848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="372295552"/>
+        <c:axId val="484205312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7732,14 +8164,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372297088"/>
+        <c:crossAx val="484206848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="372297088"/>
+        <c:axId val="484206848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7790,12 +8222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372295552"/>
+        <c:crossAx val="484205312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372307072"/>
+        <c:axId val="484208640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7832,12 +8264,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372308608"/>
+        <c:crossAx val="484210176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="372308608"/>
+        <c:axId val="484210176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7846,7 +8278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372307072"/>
+        <c:crossAx val="484208640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7996,7 +8428,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8062,6 +8494,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8071,7 +8512,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8137,6 +8578,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2092635.7129204471</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2154448.6984049096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2269296.849315023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2376110.3387055136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8179,7 +8629,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8245,6 +8695,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8254,7 +8713,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8320,6 +8779,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2183212.8253780124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2188392.42120045</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2212907.5821836372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2427292.8610672029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8362,7 +8830,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8428,6 +8896,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8437,7 +8914,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8503,6 +8980,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>90577.112457565265</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33943.722795540467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-56389.267131385859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51182.522361689247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8524,11 +9010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476564480"/>
-        <c:axId val="476570368"/>
+        <c:axId val="484410112"/>
+        <c:axId val="484411648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476564480"/>
+        <c:axId val="484410112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8571,14 +9057,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476570368"/>
+        <c:crossAx val="484411648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476570368"/>
+        <c:axId val="484411648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8629,7 +9115,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476564480"/>
+        <c:crossAx val="484410112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8790,7 +9276,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8856,6 +9342,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44676.987106889028</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61812.985484462457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114848.15091011366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>106813.48939049043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8870,8 +9365,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489560320"/>
-        <c:axId val="489558784"/>
+        <c:axId val="484426880"/>
+        <c:axId val="484425088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8896,7 +9391,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8962,6 +9457,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8971,7 +9475,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9037,6 +9541,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9053,11 +9566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483448320"/>
-        <c:axId val="483449856"/>
+        <c:axId val="484422016"/>
+        <c:axId val="484423552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483448320"/>
+        <c:axId val="484422016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9100,14 +9613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483449856"/>
+        <c:crossAx val="484423552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483449856"/>
+        <c:axId val="484423552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,12 +9671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483448320"/>
+        <c:crossAx val="484422016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489558784"/>
+        <c:axId val="484425088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,12 +9713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489560320"/>
+        <c:crossAx val="484426880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489560320"/>
+        <c:axId val="484426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9214,7 +9727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489558784"/>
+        <c:crossAx val="484425088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9364,7 +9877,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9430,6 +9943,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9439,7 +9961,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9505,6 +10027,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4304464.5446080463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4475193.4236241709</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4760871.7119334862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4973708.5015126625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9547,7 +10078,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9613,6 +10144,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9622,7 +10162,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9688,6 +10228,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4355880.2086214861</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4413615.8611832699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4517107.849966431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4949526.0530064544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9730,7 +10279,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9796,6 +10345,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9805,7 +10363,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9871,6 +10429,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>51415.664013439789</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-61577.562440901063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-243763.86196705513</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24182.448506208137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9892,11 +10459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489577088"/>
-        <c:axId val="489578880"/>
+        <c:axId val="484905344"/>
+        <c:axId val="484906880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489577088"/>
+        <c:axId val="484905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9939,14 +10506,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489578880"/>
+        <c:crossAx val="484906880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489578880"/>
+        <c:axId val="484906880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,7 +10564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489577088"/>
+        <c:crossAx val="484905344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10083,14 +10650,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10849,7 +11416,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11086,11 +11653,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="27">
-        <v>3511692.6815237701</v>
+        <v>3518640.0716485097</v>
       </c>
       <c r="AA4" s="27">
         <f>-Z4</f>
-        <v>-3511692.6815237701</v>
+        <v>-3518640.0716485097</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="27"/>
@@ -11159,14 +11726,14 @@
         <v>-4.8683698456729256E-2</v>
       </c>
       <c r="W5" s="33">
-        <v>-4.5572950047727101E-2</v>
+        <v>-4.5834423753382425E-2</v>
       </c>
       <c r="Y5" s="42">
         <v>44925</v>
       </c>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27">
-        <v>3575030.9949550489</v>
+        <v>3580619.3649953026</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="27"/>
@@ -11216,7 +11783,7 @@
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="28">
-        <v>-4.5572950047727101E-2</v>
+        <v>-4.5834423753382425E-2</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
@@ -11931,6 +12498,120 @@
         <v>53001.153078743257</v>
       </c>
       <c r="L24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="31">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="29">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="29">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="30">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="30">
+        <v>5801485.6746106083</v>
+      </c>
+      <c r="H25" s="30">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="I25" s="30">
+        <v>4415397.7453730423</v>
+      </c>
+      <c r="J25" s="30">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="K25" s="30">
+        <v>-58482.078432301991</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="31">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="29">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="29">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="30">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="30">
+        <v>6198261.0592737757</v>
+      </c>
+      <c r="H26" s="30">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="I26" s="30">
+        <v>4701076.0336823575</v>
+      </c>
+      <c r="J26" s="30">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="K26" s="30">
+        <v>-238327.89367156755</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="31">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="29">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="29">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="30">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="30">
+        <v>6480164.0936093982</v>
+      </c>
+      <c r="H27" s="30">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="I27" s="30">
+        <v>4913912.8232615339</v>
+      </c>
+      <c r="J27" s="30">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="K27" s="30">
+        <v>-21388.963486268185</v>
+      </c>
+      <c r="L27" s="29">
         <v>0</v>
       </c>
     </row>
@@ -11950,7 +12631,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12206,11 +12887,11 @@
         <v>44925</v>
       </c>
       <c r="AA4" s="7">
-        <v>4929734.1316487892</v>
+        <v>4936141.2228610869</v>
       </c>
       <c r="AB4" s="7">
         <f>-AA4</f>
-        <v>-4929734.1316487892</v>
+        <v>-4936141.2228610869</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
@@ -12290,14 +12971,14 @@
         <v>-5.7405836568457255E-2</v>
       </c>
       <c r="X5" s="9">
-        <v>-5.3511597687478707E-2</v>
+        <v>-5.3676131859731302E-2</v>
       </c>
       <c r="Z5" s="42">
         <v>44925</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <v>5016358.5236119805</v>
+        <v>5021488.7754730703</v>
       </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="7"/>
@@ -12358,7 +13039,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <v>-5.3511597687478707E-2</v>
+        <v>-5.3676131859731302E-2</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -13277,6 +13958,156 @@
         <v>48.393213658495924</v>
       </c>
       <c r="P24" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>162192.43506531834</v>
+      </c>
+      <c r="F25" s="18">
+        <v>215968.62562693571</v>
+      </c>
+      <c r="G25" s="18">
+        <v>7575114.514949779</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="I25" s="18">
+        <v>5811354.2079807855</v>
+      </c>
+      <c r="J25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-122443.30478009582</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>271394.3738938499</v>
+      </c>
+      <c r="F26" s="18">
+        <v>376936.61543000949</v>
+      </c>
+      <c r="G26" s="18">
+        <v>7952051.1303797886</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="I26" s="18">
+        <v>6082748.5818746351</v>
+      </c>
+      <c r="J26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-357271.54049117956</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>202194.95010021751</v>
+      </c>
+      <c r="F27" s="18">
+        <v>267807.88261884107</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8219859.0129986294</v>
+      </c>
+      <c r="H27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="I27" s="18">
+        <v>6284943.531974853</v>
+      </c>
+      <c r="J27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-78950.016356229782</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -13296,7 +14127,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13552,11 +14383,11 @@
         <v>44925</v>
       </c>
       <c r="AA4" s="7">
-        <v>44815025.469250679</v>
+        <v>44876935.423337787</v>
       </c>
       <c r="AB4" s="7">
         <f>-AA4</f>
-        <v>-44815025.469250679</v>
+        <v>-44876935.423337787</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
@@ -13636,14 +14467,14 @@
         <v>-3.9108504404601833E-2</v>
       </c>
       <c r="X5" s="9">
-        <v>-3.7726903588423899E-2</v>
+        <v>-3.7943302629694475E-2</v>
       </c>
       <c r="Z5" s="42">
         <v>44925</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <v>44494462.058331147</v>
+        <v>44543708.829216212</v>
       </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="7"/>
@@ -13704,7 +14535,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <v>-3.7726903588423899E-2</v>
+        <v>-3.7943302629694475E-2</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -14623,6 +15454,156 @@
         <v>48.393213658495924</v>
       </c>
       <c r="P24" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1066315.0544299893</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1419860.2832358552</v>
+      </c>
+      <c r="G25" s="18">
+        <v>65611075.172069624</v>
+      </c>
+      <c r="H25" s="18">
+        <v>49273916.609507725</v>
+      </c>
+      <c r="I25" s="18">
+        <v>49430402.776348636</v>
+      </c>
+      <c r="J25" s="18">
+        <v>49273916.609507725</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-156486.16684091091</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2308027.1329514524</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3205593.1128315246</v>
+      </c>
+      <c r="G26" s="18">
+        <v>68816668.284901142</v>
+      </c>
+      <c r="H26" s="18">
+        <v>49548003.133989498</v>
+      </c>
+      <c r="I26" s="18">
+        <v>51738429.909300089</v>
+      </c>
+      <c r="J26" s="18">
+        <v>49548003.133989498</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-2190426.7753105909</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1484209.1567235799</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1965839.9550959407</v>
+      </c>
+      <c r="G27" s="18">
+        <v>70782508.239997089</v>
+      </c>
+      <c r="H27" s="18">
+        <v>53440793.3836805</v>
+      </c>
+      <c r="I27" s="18">
+        <v>53222639.06602367</v>
+      </c>
+      <c r="J27" s="18">
+        <v>53440793.3836805</v>
+      </c>
+      <c r="K27" s="18">
+        <v>218154.31765682995</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -14642,7 +15623,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14922,11 +15903,11 @@
         <v>44925</v>
       </c>
       <c r="AC4" s="7">
-        <v>1944948.3031127355</v>
+        <v>1946954.1077740435</v>
       </c>
       <c r="AD4" s="7">
         <f>-AC4</f>
-        <v>-1944948.3031127355</v>
+        <v>-1946954.1077740435</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
@@ -15012,14 +15993,14 @@
         <v>-1.8918953512681497E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>-1.8363860705057022E-2</v>
+        <v>-1.8554907125104769E-2</v>
       </c>
       <c r="AB5" s="42">
         <v>44925</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>1947501.5562835776</v>
+        <v>1949083.6732141678</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
@@ -15086,7 +16067,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <v>-1.8363860705057022E-2</v>
+        <v>-1.8554907125104769E-2</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -16113,6 +17094,174 @@
         <v>48.393213658495924</v>
       </c>
       <c r="R24" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>61812.985484462457</v>
+      </c>
+      <c r="H25" s="18">
+        <v>82307.571962902526</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2913971.3165335217</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2188392.42120045</v>
+      </c>
+      <c r="K25" s="18">
+        <v>2154448.6984049096</v>
+      </c>
+      <c r="L25" s="18">
+        <v>2188392.42120045</v>
+      </c>
+      <c r="M25" s="18">
+        <v>33943.722795540467</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>114848.15091011366</v>
+      </c>
+      <c r="H26" s="18">
+        <v>159511.31437008103</v>
+      </c>
+      <c r="I26" s="18">
+        <v>3073482.6309036026</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2212907.5821836372</v>
+      </c>
+      <c r="K26" s="18">
+        <v>2269296.849315023</v>
+      </c>
+      <c r="L26" s="18">
+        <v>2212907.5821836372</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-56389.267131385859</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>106813.48939049043</v>
+      </c>
+      <c r="H27" s="18">
+        <v>141474.82127827147</v>
+      </c>
+      <c r="I27" s="18">
+        <v>3214957.4521818738</v>
+      </c>
+      <c r="J27" s="18">
+        <v>2427292.8610672029</v>
+      </c>
+      <c r="K27" s="18">
+        <v>2376110.3387055136</v>
+      </c>
+      <c r="L27" s="18">
+        <v>2427292.8610672029</v>
+      </c>
+      <c r="M27" s="18">
+        <v>51182.522361689247</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="P27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="R27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16132,7 +17281,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16413,11 +17562,11 @@
         <v>44925</v>
       </c>
       <c r="AC4" s="7">
-        <v>3571496.3452997627</v>
+        <v>3578435.7498996384</v>
       </c>
       <c r="AD4" s="7">
         <f>-AC4</f>
-        <v>-3571496.3452997627</v>
+        <v>-3578435.7498996384</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
@@ -16500,14 +17649,14 @@
         <v>-4.9284798326427071E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>-4.6188071097940209E-2</v>
+        <v>-4.6444563089133917E-2</v>
       </c>
       <c r="AB5" s="42">
         <v>44925</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>3629624.4905932853</v>
+        <v>3635205.570817343</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
@@ -16571,7 +17720,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <v>-4.6188071097940209E-2</v>
+        <v>-4.6444563089133917E-2</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -17544,6 +18693,165 @@
         <v>59.008717736258845</v>
       </c>
       <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="18">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="18">
+        <v>5876985.2687711362</v>
+      </c>
+      <c r="H25" s="18">
+        <v>4413615.8611832699</v>
+      </c>
+      <c r="I25" s="18">
+        <v>4475193.4236241709</v>
+      </c>
+      <c r="J25" s="18">
+        <v>4413615.8611832699</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-61577.562440901063</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N25" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O25" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P25" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="18">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6273760.6534343045</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4517107.849966431</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4760871.7119334862</v>
+      </c>
+      <c r="J26" s="18">
+        <v>4517107.849966431</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-243763.86196705513</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N26" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O26" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P26" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="18">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6555663.6877699271</v>
+      </c>
+      <c r="H27" s="18">
+        <v>4949526.0530064544</v>
+      </c>
+      <c r="I27" s="18">
+        <v>4973708.5015126625</v>
+      </c>
+      <c r="J27" s="18">
+        <v>4949526.0530064544</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-24182.448506208137</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>31.818216710700341</v>
+      </c>
+      <c r="N27" s="21">
+        <v>41.331767099766601</v>
+      </c>
+      <c r="O27" s="21">
+        <v>40.66355393645086</v>
+      </c>
+      <c r="P27" s="21">
+        <v>42.668193426398076</v>
+      </c>
+      <c r="Q27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -17563,7 +18871,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17821,11 +19129,11 @@
         <v>44925</v>
       </c>
       <c r="AC4" s="7">
-        <v>10752398.792524347</v>
+        <v>10768225.868522482</v>
       </c>
       <c r="AD4" s="7">
         <f>-AC4</f>
-        <v>-10752398.792524347</v>
+        <v>-10768225.868522482</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
@@ -17900,14 +19208,14 @@
         <v>-1.0056834780816586E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>-9.6197799803419137E-3</v>
+        <v>-9.8969303308865664E-3</v>
       </c>
       <c r="AB5" s="42">
         <v>44925</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>10824178.850611808</v>
+        <v>10836771.20417548</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="7"/>
@@ -17963,7 +19271,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <v>-9.6197799803419137E-3</v>
+        <v>-9.8969303308865664E-3</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -18786,6 +20094,138 @@
         <v>601450.72702958062</v>
       </c>
       <c r="N24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>467294.34002607979</v>
+      </c>
+      <c r="H25" s="18">
+        <v>622229.49139419128</v>
+      </c>
+      <c r="I25" s="18">
+        <v>16817610.024076853</v>
+      </c>
+      <c r="J25" s="18">
+        <v>12630024.911561659</v>
+      </c>
+      <c r="K25" s="18">
+        <v>12352482.451603269</v>
+      </c>
+      <c r="L25" s="18">
+        <v>12630024.911561659</v>
+      </c>
+      <c r="M25" s="18">
+        <v>277542.4599583894</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>868230.04037310823</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1205875.0081565937</v>
+      </c>
+      <c r="I26" s="18">
+        <v>18023485.032233447</v>
+      </c>
+      <c r="J26" s="18">
+        <v>12976909.738864124</v>
+      </c>
+      <c r="K26" s="18">
+        <v>13220712.491976377</v>
+      </c>
+      <c r="L26" s="18">
+        <v>12976909.738864124</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-243802.7531122528</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>807489.53701901867</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1069522.5723429136</v>
+      </c>
+      <c r="I27" s="18">
+        <v>19093007.60457636</v>
+      </c>
+      <c r="J27" s="18">
+        <v>14415220.650412597</v>
+      </c>
+      <c r="K27" s="18">
+        <v>14028202.028995395</v>
+      </c>
+      <c r="L27" s="18">
+        <v>14415220.650412597</v>
+      </c>
+      <c r="M27" s="18">
+        <v>387018.62141720206</v>
+      </c>
+      <c r="N27" s="17">
         <v>0</v>
       </c>
     </row>
@@ -18805,7 +20245,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19042,11 +20482,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="7">
-        <v>31618375.975981474</v>
+        <v>31686237.028773796</v>
       </c>
       <c r="AA4" s="7">
         <f>-Z4</f>
-        <v>-31618375.975981474</v>
+        <v>-31686237.028773796</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="7"/>
@@ -19115,14 +20555,14 @@
         <v>-3.1209480174315057E-2</v>
       </c>
       <c r="W5" s="9">
-        <v>-3.0047919023080905E-2</v>
+        <v>-3.0390370567539127E-2</v>
       </c>
       <c r="Y5" s="42">
         <v>44925</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7">
-        <v>31520670.812874004</v>
+        <v>31575040.017907716</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="7"/>
@@ -19172,7 +20612,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="8">
-        <v>-3.0047919023080905E-2</v>
+        <v>-3.0390370567539127E-2</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -19887,6 +21327,120 @@
         <v>1071257.236892052</v>
       </c>
       <c r="L24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1122436.8993999888</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1494589.771827216</v>
+      </c>
+      <c r="G25" s="18">
+        <v>49140461.02226647</v>
+      </c>
+      <c r="H25" s="18">
+        <v>36904485.59505818</v>
+      </c>
+      <c r="I25" s="18">
+        <v>36786147.71431727</v>
+      </c>
+      <c r="J25" s="18">
+        <v>36904485.59505818</v>
+      </c>
+      <c r="K25" s="18">
+        <v>118337.88074091077</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2429502.2452120553</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3374308.5398226576</v>
+      </c>
+      <c r="G26" s="18">
+        <v>52514769.56208913</v>
+      </c>
+      <c r="H26" s="18">
+        <v>37810635.587163784</v>
+      </c>
+      <c r="I26" s="18">
+        <v>39215649.959529325</v>
+      </c>
+      <c r="J26" s="18">
+        <v>37810635.587163784</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-1405014.3723655418</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1562325.4281300842</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2069305.2158904641</v>
+      </c>
+      <c r="G27" s="18">
+        <v>54584074.777979597</v>
+      </c>
+      <c r="H27" s="18">
+        <v>41210976.197097443</v>
+      </c>
+      <c r="I27" s="18">
+        <v>40777975.387659408</v>
+      </c>
+      <c r="J27" s="18">
+        <v>41210976.197097443</v>
+      </c>
+      <c r="K27" s="18">
+        <v>433000.80943803489</v>
+      </c>
+      <c r="L27" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -582,7 +582,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -657,6 +657,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,7 +669,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -741,6 +744,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4913912.8232615339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5099420.2574212886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +789,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -858,6 +864,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +876,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -942,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4892523.8597752657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5116912.1641673045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +996,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1059,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,7 +1083,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-21388.963486268185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17491.906746015884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,11 +1182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503442432"/>
-        <c:axId val="503875840"/>
+        <c:axId val="391502848"/>
+        <c:axId val="396612352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503442432"/>
+        <c:axId val="391502848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,14 +1229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503875840"/>
+        <c:crossAx val="396612352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503875840"/>
+        <c:axId val="396612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503442432"/>
+        <c:crossAx val="391502848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,7 +1448,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1505,6 +1523,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,8 +1540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484926208"/>
-        <c:axId val="484924416"/>
+        <c:axId val="395549312"/>
+        <c:axId val="395547776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1545,7 +1566,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1620,6 +1641,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1653,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1704,6 +1728,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,11 +1747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484921344"/>
-        <c:axId val="484922880"/>
+        <c:axId val="395544448"/>
+        <c:axId val="395545984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484921344"/>
+        <c:axId val="395544448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,14 +1794,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484922880"/>
+        <c:crossAx val="395545984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484922880"/>
+        <c:axId val="395545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,12 +1852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484921344"/>
+        <c:crossAx val="395544448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484924416"/>
+        <c:axId val="395547776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +1894,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484926208"/>
+        <c:crossAx val="395549312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484926208"/>
+        <c:axId val="395549312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484924416"/>
+        <c:crossAx val="395547776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2031,7 +2058,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2106,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,7 +2145,7 @@
               <c:f>'model4(3)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2190,6 +2220,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14028202.028995395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14648769.151263818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,7 +2265,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2307,6 +2340,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2352,7 @@
               <c:f>'model4(3)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2391,6 +2427,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14415220.650412597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15150345.481451025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2472,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2508,6 +2547,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,7 +2559,7 @@
               <c:f>'model4(3)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2592,6 +2634,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>387018.62141720206</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>501576.33018720709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,11 +2658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485064704"/>
-        <c:axId val="485066240"/>
+        <c:axId val="396601216"/>
+        <c:axId val="396602752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485064704"/>
+        <c:axId val="396601216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,14 +2705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485066240"/>
+        <c:crossAx val="396602752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485066240"/>
+        <c:axId val="396602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485064704"/>
+        <c:crossAx val="396601216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2879,7 +2924,7 @@
               <c:f>'model4(3)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2954,6 +2999,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>807489.53701901867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>620567.12226842251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,8 +3016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485085568"/>
-        <c:axId val="485079680"/>
+        <c:axId val="396773632"/>
+        <c:axId val="396772096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2994,7 +3042,7 @@
               <c:f>'model4(3)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3069,6 +3117,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3129,7 @@
               <c:f>'model4(3)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3153,6 +3204,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,11 +3223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485076352"/>
-        <c:axId val="485078144"/>
+        <c:axId val="396760576"/>
+        <c:axId val="396762112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485076352"/>
+        <c:axId val="396760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,14 +3270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485078144"/>
+        <c:crossAx val="396762112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485078144"/>
+        <c:axId val="396762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,12 +3328,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485076352"/>
+        <c:crossAx val="396760576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485079680"/>
+        <c:axId val="396772096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,12 +3370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485085568"/>
+        <c:crossAx val="396773632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485085568"/>
+        <c:axId val="396773632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485079680"/>
+        <c:crossAx val="396772096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3534,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3555,6 +3609,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,7 +3621,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3639,6 +3696,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>40777975.387659408</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42049261.872481778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,7 +3741,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3756,6 +3816,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,7 +3828,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3840,6 +3903,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>41210976.197097443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42809766.167562231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,7 +3948,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3957,6 +4023,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,7 +4035,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4041,6 +4110,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>433000.80943803489</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>760504.29508045316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,11 +4134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485498240"/>
-        <c:axId val="485512320"/>
+        <c:axId val="396806016"/>
+        <c:axId val="396807552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485498240"/>
+        <c:axId val="396806016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,14 +4181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485512320"/>
+        <c:crossAx val="396807552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485512320"/>
+        <c:axId val="396807552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +4239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485498240"/>
+        <c:crossAx val="396806016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4328,7 +4400,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4403,6 +4475,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1562325.4281300842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1271286.4848223685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,8 +4492,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485531648"/>
-        <c:axId val="485529856"/>
+        <c:axId val="397613312"/>
+        <c:axId val="397611776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4443,7 +4518,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4518,6 +4593,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,7 +4605,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4602,6 +4680,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4618,11 +4699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485526528"/>
-        <c:axId val="485528320"/>
+        <c:axId val="397608448"/>
+        <c:axId val="397609984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485526528"/>
+        <c:axId val="397608448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,14 +4746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485528320"/>
+        <c:crossAx val="397609984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485528320"/>
+        <c:axId val="397609984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,12 +4804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485526528"/>
+        <c:crossAx val="397608448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485529856"/>
+        <c:axId val="397611776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4765,12 +4846,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485531648"/>
+        <c:crossAx val="397613312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485531648"/>
+        <c:axId val="397613312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485529856"/>
+        <c:crossAx val="397611776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4911,7 +4992,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4986,6 +5067,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5000,8 +5084,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="551932288"/>
-        <c:axId val="551930112"/>
+        <c:axId val="557336448"/>
+        <c:axId val="557334912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5026,7 +5110,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5101,6 +5185,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5197,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5185,6 +5272,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,11 +5291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548727808"/>
-        <c:axId val="551928576"/>
+        <c:axId val="521065216"/>
+        <c:axId val="521067136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548727808"/>
+        <c:axId val="521065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,14 +5338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551928576"/>
+        <c:crossAx val="521067136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551928576"/>
+        <c:axId val="521067136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5306,12 +5396,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548727808"/>
+        <c:crossAx val="521065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551930112"/>
+        <c:axId val="557334912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,12 +5438,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551932288"/>
+        <c:crossAx val="557336448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="551932288"/>
+        <c:axId val="557336448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +5452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551930112"/>
+        <c:crossAx val="557334912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5512,7 +5602,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5587,6 +5677,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5596,7 +5689,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5671,6 +5764,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6284943.531974853</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6461175.5944266198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,7 +5809,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5788,6 +5884,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,7 +5896,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5872,6 +5971,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6205993.5156186232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6431544.5871256161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,7 +6016,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5989,6 +6091,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5998,7 +6103,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6073,6 +6178,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-78950.016356229782</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29631.007301003672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,11 +6202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555037824"/>
-        <c:axId val="555039744"/>
+        <c:axId val="603290240"/>
+        <c:axId val="390812032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555037824"/>
+        <c:axId val="603290240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6141,14 +6249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555039744"/>
+        <c:crossAx val="390812032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555039744"/>
+        <c:axId val="390812032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,7 +6307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555037824"/>
+        <c:crossAx val="603290240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6369,7 +6477,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6444,6 +6552,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>202194.95010021751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176232.06245176709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6458,8 +6569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="567490048"/>
-        <c:axId val="566177152"/>
+        <c:axId val="390827392"/>
+        <c:axId val="390825856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6484,7 +6595,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6559,6 +6670,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,7 +6682,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6643,6 +6757,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6659,11 +6776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559373312"/>
-        <c:axId val="566175616"/>
+        <c:axId val="390822528"/>
+        <c:axId val="390824320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559373312"/>
+        <c:axId val="390822528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,14 +6823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566175616"/>
+        <c:crossAx val="390824320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566175616"/>
+        <c:axId val="390824320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6764,12 +6881,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559373312"/>
+        <c:crossAx val="390822528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566177152"/>
+        <c:axId val="390825856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,12 +6923,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567490048"/>
+        <c:crossAx val="390827392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="567490048"/>
+        <c:axId val="390827392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6820,7 +6937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566177152"/>
+        <c:crossAx val="390825856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6970,7 +7087,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7045,6 +7162,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7054,7 +7174,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7129,6 +7249,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53222639.06602367</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54430361.226604924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7171,7 +7294,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7246,6 +7369,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7255,7 +7381,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7330,6 +7456,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53440793.3836805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55073209.344887719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7372,7 +7501,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7447,6 +7576,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7456,7 +7588,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7531,6 +7663,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>218154.31765682995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>642848.11828279495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7552,11 +7687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608696192"/>
-        <c:axId val="608697728"/>
+        <c:axId val="390847104"/>
+        <c:axId val="390852992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608696192"/>
+        <c:axId val="390847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7599,14 +7734,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608697728"/>
+        <c:crossAx val="390852992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608697728"/>
+        <c:axId val="390852992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7657,7 +7792,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608696192"/>
+        <c:crossAx val="390847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7827,7 +7962,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7902,6 +8037,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1484209.1567235799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1207722.16058125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7916,8 +8054,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484210176"/>
-        <c:axId val="484208640"/>
+        <c:axId val="391482752"/>
+        <c:axId val="391481216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7942,7 +8080,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8017,6 +8155,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8026,7 +8167,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8101,6 +8242,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8117,11 +8261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484205312"/>
-        <c:axId val="484206848"/>
+        <c:axId val="391473792"/>
+        <c:axId val="391479680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484205312"/>
+        <c:axId val="391473792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8164,14 +8308,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484206848"/>
+        <c:crossAx val="391479680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484206848"/>
+        <c:axId val="391479680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8222,12 +8366,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484205312"/>
+        <c:crossAx val="391473792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484208640"/>
+        <c:axId val="391481216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8264,12 +8408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484210176"/>
+        <c:crossAx val="391482752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484210176"/>
+        <c:axId val="391482752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,7 +8422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484208640"/>
+        <c:crossAx val="391481216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8428,7 +8572,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8503,6 +8647,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8512,7 +8659,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8587,6 +8734,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2376110.3387055136</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2458198.0150055774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8629,7 +8779,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8704,6 +8854,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8713,7 +8866,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8788,6 +8941,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2427292.8610672029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2528670.2253589444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,7 +8986,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8905,6 +9061,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8914,7 +9073,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8989,6 +9148,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>51182.522361689247</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70472.210353367031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9010,11 +9172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484410112"/>
-        <c:axId val="484411648"/>
+        <c:axId val="394623616"/>
+        <c:axId val="394637696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484410112"/>
+        <c:axId val="394623616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9057,14 +9219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484411648"/>
+        <c:crossAx val="394637696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484411648"/>
+        <c:axId val="394637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9115,7 +9277,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484410112"/>
+        <c:crossAx val="394623616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9276,7 +9438,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9351,6 +9513,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>106813.48939049043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82087.676300063496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9365,8 +9530,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484426880"/>
-        <c:axId val="484425088"/>
+        <c:axId val="394656768"/>
+        <c:axId val="394655232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9391,7 +9556,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9466,6 +9631,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9475,7 +9643,7 @@
               <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9550,6 +9718,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9566,11 +9737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484422016"/>
-        <c:axId val="484423552"/>
+        <c:axId val="394651904"/>
+        <c:axId val="394653696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484422016"/>
+        <c:axId val="394651904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9613,14 +9784,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484423552"/>
+        <c:crossAx val="394653696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484423552"/>
+        <c:axId val="394653696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9671,12 +9842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484422016"/>
+        <c:crossAx val="394651904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484425088"/>
+        <c:axId val="394655232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9713,12 +9884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484426880"/>
+        <c:crossAx val="394656768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484426880"/>
+        <c:axId val="394656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9727,7 +9898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484425088"/>
+        <c:crossAx val="394655232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9877,7 +10048,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9952,6 +10123,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9961,7 +10135,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10036,6 +10210,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4973708.5015126625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5159215.9356724173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10078,7 +10255,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10153,6 +10330,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10162,7 +10342,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10237,6 +10417,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4949526.0530064544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5174367.3536314191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10279,7 +10462,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10354,6 +10537,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10363,7 +10549,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10438,6 +10624,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-24182.448506208137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15151.417959001847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10459,11 +10648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484905344"/>
-        <c:axId val="484906880"/>
+        <c:axId val="395524352"/>
+        <c:axId val="395526144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484905344"/>
+        <c:axId val="395524352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10506,14 +10695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484906880"/>
+        <c:crossAx val="395526144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484906880"/>
+        <c:axId val="395526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10564,7 +10753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484905344"/>
+        <c:crossAx val="395524352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11416,7 +11605,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12615,6 +12804,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="31">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="29">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="29">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="30">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="30">
+        <v>6723932.0826014131</v>
+      </c>
+      <c r="H28" s="30">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="I28" s="30">
+        <v>5099420.2574212886</v>
+      </c>
+      <c r="J28" s="30">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="K28" s="30">
+        <v>17491.906746015884</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12631,7 +12858,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14111,6 +14338,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>176232.06245176709</v>
+      </c>
+      <c r="F28" s="18">
+        <v>231579.58954241459</v>
+      </c>
+      <c r="G28" s="18">
+        <v>8451438.6025410444</v>
+      </c>
+      <c r="H28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6461175.5944266198</v>
+      </c>
+      <c r="J28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-29631.007301003672</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14127,7 +14404,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15607,6 +15884,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1207722.16058125</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1587019.9686576929</v>
+      </c>
+      <c r="G28" s="18">
+        <v>72369528.208654776</v>
+      </c>
+      <c r="H28" s="18">
+        <v>55073209.344887719</v>
+      </c>
+      <c r="I28" s="18">
+        <v>54430361.226604924</v>
+      </c>
+      <c r="J28" s="18">
+        <v>55073209.344887719</v>
+      </c>
+      <c r="K28" s="18">
+        <v>642848.11828279495</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15623,7 +15950,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17265,6 +17592,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>82087.676300063496</v>
+      </c>
+      <c r="H28" s="18">
+        <v>107868.17177074174</v>
+      </c>
+      <c r="I28" s="18">
+        <v>3322825.6239526155</v>
+      </c>
+      <c r="J28" s="18">
+        <v>2528670.2253589444</v>
+      </c>
+      <c r="K28" s="18">
+        <v>2458198.0150055774</v>
+      </c>
+      <c r="L28" s="18">
+        <v>2528670.2253589444</v>
+      </c>
+      <c r="M28" s="18">
+        <v>70472.210353367031</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="P28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -17281,7 +17664,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18855,6 +19238,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="18">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6799431.676761942</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5174367.3536314191</v>
+      </c>
+      <c r="I28" s="18">
+        <v>5159215.9356724173</v>
+      </c>
+      <c r="J28" s="18">
+        <v>5174367.3536314191</v>
+      </c>
+      <c r="K28" s="18">
+        <v>15151.417959001847</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>58.333337096251995</v>
+      </c>
+      <c r="N28" s="21">
+        <v>46.998957098595064</v>
+      </c>
+      <c r="O28" s="21">
+        <v>42.775354990498926</v>
+      </c>
+      <c r="P28" s="21">
+        <v>55.446161314787332</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18871,7 +19307,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20229,6 +20665,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>620567.12226842251</v>
+      </c>
+      <c r="H28" s="18">
+        <v>815462.73396063119</v>
+      </c>
+      <c r="I28" s="18">
+        <v>19908470.338536993</v>
+      </c>
+      <c r="J28" s="18">
+        <v>15150345.481451025</v>
+      </c>
+      <c r="K28" s="18">
+        <v>14648769.151263818</v>
+      </c>
+      <c r="L28" s="18">
+        <v>15150345.481451025</v>
+      </c>
+      <c r="M28" s="18">
+        <v>501576.33018720709</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20245,7 +20725,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21444,6 +21924,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1271286.4848223685</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1670547.3354291506</v>
+      </c>
+      <c r="G28" s="18">
+        <v>56254622.113408744</v>
+      </c>
+      <c r="H28" s="18">
+        <v>42809766.167562231</v>
+      </c>
+      <c r="I28" s="18">
+        <v>42049261.872481778</v>
+      </c>
+      <c r="J28" s="18">
+        <v>42809766.167562231</v>
+      </c>
+      <c r="K28" s="18">
+        <v>760504.29508045316</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
     <sheet name="model4(1)&amp;RSI" sheetId="11" r:id="rId2"/>
     <sheet name="model4(3)&amp;RSI" sheetId="15" r:id="rId3"/>
-    <sheet name="model4(3)turnover&amp;RSI" sheetId="13" r:id="rId4"/>
+    <sheet name="model4(3)vol&amp;RSI" sheetId="13" r:id="rId4"/>
     <sheet name="model4(1)&amp;KDJ" sheetId="10" r:id="rId5"/>
-    <sheet name="model4(3)turnover" sheetId="9" r:id="rId6"/>
+    <sheet name="model4(3)vol" sheetId="9" r:id="rId6"/>
     <sheet name="model4(3)" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -21,50 +21,50 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model4(1)&amp;RSI'!$Q$1:$Q$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'model4(3)'!$P$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model4(3)&amp;RSI'!$Q$1:$Q$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model4(3)turnover'!$S$1:$S$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)turnover&amp;RSI'!$S$1:$S$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model4(3)vol'!$S$1:$S$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)vol&amp;RSI'!$S$1:$S$23</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="4">OFFSET('model4(1)&amp;KDJ'!K1,0,0,COUNTA('model4(1)&amp;KDJ'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model4(1)&amp;RSI'!K1,0,0,COUNTA('model4(1)&amp;RSI'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="6">OFFSET('model4(3)'!K1,0,0,COUNTA('model4(3)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model4(3)&amp;RSI'!K1,0,0,COUNTA('model4(3)&amp;RSI'!K:K)-1)</definedName>
-    <definedName name="金额" localSheetId="5">OFFSET('model4(3)turnover'!M1,0,0,COUNTA('model4(3)turnover'!M:M)-1)</definedName>
-    <definedName name="金额" localSheetId="3">OFFSET('model4(3)turnover&amp;RSI'!M1,0,0,COUNTA('model4(3)turnover&amp;RSI'!M:M)-1)</definedName>
+    <definedName name="金额" localSheetId="5">OFFSET('model4(3)vol'!M1,0,0,COUNTA('model4(3)vol'!M:M)-1)</definedName>
+    <definedName name="金额" localSheetId="3">OFFSET('model4(3)vol&amp;RSI'!M1,0,0,COUNTA('model4(3)vol&amp;RSI'!M:M)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="4">OFFSET('model4(1)&amp;KDJ'!E1,0,0,COUNTA('model4(1)&amp;KDJ'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="1">OFFSET('model4(1)&amp;RSI'!E1,0,0,COUNTA('model4(1)&amp;RSI'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="6">OFFSET('model4(3)'!E1,0,0,COUNTA('model4(3)'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="2">OFFSET('model4(3)&amp;RSI'!E1,0,0,COUNTA('model4(3)&amp;RSI'!E:E)-2)</definedName>
-    <definedName name="买卖" localSheetId="5">OFFSET('model4(3)turnover'!G1,0,0,COUNTA('model4(3)turnover'!G:G)-2)</definedName>
-    <definedName name="买卖" localSheetId="3">OFFSET('model4(3)turnover&amp;RSI'!G1,0,0,COUNTA('model4(3)turnover&amp;RSI'!G:G)-2)</definedName>
+    <definedName name="买卖" localSheetId="5">OFFSET('model4(3)vol'!G1,0,0,COUNTA('model4(3)vol'!G:G)-2)</definedName>
+    <definedName name="买卖" localSheetId="3">OFFSET('model4(3)vol&amp;RSI'!G1,0,0,COUNTA('model4(3)vol&amp;RSI'!G:G)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="4">OFFSET('model4(1)&amp;KDJ'!A1,0,0,COUNTA('model4(1)&amp;KDJ'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model4(1)&amp;RSI'!A1,0,0,COUNTA('model4(1)&amp;RSI'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="6">OFFSET('model4(3)'!A1,0,0,COUNTA('model4(3)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="2">OFFSET('model4(3)&amp;RSI'!A1,0,0,COUNTA('model4(3)&amp;RSI'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="5">OFFSET('model4(3)turnover'!A1,0,0,COUNTA('model4(3)turnover'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="3">OFFSET('model4(3)turnover&amp;RSI'!A1,0,0,COUNTA('model4(3)turnover&amp;RSI'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="5">OFFSET('model4(3)vol'!A1,0,0,COUNTA('model4(3)vol'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="3">OFFSET('model4(3)vol&amp;RSI'!A1,0,0,COUNTA('model4(3)vol&amp;RSI'!A:A)-1)</definedName>
     <definedName name="指数" localSheetId="0">OFFSET('model4(1)'!B1,0,0,COUNTA('model4(1)'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="4">OFFSET('model4(1)&amp;KDJ'!B1,0,0,COUNTA('model4(1)&amp;KDJ'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="1">OFFSET('model4(1)&amp;RSI'!B1,0,0,COUNTA('model4(1)&amp;RSI'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="6">OFFSET('model4(3)'!B1,0,0,COUNTA('model4(3)'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="2">OFFSET('model4(3)&amp;RSI'!B1,0,0,COUNTA('model4(3)&amp;RSI'!B:B)-1)</definedName>
-    <definedName name="指数" localSheetId="5">OFFSET('model4(3)turnover'!B1,0,0,COUNTA('model4(3)turnover'!B:B)-1)</definedName>
-    <definedName name="指数" localSheetId="3">OFFSET('model4(3)turnover&amp;RSI'!B1,0,0,COUNTA('model4(3)turnover&amp;RSI'!B:B)-1)</definedName>
+    <definedName name="指数" localSheetId="5">OFFSET('model4(3)vol'!B1,0,0,COUNTA('model4(3)vol'!B:B)-1)</definedName>
+    <definedName name="指数" localSheetId="3">OFFSET('model4(3)vol&amp;RSI'!B1,0,0,COUNTA('model4(3)vol&amp;RSI'!B:B)-1)</definedName>
     <definedName name="资产" localSheetId="0">OFFSET('model4(1)'!J1,0,0,COUNTA('model4(1)'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="4">OFFSET('model4(1)&amp;KDJ'!J1,0,0,COUNTA('model4(1)&amp;KDJ'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="1">OFFSET('model4(1)&amp;RSI'!J1,0,0,COUNTA('model4(1)&amp;RSI'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="6">OFFSET('model4(3)'!J1,0,0,COUNTA('model4(3)'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="2">OFFSET('model4(3)&amp;RSI'!J1,0,0,COUNTA('model4(3)&amp;RSI'!J:J)-1)</definedName>
-    <definedName name="资产" localSheetId="5">OFFSET('model4(3)turnover'!L1,0,0,COUNTA('model4(3)turnover'!L:L)-1)</definedName>
-    <definedName name="资产" localSheetId="3">OFFSET('model4(3)turnover&amp;RSI'!L1,0,0,COUNTA('model4(3)turnover&amp;RSI'!L:L)-1)</definedName>
+    <definedName name="资产" localSheetId="5">OFFSET('model4(3)vol'!L1,0,0,COUNTA('model4(3)vol'!L:L)-1)</definedName>
+    <definedName name="资产" localSheetId="3">OFFSET('model4(3)vol&amp;RSI'!L1,0,0,COUNTA('model4(3)vol&amp;RSI'!L:L)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model4(1)'!I1,0,0,COUNTA('model4(1)'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="4">OFFSET('model4(1)&amp;KDJ'!I1,0,0,COUNTA('model4(1)&amp;KDJ'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="1">OFFSET('model4(1)&amp;RSI'!I1,0,0,COUNTA('model4(1)&amp;RSI'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="6">OFFSET('model4(3)'!I1,0,0,COUNTA('model4(3)'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="2">OFFSET('model4(3)&amp;RSI'!I1,0,0,COUNTA('model4(3)&amp;RSI'!I:I)-1)</definedName>
-    <definedName name="资金" localSheetId="5">OFFSET('model4(3)turnover'!K1,0,0,COUNTA('model4(3)turnover'!K:K)-1)</definedName>
-    <definedName name="资金" localSheetId="3">OFFSET('model4(3)turnover&amp;RSI'!K1,0,0,COUNTA('model4(3)turnover&amp;RSI'!K:K)-1)</definedName>
+    <definedName name="资金" localSheetId="5">OFFSET('model4(3)vol'!K1,0,0,COUNTA('model4(3)vol'!K:K)-1)</definedName>
+    <definedName name="资金" localSheetId="3">OFFSET('model4(3)vol&amp;RSI'!K1,0,0,COUNTA('model4(3)vol&amp;RSI'!K:K)-1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -130,12 +130,6 @@
     <t>sign</t>
   </si>
   <si>
-    <t>turnover</t>
-  </si>
-  <si>
-    <t>turnover mean</t>
-  </si>
-  <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,6 +147,14 @@
   </si>
   <si>
     <t>sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -660,6 +662,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +674,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -747,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5099420.2574212886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5355510.8810719606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +797,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -867,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +887,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -954,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5116912.1641673045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5056978.0408539018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1010,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1074,6 +1088,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1100,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1161,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17491.906746015884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-298532.84021805879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391502848"/>
-        <c:axId val="396612352"/>
+        <c:axId val="464251136"/>
+        <c:axId val="466637184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391502848"/>
+        <c:axId val="464251136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,14 +1249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396612352"/>
+        <c:crossAx val="466637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396612352"/>
+        <c:axId val="466637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391502848"/>
+        <c:crossAx val="464251136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1448,7 +1468,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1526,6 +1546,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,8 +1563,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395549312"/>
-        <c:axId val="395547776"/>
+        <c:axId val="466887424"/>
+        <c:axId val="466885632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1566,7 +1589,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1644,6 +1667,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1679,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1731,6 +1757,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,11 +1776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395544448"/>
-        <c:axId val="395545984"/>
+        <c:axId val="466882560"/>
+        <c:axId val="466884096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395544448"/>
+        <c:axId val="466882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,14 +1823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395545984"/>
+        <c:crossAx val="466884096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395545984"/>
+        <c:axId val="466884096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,12 +1881,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395544448"/>
+        <c:crossAx val="466882560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395547776"/>
+        <c:axId val="466885632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,12 +1923,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395549312"/>
+        <c:crossAx val="466887424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395549312"/>
+        <c:axId val="466887424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395547776"/>
+        <c:crossAx val="466885632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2061,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover'!$K$1</c:f>
+              <c:f>'model4(3)vol'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2055,10 +2084,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover'!时间</c:f>
+              <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2136,16 +2165,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover'!资金</c:f>
+              <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2223,6 +2255,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>14648769.151263818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16190993.554936489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,7 +2274,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover'!$L$1</c:f>
+              <c:f>'model4(3)vol'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2262,10 +2297,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover'!时间</c:f>
+              <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2343,16 +2378,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover'!资产</c:f>
+              <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2430,6 +2468,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15150345.481451025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15756871.95958133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,7 +2487,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover'!$M$1</c:f>
+              <c:f>'model4(3)vol'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2469,10 +2510,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover'!时间</c:f>
+              <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2550,16 +2591,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover'!金额</c:f>
+              <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2637,6 +2681,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>501576.33018720709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-434121.59535515867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,11 +2705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396601216"/>
-        <c:axId val="396602752"/>
+        <c:axId val="479596544"/>
+        <c:axId val="479598080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396601216"/>
+        <c:axId val="479596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,14 +2752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396602752"/>
+        <c:crossAx val="479598080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396602752"/>
+        <c:axId val="479598080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396601216"/>
+        <c:crossAx val="479596544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2921,10 +2968,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover'!买卖</c:f>
+              <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3002,6 +3049,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>620567.12226842251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1542224.4036726714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,8 +3066,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396773632"/>
-        <c:axId val="396772096"/>
+        <c:axId val="479621504"/>
+        <c:axId val="479619712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3039,10 +3089,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover'!时间</c:f>
+              <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3120,16 +3170,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover'!指数</c:f>
+              <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3207,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,11 +3279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396760576"/>
-        <c:axId val="396762112"/>
+        <c:axId val="479612288"/>
+        <c:axId val="479618176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396760576"/>
+        <c:axId val="479612288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3326,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396762112"/>
+        <c:crossAx val="479618176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396762112"/>
+        <c:axId val="479618176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,12 +3384,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396760576"/>
+        <c:crossAx val="479612288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396772096"/>
+        <c:axId val="479619712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,12 +3426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396773632"/>
+        <c:crossAx val="479621504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396773632"/>
+        <c:axId val="479621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,7 +3440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396772096"/>
+        <c:crossAx val="479619712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3534,7 +3590,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3612,6 +3668,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,7 +3680,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3699,6 +3758,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42049261.872481778</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44111277.578125395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,7 +3803,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3819,6 +3881,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,7 +3893,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3906,6 +3971,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42809766.167562231</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42227815.143537216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,7 +4016,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4026,6 +4094,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4106,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4113,6 +4184,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>760504.29508045316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1883462.434588179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,11 +4208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396806016"/>
-        <c:axId val="396807552"/>
+        <c:axId val="479645696"/>
+        <c:axId val="479647232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396806016"/>
+        <c:axId val="479645696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,14 +4255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396807552"/>
+        <c:crossAx val="479647232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396807552"/>
+        <c:axId val="479647232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +4313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396806016"/>
+        <c:crossAx val="479645696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4400,7 +4474,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4478,6 +4552,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1271286.4848223685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2062015.7056436134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,8 +4569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="397613312"/>
-        <c:axId val="397611776"/>
+        <c:axId val="490070400"/>
+        <c:axId val="490068608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4518,7 +4595,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4596,6 +4673,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4605,7 +4685,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4683,6 +4763,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,11 +4782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="397608448"/>
-        <c:axId val="397609984"/>
+        <c:axId val="489954688"/>
+        <c:axId val="490067072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="397608448"/>
+        <c:axId val="489954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,14 +4829,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397609984"/>
+        <c:crossAx val="490067072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="397609984"/>
+        <c:axId val="490067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,12 +4887,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397608448"/>
+        <c:crossAx val="489954688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397611776"/>
+        <c:axId val="490068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,12 +4929,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397613312"/>
+        <c:crossAx val="490070400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="397613312"/>
+        <c:axId val="490070400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4860,7 +4943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397611776"/>
+        <c:crossAx val="490068608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4992,7 +5075,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5070,6 +5153,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,8 +5170,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557336448"/>
-        <c:axId val="557334912"/>
+        <c:axId val="500073984"/>
+        <c:axId val="500067328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5110,7 +5196,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5188,6 +5274,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5197,7 +5286,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5275,6 +5364,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5291,11 +5383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521065216"/>
-        <c:axId val="521067136"/>
+        <c:axId val="495857024"/>
+        <c:axId val="500065792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521065216"/>
+        <c:axId val="495857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,14 +5430,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521067136"/>
+        <c:crossAx val="500065792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521067136"/>
+        <c:axId val="500065792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,12 +5488,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521065216"/>
+        <c:crossAx val="495857024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557334912"/>
+        <c:axId val="500067328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5438,12 +5530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557336448"/>
+        <c:crossAx val="500073984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="557336448"/>
+        <c:axId val="500073984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557334912"/>
+        <c:crossAx val="500067328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5602,7 +5694,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5680,6 +5772,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5689,7 +5784,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5767,6 +5862,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6461175.5944266198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6704461.6868947577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5809,7 +5907,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5887,6 +5985,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5896,7 +5997,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5974,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6431544.5871256161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6277613.1418435639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6016,7 +6120,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6094,6 +6198,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,7 +6210,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6181,6 +6288,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-29631.007301003672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-426848.5450511938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6202,11 +6312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603290240"/>
-        <c:axId val="390812032"/>
+        <c:axId val="578889216"/>
+        <c:axId val="578891136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603290240"/>
+        <c:axId val="578889216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6249,14 +6359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390812032"/>
+        <c:crossAx val="578891136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390812032"/>
+        <c:axId val="578891136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6307,7 +6417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603290240"/>
+        <c:crossAx val="578889216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6477,7 +6587,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6555,6 +6665,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>176232.06245176709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243286.09246813794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,8 +6682,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390827392"/>
-        <c:axId val="390825856"/>
+        <c:axId val="609555968"/>
+        <c:axId val="609237632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6595,7 +6708,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6673,6 +6786,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,7 +6798,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6760,6 +6876,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6776,11 +6895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390822528"/>
-        <c:axId val="390824320"/>
+        <c:axId val="583273856"/>
+        <c:axId val="609236096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390822528"/>
+        <c:axId val="583273856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,14 +6942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390824320"/>
+        <c:crossAx val="609236096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390824320"/>
+        <c:axId val="609236096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6881,12 +7000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390822528"/>
+        <c:crossAx val="583273856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390825856"/>
+        <c:axId val="609237632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6923,12 +7042,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390827392"/>
+        <c:crossAx val="609555968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390827392"/>
+        <c:axId val="609555968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +7056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390825856"/>
+        <c:crossAx val="609237632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7087,7 +7206,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7165,6 +7284,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7174,7 +7296,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7252,6 +7374,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>54430361.226604924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56389276.146966353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,7 +7419,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7372,6 +7497,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,7 +7509,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7459,6 +7587,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>55073209.344887719</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53630757.095103495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7501,7 +7632,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7579,6 +7710,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,7 +7722,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7666,6 +7800,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>642848.11828279495</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2758519.0518628582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7687,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390847104"/>
-        <c:axId val="390852992"/>
+        <c:axId val="435467008"/>
+        <c:axId val="435468544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390847104"/>
+        <c:axId val="435467008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7734,14 +7871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390852992"/>
+        <c:crossAx val="435468544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390852992"/>
+        <c:axId val="435468544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7792,7 +7929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390847104"/>
+        <c:crossAx val="435467008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7962,7 +8099,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8040,6 +8177,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1207722.16058125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1958914.9203614327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8054,8 +8194,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391482752"/>
-        <c:axId val="391481216"/>
+        <c:axId val="460961664"/>
+        <c:axId val="460960128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8080,7 +8220,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8158,6 +8298,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8167,7 +8310,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8245,6 +8388,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8261,11 +8407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391473792"/>
-        <c:axId val="391479680"/>
+        <c:axId val="459728000"/>
+        <c:axId val="459729536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391473792"/>
+        <c:axId val="459728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8308,14 +8454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391479680"/>
+        <c:crossAx val="459729536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391479680"/>
+        <c:axId val="459729536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8366,12 +8512,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391473792"/>
+        <c:crossAx val="459728000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391481216"/>
+        <c:axId val="460960128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8408,12 +8554,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391482752"/>
+        <c:crossAx val="460961664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391482752"/>
+        <c:axId val="460961664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8422,7 +8568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391481216"/>
+        <c:crossAx val="460960128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8546,7 +8692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover&amp;RSI'!$K$1</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8569,10 +8715,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8650,16 +8796,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!资金</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8737,6 +8886,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2458198.0150055774</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2662201.1165040508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8753,7 +8905,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover&amp;RSI'!$L$1</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8776,10 +8928,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8857,16 +9009,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!资产</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8944,6 +9099,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2528670.2253589444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2576500.552636133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8960,7 +9118,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover&amp;RSI'!$M$1</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8983,10 +9141,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9064,16 +9222,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!金额</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9151,6 +9312,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>70472.210353367031</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-85700.56386791775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9172,11 +9336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394623616"/>
-        <c:axId val="394637696"/>
+        <c:axId val="461550720"/>
+        <c:axId val="461552256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="394623616"/>
+        <c:axId val="461550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9219,14 +9383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394637696"/>
+        <c:crossAx val="461552256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="394637696"/>
+        <c:axId val="461552256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9277,7 +9441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394623616"/>
+        <c:crossAx val="461550720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9435,10 +9599,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!买卖</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9516,6 +9680,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>82087.676300063496</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>204003.10149847361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9530,8 +9697,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="394656768"/>
-        <c:axId val="394655232"/>
+        <c:axId val="465769984"/>
+        <c:axId val="465768448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9553,10 +9720,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9634,16 +9801,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;RSI'!指数</c:f>
+              <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9721,6 +9891,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9737,11 +9910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394651904"/>
-        <c:axId val="394653696"/>
+        <c:axId val="461562624"/>
+        <c:axId val="461564160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="394651904"/>
+        <c:axId val="461562624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,14 +9957,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394653696"/>
+        <c:crossAx val="461564160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="394653696"/>
+        <c:axId val="461564160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,12 +10015,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394651904"/>
+        <c:crossAx val="461562624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="394655232"/>
+        <c:axId val="465768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9884,12 +10057,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394656768"/>
+        <c:crossAx val="465769984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="394656768"/>
+        <c:axId val="465769984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9898,7 +10071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394655232"/>
+        <c:crossAx val="465768448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10048,7 +10221,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10126,6 +10299,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10135,7 +10311,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10213,6 +10389,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5159215.9356724173</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5415306.5593230892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10255,7 +10434,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10333,6 +10512,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10342,7 +10524,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10420,6 +10602,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5174367.3536314191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5110884.7500764914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10462,7 +10647,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10540,6 +10725,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10549,7 +10737,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10627,6 +10815,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15151.417959001847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-304421.80924659781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,11 +10839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395524352"/>
-        <c:axId val="395526144"/>
+        <c:axId val="466243968"/>
+        <c:axId val="466245504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395524352"/>
+        <c:axId val="466243968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10695,14 +10886,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395526144"/>
+        <c:crossAx val="466245504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395526144"/>
+        <c:axId val="466245504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10753,7 +10944,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395524352"/>
+        <c:crossAx val="466243968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11605,7 +11796,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12842,6 +13033,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="29">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="29">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="30">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="30">
+        <v>7082602.4305558074</v>
+      </c>
+      <c r="H29" s="30">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="I29" s="30">
+        <v>5355510.8810719606</v>
+      </c>
+      <c r="J29" s="30">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="K29" s="30">
+        <v>-298532.84021805879</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12858,7 +13087,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14388,6 +14617,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>243286.09246813794</v>
+      </c>
+      <c r="F29" s="18">
+        <v>340736.83055667428</v>
+      </c>
+      <c r="G29" s="18">
+        <v>8792175.4330977183</v>
+      </c>
+      <c r="H29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6704461.6868947577</v>
+      </c>
+      <c r="J29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-426848.5450511938</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14404,7 +14683,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15934,6 +16213,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1958914.9203614327</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2743578.3711374733</v>
+      </c>
+      <c r="G29" s="18">
+        <v>75113106.579792246</v>
+      </c>
+      <c r="H29" s="18">
+        <v>53630757.095103495</v>
+      </c>
+      <c r="I29" s="18">
+        <v>56389276.146966353</v>
+      </c>
+      <c r="J29" s="18">
+        <v>53630757.095103495</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-2758519.0518628582</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15950,7 +16279,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16003,10 +16332,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -16049,7 +16378,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -17645,6 +17974,62 @@
         <v>47.786304387002254</v>
       </c>
       <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>204003.10149847361</v>
+      </c>
+      <c r="H29" s="18">
+        <v>285718.63489247754</v>
+      </c>
+      <c r="I29" s="18">
+        <v>3608544.2588450932</v>
+      </c>
+      <c r="J29" s="18">
+        <v>2576500.552636133</v>
+      </c>
+      <c r="K29" s="18">
+        <v>2662201.1165040508</v>
+      </c>
+      <c r="L29" s="18">
+        <v>2576500.552636133</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-85700.56386791775</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="P29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="R29" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17664,7 +18049,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17741,19 +18126,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19288,6 +19673,59 @@
         <v>55.446161314787332</v>
       </c>
       <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="18">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="18">
+        <v>7158102.0247163363</v>
+      </c>
+      <c r="H29" s="18">
+        <v>5110884.7500764914</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5415306.5593230892</v>
+      </c>
+      <c r="J29" s="18">
+        <v>5110884.7500764914</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-304421.80924659781</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>61.111087458471879</v>
+      </c>
+      <c r="N29" s="21">
+        <v>51.703000551887335</v>
+      </c>
+      <c r="O29" s="21">
+        <v>45.751236844295057</v>
+      </c>
+      <c r="P29" s="21">
+        <v>63.606527967071898</v>
+      </c>
+      <c r="Q29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -19307,7 +19745,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19360,10 +19798,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -20706,6 +21144,50 @@
         <v>501576.33018720709</v>
       </c>
       <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1542224.4036726714</v>
+      </c>
+      <c r="H29" s="18">
+        <v>2159978.196794806</v>
+      </c>
+      <c r="I29" s="18">
+        <v>22068448.535331801</v>
+      </c>
+      <c r="J29" s="18">
+        <v>15756871.95958133</v>
+      </c>
+      <c r="K29" s="18">
+        <v>16190993.554936489</v>
+      </c>
+      <c r="L29" s="18">
+        <v>15756871.95958133</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-434121.59535515867</v>
+      </c>
+      <c r="N29" s="17">
         <v>0</v>
       </c>
     </row>
@@ -20725,7 +21207,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21962,6 +22444,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2062015.7056436134</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2887977.2327762875</v>
+      </c>
+      <c r="G29" s="18">
+        <v>59142599.346185029</v>
+      </c>
+      <c r="H29" s="18">
+        <v>42227815.143537216</v>
+      </c>
+      <c r="I29" s="18">
+        <v>44111277.578125395</v>
+      </c>
+      <c r="J29" s="18">
+        <v>42227815.143537216</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-1883462.434588179</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -665,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,7 +677,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -755,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5355510.8810719606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5703941.5221370691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +803,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -878,6 +884,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +896,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -968,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5056978.0408539018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200013.3228820767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +1022,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1091,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1115,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1181,6 +1196,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-298532.84021805879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-503928.19925499242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,11 +1220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464251136"/>
-        <c:axId val="466637184"/>
+        <c:axId val="296958592"/>
+        <c:axId val="296995456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464251136"/>
+        <c:axId val="296958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,14 +1267,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466637184"/>
+        <c:crossAx val="296995456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466637184"/>
+        <c:axId val="296995456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464251136"/>
+        <c:crossAx val="296958592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,7 +1486,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1549,6 +1567,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,8 +1584,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="466887424"/>
-        <c:axId val="466885632"/>
+        <c:axId val="93414912"/>
+        <c:axId val="93413376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1589,7 +1610,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1670,6 +1691,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1703,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1760,6 +1784,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,11 +1803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466882560"/>
-        <c:axId val="466884096"/>
+        <c:axId val="93410048"/>
+        <c:axId val="93411584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466882560"/>
+        <c:axId val="93410048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,14 +1850,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466884096"/>
+        <c:crossAx val="93411584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466884096"/>
+        <c:axId val="93411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,12 +1908,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466882560"/>
+        <c:crossAx val="93410048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466885632"/>
+        <c:axId val="93413376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,12 +1950,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466887424"/>
+        <c:crossAx val="93414912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="466887424"/>
+        <c:axId val="93414912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466885632"/>
+        <c:crossAx val="93413376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2114,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2168,6 +2195,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2207,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2258,6 +2288,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>16190993.554936489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17479910.712730724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,7 +2333,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2381,6 +2414,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,7 +2426,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2471,6 +2507,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>15756871.95958133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16405804.4571118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,7 +2552,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2594,6 +2633,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,7 +2645,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2684,6 +2726,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-434121.59535515867</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1074106.2556189243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,11 +2750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479596544"/>
-        <c:axId val="479598080"/>
+        <c:axId val="160252672"/>
+        <c:axId val="160254208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479596544"/>
+        <c:axId val="160252672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,14 +2797,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479598080"/>
+        <c:crossAx val="160254208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479598080"/>
+        <c:axId val="160254208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2855,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479596544"/>
+        <c:crossAx val="160252672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2971,7 +3016,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3052,6 +3097,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1542224.4036726714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1288917.1577942353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,8 +3114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479621504"/>
-        <c:axId val="479619712"/>
+        <c:axId val="160277632"/>
+        <c:axId val="160271744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3092,7 +3140,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3173,6 +3221,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3233,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3263,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3279,11 +3333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479612288"/>
-        <c:axId val="479618176"/>
+        <c:axId val="160268672"/>
+        <c:axId val="160270208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479612288"/>
+        <c:axId val="160268672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,14 +3380,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479618176"/>
+        <c:crossAx val="160270208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479618176"/>
+        <c:axId val="160270208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,12 +3438,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479612288"/>
+        <c:crossAx val="160268672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479619712"/>
+        <c:axId val="160271744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,12 +3480,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479621504"/>
+        <c:crossAx val="160277632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="479621504"/>
+        <c:axId val="160277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479619712"/>
+        <c:crossAx val="160271744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +3644,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3671,6 +3725,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3680,7 +3737,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3761,6 +3818,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44111277.578125395</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47383749.750043429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,7 +3863,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3884,6 +3944,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3956,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3974,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>42227815.143537216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43785152.865061723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,7 +4082,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4097,6 +4163,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,7 +4175,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4187,6 +4256,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1883462.434588179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3598596.8849817067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4208,11 +4280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479645696"/>
-        <c:axId val="479647232"/>
+        <c:axId val="296620800"/>
+        <c:axId val="296622336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479645696"/>
+        <c:axId val="296620800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,14 +4327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479647232"/>
+        <c:crossAx val="296622336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479647232"/>
+        <c:axId val="296622336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,7 +4385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479645696"/>
+        <c:crossAx val="296620800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4474,7 +4546,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4555,6 +4627,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2062015.7056436134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3272472.1719180341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4569,8 +4644,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490070400"/>
-        <c:axId val="490068608"/>
+        <c:axId val="296662144"/>
+        <c:axId val="296648064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4595,7 +4670,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4676,6 +4751,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,7 +4763,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4766,6 +4844,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4782,11 +4863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489954688"/>
-        <c:axId val="490067072"/>
+        <c:axId val="296644992"/>
+        <c:axId val="296646528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489954688"/>
+        <c:axId val="296644992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,14 +4910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490067072"/>
+        <c:crossAx val="296646528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490067072"/>
+        <c:axId val="296646528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,12 +4968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489954688"/>
+        <c:crossAx val="296644992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490068608"/>
+        <c:axId val="296648064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,12 +5010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490070400"/>
+        <c:crossAx val="296662144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490070400"/>
+        <c:axId val="296662144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4943,7 +5024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490068608"/>
+        <c:crossAx val="296648064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5075,7 +5156,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5156,6 +5237,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,8 +5254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500073984"/>
-        <c:axId val="500067328"/>
+        <c:axId val="451191168"/>
+        <c:axId val="451179648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5196,7 +5280,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5277,6 +5361,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,7 +5373,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5367,6 +5454,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,11 +5473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495857024"/>
-        <c:axId val="500065792"/>
+        <c:axId val="446277504"/>
+        <c:axId val="446279040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495857024"/>
+        <c:axId val="446277504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,14 +5520,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500065792"/>
+        <c:crossAx val="446279040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500065792"/>
+        <c:axId val="446279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,12 +5578,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495857024"/>
+        <c:crossAx val="446277504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500067328"/>
+        <c:axId val="451179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,12 +5620,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500073984"/>
+        <c:crossAx val="451191168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500073984"/>
+        <c:axId val="451191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,7 +5634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500067328"/>
+        <c:crossAx val="451179648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5694,7 +5784,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5775,6 +5865,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,7 +5877,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5865,6 +5958,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6704461.6868947577</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7035470.7959066108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,7 +6003,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5988,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,7 +6096,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6078,6 +6177,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6277613.1418435639</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6353649.30164597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6120,7 +6222,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6201,6 +6303,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6210,7 +6315,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6291,6 +6396,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-426848.5450511938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-681821.49426064081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6312,11 +6420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578889216"/>
-        <c:axId val="578891136"/>
+        <c:axId val="517657344"/>
+        <c:axId val="517658880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578889216"/>
+        <c:axId val="517657344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6359,14 +6467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578891136"/>
+        <c:crossAx val="517658880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578891136"/>
+        <c:axId val="517658880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,7 +6525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578889216"/>
+        <c:crossAx val="517657344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6587,7 +6695,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6668,6 +6776,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>243286.09246813794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>331009.10901185323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,8 +6793,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609555968"/>
-        <c:axId val="609237632"/>
+        <c:axId val="561207552"/>
+        <c:axId val="561206016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6708,7 +6819,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6789,6 +6900,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,7 +6912,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6879,6 +6993,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,11 +7012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583273856"/>
-        <c:axId val="609236096"/>
+        <c:axId val="554472576"/>
+        <c:axId val="554474112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583273856"/>
+        <c:axId val="554472576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,14 +7059,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609236096"/>
+        <c:crossAx val="554474112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609236096"/>
+        <c:axId val="554474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7000,12 +7117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583273856"/>
+        <c:crossAx val="554472576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609237632"/>
+        <c:axId val="561206016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7042,12 +7159,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609555968"/>
+        <c:crossAx val="561207552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609555968"/>
+        <c:axId val="561207552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7056,7 +7173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609237632"/>
+        <c:crossAx val="561206016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7206,7 +7323,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7287,6 +7404,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7296,7 +7416,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7377,6 +7497,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>56389276.146966353</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59498124.710288487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7419,7 +7542,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7500,6 +7623,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7509,7 +7635,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7590,6 +7716,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>53630757.095103495</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54561326.749563418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,7 +7761,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7713,6 +7842,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7722,7 +7854,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7803,6 +7935,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-2758519.0518628582</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4936797.960725069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7824,11 +7959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435467008"/>
-        <c:axId val="435468544"/>
+        <c:axId val="79271808"/>
+        <c:axId val="79273344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435467008"/>
+        <c:axId val="79271808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,14 +8006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435468544"/>
+        <c:crossAx val="79273344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435468544"/>
+        <c:axId val="79273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +8064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435467008"/>
+        <c:crossAx val="79271808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8099,7 +8234,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8180,6 +8315,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1958914.9203614327</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3108848.5633221325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8194,8 +8332,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460961664"/>
-        <c:axId val="460960128"/>
+        <c:axId val="79444608"/>
+        <c:axId val="79443072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8220,7 +8358,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8301,6 +8439,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8310,7 +8451,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8391,6 +8532,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8407,11 +8551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459728000"/>
-        <c:axId val="459729536"/>
+        <c:axId val="79296384"/>
+        <c:axId val="79297920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459728000"/>
+        <c:axId val="79296384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8454,14 +8598,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459729536"/>
+        <c:crossAx val="79297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459729536"/>
+        <c:axId val="79297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,12 +8656,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459728000"/>
+        <c:crossAx val="79296384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460960128"/>
+        <c:axId val="79443072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8554,12 +8698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460961664"/>
+        <c:crossAx val="79444608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="460961664"/>
+        <c:axId val="79444608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8568,7 +8712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460960128"/>
+        <c:crossAx val="79443072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8718,7 +8862,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8799,6 +8943,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8808,7 +8955,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8889,6 +9036,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2662201.1165040508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2832697.1202882249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8931,7 +9081,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9012,6 +9162,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9021,7 +9174,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9102,6 +9255,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2576500.552636133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2642348.829696503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9144,7 +9300,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9225,6 +9381,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9234,7 +9393,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9315,6 +9474,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-85700.56386791775</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-190348.29059172189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9336,11 +9498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461550720"/>
-        <c:axId val="461552256"/>
+        <c:axId val="79492992"/>
+        <c:axId val="79494528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461550720"/>
+        <c:axId val="79492992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9383,14 +9545,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461552256"/>
+        <c:crossAx val="79494528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461552256"/>
+        <c:axId val="79494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9441,7 +9603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461550720"/>
+        <c:crossAx val="79492992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9602,7 +9764,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9683,6 +9845,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>204003.10149847361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170496.00378417413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9697,8 +9862,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465769984"/>
-        <c:axId val="465768448"/>
+        <c:axId val="79526144"/>
+        <c:axId val="79524608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9723,7 +9888,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9804,6 +9969,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9813,7 +9981,7 @@
               <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9894,6 +10062,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9910,11 +10081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461562624"/>
-        <c:axId val="461564160"/>
+        <c:axId val="79517184"/>
+        <c:axId val="79518720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461562624"/>
+        <c:axId val="79517184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9957,14 +10128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461564160"/>
+        <c:crossAx val="79518720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461564160"/>
+        <c:axId val="79518720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10015,12 +10186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461562624"/>
+        <c:crossAx val="79517184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465768448"/>
+        <c:axId val="79524608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10057,12 +10228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465769984"/>
+        <c:crossAx val="79526144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465769984"/>
+        <c:axId val="79526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10071,7 +10242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465768448"/>
+        <c:crossAx val="79524608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10221,7 +10392,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10302,6 +10473,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10311,7 +10485,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10392,6 +10566,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5415306.5593230892</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5763737.2003881978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10434,7 +10611,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10515,6 +10692,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10704,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10605,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5110884.7500764914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5251730.5450620446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10647,7 +10830,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10728,6 +10911,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10737,7 +10923,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10818,6 +11004,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-304421.80924659781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-512006.65532615315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10839,11 +11028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466243968"/>
-        <c:axId val="466245504"/>
+        <c:axId val="91194496"/>
+        <c:axId val="91196032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466243968"/>
+        <c:axId val="91194496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10886,14 +11075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466245504"/>
+        <c:crossAx val="91196032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466245504"/>
+        <c:axId val="91196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10944,7 +11133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466243968"/>
+        <c:crossAx val="91194496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11796,7 +11985,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13071,6 +13260,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="31">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="29">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="29">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="30">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="30">
+        <v>7591260.2989534335</v>
+      </c>
+      <c r="H30" s="30">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="I30" s="30">
+        <v>5703941.5221370691</v>
+      </c>
+      <c r="J30" s="30">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="K30" s="30">
+        <v>-503928.19925499242</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13087,7 +13314,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14667,6 +14894,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>331009.10901185323</v>
+      </c>
+      <c r="F30" s="18">
+        <v>483224.97497774469</v>
+      </c>
+      <c r="G30" s="18">
+        <v>9275400.408075463</v>
+      </c>
+      <c r="H30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="I30" s="18">
+        <v>7035470.7959066108</v>
+      </c>
+      <c r="J30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-681821.49426064081</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14683,7 +14960,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16263,6 +16540,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3108848.5633221325</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4538465.0401483048</v>
+      </c>
+      <c r="G30" s="18">
+        <v>79651571.619940549</v>
+      </c>
+      <c r="H30" s="18">
+        <v>54561326.749563418</v>
+      </c>
+      <c r="I30" s="18">
+        <v>59498124.710288487</v>
+      </c>
+      <c r="J30" s="18">
+        <v>54561326.749563418</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-4936797.960725069</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16279,7 +16606,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18033,6 +18360,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>170496.00378417413</v>
+      </c>
+      <c r="H30" s="18">
+        <v>248899.27473102484</v>
+      </c>
+      <c r="I30" s="18">
+        <v>3857443.5335761178</v>
+      </c>
+      <c r="J30" s="18">
+        <v>2642348.829696503</v>
+      </c>
+      <c r="K30" s="18">
+        <v>2832697.1202882249</v>
+      </c>
+      <c r="L30" s="18">
+        <v>2642348.829696503</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-190348.29059172189</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="P30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -18049,7 +18432,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19729,6 +20112,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="18">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="18">
+        <v>7666759.8931139624</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5251730.5450620446</v>
+      </c>
+      <c r="I30" s="18">
+        <v>5763737.2003881978</v>
+      </c>
+      <c r="J30" s="18">
+        <v>5251730.5450620446</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-512006.65532615315</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>21.951223057979316</v>
+      </c>
+      <c r="N30" s="21">
+        <v>41.785741387251328</v>
+      </c>
+      <c r="O30" s="21">
+        <v>44.429405025280481</v>
+      </c>
+      <c r="P30" s="21">
+        <v>36.498414111193014</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19745,7 +20181,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21191,6 +21627,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1288917.1577942353</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1881630.8807417192</v>
+      </c>
+      <c r="I30" s="18">
+        <v>23950079.41607352</v>
+      </c>
+      <c r="J30" s="18">
+        <v>16405804.4571118</v>
+      </c>
+      <c r="K30" s="18">
+        <v>17479910.712730724</v>
+      </c>
+      <c r="L30" s="18">
+        <v>16405804.4571118</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-1074106.2556189243</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -21207,7 +21687,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22482,6 +22962,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3272472.1719180341</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4777331.6212087413</v>
+      </c>
+      <c r="G30" s="18">
+        <v>63919930.967393771</v>
+      </c>
+      <c r="H30" s="18">
+        <v>43785152.865061723</v>
+      </c>
+      <c r="I30" s="18">
+        <v>47383749.750043429</v>
+      </c>
+      <c r="J30" s="18">
+        <v>43785152.865061723</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-3598596.8849817067</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -668,6 +668,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +680,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -761,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5703941.5221370691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6068134.445580963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +809,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -887,6 +893,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,7 +905,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -980,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5200013.3228820767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5397198.4075353509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1034,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1106,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1130,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1199,6 +1214,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-503928.19925499242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-670936.03804561216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296958592"/>
-        <c:axId val="296995456"/>
+        <c:axId val="447550976"/>
+        <c:axId val="447552512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296958592"/>
+        <c:axId val="447550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,14 +1285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296995456"/>
+        <c:crossAx val="447552512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296995456"/>
+        <c:axId val="447552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296958592"/>
+        <c:crossAx val="447550976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,7 +1504,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1570,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,8 +1605,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93414912"/>
-        <c:axId val="93413376"/>
+        <c:axId val="473989888"/>
+        <c:axId val="473988096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1610,7 +1631,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1694,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1727,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1787,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,11 +1830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93410048"/>
-        <c:axId val="93411584"/>
+        <c:axId val="473985024"/>
+        <c:axId val="473986560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93410048"/>
+        <c:axId val="473985024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,14 +1877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93411584"/>
+        <c:crossAx val="473986560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93411584"/>
+        <c:axId val="473986560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,12 +1935,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93410048"/>
+        <c:crossAx val="473985024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93413376"/>
+        <c:axId val="473988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1977,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93414912"/>
+        <c:crossAx val="473989888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93414912"/>
+        <c:axId val="473989888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93413376"/>
+        <c:crossAx val="473988096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2141,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2198,6 +2225,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,7 +2237,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2291,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>17479910.712730724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20242802.166406341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2366,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2417,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2462,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2510,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>16405804.4571118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18641793.809604876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2552,7 +2591,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2636,6 +2675,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,7 +2687,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2729,6 +2771,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1074106.2556189243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1601008.3568014652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,11 +2795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160252672"/>
-        <c:axId val="160254208"/>
+        <c:axId val="474005504"/>
+        <c:axId val="474007040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160252672"/>
+        <c:axId val="474005504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,14 +2842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160254208"/>
+        <c:crossAx val="474007040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160254208"/>
+        <c:axId val="474007040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2900,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160252672"/>
+        <c:crossAx val="474005504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,7 +3061,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3100,6 +3145,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1288917.1577942353</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2762891.4536756147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,8 +3162,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160277632"/>
-        <c:axId val="160271744"/>
+        <c:axId val="474161536"/>
+        <c:axId val="474159744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3140,7 +3188,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3224,6 +3272,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3284,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3317,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,11 +3387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160268672"/>
-        <c:axId val="160270208"/>
+        <c:axId val="474021248"/>
+        <c:axId val="474158208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160268672"/>
+        <c:axId val="474021248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,14 +3434,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160270208"/>
+        <c:crossAx val="474158208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160270208"/>
+        <c:axId val="474158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,12 +3492,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160268672"/>
+        <c:crossAx val="474021248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160271744"/>
+        <c:axId val="474159744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,12 +3534,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160277632"/>
+        <c:crossAx val="474161536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160277632"/>
+        <c:axId val="474161536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160271744"/>
+        <c:crossAx val="474159744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3644,7 +3698,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3728,6 +3782,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,7 +3794,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3821,6 +3878,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47383749.750043429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50880774.503711924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,7 +3923,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3947,6 +4007,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +4019,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4040,6 +4103,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43785152.865061723</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45875938.192586206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,7 +4148,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4166,6 +4232,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4175,7 +4244,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4259,6 +4328,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-3598596.8849817067</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5004836.3111257181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,11 +4352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296620800"/>
-        <c:axId val="296622336"/>
+        <c:axId val="474415104"/>
+        <c:axId val="474416640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296620800"/>
+        <c:axId val="474415104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,14 +4399,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296622336"/>
+        <c:crossAx val="474416640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296622336"/>
+        <c:axId val="474416640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296620800"/>
+        <c:crossAx val="474415104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4546,7 +4618,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4630,6 +4702,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3272472.1719180341</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3497024.7536684927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,8 +4719,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="296662144"/>
-        <c:axId val="296648064"/>
+        <c:axId val="474452352"/>
+        <c:axId val="474450560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4670,7 +4745,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4754,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4841,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4847,6 +4925,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4863,11 +4944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296644992"/>
-        <c:axId val="296646528"/>
+        <c:axId val="474430848"/>
+        <c:axId val="474449024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296644992"/>
+        <c:axId val="474430848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4910,14 +4991,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296646528"/>
+        <c:crossAx val="474449024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296646528"/>
+        <c:axId val="474449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4968,12 +5049,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296644992"/>
+        <c:crossAx val="474430848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296648064"/>
+        <c:axId val="474450560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5010,12 +5091,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296662144"/>
+        <c:crossAx val="474452352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296662144"/>
+        <c:axId val="474452352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296648064"/>
+        <c:crossAx val="474450560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5156,7 +5237,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5240,6 +5321,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,8 +5338,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451191168"/>
-        <c:axId val="451179648"/>
+        <c:axId val="472339584"/>
+        <c:axId val="471668992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5280,7 +5364,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5364,6 +5448,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5460,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5457,6 +5544,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,11 +5563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446277504"/>
-        <c:axId val="446279040"/>
+        <c:axId val="465894400"/>
+        <c:axId val="471667456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446277504"/>
+        <c:axId val="465894400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5520,14 +5610,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446279040"/>
+        <c:crossAx val="471667456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446279040"/>
+        <c:axId val="471667456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,12 +5668,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446277504"/>
+        <c:crossAx val="465894400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451179648"/>
+        <c:axId val="471668992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,12 +5710,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451191168"/>
+        <c:crossAx val="472339584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451191168"/>
+        <c:axId val="472339584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5634,7 +5724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451179648"/>
+        <c:crossAx val="471668992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5784,7 +5874,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5868,6 +5958,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5877,7 +5970,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5961,6 +6054,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7035470.7959066108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7381454.0731783099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6003,7 +6099,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6087,6 +6183,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6096,7 +6195,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6180,6 +6279,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6353649.30164597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6495573.6328314869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6222,7 +6324,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6306,6 +6408,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6315,7 +6420,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6399,6 +6504,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-681821.49426064081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-885880.44034682307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,11 +6528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517657344"/>
-        <c:axId val="517658880"/>
+        <c:axId val="504786304"/>
+        <c:axId val="504878592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517657344"/>
+        <c:axId val="504786304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6467,14 +6575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517658880"/>
+        <c:crossAx val="504878592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517658880"/>
+        <c:axId val="504878592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,7 +6633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517657344"/>
+        <c:crossAx val="504786304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6695,7 +6803,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6779,6 +6887,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>331009.10901185323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>345983.27727169951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6793,8 +6904,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561207552"/>
-        <c:axId val="561206016"/>
+        <c:axId val="587436416"/>
+        <c:axId val="586635520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6819,7 +6930,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6903,6 +7014,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6912,7 +7026,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6996,6 +7110,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7012,11 +7129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554472576"/>
-        <c:axId val="554474112"/>
+        <c:axId val="583793664"/>
+        <c:axId val="586633984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554472576"/>
+        <c:axId val="583793664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7059,14 +7176,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554474112"/>
+        <c:crossAx val="586633984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554474112"/>
+        <c:axId val="586633984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7117,12 +7234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554472576"/>
+        <c:crossAx val="583793664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561206016"/>
+        <c:axId val="586635520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7159,12 +7276,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561207552"/>
+        <c:crossAx val="587436416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561207552"/>
+        <c:axId val="587436416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,7 +7290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561206016"/>
+        <c:crossAx val="586635520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7323,7 +7440,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7407,6 +7524,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7416,7 +7536,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7500,6 +7620,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>59498124.710288487</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62820298.226273552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,7 +7665,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7626,6 +7749,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7635,7 +7761,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7719,6 +7845,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>54561326.749563418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56131164.512504093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,7 +7890,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7845,6 +7974,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,7 +7986,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7938,6 +8070,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-4936797.960725069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6689133.7137694582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,11 +8094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79271808"/>
-        <c:axId val="79273344"/>
+        <c:axId val="616682240"/>
+        <c:axId val="616684160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79271808"/>
+        <c:axId val="616682240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8006,14 +8141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79273344"/>
+        <c:crossAx val="616684160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79273344"/>
+        <c:axId val="616684160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8064,7 +8199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79271808"/>
+        <c:crossAx val="616682240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8234,7 +8369,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8318,6 +8453,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3108848.5633221325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3322173.5159850679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8332,8 +8470,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79444608"/>
-        <c:axId val="79443072"/>
+        <c:axId val="465860480"/>
+        <c:axId val="465858944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8358,7 +8496,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8442,6 +8580,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8451,7 +8592,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8535,6 +8676,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8551,11 +8695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79296384"/>
-        <c:axId val="79297920"/>
+        <c:axId val="465851520"/>
+        <c:axId val="465853056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79296384"/>
+        <c:axId val="465851520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8598,14 +8742,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79297920"/>
+        <c:crossAx val="465853056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79297920"/>
+        <c:axId val="465853056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8656,12 +8800,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79296384"/>
+        <c:crossAx val="465851520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79443072"/>
+        <c:axId val="465858944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,12 +8842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79444608"/>
+        <c:crossAx val="465860480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79444608"/>
+        <c:axId val="465860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8712,7 +8856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79443072"/>
+        <c:crossAx val="465858944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8862,7 +9006,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8946,6 +9090,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8955,7 +9102,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9039,6 +9186,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2832697.1202882249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3198168.2049832903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9081,7 +9231,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9165,6 +9315,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9174,7 +9327,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9258,6 +9411,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2642348.829696503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2922956.0996323489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9300,7 +9456,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9384,6 +9540,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9393,7 +9552,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9477,6 +9636,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-190348.29059172189</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-275212.10535094142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9498,11 +9660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79492992"/>
-        <c:axId val="79494528"/>
+        <c:axId val="465876096"/>
+        <c:axId val="465877632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79492992"/>
+        <c:axId val="465876096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9545,14 +9707,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79494528"/>
+        <c:crossAx val="465877632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79494528"/>
+        <c:axId val="465877632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9603,7 +9765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79492992"/>
+        <c:crossAx val="465876096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9764,7 +9926,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9848,6 +10010,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>170496.00378417413</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>365471.08469506545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9862,8 +10027,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79526144"/>
-        <c:axId val="79524608"/>
+        <c:axId val="471676416"/>
+        <c:axId val="471674880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9888,7 +10053,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9972,6 +10137,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9981,7 +10149,7 @@
               <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10065,6 +10233,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10081,11 +10252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79517184"/>
-        <c:axId val="79518720"/>
+        <c:axId val="471663360"/>
+        <c:axId val="471664896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79517184"/>
+        <c:axId val="471663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10128,14 +10299,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79518720"/>
+        <c:crossAx val="471664896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79518720"/>
+        <c:axId val="471664896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10186,12 +10357,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79517184"/>
+        <c:crossAx val="471663360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79524608"/>
+        <c:axId val="471674880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10228,12 +10399,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79526144"/>
+        <c:crossAx val="471676416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79526144"/>
+        <c:axId val="471676416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10242,7 +10413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79524608"/>
+        <c:crossAx val="471674880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10392,7 +10563,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10476,6 +10647,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10485,7 +10659,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10569,6 +10743,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5763737.2003881978</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6127930.1238320917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10611,7 +10788,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10695,6 +10872,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10704,7 +10884,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10788,6 +10968,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5251730.5450620446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5447254.6375277555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10830,7 +11013,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10914,6 +11097,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10923,7 +11109,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11007,6 +11193,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-512006.65532615315</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-680675.48630433623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11028,11 +11217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91194496"/>
-        <c:axId val="91196032"/>
+        <c:axId val="473961216"/>
+        <c:axId val="473962752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91194496"/>
+        <c:axId val="473961216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11075,14 +11264,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91196032"/>
+        <c:crossAx val="473962752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91196032"/>
+        <c:axId val="473962752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11133,7 +11322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91194496"/>
+        <c:crossAx val="473961216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11985,7 +12174,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13298,6 +13487,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="31">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="29">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="29">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="30">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="30">
+        <v>8140570.9026549701</v>
+      </c>
+      <c r="H31" s="30">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="I31" s="30">
+        <v>6068134.445580963</v>
+      </c>
+      <c r="J31" s="30">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="K31" s="30">
+        <v>-670936.03804561216</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13314,7 +13541,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14682,13 +14909,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -14732,13 +14959,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -14782,13 +15009,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -14832,13 +15059,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -14882,13 +15109,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -14932,15 +15159,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>345983.27727169951</v>
+      </c>
+      <c r="F31" s="18">
+        <v>521845.07351645955</v>
+      </c>
+      <c r="G31" s="18">
+        <v>9797245.4815919232</v>
+      </c>
+      <c r="H31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="I31" s="18">
+        <v>7381454.0731783099</v>
+      </c>
+      <c r="J31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-885880.44034682307</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -14960,7 +15237,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16328,13 +16605,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -16378,13 +16655,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -16428,13 +16705,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -16478,13 +16755,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -16528,13 +16805,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -16578,15 +16855,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3322173.5159850679</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5010819.8764827158</v>
+      </c>
+      <c r="G31" s="18">
+        <v>84662391.496423259</v>
+      </c>
+      <c r="H31" s="18">
+        <v>56131164.512504093</v>
+      </c>
+      <c r="I31" s="18">
+        <v>62820298.226273552</v>
+      </c>
+      <c r="J31" s="18">
+        <v>56131164.512504093</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-6689133.7137694582</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16606,7 +16933,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18124,13 +18451,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="P25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="R25" s="1">
         <v>0.95</v>
@@ -18180,13 +18507,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="P26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="R26" s="1">
         <v>0.95</v>
@@ -18236,13 +18563,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="P27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="R27" s="1">
         <v>0.95</v>
@@ -18292,13 +18619,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="P28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="R28" s="1">
         <v>0.95</v>
@@ -18348,13 +18675,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="P29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="R29" s="1">
         <v>0.95</v>
@@ -18404,15 +18731,71 @@
         <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="P30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="R30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>365471.08469506545</v>
+      </c>
+      <c r="H31" s="18">
+        <v>551238.44876197714</v>
+      </c>
+      <c r="I31" s="18">
+        <v>4408681.9823380951</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2922956.0996323489</v>
+      </c>
+      <c r="K31" s="18">
+        <v>3198168.2049832903</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2922956.0996323489</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-275212.10535094142</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="P31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18432,7 +18815,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19885,16 +20268,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="21">
-        <v>51.666694813303359</v>
+        <v>48.993281878673784</v>
       </c>
       <c r="N25" s="21">
-        <v>44.636172502112707</v>
+        <v>46.088542294299735</v>
       </c>
       <c r="O25" s="21">
-        <v>37.449899885039635</v>
+        <v>40.329447354792997</v>
       </c>
       <c r="P25" s="21">
-        <v>59.008717736258845</v>
+        <v>57.606732173313205</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -19938,16 +20321,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="21">
-        <v>51.666694813303359</v>
+        <v>31.818216710700341</v>
       </c>
       <c r="N26" s="21">
-        <v>44.636172502112707</v>
+        <v>41.331767099766601</v>
       </c>
       <c r="O26" s="21">
-        <v>37.449899885039635</v>
+        <v>40.66355393645086</v>
       </c>
       <c r="P26" s="21">
-        <v>59.008717736258845</v>
+        <v>42.668193426398076</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -19991,16 +20374,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="21">
-        <v>31.818216710700341</v>
+        <v>58.333337096251995</v>
       </c>
       <c r="N27" s="21">
-        <v>41.331767099766601</v>
+        <v>46.998957098595064</v>
       </c>
       <c r="O27" s="21">
-        <v>40.66355393645086</v>
+        <v>42.775354990498926</v>
       </c>
       <c r="P27" s="21">
-        <v>42.668193426398076</v>
+        <v>55.446161314787332</v>
       </c>
       <c r="Q27" s="1">
         <v>1</v>
@@ -20044,16 +20427,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="21">
-        <v>58.333337096251995</v>
+        <v>61.111087458471879</v>
       </c>
       <c r="N28" s="21">
-        <v>46.998957098595064</v>
+        <v>51.703000551887335</v>
       </c>
       <c r="O28" s="21">
-        <v>42.775354990498926</v>
+        <v>45.751236844295057</v>
       </c>
       <c r="P28" s="21">
-        <v>55.446161314787332</v>
+        <v>63.606527967071898</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -20097,16 +20480,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="21">
-        <v>61.111087458471879</v>
+        <v>21.951223057979316</v>
       </c>
       <c r="N29" s="21">
-        <v>51.703000551887335</v>
+        <v>41.785741387251328</v>
       </c>
       <c r="O29" s="21">
-        <v>45.751236844295057</v>
+        <v>44.429405025280481</v>
       </c>
       <c r="P29" s="21">
-        <v>63.606527967071898</v>
+        <v>36.498414111193014</v>
       </c>
       <c r="Q29" s="1">
         <v>1</v>
@@ -20150,18 +20533,71 @@
         <v>0</v>
       </c>
       <c r="M30" s="21">
-        <v>21.951223057979316</v>
+        <v>7.4074008664308382</v>
       </c>
       <c r="N30" s="21">
-        <v>41.785741387251328</v>
+        <v>30.326294546977831</v>
       </c>
       <c r="O30" s="21">
-        <v>44.429405025280481</v>
+        <v>39.728368199179599</v>
       </c>
       <c r="P30" s="21">
-        <v>36.498414111193014</v>
+        <v>11.522147242574292</v>
       </c>
       <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="18">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="18">
+        <v>8216070.4968154989</v>
+      </c>
+      <c r="H31" s="18">
+        <v>5447254.6375277555</v>
+      </c>
+      <c r="I31" s="18">
+        <v>6127930.1238320917</v>
+      </c>
+      <c r="J31" s="18">
+        <v>5447254.6375277555</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-680675.48630433623</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>7.4074008664308382</v>
+      </c>
+      <c r="N31" s="21">
+        <v>30.326294546977831</v>
+      </c>
+      <c r="O31" s="21">
+        <v>39.728368199179599</v>
+      </c>
+      <c r="P31" s="21">
+        <v>11.522147242574292</v>
+      </c>
+      <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20181,7 +20617,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21671,6 +22107,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2762891.4536756147</v>
+      </c>
+      <c r="H31" s="18">
+        <v>4167257.1724589658</v>
+      </c>
+      <c r="I31" s="18">
+        <v>28117336.588532485</v>
+      </c>
+      <c r="J31" s="18">
+        <v>18641793.809604876</v>
+      </c>
+      <c r="K31" s="18">
+        <v>20242802.166406341</v>
+      </c>
+      <c r="L31" s="18">
+        <v>18641793.809604876</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-1601008.3568014652</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -21687,7 +22167,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23000,6 +23480,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3497024.7536684927</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5274547.2384028593</v>
+      </c>
+      <c r="G31" s="18">
+        <v>69194478.205796629</v>
+      </c>
+      <c r="H31" s="18">
+        <v>45875938.192586206</v>
+      </c>
+      <c r="I31" s="18">
+        <v>50880774.503711924</v>
+      </c>
+      <c r="J31" s="18">
+        <v>45875938.192586206</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-5004836.3111257181</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -671,6 +671,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +686,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +773,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6068134.445580963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6471218.9630682301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6865089.2319875453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +821,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -896,6 +908,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +923,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -992,6 +1010,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5397198.4075353509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5702596.3614385333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6043907.7728215661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1058,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1121,6 +1145,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1160,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1217,6 +1247,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-670936.03804561216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-768622.60162969679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-821181.45916597918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447550976"/>
-        <c:axId val="447552512"/>
+        <c:axId val="494899968"/>
+        <c:axId val="494924928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447550976"/>
+        <c:axId val="494899968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,14 +1321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447552512"/>
+        <c:crossAx val="494924928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447552512"/>
+        <c:axId val="494924928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447550976"/>
+        <c:crossAx val="494899968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,7 +1540,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1591,6 +1627,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,8 +1647,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="473989888"/>
-        <c:axId val="473988096"/>
+        <c:axId val="435400064"/>
+        <c:axId val="435398528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1631,7 +1673,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1718,6 +1760,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1775,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1814,6 +1862,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,11 +1884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473985024"/>
-        <c:axId val="473986560"/>
+        <c:axId val="435387008"/>
+        <c:axId val="435396992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473985024"/>
+        <c:axId val="435387008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,14 +1931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473986560"/>
+        <c:crossAx val="435396992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473986560"/>
+        <c:axId val="435396992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,12 +1989,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473985024"/>
+        <c:crossAx val="435387008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473988096"/>
+        <c:axId val="435398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,12 +2031,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473989888"/>
+        <c:crossAx val="435400064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="473989888"/>
+        <c:axId val="435400064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473988096"/>
+        <c:crossAx val="435398528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2141,7 +2195,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2228,6 +2282,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,7 +2297,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2324,6 +2384,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>20242802.166406341</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23640257.499347821</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28974836.962735176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,7 +2432,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2453,6 +2519,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2534,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2549,6 +2621,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>18641793.809604876</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21701842.095630888</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26836403.189369608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2669,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2678,6 +2756,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,7 +2771,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2774,6 +2858,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-1601008.3568014652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1938415.403716933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2138433.7733655684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,11 +2885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474005504"/>
-        <c:axId val="474007040"/>
+        <c:axId val="435686016"/>
+        <c:axId val="436273536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474005504"/>
+        <c:axId val="435686016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,14 +2932,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474007040"/>
+        <c:crossAx val="436273536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474007040"/>
+        <c:axId val="436273536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2990,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474005504"/>
+        <c:crossAx val="435686016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,7 +3151,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3148,6 +3238,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2762891.4536756147</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3397455.3329414804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5334579.4633873561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,8 +3258,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474161536"/>
-        <c:axId val="474159744"/>
+        <c:axId val="436300800"/>
+        <c:axId val="436299264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3188,7 +3284,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3275,6 +3371,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3386,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3371,6 +3473,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,11 +3495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474021248"/>
-        <c:axId val="474158208"/>
+        <c:axId val="436295936"/>
+        <c:axId val="436297728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474021248"/>
+        <c:axId val="436295936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,14 +3542,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474158208"/>
+        <c:crossAx val="436297728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474158208"/>
+        <c:axId val="436297728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3492,12 +3600,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474021248"/>
+        <c:crossAx val="436295936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474159744"/>
+        <c:axId val="436299264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,12 +3642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474161536"/>
+        <c:crossAx val="436300800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474161536"/>
+        <c:axId val="436300800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474159744"/>
+        <c:crossAx val="436299264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3698,7 +3806,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3785,6 +3893,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,7 +3908,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3881,6 +3995,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>50880774.503711924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54952660.666307978</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58885726.822578892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,7 +4043,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4010,6 +4130,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4019,7 +4145,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4106,6 +4232,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45875938.192586206</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49117493.058305584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52597860.275958352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,7 +4280,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4235,6 +4367,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4382,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4331,6 +4469,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-5004836.3111257181</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5835167.6080023944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6287866.5466205403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,11 +4496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474415104"/>
-        <c:axId val="474416640"/>
+        <c:axId val="439454336"/>
+        <c:axId val="439460224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474415104"/>
+        <c:axId val="439454336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,14 +4543,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474416640"/>
+        <c:crossAx val="439460224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474416640"/>
+        <c:axId val="439460224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,7 +4601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474415104"/>
+        <c:crossAx val="439454336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4618,7 +4762,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4705,6 +4849,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3497024.7536684927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4071886.1625960553</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3933066.1562709101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4719,8 +4869,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474452352"/>
-        <c:axId val="474450560"/>
+        <c:axId val="441719808"/>
+        <c:axId val="441718272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4745,7 +4895,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4832,6 +4982,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4841,7 +4997,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4928,6 +5084,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,11 +5106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474430848"/>
-        <c:axId val="474449024"/>
+        <c:axId val="441714944"/>
+        <c:axId val="441716736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474430848"/>
+        <c:axId val="441714944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,14 +5153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474449024"/>
+        <c:crossAx val="441716736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474449024"/>
+        <c:axId val="441716736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,12 +5211,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474430848"/>
+        <c:crossAx val="441714944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474450560"/>
+        <c:axId val="441718272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,12 +5253,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474452352"/>
+        <c:crossAx val="441719808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474452352"/>
+        <c:axId val="441719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,7 +5267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474450560"/>
+        <c:crossAx val="441718272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5237,7 +5399,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5324,6 +5486,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,8 +5506,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472339584"/>
-        <c:axId val="471668992"/>
+        <c:axId val="516500864"/>
+        <c:axId val="516499328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5364,7 +5532,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5451,6 +5619,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5460,7 +5634,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5547,6 +5721,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,11 +5743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465894400"/>
-        <c:axId val="471667456"/>
+        <c:axId val="516182400"/>
+        <c:axId val="516183936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465894400"/>
+        <c:axId val="516182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,14 +5790,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471667456"/>
+        <c:crossAx val="516183936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471667456"/>
+        <c:axId val="516183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,12 +5848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465894400"/>
+        <c:crossAx val="516182400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471668992"/>
+        <c:axId val="516499328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,12 +5890,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472339584"/>
+        <c:crossAx val="516500864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="472339584"/>
+        <c:axId val="516500864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5724,7 +5904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471668992"/>
+        <c:crossAx val="516499328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5874,7 +6054,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5961,6 +6141,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5970,7 +6156,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6057,6 +6243,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7381454.0731783099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7764384.3647912135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8138561.1202645628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6099,7 +6291,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6186,6 +6378,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6195,7 +6393,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6282,6 +6480,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6495573.6328314869</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6760937.3243703991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7072800.859843432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6324,7 +6528,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6411,6 +6615,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,7 +6630,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6507,6 +6717,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-885880.44034682307</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1003447.0404208144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1065760.2604211308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,11 +6744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504786304"/>
-        <c:axId val="504878592"/>
+        <c:axId val="314031488"/>
+        <c:axId val="314033280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504786304"/>
+        <c:axId val="314031488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6575,14 +6791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504878592"/>
+        <c:crossAx val="314033280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504878592"/>
+        <c:axId val="314033280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,7 +6849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504786304"/>
+        <c:crossAx val="314031488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6803,7 +7019,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6890,6 +7106,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>345983.27727169951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382930.29161290335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>374176.75547334965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6904,8 +7126,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="587436416"/>
-        <c:axId val="586635520"/>
+        <c:axId val="434844416"/>
+        <c:axId val="434838528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6930,7 +7152,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7017,6 +7239,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7026,7 +7254,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7113,6 +7341,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,11 +7363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583793664"/>
-        <c:axId val="586633984"/>
+        <c:axId val="434835456"/>
+        <c:axId val="434836992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583793664"/>
+        <c:axId val="434835456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7176,14 +7410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586633984"/>
+        <c:crossAx val="434836992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586633984"/>
+        <c:axId val="434836992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7234,12 +7468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583793664"/>
+        <c:crossAx val="434835456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586635520"/>
+        <c:axId val="434838528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7276,12 +7510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587436416"/>
+        <c:crossAx val="434844416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="587436416"/>
+        <c:axId val="434844416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +7524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="586635520"/>
+        <c:crossAx val="434838528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7440,7 +7674,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7527,6 +7761,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7536,7 +7776,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7623,6 +7863,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>62820298.226273552</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66688590.080739804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70425002.929197162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7665,7 +7911,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7752,6 +7998,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,7 +8013,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7848,6 +8100,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>56131164.512504093</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58983510.656406157</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62176292.895735525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,7 +8148,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7977,6 +8235,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7986,7 +8250,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8073,6 +8337,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-6689133.7137694582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7705079.4243336469</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8248710.0334616378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8094,11 +8364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616682240"/>
-        <c:axId val="616684160"/>
+        <c:axId val="434892800"/>
+        <c:axId val="434894336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616682240"/>
+        <c:axId val="434892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8141,14 +8411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616684160"/>
+        <c:crossAx val="434894336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616684160"/>
+        <c:axId val="434894336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616682240"/>
+        <c:crossAx val="434892800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8369,7 +8639,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8456,6 +8726,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3322173.5159850679</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3868291.8544662525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3736412.8484573644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,8 +8746,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465860480"/>
-        <c:axId val="465858944"/>
+        <c:axId val="435192192"/>
+        <c:axId val="435186304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8496,7 +8772,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8583,6 +8859,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8592,7 +8874,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8679,6 +8961,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8695,11 +8983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465851520"/>
-        <c:axId val="465853056"/>
+        <c:axId val="435174784"/>
+        <c:axId val="435184768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465851520"/>
+        <c:axId val="435174784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8742,14 +9030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465853056"/>
+        <c:crossAx val="435184768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465853056"/>
+        <c:axId val="435184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8800,12 +9088,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465851520"/>
+        <c:crossAx val="435174784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465858944"/>
+        <c:axId val="435186304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8842,12 +9130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465860480"/>
+        <c:crossAx val="435192192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465860480"/>
+        <c:axId val="435192192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8856,7 +9144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465858944"/>
+        <c:crossAx val="435186304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9006,7 +9294,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9093,6 +9381,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9102,7 +9396,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9189,6 +9483,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3198168.2049832903</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3647578.4357331442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4353228.5039913449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9231,7 +9531,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9318,6 +9618,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9327,7 +9633,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9414,6 +9720,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2922956.0996323489</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3319462.3021586766</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3994518.0349285752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,7 +9768,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9543,6 +9855,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,7 +9870,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9639,6 +9957,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-275212.10535094142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-328116.13357446762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-358710.46906276979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9660,11 +9984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465876096"/>
-        <c:axId val="465877632"/>
+        <c:axId val="435207552"/>
+        <c:axId val="435217536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465876096"/>
+        <c:axId val="435207552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9707,14 +10031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465877632"/>
+        <c:crossAx val="435217536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465877632"/>
+        <c:axId val="435217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9765,7 +10089,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465876096"/>
+        <c:crossAx val="435207552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9926,7 +10250,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10013,6 +10337,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>365471.08469506545</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>449410.23074985406</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>705650.06825820089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10027,8 +10357,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471676416"/>
-        <c:axId val="471674880"/>
+        <c:axId val="435249152"/>
+        <c:axId val="435247360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10053,7 +10383,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10140,6 +10470,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10149,7 +10485,7 @@
               <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10236,6 +10572,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10252,11 +10594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471663360"/>
-        <c:axId val="471664896"/>
+        <c:axId val="435239936"/>
+        <c:axId val="435245824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471663360"/>
+        <c:axId val="435239936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10299,14 +10641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471664896"/>
+        <c:crossAx val="435245824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471664896"/>
+        <c:axId val="435245824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10357,12 +10699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471663360"/>
+        <c:crossAx val="435239936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471674880"/>
+        <c:axId val="435247360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10399,12 +10741,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471676416"/>
+        <c:crossAx val="435249152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471676416"/>
+        <c:axId val="435249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,7 +10755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471674880"/>
+        <c:crossAx val="435247360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10563,7 +10905,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10650,6 +10992,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10659,7 +11007,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10746,6 +11094,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6127930.1238320917</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6531014.6413193587</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6924884.9102386739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10788,7 +11142,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10875,6 +11229,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10884,7 +11244,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10971,6 +11331,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5447254.6375277555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5751746.598965087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6092605.0096150665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11379,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11100,6 +11466,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11109,7 +11481,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11196,6 +11568,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-680675.48630433623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-779268.04235427175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-832279.90062360745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11217,11 +11595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473961216"/>
-        <c:axId val="473962752"/>
+        <c:axId val="435371008"/>
+        <c:axId val="435372800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473961216"/>
+        <c:axId val="435371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11264,14 +11642,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473962752"/>
+        <c:crossAx val="435372800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473962752"/>
+        <c:axId val="435372800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11322,7 +11700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473961216"/>
+        <c:crossAx val="435371008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12174,7 +12552,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13525,6 +13903,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="31">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="29">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="29">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="30">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="30">
+        <v>8759748.3271026202</v>
+      </c>
+      <c r="H32" s="30">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="I32" s="30">
+        <v>6471218.9630682301</v>
+      </c>
+      <c r="J32" s="30">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="K32" s="30">
+        <v>-768622.60162969679</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="29">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="29">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="30">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="30">
+        <v>9370399.9248802494</v>
+      </c>
+      <c r="H33" s="30">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="I33" s="30">
+        <v>6865089.2319875453</v>
+      </c>
+      <c r="J33" s="30">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="K33" s="30">
+        <v>-821181.45916597918</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13541,7 +13995,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15209,15 +15663,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>382930.29161290335</v>
+      </c>
+      <c r="F32" s="18">
+        <v>588218.55322526745</v>
+      </c>
+      <c r="G32" s="18">
+        <v>10385464.034817191</v>
+      </c>
+      <c r="H32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="I32" s="18">
+        <v>7764384.3647912135</v>
+      </c>
+      <c r="J32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-1003447.0404208144</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>374176.75547334965</v>
+      </c>
+      <c r="F33" s="18">
+        <v>580119.01788874704</v>
+      </c>
+      <c r="G33" s="18">
+        <v>10965583.052705938</v>
+      </c>
+      <c r="H33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="I33" s="18">
+        <v>8138561.1202645628</v>
+      </c>
+      <c r="J33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-1065760.2604211308</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15237,7 +15791,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16905,15 +17459,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3868291.8544662525</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5942076.3724468779</v>
+      </c>
+      <c r="G32" s="18">
+        <v>90604467.868870139</v>
+      </c>
+      <c r="H32" s="18">
+        <v>58983510.656406157</v>
+      </c>
+      <c r="I32" s="18">
+        <v>66688590.080739804</v>
+      </c>
+      <c r="J32" s="18">
+        <v>58983510.656406157</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-7705079.4243336469</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3736412.8484573644</v>
+      </c>
+      <c r="F33" s="18">
+        <v>5792888.3084464194</v>
+      </c>
+      <c r="G33" s="18">
+        <v>96397356.177316561</v>
+      </c>
+      <c r="H33" s="18">
+        <v>62176292.895735525</v>
+      </c>
+      <c r="I33" s="18">
+        <v>70425002.929197162</v>
+      </c>
+      <c r="J33" s="18">
+        <v>62176292.895735525</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-8248710.0334616378</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16933,7 +17587,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18787,15 +19441,127 @@
         <v>0</v>
       </c>
       <c r="O31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="P31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="R31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>449410.23074985406</v>
+      </c>
+      <c r="H32" s="18">
+        <v>690338.2718114669</v>
+      </c>
+      <c r="I32" s="18">
+        <v>5099020.2541495617</v>
+      </c>
+      <c r="J32" s="18">
+        <v>3319462.3021586766</v>
+      </c>
+      <c r="K32" s="18">
+        <v>3647578.4357331442</v>
+      </c>
+      <c r="L32" s="18">
+        <v>3319462.3021586766</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-328116.13357446762</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>705650.06825820089</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1094031.1459305256</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6193051.4000800876</v>
+      </c>
+      <c r="J33" s="18">
+        <v>3994518.0349285752</v>
+      </c>
+      <c r="K33" s="18">
+        <v>4353228.5039913449</v>
+      </c>
+      <c r="L33" s="18">
+        <v>3994518.0349285752</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-358710.46906276979</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18815,7 +19581,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20586,18 +21352,124 @@
         <v>0</v>
       </c>
       <c r="M31" s="21">
-        <v>7.4074008664308382</v>
+        <v>16.766465783542337</v>
       </c>
       <c r="N31" s="21">
-        <v>30.326294546977831</v>
+        <v>25.806351625832665</v>
       </c>
       <c r="O31" s="21">
-        <v>39.728368199179599</v>
+        <v>35.087696008063951</v>
       </c>
       <c r="P31" s="21">
-        <v>11.522147242574292</v>
+        <v>7.2436628613700975</v>
       </c>
       <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="18">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="18">
+        <v>8835247.921263149</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5751746.598965087</v>
+      </c>
+      <c r="I32" s="18">
+        <v>6531014.6413193587</v>
+      </c>
+      <c r="J32" s="18">
+        <v>5751746.598965087</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-779268.04235427175</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N32" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O32" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P32" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="18">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="18">
+        <v>9445899.5190407783</v>
+      </c>
+      <c r="H33" s="18">
+        <v>6092605.0096150665</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6924884.9102386739</v>
+      </c>
+      <c r="J33" s="18">
+        <v>6092605.0096150665</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-832279.90062360745</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N33" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O33" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P33" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20617,7 +21489,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22151,6 +23023,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>3397455.3329414804</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5218825.2127374057</v>
+      </c>
+      <c r="I32" s="18">
+        <v>33336161.801269889</v>
+      </c>
+      <c r="J32" s="18">
+        <v>21701842.095630888</v>
+      </c>
+      <c r="K32" s="18">
+        <v>23640257.499347821</v>
+      </c>
+      <c r="L32" s="18">
+        <v>21701842.095630888</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-1938415.403716933</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>5334579.4633873561</v>
+      </c>
+      <c r="H33" s="18">
+        <v>8270666.0792833995</v>
+      </c>
+      <c r="I33" s="18">
+        <v>41606827.88055329</v>
+      </c>
+      <c r="J33" s="18">
+        <v>26836403.189369608</v>
+      </c>
+      <c r="K33" s="18">
+        <v>28974836.962735176</v>
+      </c>
+      <c r="L33" s="18">
+        <v>26836403.189369608</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-2138433.7733655684</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -22167,7 +23127,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23518,6 +24478,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>4071886.1625960553</v>
+      </c>
+      <c r="F32" s="18">
+        <v>6254817.2341546081</v>
+      </c>
+      <c r="G32" s="18">
+        <v>75449295.439951241</v>
+      </c>
+      <c r="H32" s="18">
+        <v>49117493.058305584</v>
+      </c>
+      <c r="I32" s="18">
+        <v>54952660.666307978</v>
+      </c>
+      <c r="J32" s="18">
+        <v>49117493.058305584</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-5835167.6080023944</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3933066.1562709101</v>
+      </c>
+      <c r="F33" s="18">
+        <v>6097777.1667857049</v>
+      </c>
+      <c r="G33" s="18">
+        <v>81547072.606736943</v>
+      </c>
+      <c r="H33" s="18">
+        <v>52597860.275958352</v>
+      </c>
+      <c r="I33" s="18">
+        <v>58885726.822578892</v>
+      </c>
+      <c r="J33" s="18">
+        <v>52597860.275958352</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-6287866.5466205403</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -677,6 +677,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +689,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +782,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6865089.2319875453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7429784.6436091401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +827,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -914,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +932,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1016,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6043907.7728215661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5821489.671180008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1070,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1151,6 +1163,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1175,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1253,6 +1268,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-821181.45916597918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1608294.9724291321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,11 +1292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494899968"/>
-        <c:axId val="494924928"/>
+        <c:axId val="454819200"/>
+        <c:axId val="454866048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494899968"/>
+        <c:axId val="454819200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,14 +1339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494924928"/>
+        <c:crossAx val="454866048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494924928"/>
+        <c:axId val="454866048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494899968"/>
+        <c:crossAx val="454819200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,7 +1558,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1633,6 +1651,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,8 +1668,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435400064"/>
-        <c:axId val="435398528"/>
+        <c:axId val="370768896"/>
+        <c:axId val="370767360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1673,7 +1694,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1766,6 +1787,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,7 +1799,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1868,6 +1892,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,11 +1911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435387008"/>
-        <c:axId val="435396992"/>
+        <c:axId val="370764032"/>
+        <c:axId val="370765824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435387008"/>
+        <c:axId val="370764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,14 +1958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435396992"/>
+        <c:crossAx val="370765824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435396992"/>
+        <c:axId val="370765824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,12 +2016,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435387008"/>
+        <c:crossAx val="370764032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435398528"/>
+        <c:axId val="370767360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,12 +2058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435400064"/>
+        <c:crossAx val="370768896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435400064"/>
+        <c:axId val="370768896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435398528"/>
+        <c:crossAx val="370767360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,7 +2222,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2288,6 +2315,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,7 +2327,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2390,6 +2420,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>28974836.962735176</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46303000.123897567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,7 +2465,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2525,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,7 +2570,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2663,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>26836403.189369608</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40669593.16567979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,7 +2708,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2762,6 +2801,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,7 +2813,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2864,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2138433.7733655684</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5633406.9582177773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,11 +2930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435686016"/>
-        <c:axId val="436273536"/>
+        <c:axId val="370788608"/>
+        <c:axId val="370790400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435686016"/>
+        <c:axId val="370788608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,14 +2977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436273536"/>
+        <c:crossAx val="370790400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436273536"/>
+        <c:axId val="370790400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +3035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435686016"/>
+        <c:crossAx val="370788608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,7 +3196,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3244,6 +3289,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5334579.4633873561</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17328163.161162388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,8 +3306,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436300800"/>
-        <c:axId val="436299264"/>
+        <c:axId val="370948736"/>
+        <c:axId val="370947200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3284,7 +3332,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3425,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3437,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3479,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,11 +3549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436295936"/>
-        <c:axId val="436297728"/>
+        <c:axId val="370939776"/>
+        <c:axId val="370941312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436295936"/>
+        <c:axId val="370939776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3542,14 +3596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436297728"/>
+        <c:crossAx val="370941312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436297728"/>
+        <c:axId val="370941312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,12 +3654,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436295936"/>
+        <c:crossAx val="370939776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436299264"/>
+        <c:axId val="370947200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,12 +3696,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436300800"/>
+        <c:crossAx val="370948736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436300800"/>
+        <c:axId val="370948736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436299264"/>
+        <c:crossAx val="370947200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3806,7 +3860,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3899,6 +3953,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,7 +3965,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4001,6 +4058,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>58885726.822578892</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65637577.680846065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,7 +4103,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4136,6 +4196,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,7 +4208,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4238,6 +4301,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52597860.275958352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52499757.735183768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,7 +4346,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4373,6 +4439,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,7 +4451,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4475,6 +4544,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-6287866.5466205403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13137819.945662297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4496,11 +4568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439454336"/>
-        <c:axId val="439460224"/>
+        <c:axId val="371005696"/>
+        <c:axId val="371015680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439454336"/>
+        <c:axId val="371005696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,14 +4615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439460224"/>
+        <c:crossAx val="371015680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439460224"/>
+        <c:axId val="371015680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,7 +4673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439454336"/>
+        <c:crossAx val="371005696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4762,7 +4834,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4855,6 +4927,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3933066.1562709101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6751850.8582671722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,8 +4944,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441719808"/>
-        <c:axId val="441718272"/>
+        <c:axId val="371055232"/>
+        <c:axId val="371053696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4895,7 +4970,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4988,6 +5063,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4997,7 +5075,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5090,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,11 +5187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441714944"/>
-        <c:axId val="441716736"/>
+        <c:axId val="371046272"/>
+        <c:axId val="371047808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441714944"/>
+        <c:axId val="371046272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,14 +5234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441716736"/>
+        <c:crossAx val="371047808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441716736"/>
+        <c:axId val="371047808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,12 +5292,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441714944"/>
+        <c:crossAx val="371046272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441718272"/>
+        <c:axId val="371053696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5253,12 +5334,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441719808"/>
+        <c:crossAx val="371055232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441719808"/>
+        <c:axId val="371055232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +5348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441718272"/>
+        <c:crossAx val="371053696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5399,7 +5480,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5492,6 +5573,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5506,8 +5590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516500864"/>
-        <c:axId val="516499328"/>
+        <c:axId val="489401728"/>
+        <c:axId val="489400192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5532,7 +5616,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5625,6 +5709,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,7 +5721,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5727,6 +5814,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5743,11 +5833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516182400"/>
-        <c:axId val="516183936"/>
+        <c:axId val="487794944"/>
+        <c:axId val="489398272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516182400"/>
+        <c:axId val="487794944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5790,14 +5880,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516183936"/>
+        <c:crossAx val="489398272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516183936"/>
+        <c:axId val="489398272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,12 +5938,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516182400"/>
+        <c:crossAx val="487794944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516499328"/>
+        <c:axId val="489400192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,12 +5980,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516500864"/>
+        <c:crossAx val="489401728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516500864"/>
+        <c:axId val="489401728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516499328"/>
+        <c:crossAx val="489400192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6054,7 +6144,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6147,6 +6237,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6156,7 +6249,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6249,6 +6342,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8138561.1202645628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8675021.761305077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6291,7 +6387,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6384,6 +6480,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6393,7 +6492,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6486,6 +6585,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7072800.859843432</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6688152.6185750011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,7 +6630,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6621,6 +6723,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,7 +6735,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6723,6 +6828,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-1065760.2604211308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1986869.1427300759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,11 +6852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314031488"/>
-        <c:axId val="314033280"/>
+        <c:axId val="362867712"/>
+        <c:axId val="370279168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="314031488"/>
+        <c:axId val="362867712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,14 +6899,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314033280"/>
+        <c:crossAx val="370279168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314033280"/>
+        <c:axId val="370279168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6849,7 +6957,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314031488"/>
+        <c:crossAx val="362867712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7019,7 +7127,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7112,6 +7220,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>374176.75547334965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>536460.64104051457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7126,8 +7237,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434844416"/>
-        <c:axId val="434838528"/>
+        <c:axId val="370311168"/>
+        <c:axId val="370301184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7152,7 +7263,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7245,6 +7356,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7254,7 +7368,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7347,6 +7461,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7363,11 +7480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434835456"/>
-        <c:axId val="434836992"/>
+        <c:axId val="370297856"/>
+        <c:axId val="370299648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434835456"/>
+        <c:axId val="370297856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7410,14 +7527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434836992"/>
+        <c:crossAx val="370299648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434836992"/>
+        <c:axId val="370299648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7468,12 +7585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434835456"/>
+        <c:crossAx val="370297856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434838528"/>
+        <c:axId val="370301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,12 +7627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434844416"/>
+        <c:crossAx val="370311168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434844416"/>
+        <c:axId val="370311168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7524,7 +7641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434838528"/>
+        <c:crossAx val="370301184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7674,7 +7791,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7767,6 +7884,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7776,7 +7896,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7869,6 +7989,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>70425002.929197162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76839261.244550973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,7 +8034,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8004,6 +8127,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8013,7 +8139,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8106,6 +8232,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62176292.895735525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60493174.119579889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8148,7 +8277,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8241,6 +8370,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8250,7 +8382,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8343,6 +8475,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-8248710.0334616378</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-16346087.124971084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,11 +8499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434892800"/>
-        <c:axId val="434894336"/>
+        <c:axId val="370486272"/>
+        <c:axId val="370488064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434892800"/>
+        <c:axId val="370486272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,14 +8546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434894336"/>
+        <c:crossAx val="370488064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434894336"/>
+        <c:axId val="370488064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8469,7 +8604,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434892800"/>
+        <c:crossAx val="370486272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8639,7 +8774,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8732,6 +8867,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3736412.8484573644</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6414258.3153538136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8746,8 +8884,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435192192"/>
-        <c:axId val="435186304"/>
+        <c:axId val="370512256"/>
+        <c:axId val="370510464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8772,7 +8910,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8865,6 +9003,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8874,7 +9015,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8967,6 +9108,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,11 +9127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435174784"/>
-        <c:axId val="435184768"/>
+        <c:axId val="370503040"/>
+        <c:axId val="370508928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435174784"/>
+        <c:axId val="370503040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9030,14 +9174,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435184768"/>
+        <c:crossAx val="370508928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435184768"/>
+        <c:axId val="370508928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,12 +9232,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435174784"/>
+        <c:crossAx val="370503040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435186304"/>
+        <c:axId val="370510464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9130,12 +9274,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435192192"/>
+        <c:crossAx val="370512256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435192192"/>
+        <c:axId val="370512256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9144,7 +9288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435186304"/>
+        <c:crossAx val="370510464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9294,7 +9438,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9387,6 +9531,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9396,7 +9543,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9489,6 +9636,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4353228.5039913449</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6645371.6056894073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9531,7 +9681,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9624,6 +9774,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,7 +9786,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9726,6 +9879,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3994518.0349285752</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5766444.8721752977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9768,7 +9924,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9861,6 +10017,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9870,7 +10029,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9963,6 +10122,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-358710.46906276979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-878926.73351410963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9984,11 +10146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435207552"/>
-        <c:axId val="435217536"/>
+        <c:axId val="370535808"/>
+        <c:axId val="370672768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435207552"/>
+        <c:axId val="370535808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10031,14 +10193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435217536"/>
+        <c:crossAx val="370672768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435217536"/>
+        <c:axId val="370672768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10089,7 +10251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435207552"/>
+        <c:crossAx val="370535808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10250,7 +10412,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10343,6 +10505,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>705650.06825820089</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2292143.1016980624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10357,8 +10522,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435249152"/>
-        <c:axId val="435247360"/>
+        <c:axId val="370696192"/>
+        <c:axId val="370694400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10383,7 +10548,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10476,6 +10641,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10485,7 +10653,7 @@
               <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10578,6 +10746,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10594,11 +10765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435239936"/>
-        <c:axId val="435245824"/>
+        <c:axId val="370686976"/>
+        <c:axId val="370692864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435239936"/>
+        <c:axId val="370686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10641,14 +10812,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435245824"/>
+        <c:crossAx val="370692864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435245824"/>
+        <c:axId val="370692864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10699,12 +10870,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435239936"/>
+        <c:crossAx val="370686976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435247360"/>
+        <c:axId val="370694400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10741,12 +10912,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435249152"/>
+        <c:crossAx val="370696192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435249152"/>
+        <c:axId val="370696192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10755,7 +10926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435247360"/>
+        <c:crossAx val="370694400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10905,7 +11076,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10998,6 +11169,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11007,7 +11181,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11100,6 +11274,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6924884.9102386739</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7489580.3218602687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11142,7 +11319,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11235,6 +11412,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11244,7 +11424,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11337,6 +11517,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6092605.0096150665</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5863844.9427120406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11379,7 +11562,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11472,6 +11655,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11481,7 +11667,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11574,6 +11760,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-832279.90062360745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1625735.3791482281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11595,11 +11784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435371008"/>
-        <c:axId val="435372800"/>
+        <c:axId val="370752512"/>
+        <c:axId val="370754304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435371008"/>
+        <c:axId val="370752512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11642,14 +11831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435372800"/>
+        <c:crossAx val="370754304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435372800"/>
+        <c:axId val="370754304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11700,7 +11889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435371008"/>
+        <c:crossAx val="370752512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12552,7 +12741,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13979,6 +14168,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="31">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="29">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="29">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="30">
+        <v>10376987.13019418</v>
+      </c>
+      <c r="H34" s="30">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="I34" s="30">
+        <v>7429784.6436091401</v>
+      </c>
+      <c r="J34" s="30">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="K34" s="30">
+        <v>-1608294.9724291321</v>
+      </c>
+      <c r="L34" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13995,7 +14222,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15775,6 +16002,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>536460.64104051457</v>
+      </c>
+      <c r="F34" s="18">
+        <v>956257.84504823282</v>
+      </c>
+      <c r="G34" s="18">
+        <v>11921840.89775417</v>
+      </c>
+      <c r="H34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="I34" s="18">
+        <v>8675021.761305077</v>
+      </c>
+      <c r="J34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1986869.1427300759</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15791,7 +16068,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17571,6 +17848,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>6414258.3153538136</v>
+      </c>
+      <c r="F34" s="18">
+        <v>11433615.749192899</v>
+      </c>
+      <c r="G34" s="18">
+        <v>107830971.92650945</v>
+      </c>
+      <c r="H34" s="18">
+        <v>60493174.119579889</v>
+      </c>
+      <c r="I34" s="18">
+        <v>76839261.244550973</v>
+      </c>
+      <c r="J34" s="18">
+        <v>60493174.119579889</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-16346087.124971084</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17587,7 +17914,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19565,6 +19892,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>2292143.1016980624</v>
+      </c>
+      <c r="H34" s="18">
+        <v>4085816.6569696702</v>
+      </c>
+      <c r="I34" s="18">
+        <v>10278868.057049759</v>
+      </c>
+      <c r="J34" s="18">
+        <v>5766444.8721752977</v>
+      </c>
+      <c r="K34" s="18">
+        <v>6645371.6056894073</v>
+      </c>
+      <c r="L34" s="18">
+        <v>5766444.8721752977</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-878926.73351410963</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="P34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -19581,7 +19964,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21473,6 +21856,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="18">
+        <v>10452486.724354707</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5863844.9427120406</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7489580.3218602687</v>
+      </c>
+      <c r="J34" s="18">
+        <v>5863844.9427120406</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1625735.3791482281</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>18.749994445931186</v>
+      </c>
+      <c r="N34" s="21">
+        <v>20.04338484474631</v>
+      </c>
+      <c r="O34" s="21">
+        <v>26.873455406089164</v>
+      </c>
+      <c r="P34" s="21">
+        <v>6.3832437220605982</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21489,7 +21925,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23111,6 +23547,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>17328163.161162388</v>
+      </c>
+      <c r="H34" s="18">
+        <v>30887991.952210907</v>
+      </c>
+      <c r="I34" s="18">
+        <v>72494819.832764193</v>
+      </c>
+      <c r="J34" s="18">
+        <v>40669593.16567979</v>
+      </c>
+      <c r="K34" s="18">
+        <v>46303000.123897567</v>
+      </c>
+      <c r="L34" s="18">
+        <v>40669593.16567979</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-5633406.9582177773</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -23127,7 +23607,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24554,6 +25034,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>6751850.8582671722</v>
+      </c>
+      <c r="F34" s="18">
+        <v>12035384.99915042</v>
+      </c>
+      <c r="G34" s="18">
+        <v>93582457.605887368</v>
+      </c>
+      <c r="H34" s="18">
+        <v>52499757.735183768</v>
+      </c>
+      <c r="I34" s="18">
+        <v>65637577.680846065</v>
+      </c>
+      <c r="J34" s="18">
+        <v>52499757.735183768</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-13137819.945662297</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -680,6 +680,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,7 +692,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,6 +788,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7429784.6436091401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7795825.7760371994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +833,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -923,6 +929,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +941,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1028,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5821489.671180008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6986559.0402471395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1082,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1166,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1190,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1271,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1608294.9724291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-809266.7357900599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,11 +1310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454819200"/>
-        <c:axId val="454866048"/>
+        <c:axId val="98049408"/>
+        <c:axId val="156087424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454819200"/>
+        <c:axId val="98049408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866048"/>
+        <c:crossAx val="156087424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454866048"/>
+        <c:axId val="156087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454819200"/>
+        <c:crossAx val="98049408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,7 +1576,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1654,6 +1672,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439249.35891367169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,8 +1689,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370768896"/>
-        <c:axId val="370767360"/>
+        <c:axId val="98051584"/>
+        <c:axId val="98050048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1694,7 +1715,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1790,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1823,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1895,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,11 +1938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370764032"/>
-        <c:axId val="370765824"/>
+        <c:axId val="98042624"/>
+        <c:axId val="98044160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370764032"/>
+        <c:axId val="98042624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,14 +1985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370765824"/>
+        <c:crossAx val="98044160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370765824"/>
+        <c:axId val="98044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,12 +2043,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370764032"/>
+        <c:crossAx val="98042624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370767360"/>
+        <c:axId val="98050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,12 +2085,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370768896"/>
+        <c:crossAx val="98051584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370768896"/>
+        <c:axId val="98051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370767360"/>
+        <c:crossAx val="98050048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,7 +2249,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2318,6 +2345,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,7 +2357,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2423,6 +2453,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46303000.123897567</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56727510.187086932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,7 +2498,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2561,6 +2594,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,7 +2606,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2666,6 +2702,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>40669593.16567979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56676205.946130291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,7 +2747,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2804,6 +2843,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,7 +2855,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2909,6 +2951,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-5633406.9582177773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-51304.240956641734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,11 +2975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370788608"/>
-        <c:axId val="370790400"/>
+        <c:axId val="98095872"/>
+        <c:axId val="98097408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370788608"/>
+        <c:axId val="98095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,14 +3022,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370790400"/>
+        <c:crossAx val="98097408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370790400"/>
+        <c:axId val="98097408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3080,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370788608"/>
+        <c:crossAx val="98095872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3196,7 +3241,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3292,6 +3337,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>17328163.161162388</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10424510.063189363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,8 +3354,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370948736"/>
-        <c:axId val="370947200"/>
+        <c:axId val="155919488"/>
+        <c:axId val="155913600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3332,7 +3380,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3428,6 +3476,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,7 +3488,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3533,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,11 +3603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370939776"/>
-        <c:axId val="370941312"/>
+        <c:axId val="155910528"/>
+        <c:axId val="155912064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370939776"/>
+        <c:axId val="155910528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3596,14 +3650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370941312"/>
+        <c:crossAx val="155912064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370941312"/>
+        <c:axId val="155912064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,12 +3708,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370939776"/>
+        <c:crossAx val="155910528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370947200"/>
+        <c:axId val="155913600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,12 +3750,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370948736"/>
+        <c:crossAx val="155919488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370948736"/>
+        <c:axId val="155919488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,7 +3764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370947200"/>
+        <c:crossAx val="155913600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3860,7 +3914,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3956,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,7 +4022,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4061,6 +4118,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>65637577.680846065</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69161256.270204231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,7 +4163,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4199,6 +4259,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4208,7 +4271,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4304,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>52499757.735183768</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63229287.61288055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,7 +4412,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4442,6 +4508,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,7 +4520,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4547,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-13137819.945662297</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5931968.6573236808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,11 +4640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371005696"/>
-        <c:axId val="371015680"/>
+        <c:axId val="155943680"/>
+        <c:axId val="155945216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371005696"/>
+        <c:axId val="155943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,14 +4687,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371015680"/>
+        <c:crossAx val="155945216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371015680"/>
+        <c:axId val="155945216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371005696"/>
+        <c:crossAx val="155943680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4834,7 +4906,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4930,6 +5002,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6751850.8582671722</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3523678.5893581696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,8 +5019,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371055232"/>
-        <c:axId val="371053696"/>
+        <c:axId val="156439680"/>
+        <c:axId val="156052864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4970,7 +5045,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5066,6 +5141,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,7 +5153,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5171,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5187,11 +5268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371046272"/>
-        <c:axId val="371047808"/>
+        <c:axId val="156049792"/>
+        <c:axId val="156051328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371046272"/>
+        <c:axId val="156049792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5234,14 +5315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371047808"/>
+        <c:crossAx val="156051328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371047808"/>
+        <c:axId val="156051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5292,12 +5373,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371046272"/>
+        <c:crossAx val="156049792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371053696"/>
+        <c:axId val="156052864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5334,12 +5415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371055232"/>
+        <c:crossAx val="156439680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="371055232"/>
+        <c:axId val="156439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,7 +5429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371053696"/>
+        <c:crossAx val="156052864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5480,7 +5561,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5576,6 +5657,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,8 +5674,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489401728"/>
-        <c:axId val="489400192"/>
+        <c:axId val="458572544"/>
+        <c:axId val="442550912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5616,7 +5700,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5712,6 +5796,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,7 +5808,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5817,6 +5904,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,11 +5923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487794944"/>
-        <c:axId val="489398272"/>
+        <c:axId val="417692672"/>
+        <c:axId val="442548992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487794944"/>
+        <c:axId val="417692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,14 +5970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489398272"/>
+        <c:crossAx val="442548992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489398272"/>
+        <c:axId val="442548992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,12 +6028,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487794944"/>
+        <c:crossAx val="417692672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489400192"/>
+        <c:axId val="442550912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5980,12 +6070,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489401728"/>
+        <c:crossAx val="458572544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489401728"/>
+        <c:axId val="458572544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +6084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489400192"/>
+        <c:crossAx val="442550912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6144,7 +6234,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6240,6 +6330,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,7 +6342,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6345,6 +6438,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8675021.761305077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9041062.8937331364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,7 +6483,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6483,6 +6579,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6492,7 +6591,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6588,6 +6687,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6688152.6185750011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7972175.7616298608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,7 +6732,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6726,6 +6828,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6735,7 +6840,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6831,6 +6936,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1986869.1427300759</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1068887.1321032755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6852,11 +6960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="362867712"/>
-        <c:axId val="370279168"/>
+        <c:axId val="487535744"/>
+        <c:axId val="487537280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="362867712"/>
+        <c:axId val="487535744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6899,14 +7007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370279168"/>
+        <c:crossAx val="487537280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370279168"/>
+        <c:axId val="487537280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6957,7 +7065,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362867712"/>
+        <c:crossAx val="487535744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7127,7 +7235,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7223,6 +7331,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>536460.64104051457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7237,8 +7348,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370311168"/>
-        <c:axId val="370301184"/>
+        <c:axId val="524182272"/>
+        <c:axId val="518851584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7263,7 +7374,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7359,6 +7470,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7368,7 +7482,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7464,6 +7578,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,11 +7597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370297856"/>
-        <c:axId val="370299648"/>
+        <c:axId val="495549824"/>
+        <c:axId val="518850048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370297856"/>
+        <c:axId val="495549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7527,14 +7644,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370299648"/>
+        <c:crossAx val="518850048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370299648"/>
+        <c:axId val="518850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7585,12 +7702,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370297856"/>
+        <c:crossAx val="495549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370301184"/>
+        <c:axId val="518851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7627,12 +7744,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370311168"/>
+        <c:crossAx val="524182272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370311168"/>
+        <c:axId val="524182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7641,7 +7758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370301184"/>
+        <c:crossAx val="518851584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7791,7 +7908,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7887,6 +8004,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7896,7 +8016,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7992,6 +8112,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>76839261.244550973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80362939.833909139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8034,7 +8157,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8130,6 +8253,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8139,7 +8265,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8235,6 +8361,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>60493174.119579889</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72319839.912498742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8277,7 +8406,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8373,6 +8502,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8382,7 +8514,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8478,6 +8610,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-16346087.124971084</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8043099.9214103967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8499,11 +8634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370486272"/>
-        <c:axId val="370488064"/>
+        <c:axId val="89994752"/>
+        <c:axId val="89996288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370486272"/>
+        <c:axId val="89994752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8546,14 +8681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370488064"/>
+        <c:crossAx val="89996288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370488064"/>
+        <c:axId val="89996288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8604,7 +8739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370486272"/>
+        <c:crossAx val="89994752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8774,7 +8909,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8870,6 +9005,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6414258.3153538136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3523678.5893581696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,8 +9022,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370512256"/>
-        <c:axId val="370510464"/>
+        <c:axId val="97532544"/>
+        <c:axId val="97531008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8910,7 +9048,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9006,6 +9144,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9015,7 +9156,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9111,6 +9252,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9127,11 +9271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370503040"/>
-        <c:axId val="370508928"/>
+        <c:axId val="97519488"/>
+        <c:axId val="97521024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370503040"/>
+        <c:axId val="97519488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,14 +9318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370508928"/>
+        <c:crossAx val="97521024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370508928"/>
+        <c:axId val="97521024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9232,12 +9376,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370503040"/>
+        <c:crossAx val="97519488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370510464"/>
+        <c:axId val="97531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9274,12 +9418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370512256"/>
+        <c:crossAx val="97532544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370512256"/>
+        <c:axId val="97532544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9288,7 +9432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370510464"/>
+        <c:crossAx val="97531008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9438,7 +9582,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9534,6 +9678,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9543,7 +9690,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9639,6 +9786,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6645371.6056894073</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8096885.6651208382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9681,7 +9831,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9777,6 +9927,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9786,7 +9939,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9882,6 +10035,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5766444.8721752977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8009431.9974614866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9924,7 +10080,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10020,6 +10176,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10029,7 +10188,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10125,6 +10284,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-878926.73351410963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-87453.667659351602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10146,11 +10308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370535808"/>
-        <c:axId val="370672768"/>
+        <c:axId val="97650176"/>
+        <c:axId val="97651712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370535808"/>
+        <c:axId val="97650176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10193,14 +10355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370672768"/>
+        <c:crossAx val="97651712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370672768"/>
+        <c:axId val="97651712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10251,7 +10413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370535808"/>
+        <c:crossAx val="97650176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10412,7 +10574,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10508,6 +10670,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2292143.1016980624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1451514.0594314304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10522,8 +10687,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370696192"/>
-        <c:axId val="370694400"/>
+        <c:axId val="97691520"/>
+        <c:axId val="97689984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10548,7 +10713,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10644,6 +10809,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10653,7 +10821,7 @@
               <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10749,6 +10917,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10765,11 +10936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370686976"/>
-        <c:axId val="370692864"/>
+        <c:axId val="97678464"/>
+        <c:axId val="97680000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370686976"/>
+        <c:axId val="97678464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10812,14 +10983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370692864"/>
+        <c:crossAx val="97680000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370692864"/>
+        <c:axId val="97680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10870,12 +11041,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370686976"/>
+        <c:crossAx val="97678464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370694400"/>
+        <c:axId val="97689984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10912,12 +11083,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370696192"/>
+        <c:crossAx val="97691520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370696192"/>
+        <c:axId val="97691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10926,7 +11097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370694400"/>
+        <c:crossAx val="97689984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11076,7 +11247,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11172,6 +11343,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11181,7 +11355,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11277,6 +11451,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7489580.3218602687</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7928829.6807739399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11319,7 +11496,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11415,6 +11592,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11424,7 +11604,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11520,6 +11700,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5863844.9427120406</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7107936.0086711925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11562,7 +11745,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11658,6 +11841,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11667,7 +11853,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11763,6 +11949,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1625735.3791482281</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-820893.67210274749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11784,11 +11973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370752512"/>
-        <c:axId val="370754304"/>
+        <c:axId val="97707136"/>
+        <c:axId val="97708672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370752512"/>
+        <c:axId val="97707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11831,14 +12020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370754304"/>
+        <c:crossAx val="97708672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370754304"/>
+        <c:axId val="97708672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11889,7 +12078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370752512"/>
+        <c:crossAx val="97707136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12741,7 +12930,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14206,6 +14395,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="31">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="29">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="29">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="30">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="30">
+        <v>10950719.30239201</v>
+      </c>
+      <c r="H35" s="30">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="I35" s="30">
+        <v>7795825.7760371994</v>
+      </c>
+      <c r="J35" s="30">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="K35" s="30">
+        <v>-809266.7357900599</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14222,7 +14449,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16052,6 +16279,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="18">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="18">
+        <v>12495573.069952</v>
+      </c>
+      <c r="H35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="I35" s="18">
+        <v>9041062.8937331364</v>
+      </c>
+      <c r="J35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-1068887.1321032755</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16068,7 +16345,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17898,6 +18175,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>3523678.5893581696</v>
+      </c>
+      <c r="F35" s="18">
+        <v>5523007.0942827109</v>
+      </c>
+      <c r="G35" s="18">
+        <v>113353979.02079217</v>
+      </c>
+      <c r="H35" s="18">
+        <v>72319839.912498742</v>
+      </c>
+      <c r="I35" s="18">
+        <v>80362939.833909139</v>
+      </c>
+      <c r="J35" s="18">
+        <v>72319839.912498742</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-8043099.9214103967</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17914,7 +18241,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19948,6 +20275,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1451514.0594314304</v>
+      </c>
+      <c r="H35" s="18">
+        <v>2275100.3658228419</v>
+      </c>
+      <c r="I35" s="18">
+        <v>12553968.422872601</v>
+      </c>
+      <c r="J35" s="18">
+        <v>8009431.9974614866</v>
+      </c>
+      <c r="K35" s="18">
+        <v>8096885.6651208382</v>
+      </c>
+      <c r="L35" s="18">
+        <v>8009431.9974614866</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-87453.667659351602</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="P35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -19964,7 +20347,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21909,6 +22292,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>439249.35891367169</v>
+      </c>
+      <c r="F35" s="18">
+        <v>688478.60663739708</v>
+      </c>
+      <c r="G35" s="18">
+        <v>11140965.330992104</v>
+      </c>
+      <c r="H35" s="18">
+        <v>7107936.0086711925</v>
+      </c>
+      <c r="I35" s="18">
+        <v>7928829.6807739399</v>
+      </c>
+      <c r="J35" s="18">
+        <v>7107936.0086711925</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-820893.67210274749</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0.93022069523420603</v>
+      </c>
+      <c r="N35" s="21">
+        <v>13.672330128242274</v>
+      </c>
+      <c r="O35" s="21">
+        <v>22.473080313473535</v>
+      </c>
+      <c r="P35" s="21">
+        <v>-3.9291702422202448</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21925,7 +22361,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23591,6 +24027,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>10424510.063189363</v>
+      </c>
+      <c r="H35" s="18">
+        <v>16339357.17272768</v>
+      </c>
+      <c r="I35" s="18">
+        <v>88834177.005491868</v>
+      </c>
+      <c r="J35" s="18">
+        <v>56676205.946130291</v>
+      </c>
+      <c r="K35" s="18">
+        <v>56727510.187086932</v>
+      </c>
+      <c r="L35" s="18">
+        <v>56676205.946130291</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-51304.240956641734</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -23607,7 +24087,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25072,6 +25552,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>3523678.5893581696</v>
+      </c>
+      <c r="F35" s="18">
+        <v>5523007.0942827109</v>
+      </c>
+      <c r="G35" s="18">
+        <v>99105464.700170085</v>
+      </c>
+      <c r="H35" s="18">
+        <v>63229287.61288055</v>
+      </c>
+      <c r="I35" s="18">
+        <v>69161256.270204231</v>
+      </c>
+      <c r="J35" s="18">
+        <v>63229287.61288055</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-5931968.6573236808</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="14" r:id="rId1"/>
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -683,6 +683,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +695,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -791,6 +794,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7795825.7760371994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8128674.1780120125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +839,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -932,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +950,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1040,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6986559.0402471395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7407013.3741792245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1094,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1181,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1205,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1289,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-809266.7357900599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-721660.80383278802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,11 +1328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98049408"/>
-        <c:axId val="156087424"/>
+        <c:axId val="512134144"/>
+        <c:axId val="524006912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98049408"/>
+        <c:axId val="512134144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,14 +1375,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156087424"/>
+        <c:crossAx val="524006912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156087424"/>
+        <c:axId val="524006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98049408"/>
+        <c:crossAx val="512134144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1576,7 +1594,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1675,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>439249.35891367169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,8 +1710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98051584"/>
-        <c:axId val="98050048"/>
+        <c:axId val="425886848"/>
+        <c:axId val="425885056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1715,7 +1736,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1814,6 +1835,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,7 +1847,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1922,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,11 +1965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98042624"/>
-        <c:axId val="98044160"/>
+        <c:axId val="425881984"/>
+        <c:axId val="425883520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98042624"/>
+        <c:axId val="425881984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,14 +2012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98044160"/>
+        <c:crossAx val="425883520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98044160"/>
+        <c:axId val="425883520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2070,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98042624"/>
+        <c:crossAx val="425881984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98050048"/>
+        <c:axId val="425885056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2112,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98051584"/>
+        <c:crossAx val="425886848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="98051584"/>
+        <c:axId val="425886848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98050048"/>
+        <c:crossAx val="425885056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2249,7 +2276,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2348,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,7 +2387,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2456,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>56727510.187086932</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62630233.545065001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2531,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2597,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,7 +2642,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2705,6 +2741,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>56676205.946130291</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63289604.160373129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,7 +2786,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2846,6 +2885,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,7 +2897,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2954,6 +2996,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-51304.240956641734</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>659370.6153081283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,11 +3020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98095872"/>
-        <c:axId val="98097408"/>
+        <c:axId val="426656128"/>
+        <c:axId val="426657664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98095872"/>
+        <c:axId val="426656128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,14 +3067,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98097408"/>
+        <c:crossAx val="426657664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98097408"/>
+        <c:axId val="426657664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3125,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98095872"/>
+        <c:crossAx val="426656128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,7 +3286,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3340,6 +3385,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10424510.063189363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5902723.3579780655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,8 +3402,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155919488"/>
-        <c:axId val="155913600"/>
+        <c:axId val="426693376"/>
+        <c:axId val="426683392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3380,7 +3428,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3479,6 +3527,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3539,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3587,6 +3638,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,11 +3657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155910528"/>
-        <c:axId val="155912064"/>
+        <c:axId val="426680320"/>
+        <c:axId val="426681856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="155910528"/>
+        <c:axId val="426680320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,14 +3704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155912064"/>
+        <c:crossAx val="426681856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155912064"/>
+        <c:axId val="426681856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,12 +3762,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155910528"/>
+        <c:crossAx val="426680320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155913600"/>
+        <c:axId val="426683392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,12 +3804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155919488"/>
+        <c:crossAx val="426693376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155919488"/>
+        <c:axId val="426693376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155913600"/>
+        <c:crossAx val="426683392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3914,7 +3968,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4013,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,7 +4079,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4121,6 +4178,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>69161256.270204231</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72216678.025062874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,7 +4223,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4262,6 +4322,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,7 +4334,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4370,6 +4433,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>63229287.61288055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67077554.692084268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4478,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4511,6 +4577,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,7 +4589,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4619,6 +4688,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-5931968.6573236808</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5139123.3329786062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,11 +4712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155943680"/>
-        <c:axId val="155945216"/>
+        <c:axId val="435036544"/>
+        <c:axId val="435038080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="155943680"/>
+        <c:axId val="435036544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,14 +4759,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155945216"/>
+        <c:crossAx val="435038080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155945216"/>
+        <c:axId val="435038080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +4817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155943680"/>
+        <c:crossAx val="435036544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4906,7 +4978,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5005,6 +5077,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3523678.5893581696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3055421.7548586358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,8 +5094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156439680"/>
-        <c:axId val="156052864"/>
+        <c:axId val="435073792"/>
+        <c:axId val="435059712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5045,7 +5120,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5144,6 +5219,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5153,7 +5231,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5252,6 +5330,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,11 +5349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156049792"/>
-        <c:axId val="156051328"/>
+        <c:axId val="435056640"/>
+        <c:axId val="435058176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156049792"/>
+        <c:axId val="435056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,14 +5396,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156051328"/>
+        <c:crossAx val="435058176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156051328"/>
+        <c:axId val="435058176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,12 +5454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156049792"/>
+        <c:crossAx val="435056640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156052864"/>
+        <c:axId val="435059712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5415,12 +5496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156439680"/>
+        <c:crossAx val="435073792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156439680"/>
+        <c:axId val="435073792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156052864"/>
+        <c:crossAx val="435059712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5561,7 +5642,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5660,6 +5741,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,8 +5758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458572544"/>
-        <c:axId val="442550912"/>
+        <c:axId val="617499648"/>
+        <c:axId val="567380992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5700,7 +5784,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5799,6 +5883,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5808,7 +5895,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5907,6 +5994,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5923,11 +6013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="417692672"/>
-        <c:axId val="442548992"/>
+        <c:axId val="564301184"/>
+        <c:axId val="567379072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="417692672"/>
+        <c:axId val="564301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5970,14 +6060,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442548992"/>
+        <c:crossAx val="567379072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442548992"/>
+        <c:axId val="567379072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6028,12 +6118,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417692672"/>
+        <c:crossAx val="564301184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442550912"/>
+        <c:axId val="567380992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,12 +6160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458572544"/>
+        <c:crossAx val="617499648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458572544"/>
+        <c:axId val="617499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6084,7 +6174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442550912"/>
+        <c:crossAx val="567380992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6234,7 +6324,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6333,6 +6423,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,7 +6435,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6441,6 +6534,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>9041062.8937331364</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9706759.6976827625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6483,7 +6579,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6582,6 +6678,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6690,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6690,6 +6789,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7972175.7616298608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8737837.3527231254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6732,7 +6834,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6831,6 +6933,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,7 +6945,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6939,6 +7044,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1068887.1321032755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-968922.34495963715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,11 +7068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487535744"/>
-        <c:axId val="487537280"/>
+        <c:axId val="617584512"/>
+        <c:axId val="617586048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487535744"/>
+        <c:axId val="617584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,14 +7115,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487537280"/>
+        <c:crossAx val="617586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487537280"/>
+        <c:axId val="617586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7065,7 +7173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487535744"/>
+        <c:crossAx val="617584512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7235,7 +7343,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7334,6 +7442,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>665696.80394962698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7348,8 +7459,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524182272"/>
-        <c:axId val="518851584"/>
+        <c:axId val="617629184"/>
+        <c:axId val="617626624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7374,7 +7485,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7473,6 +7584,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7482,7 +7596,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7581,6 +7695,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,11 +7714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495549824"/>
-        <c:axId val="518850048"/>
+        <c:axId val="617617280"/>
+        <c:axId val="617624320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495549824"/>
+        <c:axId val="617617280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7644,14 +7761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518850048"/>
+        <c:crossAx val="617624320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518850048"/>
+        <c:axId val="617624320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7702,12 +7819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495549824"/>
+        <c:crossAx val="617617280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518851584"/>
+        <c:axId val="617626624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7744,12 +7861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524182272"/>
+        <c:crossAx val="617629184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="524182272"/>
+        <c:axId val="617629184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,7 +7875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518851584"/>
+        <c:crossAx val="617626624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7908,7 +8025,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8007,6 +8124,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8016,7 +8136,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8115,6 +8235,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>80362939.833909139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86473783.34362641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8157,7 +8280,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8256,6 +8379,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,7 +8391,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8364,6 +8490,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>72319839.912498742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79337517.092129588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8406,7 +8535,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8505,6 +8634,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8514,7 +8646,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8613,6 +8745,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-8043099.9214103967</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7136266.2514968216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8634,11 +8769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89994752"/>
-        <c:axId val="89996288"/>
+        <c:axId val="617768064"/>
+        <c:axId val="617769600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89994752"/>
+        <c:axId val="617768064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8681,14 +8816,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89996288"/>
+        <c:crossAx val="617769600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89996288"/>
+        <c:axId val="617769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8739,7 +8874,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89994752"/>
+        <c:crossAx val="617768064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8909,7 +9044,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9008,6 +9143,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3523678.5893581696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6110843.5097172717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9022,8 +9160,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97532544"/>
-        <c:axId val="97531008"/>
+        <c:axId val="618015360"/>
+        <c:axId val="617974784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9048,7 +9186,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9147,6 +9285,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9156,7 +9297,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9255,6 +9396,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9271,11 +9415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97519488"/>
-        <c:axId val="97521024"/>
+        <c:axId val="617933440"/>
+        <c:axId val="617972864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97519488"/>
+        <c:axId val="617933440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9318,14 +9462,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97521024"/>
+        <c:crossAx val="617972864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97521024"/>
+        <c:axId val="617972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9376,12 +9520,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97519488"/>
+        <c:crossAx val="617933440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97531008"/>
+        <c:axId val="617974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9418,12 +9562,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97532544"/>
+        <c:crossAx val="618015360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97532544"/>
+        <c:axId val="618015360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9432,7 +9576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97531008"/>
+        <c:crossAx val="617974784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9582,7 +9726,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9681,6 +9825,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9690,7 +9837,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9789,6 +9936,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8096885.6651208382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9740682.043291945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9831,7 +9981,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9930,6 +10080,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9939,7 +10092,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10038,6 +10191,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8009431.9974614866</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9753660.3265463263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10080,7 +10236,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10179,6 +10335,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10188,7 +10347,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10287,6 +10446,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-87453.667659351602</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12978.283254381269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10308,11 +10470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97650176"/>
-        <c:axId val="97651712"/>
+        <c:axId val="618168704"/>
+        <c:axId val="618171392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97650176"/>
+        <c:axId val="618168704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10355,14 +10517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97651712"/>
+        <c:crossAx val="618171392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97651712"/>
+        <c:axId val="618171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,7 +10575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97650176"/>
+        <c:crossAx val="618168704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10574,7 +10736,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10673,6 +10835,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1451514.0594314304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1643796.3781711068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10687,8 +10852,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97691520"/>
-        <c:axId val="97689984"/>
+        <c:axId val="631299072"/>
+        <c:axId val="631296384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10713,7 +10878,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10812,6 +10977,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10821,7 +10989,7 @@
               <c:f>'model4(3)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10920,6 +11088,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10936,11 +11107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97678464"/>
-        <c:axId val="97680000"/>
+        <c:axId val="631091200"/>
+        <c:axId val="631093120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97678464"/>
+        <c:axId val="631091200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10983,14 +11154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97680000"/>
+        <c:crossAx val="631093120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97680000"/>
+        <c:axId val="631093120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11041,12 +11212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97678464"/>
+        <c:crossAx val="631091200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97689984"/>
+        <c:axId val="631296384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11083,12 +11254,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97691520"/>
+        <c:crossAx val="631299072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97691520"/>
+        <c:axId val="631299072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11097,7 +11268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97689984"/>
+        <c:crossAx val="631296384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11247,7 +11418,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11346,6 +11517,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11355,7 +11529,7 @@
               <c:f>'model4(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11454,6 +11628,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7928829.6807739399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8261678.082748753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11496,7 +11673,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11595,6 +11772,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11604,7 +11784,7 @@
               <c:f>'model4(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11703,6 +11883,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7107936.0086711925</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7529912.3139164355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11745,7 +11928,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11844,6 +12027,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11853,7 +12039,7 @@
               <c:f>'model4(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11952,6 +12138,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-820893.67210274749</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-731765.76883231755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11973,11 +12162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97707136"/>
-        <c:axId val="97708672"/>
+        <c:axId val="425870080"/>
+        <c:axId val="425871616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97707136"/>
+        <c:axId val="425870080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12020,14 +12209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97708672"/>
+        <c:crossAx val="425871616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97708672"/>
+        <c:axId val="425871616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12078,7 +12267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97707136"/>
+        <c:crossAx val="425870080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12930,7 +13119,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14433,6 +14622,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="31">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="29">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="29">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="30">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="30">
+        <v>11465964.484628707</v>
+      </c>
+      <c r="H36" s="30">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="I36" s="30">
+        <v>8128674.1780120125</v>
+      </c>
+      <c r="J36" s="30">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="K36" s="30">
+        <v>-721660.80383278802</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14449,7 +14676,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16329,6 +16556,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>665696.80394962698</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1030490.3644733953</v>
+      </c>
+      <c r="G36" s="18">
+        <v>13526063.434425395</v>
+      </c>
+      <c r="H36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="I36" s="18">
+        <v>9706759.6976827625</v>
+      </c>
+      <c r="J36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-968922.34495963715</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16345,7 +16622,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18225,6 +18502,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>6110843.5097172717</v>
+      </c>
+      <c r="F36" s="18">
+        <v>9459509.6719811466</v>
+      </c>
+      <c r="G36" s="18">
+        <v>122813488.69277331</v>
+      </c>
+      <c r="H36" s="18">
+        <v>79337517.092129588</v>
+      </c>
+      <c r="I36" s="18">
+        <v>86473783.34362641</v>
+      </c>
+      <c r="J36" s="18">
+        <v>79337517.092129588</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-7136266.2514968216</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18241,7 +18568,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20331,6 +20658,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1643796.3781711068</v>
+      </c>
+      <c r="H36" s="18">
+        <v>2544576.3278589649</v>
+      </c>
+      <c r="I36" s="18">
+        <v>15098544.750731565</v>
+      </c>
+      <c r="J36" s="18">
+        <v>9753660.3265463263</v>
+      </c>
+      <c r="K36" s="18">
+        <v>9740682.043291945</v>
+      </c>
+      <c r="L36" s="18">
+        <v>9753660.3265463263</v>
+      </c>
+      <c r="M36" s="18">
+        <v>12978.283254381269</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="P36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20347,7 +20730,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22345,6 +22728,59 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="18">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="18">
+        <v>11656210.513228802</v>
+      </c>
+      <c r="H36" s="18">
+        <v>7529912.3139164355</v>
+      </c>
+      <c r="I36" s="18">
+        <v>8261678.082748753</v>
+      </c>
+      <c r="J36" s="18">
+        <v>7529912.3139164355</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-731765.76883231755</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>42.857146434852993</v>
+      </c>
+      <c r="N36" s="21">
+        <v>23.400602230445845</v>
+      </c>
+      <c r="O36" s="21">
+        <v>22.782254285797638</v>
+      </c>
+      <c r="P36" s="21">
+        <v>24.637298119742262</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22361,7 +22797,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24071,6 +24507,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>5902723.3579780655</v>
+      </c>
+      <c r="H36" s="18">
+        <v>9137342.2682208288</v>
+      </c>
+      <c r="I36" s="18">
+        <v>97971519.273712695</v>
+      </c>
+      <c r="J36" s="18">
+        <v>63289604.160373129</v>
+      </c>
+      <c r="K36" s="18">
+        <v>62630233.545065001</v>
+      </c>
+      <c r="L36" s="18">
+        <v>63289604.160373129</v>
+      </c>
+      <c r="M36" s="18">
+        <v>659370.6153081283</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -24087,7 +24567,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25590,6 +26070,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>3055421.7548586358</v>
+      </c>
+      <c r="F36" s="18">
+        <v>4729754.8359905733</v>
+      </c>
+      <c r="G36" s="18">
+        <v>103835219.53616066</v>
+      </c>
+      <c r="H36" s="18">
+        <v>67077554.692084268</v>
+      </c>
+      <c r="I36" s="18">
+        <v>72216678.025062874</v>
+      </c>
+      <c r="J36" s="18">
+        <v>67077554.692084268</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-5139123.3329786062</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -686,6 +686,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +698,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -797,6 +800,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8128674.1780120125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8413009.3176757134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +845,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -941,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +959,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,6 +1061,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7407013.3741792245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7897735.2676850744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1106,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1196,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1220,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1307,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-721660.80383278802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-515274.04999063909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512134144"/>
-        <c:axId val="524006912"/>
+        <c:axId val="457916800"/>
+        <c:axId val="457918720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512134144"/>
+        <c:axId val="457916800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,14 +1393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524006912"/>
+        <c:crossAx val="457918720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524006912"/>
+        <c:axId val="457918720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512134144"/>
+        <c:crossAx val="457916800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,7 +1612,7 @@
               <c:f>'model4(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1696,6 +1714,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,8 +1731,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425886848"/>
-        <c:axId val="425885056"/>
+        <c:axId val="474825472"/>
+        <c:axId val="474823680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1736,7 +1757,7 @@
               <c:f>'model4(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1838,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1871,7 @@
               <c:f>'model4(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1949,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425881984"/>
-        <c:axId val="425883520"/>
+        <c:axId val="474820608"/>
+        <c:axId val="474822144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425881984"/>
+        <c:axId val="474820608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,14 +2039,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425883520"/>
+        <c:crossAx val="474822144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425883520"/>
+        <c:axId val="474822144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,12 +2097,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425881984"/>
+        <c:crossAx val="474820608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425885056"/>
+        <c:axId val="474823680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,12 +2139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425886848"/>
+        <c:crossAx val="474825472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425886848"/>
+        <c:axId val="474825472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425885056"/>
+        <c:crossAx val="474823680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2276,7 +2303,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2378,6 +2405,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,7 +2417,7 @@
               <c:f>'model4(3)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2488,7 +2518,10 @@
                   <c:v>56727510.187086932</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62630233.545065001</c:v>
+                  <c:v>62553510.082822546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65335450.897677243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,7 +2564,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2633,6 +2666,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,7 +2678,7 @@
               <c:f>'model4(3)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2743,7 +2779,10 @@
                   <c:v>56676205.946130291</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63289604.160373129</c:v>
+                  <c:v>63212880.698130675</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67756165.875313297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2825,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2888,6 +2927,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2939,7 @@
               <c:f>'model4(3)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2999,6 +3041,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>659370.6153081283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2420714.9776360542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,11 +3065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426656128"/>
-        <c:axId val="426657664"/>
+        <c:axId val="476917760"/>
+        <c:axId val="476919296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426656128"/>
+        <c:axId val="476917760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,14 +3112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426657664"/>
+        <c:crossAx val="476919296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426657664"/>
+        <c:axId val="476919296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426656128"/>
+        <c:crossAx val="476917760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3286,7 +3331,7 @@
               <c:f>'model4(3)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3387,7 +3432,10 @@
                   <c:v>10424510.063189363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5902723.3579780655</c:v>
+                  <c:v>5825999.8957356149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2781940.8148546959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,8 +3450,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="426693376"/>
-        <c:axId val="426683392"/>
+        <c:axId val="476950912"/>
+        <c:axId val="476949120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3428,7 +3476,7 @@
               <c:f>'model4(3)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3530,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,7 +3590,7 @@
               <c:f>'model4(3)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3641,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,11 +3711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426680320"/>
-        <c:axId val="426681856"/>
+        <c:axId val="476933504"/>
+        <c:axId val="476947584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426680320"/>
+        <c:axId val="476933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,14 +3758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426681856"/>
+        <c:crossAx val="476947584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426681856"/>
+        <c:axId val="476947584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,12 +3816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426680320"/>
+        <c:crossAx val="476933504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="426683392"/>
+        <c:axId val="476949120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,12 +3858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426693376"/>
+        <c:crossAx val="476950912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="426693376"/>
+        <c:axId val="476950912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426683392"/>
+        <c:crossAx val="476949120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3968,7 +4022,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4070,6 +4124,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,7 +4136,7 @@
               <c:f>'model4(3)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4181,6 +4238,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>72216678.025062874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74629066.557660893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4283,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4325,6 +4385,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4334,7 +4397,7 @@
               <c:f>'model4(3)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4436,6 +4499,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>67077554.692084268</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71358971.680446684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4478,7 +4544,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4580,6 +4646,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4658,7 @@
               <c:f>'model4(3)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4691,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-5139123.3329786062</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3270094.8772142082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,11 +4784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435036544"/>
-        <c:axId val="435038080"/>
+        <c:axId val="476975104"/>
+        <c:axId val="476976640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435036544"/>
+        <c:axId val="476975104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,14 +4831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435038080"/>
+        <c:crossAx val="476976640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435038080"/>
+        <c:axId val="476976640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,7 +4889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435036544"/>
+        <c:crossAx val="476975104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4978,7 +5050,7 @@
               <c:f>'model4(3)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5080,6 +5152,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3055421.7548586358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2412388.5325980242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,8 +5169,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435073792"/>
-        <c:axId val="435059712"/>
+        <c:axId val="477016448"/>
+        <c:axId val="477010560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5120,7 +5195,7 @@
               <c:f>'model4(3)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5222,6 +5297,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5231,7 +5309,7 @@
               <c:f>'model4(3)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5333,6 +5411,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5349,11 +5430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435056640"/>
-        <c:axId val="435058176"/>
+        <c:axId val="476986752"/>
+        <c:axId val="477009024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435056640"/>
+        <c:axId val="476986752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,14 +5477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435058176"/>
+        <c:crossAx val="477009024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435058176"/>
+        <c:axId val="477009024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5454,12 +5535,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435056640"/>
+        <c:crossAx val="476986752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435059712"/>
+        <c:axId val="477010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,12 +5577,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435073792"/>
+        <c:crossAx val="477016448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435073792"/>
+        <c:axId val="477016448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435059712"/>
+        <c:crossAx val="477010560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5642,7 +5723,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5744,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,8 +5842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617499648"/>
-        <c:axId val="567380992"/>
+        <c:axId val="475282048"/>
+        <c:axId val="475280512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5784,7 +5868,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5886,6 +5970,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5895,7 +5982,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5997,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,11 +6103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564301184"/>
-        <c:axId val="567379072"/>
+        <c:axId val="474862720"/>
+        <c:axId val="474864640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564301184"/>
+        <c:axId val="474862720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6060,14 +6150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567379072"/>
+        <c:crossAx val="474864640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567379072"/>
+        <c:axId val="474864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6118,12 +6208,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564301184"/>
+        <c:crossAx val="474862720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567380992"/>
+        <c:axId val="475280512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6160,12 +6250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617499648"/>
+        <c:crossAx val="475282048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617499648"/>
+        <c:axId val="475282048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6174,7 +6264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567380992"/>
+        <c:crossAx val="475280512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6324,7 +6414,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6426,6 +6516,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,7 +6528,7 @@
               <c:f>'model4(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6537,6 +6630,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>9706759.6976827625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9976878.0803632792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6579,7 +6675,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6681,6 +6777,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6690,7 +6789,7 @@
               <c:f>'model4(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6792,6 +6891,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8737837.3527231254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9251424.1613033079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6834,7 +6936,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6936,6 +7038,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6945,7 +7050,7 @@
               <c:f>'model4(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7047,6 +7152,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-968922.34495963715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-725453.91905997135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7068,11 +7176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617584512"/>
-        <c:axId val="617586048"/>
+        <c:axId val="532837504"/>
+        <c:axId val="532839040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617584512"/>
+        <c:axId val="532837504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7115,14 +7223,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617586048"/>
+        <c:crossAx val="532839040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617586048"/>
+        <c:axId val="532839040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,7 +7281,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617584512"/>
+        <c:crossAx val="532837504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7343,7 +7451,7 @@
               <c:f>'model4(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7445,6 +7553,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>665696.80394962698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>270118.38268051669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7459,8 +7570,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617629184"/>
-        <c:axId val="617626624"/>
+        <c:axId val="555020672"/>
+        <c:axId val="549046528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7485,7 +7596,7 @@
               <c:f>'model4(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7587,6 +7698,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7596,7 +7710,7 @@
               <c:f>'model4(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7698,6 +7812,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,11 +7831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617617280"/>
-        <c:axId val="617624320"/>
+        <c:axId val="537790720"/>
+        <c:axId val="549044224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617617280"/>
+        <c:axId val="537790720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7761,14 +7878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617624320"/>
+        <c:crossAx val="549044224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617624320"/>
+        <c:axId val="549044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,12 +7936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617617280"/>
+        <c:crossAx val="537790720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617626624"/>
+        <c:axId val="549046528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7861,12 +7978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617629184"/>
+        <c:crossAx val="555020672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617629184"/>
+        <c:axId val="555020672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7875,7 +7992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617626624"/>
+        <c:crossAx val="549046528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8025,7 +8142,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8127,6 +8244,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8136,7 +8256,7 @@
               <c:f>'model4(3)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8238,6 +8358,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>86473783.34362641</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88765552.449594527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8280,7 +8403,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8382,6 +8505,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8391,7 +8517,7 @@
               <c:f>'model4(3)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8493,6 +8619,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>79337517.092129588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83839922.494181752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8535,7 +8664,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8637,6 +8766,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8646,7 +8778,7 @@
               <c:f>'model4(3)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8748,6 +8880,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-7136266.2514968216</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4925629.9554127753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8769,11 +8904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617768064"/>
-        <c:axId val="617769600"/>
+        <c:axId val="413877376"/>
+        <c:axId val="413878912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617768064"/>
+        <c:axId val="413877376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8816,14 +8951,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617769600"/>
+        <c:crossAx val="413878912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617769600"/>
+        <c:axId val="413878912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8874,7 +9009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617768064"/>
+        <c:crossAx val="413877376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9044,7 +9179,7 @@
               <c:f>'model4(3)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9146,6 +9281,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6110843.5097172717</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2291769.1059681228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9160,8 +9298,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618015360"/>
-        <c:axId val="617974784"/>
+        <c:axId val="413910912"/>
+        <c:axId val="413909376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9186,7 +9324,7 @@
               <c:f>'model4(3)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9288,6 +9426,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9297,7 +9438,7 @@
               <c:f>'model4(3)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9399,6 +9540,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9415,11 +9559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617933440"/>
-        <c:axId val="617972864"/>
+        <c:axId val="413901952"/>
+        <c:axId val="413903488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617933440"/>
+        <c:axId val="413901952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9462,14 +9606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617972864"/>
+        <c:crossAx val="413903488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617972864"/>
+        <c:axId val="413903488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9520,12 +9664,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617933440"/>
+        <c:crossAx val="413901952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617974784"/>
+        <c:axId val="413909376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9562,12 +9706,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618015360"/>
+        <c:crossAx val="413910912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618015360"/>
+        <c:axId val="413910912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9576,7 +9720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617974784"/>
+        <c:crossAx val="413909376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9726,7 +9870,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9828,6 +9972,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9837,7 +9984,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9938,7 +10085,10 @@
                   <c:v>8096885.6651208382</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9740682.043291945</c:v>
+                  <c:v>9719316.0158320218</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10087306.921088118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9981,7 +10131,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10083,6 +10233,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10092,7 +10245,7 @@
               <c:f>'model4(3)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10193,7 +10346,10 @@
                   <c:v>8009431.9974614866</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9753660.3265463263</c:v>
+                  <c:v>9732294.2990864031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10371462.874255572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10236,7 +10392,7 @@
               <c:f>'model4(3)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10338,6 +10494,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10347,7 +10506,7 @@
               <c:f>'model4(3)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10449,6 +10608,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>12978.283254381269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284155.95316745341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10470,11 +10632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618168704"/>
-        <c:axId val="618171392"/>
+        <c:axId val="457942144"/>
+        <c:axId val="457943680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618168704"/>
+        <c:axId val="457942144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10517,14 +10679,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618171392"/>
+        <c:crossAx val="457943680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618171392"/>
+        <c:axId val="457943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,7 +10737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618168704"/>
+        <c:crossAx val="457942144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10736,7 +10898,7 @@
               <c:f>'model4(3)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10837,7 +10999,10 @@
             